--- a/exp/exp2.xlsx
+++ b/exp/exp2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27870" windowHeight="12840" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27870" windowHeight="12840" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="AOLSampleUSPS" sheetId="2" r:id="rId1"/>
@@ -17,6 +17,7 @@
     <sheet name="AOLSampleRemoved" sheetId="1" r:id="rId3"/>
     <sheet name="Synthetic" sheetId="4" r:id="rId4"/>
     <sheet name="MH vs Min" sheetId="5" r:id="rId5"/>
+    <sheet name="Sample" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="17">
   <si>
     <t>JoinHybridOpt</t>
   </si>
@@ -78,6 +79,22 @@
   </si>
   <si>
     <t>JoinMin(2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPROT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Threshold</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sample</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Synthetic</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -6478,12 +6495,6 @@
                 <c:pt idx="2">
                   <c:v>42.393000000000001</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>121.364</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>267.649</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -7782,12 +7793,6 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>42.393000000000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>121.364</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>267.649</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9150,6 +9155,3891 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="585891839"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ko-KR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR"/>
+              <a:t>USPS</a:t>
+            </a:r>
+            <a:endParaRPr lang="ko-KR" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sample!$D$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.01</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sample!$C$7:$C$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15848</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25118</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39810</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>63095</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>158489</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>251188</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>466158</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sample!$D$7:$D$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>3211</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3471</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3853</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5560</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6860</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7013</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12587</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12413</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>23107</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-12D7-4AC0-B4F1-D2961504836E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sample!$E$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.001</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sample!$C$7:$C$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15848</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25118</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39810</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>63095</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>158489</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>251188</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>466158</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sample!$E$7:$E$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>3064</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4138</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3707</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5483</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7146</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6971</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12527</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11981</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>30176</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-12D7-4AC0-B4F1-D2961504836E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sample!$F$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.0001</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sample!$C$7:$C$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15848</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25118</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39810</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>63095</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>158489</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>251188</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>466158</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sample!$F$7:$F$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>3175</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3378</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4853</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5456</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7515</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6760</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12536</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>18186</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>28764</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-12D7-4AC0-B4F1-D2961504836E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sample!$G$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sample!$C$7:$C$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15848</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25118</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39810</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>63095</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>158489</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>251188</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>466158</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sample!$G$7:$G$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>3019</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3427</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3785</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5522</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7260</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6717</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12248</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12415</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>28742</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-12D7-4AC0-B4F1-D2961504836E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sample!$H$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sample!$C$7:$C$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15848</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25118</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39810</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>63095</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>158489</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>251188</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>466158</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sample!$H$7:$H$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>3186</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3820</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3881</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5477</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7116</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6879</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12305</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12119</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>30130</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-12D7-4AC0-B4F1-D2961504836E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sample!$I$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sample!$C$7:$C$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15848</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25118</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39810</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>63095</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>158489</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>251188</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>466158</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sample!$I$7:$I$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>4128</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4227</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4865</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6168</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7691</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7705</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12794</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13918</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>23536</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-12D7-4AC0-B4F1-D2961504836E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="571235279"/>
+        <c:axId val="571243183"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="571235279"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="571243183"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="571243183"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="571235279"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ko-KR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sample!$D$34</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sample!$C$35:$C$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15848</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25118</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39810</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>63095</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>158489</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>251188</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>466158</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sample!$D$35:$D$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>3192</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3818</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4405</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5096</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6833</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8159</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11797</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17041</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>28646</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7ED3-45E3-958C-E48240F8F978}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sample!$E$34</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sample!$C$35:$C$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15848</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25118</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39810</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>63095</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>158489</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>251188</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>466158</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sample!$E$35:$E$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>3149</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3580</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4612</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5157</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7039</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8537</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12475</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17231</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>28163</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7ED3-45E3-958C-E48240F8F978}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sample!$F$34</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sample!$C$35:$C$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15848</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25118</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39810</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>63095</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>158489</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>251188</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>466158</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sample!$F$35:$F$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>3223</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3671</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4274</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5160</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6802</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8556</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11728</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16461</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>28361</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-7ED3-45E3-958C-E48240F8F978}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sample!$G$34</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>150</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sample!$C$35:$C$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15848</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25118</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39810</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>63095</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>158489</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>251188</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>466158</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sample!$G$35:$G$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>3004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3783</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4724</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5148</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6470</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8691</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12056</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17150</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>28596</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-7ED3-45E3-958C-E48240F8F978}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sample!$H$34</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sample!$C$35:$C$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15848</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25118</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39810</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>63095</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>158489</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>251188</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>466158</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sample!$H$35:$H$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>3119</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3596</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4463</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5271</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6935</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8621</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11932</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16424</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>27992</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-7ED3-45E3-958C-E48240F8F978}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sample!$I$34</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sample!$C$35:$C$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15848</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25118</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39810</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>63095</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>158489</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>251188</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>466158</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sample!$I$35:$I$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>3117</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3732</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4662</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5184</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6738</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8626</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11810</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17555</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>29511</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-7ED3-45E3-958C-E48240F8F978}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="571234863"/>
+        <c:axId val="571248175"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="571234863"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:min val="10000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="571248175"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="571248175"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:min val="1000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="571234863"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ko-KR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart23.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sample!$M$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.01</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sample!$L$7:$L$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15848</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25118</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39810</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>63095</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>158489</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>251188</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>398107</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sample!$M$7:$M$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>3093</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3472</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4836</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6370</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9720</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16308</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>28671</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>56082</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>117020</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E951-4A67-84D7-320F53F86D50}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sample!$N$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.001</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sample!$L$7:$L$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15848</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25118</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39810</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>63095</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>158489</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>251188</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>398107</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sample!$N$7:$N$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>3049</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3632</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4785</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6695</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9862</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17009</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>28605</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>56312</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>118694</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E951-4A67-84D7-320F53F86D50}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sample!$O$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.0001</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sample!$L$7:$L$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15848</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25118</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39810</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>63095</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>158489</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>251188</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>398107</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sample!$O$7:$O$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>6290</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21530</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>41769</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6802</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10172</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15780</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>28486</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>55282</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>116545</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-E951-4A67-84D7-320F53F86D50}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sample!$P$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sample!$L$7:$L$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15848</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25118</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39810</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>63095</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>158489</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>251188</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>398107</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sample!$P$7:$P$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2936</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3744</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4577</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6654</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9335</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16399</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>28335</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>55636</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>120540</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-E951-4A67-84D7-320F53F86D50}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sample!$Q$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sample!$L$7:$L$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15848</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25118</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39810</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>63095</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>158489</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>251188</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>398107</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sample!$Q$7:$Q$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>3765</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4047</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4981</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7098</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9598</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16426</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>28390</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>55231</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>117455</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-E951-4A67-84D7-320F53F86D50}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sample!$R$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sample!$L$7:$L$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15848</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25118</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39810</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>63095</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>158489</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>251188</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>398107</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sample!$R$7:$R$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>4508</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5367</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6618</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8189</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11113</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17858</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>29331</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>56795</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>123366</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-E951-4A67-84D7-320F53F86D50}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="574895983"/>
+        <c:axId val="574885167"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="574895983"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:min val="10000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="574885167"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="574885167"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:min val="1000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="574895983"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ko-KR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart24.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sample!$M$34</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sample!$L$35:$L$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15848</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25118</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39810</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>63095</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>158489</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>251188</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>398107</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sample!$M$35:$M$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2768</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3463</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4814</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6252</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9363</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15107</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>27310</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>55066</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>116971</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0577-4B0A-BF3E-5ED67ED9CA81}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sample!$N$34</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sample!$L$35:$L$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15848</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25118</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39810</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>63095</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>158489</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>251188</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>398107</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sample!$N$35:$N$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2615</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3630</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4903</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6731</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9676</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15682</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>28352</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>54892</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>122366</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0577-4B0A-BF3E-5ED67ED9CA81}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sample!$O$34</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sample!$L$35:$L$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15848</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25118</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39810</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>63095</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>158489</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>251188</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>398107</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sample!$O$35:$O$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2883</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3607</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4742</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6982</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10207</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16111</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>28566</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>54230</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>119574</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-0577-4B0A-BF3E-5ED67ED9CA81}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sample!$P$34</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>150</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sample!$L$35:$L$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15848</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25118</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39810</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>63095</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>158489</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>251188</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>398107</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sample!$P$35:$P$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2954</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3836</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5126</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6967</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10272</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17116</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>29533</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>55316</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-0577-4B0A-BF3E-5ED67ED9CA81}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sample!$Q$34</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sample!$L$35:$L$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15848</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25118</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39810</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>63095</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>158489</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>251188</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>398107</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sample!$Q$35:$Q$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>3211</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4661</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5783</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9019</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18906</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25265</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>46464</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>202600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-0577-4B0A-BF3E-5ED67ED9CA81}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sample!$R$34</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sample!$L$35:$L$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15848</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25118</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39810</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>63095</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>158489</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>251188</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>398107</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sample!$R$35:$R$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>3421</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5081</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6658</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10131</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>21601</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45991</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>190568</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>116486</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-0577-4B0A-BF3E-5ED67ED9CA81}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="503939775"/>
+        <c:axId val="571237775"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="503939775"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="571237775"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="571237775"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="503939775"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -14566,6 +18456,166 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors21.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors22.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors23.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors24.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -21039,6 +25089,2070 @@
 </file>
 
 <file path=xl/charts/style20.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style21.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style22.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style23.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style24.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -25814,6 +31928,131 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>109537</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>566737</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="차트 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>671512</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>442912</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="차트 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>671512</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>442912</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="차트 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>71437</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>528637</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="차트 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
@@ -26079,8 +32318,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C7:P30"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="Y23" sqref="Y23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8:E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -26700,8 +32939,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D7:P38"/>
   <sheetViews>
-    <sheetView topLeftCell="K10" workbookViewId="0">
-      <selection activeCell="AA33" sqref="AA33"/>
+    <sheetView topLeftCell="J4" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18:E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -28044,8 +34283,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D7:P28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L19" workbookViewId="0">
-      <selection activeCell="J32" sqref="J32"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18:K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -28500,9 +34739,6 @@
       <c r="H21">
         <v>6037</v>
       </c>
-      <c r="I21">
-        <v>121364</v>
-      </c>
       <c r="K21">
         <v>39810</v>
       </c>
@@ -28521,10 +34757,6 @@
       <c r="O21">
         <f t="shared" si="5"/>
         <v>6.0369999999999999</v>
-      </c>
-      <c r="P21">
-        <f t="shared" si="5"/>
-        <v>121.364</v>
       </c>
     </row>
     <row r="22" spans="4:16" x14ac:dyDescent="0.3">
@@ -28543,9 +34775,6 @@
       <c r="H22">
         <v>9425</v>
       </c>
-      <c r="I22">
-        <v>267649</v>
-      </c>
       <c r="K22">
         <v>63095</v>
       </c>
@@ -28564,10 +34793,6 @@
       <c r="O22">
         <f t="shared" si="5"/>
         <v>9.4250000000000007</v>
-      </c>
-      <c r="P22">
-        <f t="shared" si="5"/>
-        <v>267.649</v>
       </c>
     </row>
     <row r="23" spans="4:16" x14ac:dyDescent="0.3">
@@ -29046,4 +35271,955 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C5:R45"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="T12" sqref="T12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="5" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+      <c r="L5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="D6">
+        <v>0.01</v>
+      </c>
+      <c r="E6">
+        <v>1E-3</v>
+      </c>
+      <c r="F6">
+        <v>1E-4</v>
+      </c>
+      <c r="G6">
+        <v>100</v>
+      </c>
+      <c r="H6">
+        <v>1000</v>
+      </c>
+      <c r="I6">
+        <v>10000</v>
+      </c>
+      <c r="M6">
+        <v>0.01</v>
+      </c>
+      <c r="N6">
+        <v>1E-3</v>
+      </c>
+      <c r="O6">
+        <v>1E-4</v>
+      </c>
+      <c r="P6">
+        <v>100</v>
+      </c>
+      <c r="Q6">
+        <v>1000</v>
+      </c>
+      <c r="R6">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="7" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C7">
+        <v>10000</v>
+      </c>
+      <c r="D7">
+        <v>3211</v>
+      </c>
+      <c r="E7">
+        <v>3064</v>
+      </c>
+      <c r="F7">
+        <v>3175</v>
+      </c>
+      <c r="G7">
+        <v>3019</v>
+      </c>
+      <c r="H7">
+        <v>3186</v>
+      </c>
+      <c r="I7">
+        <v>4128</v>
+      </c>
+      <c r="L7">
+        <v>10000</v>
+      </c>
+      <c r="M7">
+        <v>3093</v>
+      </c>
+      <c r="N7">
+        <v>3049</v>
+      </c>
+      <c r="O7">
+        <v>6290</v>
+      </c>
+      <c r="P7">
+        <v>2936</v>
+      </c>
+      <c r="Q7">
+        <v>3765</v>
+      </c>
+      <c r="R7">
+        <v>4508</v>
+      </c>
+    </row>
+    <row r="8" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C8">
+        <v>15848</v>
+      </c>
+      <c r="D8">
+        <v>3471</v>
+      </c>
+      <c r="E8">
+        <v>4138</v>
+      </c>
+      <c r="F8">
+        <v>3378</v>
+      </c>
+      <c r="G8">
+        <v>3427</v>
+      </c>
+      <c r="H8">
+        <v>3820</v>
+      </c>
+      <c r="I8">
+        <v>4227</v>
+      </c>
+      <c r="L8">
+        <v>15848</v>
+      </c>
+      <c r="M8">
+        <v>3472</v>
+      </c>
+      <c r="N8">
+        <v>3632</v>
+      </c>
+      <c r="O8">
+        <v>21530</v>
+      </c>
+      <c r="P8">
+        <v>3744</v>
+      </c>
+      <c r="Q8">
+        <v>4047</v>
+      </c>
+      <c r="R8">
+        <v>5367</v>
+      </c>
+    </row>
+    <row r="9" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C9">
+        <v>25118</v>
+      </c>
+      <c r="D9">
+        <v>3853</v>
+      </c>
+      <c r="E9">
+        <v>3707</v>
+      </c>
+      <c r="F9">
+        <v>4853</v>
+      </c>
+      <c r="G9">
+        <v>3785</v>
+      </c>
+      <c r="H9">
+        <v>3881</v>
+      </c>
+      <c r="I9">
+        <v>4865</v>
+      </c>
+      <c r="L9">
+        <v>25118</v>
+      </c>
+      <c r="M9">
+        <v>4836</v>
+      </c>
+      <c r="N9">
+        <v>4785</v>
+      </c>
+      <c r="O9">
+        <v>41769</v>
+      </c>
+      <c r="P9">
+        <v>4577</v>
+      </c>
+      <c r="Q9">
+        <v>4981</v>
+      </c>
+      <c r="R9">
+        <v>6618</v>
+      </c>
+    </row>
+    <row r="10" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C10">
+        <v>39810</v>
+      </c>
+      <c r="D10">
+        <v>5560</v>
+      </c>
+      <c r="E10">
+        <v>5483</v>
+      </c>
+      <c r="F10">
+        <v>5456</v>
+      </c>
+      <c r="G10">
+        <v>5522</v>
+      </c>
+      <c r="H10">
+        <v>5477</v>
+      </c>
+      <c r="I10">
+        <v>6168</v>
+      </c>
+      <c r="L10">
+        <v>39810</v>
+      </c>
+      <c r="M10">
+        <v>6370</v>
+      </c>
+      <c r="N10">
+        <v>6695</v>
+      </c>
+      <c r="O10">
+        <v>6802</v>
+      </c>
+      <c r="P10">
+        <v>6654</v>
+      </c>
+      <c r="Q10">
+        <v>7098</v>
+      </c>
+      <c r="R10">
+        <v>8189</v>
+      </c>
+    </row>
+    <row r="11" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C11">
+        <v>63095</v>
+      </c>
+      <c r="D11">
+        <v>6860</v>
+      </c>
+      <c r="E11">
+        <v>7146</v>
+      </c>
+      <c r="F11">
+        <v>7515</v>
+      </c>
+      <c r="G11">
+        <v>7260</v>
+      </c>
+      <c r="H11">
+        <v>7116</v>
+      </c>
+      <c r="I11">
+        <v>7691</v>
+      </c>
+      <c r="L11">
+        <v>63095</v>
+      </c>
+      <c r="M11">
+        <v>9720</v>
+      </c>
+      <c r="N11">
+        <v>9862</v>
+      </c>
+      <c r="O11">
+        <v>10172</v>
+      </c>
+      <c r="P11">
+        <v>9335</v>
+      </c>
+      <c r="Q11">
+        <v>9598</v>
+      </c>
+      <c r="R11">
+        <v>11113</v>
+      </c>
+    </row>
+    <row r="12" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C12">
+        <v>100000</v>
+      </c>
+      <c r="D12">
+        <v>7013</v>
+      </c>
+      <c r="E12">
+        <v>6971</v>
+      </c>
+      <c r="F12">
+        <v>6760</v>
+      </c>
+      <c r="G12">
+        <v>6717</v>
+      </c>
+      <c r="H12">
+        <v>6879</v>
+      </c>
+      <c r="I12">
+        <v>7705</v>
+      </c>
+      <c r="L12">
+        <v>100000</v>
+      </c>
+      <c r="M12">
+        <v>16308</v>
+      </c>
+      <c r="N12">
+        <v>17009</v>
+      </c>
+      <c r="O12">
+        <v>15780</v>
+      </c>
+      <c r="P12">
+        <v>16399</v>
+      </c>
+      <c r="Q12">
+        <v>16426</v>
+      </c>
+      <c r="R12">
+        <v>17858</v>
+      </c>
+    </row>
+    <row r="13" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C13">
+        <v>158489</v>
+      </c>
+      <c r="D13">
+        <v>12587</v>
+      </c>
+      <c r="E13">
+        <v>12527</v>
+      </c>
+      <c r="F13">
+        <v>12536</v>
+      </c>
+      <c r="G13">
+        <v>12248</v>
+      </c>
+      <c r="H13">
+        <v>12305</v>
+      </c>
+      <c r="I13">
+        <v>12794</v>
+      </c>
+      <c r="L13">
+        <v>158489</v>
+      </c>
+      <c r="M13">
+        <v>28671</v>
+      </c>
+      <c r="N13">
+        <v>28605</v>
+      </c>
+      <c r="O13">
+        <v>28486</v>
+      </c>
+      <c r="P13">
+        <v>28335</v>
+      </c>
+      <c r="Q13">
+        <v>28390</v>
+      </c>
+      <c r="R13">
+        <v>29331</v>
+      </c>
+    </row>
+    <row r="14" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C14">
+        <v>251188</v>
+      </c>
+      <c r="D14">
+        <v>12413</v>
+      </c>
+      <c r="E14">
+        <v>11981</v>
+      </c>
+      <c r="F14">
+        <v>18186</v>
+      </c>
+      <c r="G14">
+        <v>12415</v>
+      </c>
+      <c r="H14">
+        <v>12119</v>
+      </c>
+      <c r="I14">
+        <v>13918</v>
+      </c>
+      <c r="L14">
+        <v>251188</v>
+      </c>
+      <c r="M14">
+        <v>56082</v>
+      </c>
+      <c r="N14">
+        <v>56312</v>
+      </c>
+      <c r="O14">
+        <v>55282</v>
+      </c>
+      <c r="P14">
+        <v>55636</v>
+      </c>
+      <c r="Q14">
+        <v>55231</v>
+      </c>
+      <c r="R14">
+        <v>56795</v>
+      </c>
+    </row>
+    <row r="15" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C15">
+        <v>466158</v>
+      </c>
+      <c r="D15">
+        <v>23107</v>
+      </c>
+      <c r="E15">
+        <v>30176</v>
+      </c>
+      <c r="F15">
+        <v>28764</v>
+      </c>
+      <c r="G15">
+        <v>28742</v>
+      </c>
+      <c r="H15">
+        <v>30130</v>
+      </c>
+      <c r="I15">
+        <v>23536</v>
+      </c>
+      <c r="J15" s="1"/>
+      <c r="L15">
+        <v>398107</v>
+      </c>
+      <c r="M15">
+        <v>117020</v>
+      </c>
+      <c r="N15">
+        <v>118694</v>
+      </c>
+      <c r="O15">
+        <v>116545</v>
+      </c>
+      <c r="P15">
+        <v>120540</v>
+      </c>
+      <c r="Q15">
+        <v>117455</v>
+      </c>
+      <c r="R15">
+        <v>123366</v>
+      </c>
+    </row>
+    <row r="16" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="J16" s="1"/>
+      <c r="L16">
+        <v>630957</v>
+      </c>
+    </row>
+    <row r="17" spans="10:12" x14ac:dyDescent="0.3">
+      <c r="J17" s="1"/>
+      <c r="L17">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="18" spans="10:12" x14ac:dyDescent="0.3">
+      <c r="J18" s="1"/>
+    </row>
+    <row r="19" spans="10:12" x14ac:dyDescent="0.3">
+      <c r="J19" s="1"/>
+    </row>
+    <row r="20" spans="10:12" x14ac:dyDescent="0.3">
+      <c r="J20" s="1"/>
+    </row>
+    <row r="21" spans="10:12" x14ac:dyDescent="0.3">
+      <c r="J21" s="1"/>
+    </row>
+    <row r="22" spans="10:12" x14ac:dyDescent="0.3">
+      <c r="J22" s="1"/>
+    </row>
+    <row r="23" spans="10:12" x14ac:dyDescent="0.3">
+      <c r="J23" s="1"/>
+    </row>
+    <row r="24" spans="10:12" x14ac:dyDescent="0.3">
+      <c r="J24" s="1"/>
+    </row>
+    <row r="25" spans="10:12" x14ac:dyDescent="0.3">
+      <c r="J25" s="1"/>
+    </row>
+    <row r="26" spans="10:12" x14ac:dyDescent="0.3">
+      <c r="J26" s="1"/>
+    </row>
+    <row r="27" spans="10:12" x14ac:dyDescent="0.3">
+      <c r="J27" s="1"/>
+    </row>
+    <row r="28" spans="10:12" x14ac:dyDescent="0.3">
+      <c r="J28" s="1"/>
+    </row>
+    <row r="33" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C33" t="s">
+        <v>13</v>
+      </c>
+      <c r="D33" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="D34">
+        <v>10</v>
+      </c>
+      <c r="E34">
+        <v>50</v>
+      </c>
+      <c r="F34">
+        <v>100</v>
+      </c>
+      <c r="G34">
+        <v>150</v>
+      </c>
+      <c r="H34">
+        <v>500</v>
+      </c>
+      <c r="I34">
+        <v>1000</v>
+      </c>
+      <c r="M34">
+        <v>10</v>
+      </c>
+      <c r="N34">
+        <v>50</v>
+      </c>
+      <c r="O34">
+        <v>100</v>
+      </c>
+      <c r="P34">
+        <v>150</v>
+      </c>
+      <c r="Q34">
+        <v>500</v>
+      </c>
+      <c r="R34">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="35" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C35">
+        <v>10000</v>
+      </c>
+      <c r="D35">
+        <v>3192</v>
+      </c>
+      <c r="E35">
+        <v>3149</v>
+      </c>
+      <c r="F35">
+        <v>3223</v>
+      </c>
+      <c r="G35">
+        <v>3004</v>
+      </c>
+      <c r="H35">
+        <v>3119</v>
+      </c>
+      <c r="I35">
+        <v>3117</v>
+      </c>
+      <c r="L35">
+        <v>10000</v>
+      </c>
+      <c r="M35">
+        <v>2768</v>
+      </c>
+      <c r="N35">
+        <v>2615</v>
+      </c>
+      <c r="O35">
+        <v>2883</v>
+      </c>
+      <c r="P35">
+        <v>2954</v>
+      </c>
+      <c r="Q35">
+        <v>3211</v>
+      </c>
+      <c r="R35">
+        <v>3421</v>
+      </c>
+    </row>
+    <row r="36" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C36">
+        <v>15848</v>
+      </c>
+      <c r="D36">
+        <v>3818</v>
+      </c>
+      <c r="E36">
+        <v>3580</v>
+      </c>
+      <c r="F36">
+        <v>3671</v>
+      </c>
+      <c r="G36">
+        <v>3783</v>
+      </c>
+      <c r="H36">
+        <v>3596</v>
+      </c>
+      <c r="I36">
+        <v>3732</v>
+      </c>
+      <c r="L36">
+        <v>15848</v>
+      </c>
+      <c r="M36">
+        <v>3463</v>
+      </c>
+      <c r="N36">
+        <v>3630</v>
+      </c>
+      <c r="O36">
+        <v>3607</v>
+      </c>
+      <c r="P36">
+        <v>3836</v>
+      </c>
+      <c r="Q36">
+        <v>4661</v>
+      </c>
+      <c r="R36">
+        <v>5081</v>
+      </c>
+    </row>
+    <row r="37" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C37">
+        <v>25118</v>
+      </c>
+      <c r="D37">
+        <v>4405</v>
+      </c>
+      <c r="E37">
+        <v>4612</v>
+      </c>
+      <c r="F37">
+        <v>4274</v>
+      </c>
+      <c r="G37">
+        <v>4724</v>
+      </c>
+      <c r="H37">
+        <v>4463</v>
+      </c>
+      <c r="I37">
+        <v>4662</v>
+      </c>
+      <c r="L37">
+        <v>25118</v>
+      </c>
+      <c r="M37">
+        <v>4814</v>
+      </c>
+      <c r="N37">
+        <v>4903</v>
+      </c>
+      <c r="O37">
+        <v>4742</v>
+      </c>
+      <c r="P37">
+        <v>5126</v>
+      </c>
+      <c r="Q37">
+        <v>5783</v>
+      </c>
+      <c r="R37">
+        <v>6658</v>
+      </c>
+    </row>
+    <row r="38" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C38">
+        <v>39810</v>
+      </c>
+      <c r="D38">
+        <v>5096</v>
+      </c>
+      <c r="E38">
+        <v>5157</v>
+      </c>
+      <c r="F38">
+        <v>5160</v>
+      </c>
+      <c r="G38">
+        <v>5148</v>
+      </c>
+      <c r="H38">
+        <v>5271</v>
+      </c>
+      <c r="I38">
+        <v>5184</v>
+      </c>
+      <c r="L38">
+        <v>39810</v>
+      </c>
+      <c r="M38">
+        <v>6252</v>
+      </c>
+      <c r="N38">
+        <v>6731</v>
+      </c>
+      <c r="O38">
+        <v>6982</v>
+      </c>
+      <c r="P38">
+        <v>6967</v>
+      </c>
+      <c r="Q38">
+        <v>9019</v>
+      </c>
+      <c r="R38">
+        <v>10131</v>
+      </c>
+    </row>
+    <row r="39" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C39">
+        <v>63095</v>
+      </c>
+      <c r="D39">
+        <v>6833</v>
+      </c>
+      <c r="E39">
+        <v>7039</v>
+      </c>
+      <c r="F39">
+        <v>6802</v>
+      </c>
+      <c r="G39">
+        <v>6470</v>
+      </c>
+      <c r="H39">
+        <v>6935</v>
+      </c>
+      <c r="I39">
+        <v>6738</v>
+      </c>
+      <c r="L39">
+        <v>63095</v>
+      </c>
+      <c r="M39">
+        <v>9363</v>
+      </c>
+      <c r="N39">
+        <v>9676</v>
+      </c>
+      <c r="O39">
+        <v>10207</v>
+      </c>
+      <c r="P39">
+        <v>10272</v>
+      </c>
+      <c r="Q39">
+        <v>18906</v>
+      </c>
+      <c r="R39">
+        <v>21601</v>
+      </c>
+    </row>
+    <row r="40" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C40">
+        <v>100000</v>
+      </c>
+      <c r="D40">
+        <v>8159</v>
+      </c>
+      <c r="E40">
+        <v>8537</v>
+      </c>
+      <c r="F40">
+        <v>8556</v>
+      </c>
+      <c r="G40">
+        <v>8691</v>
+      </c>
+      <c r="H40">
+        <v>8621</v>
+      </c>
+      <c r="I40">
+        <v>8626</v>
+      </c>
+      <c r="L40">
+        <v>100000</v>
+      </c>
+      <c r="M40">
+        <v>15107</v>
+      </c>
+      <c r="N40">
+        <v>15682</v>
+      </c>
+      <c r="O40">
+        <v>16111</v>
+      </c>
+      <c r="P40">
+        <v>17116</v>
+      </c>
+      <c r="Q40">
+        <v>25265</v>
+      </c>
+      <c r="R40">
+        <v>45991</v>
+      </c>
+    </row>
+    <row r="41" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C41">
+        <v>158489</v>
+      </c>
+      <c r="D41">
+        <v>11797</v>
+      </c>
+      <c r="E41">
+        <v>12475</v>
+      </c>
+      <c r="F41">
+        <v>11728</v>
+      </c>
+      <c r="G41">
+        <v>12056</v>
+      </c>
+      <c r="H41">
+        <v>11932</v>
+      </c>
+      <c r="I41">
+        <v>11810</v>
+      </c>
+      <c r="L41">
+        <v>158489</v>
+      </c>
+      <c r="M41">
+        <v>27310</v>
+      </c>
+      <c r="N41">
+        <v>28352</v>
+      </c>
+      <c r="O41">
+        <v>28566</v>
+      </c>
+      <c r="P41">
+        <v>29533</v>
+      </c>
+      <c r="Q41">
+        <v>46464</v>
+      </c>
+      <c r="R41">
+        <v>190568</v>
+      </c>
+    </row>
+    <row r="42" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C42">
+        <v>251188</v>
+      </c>
+      <c r="D42">
+        <v>17041</v>
+      </c>
+      <c r="E42">
+        <v>17231</v>
+      </c>
+      <c r="F42">
+        <v>16461</v>
+      </c>
+      <c r="G42">
+        <v>17150</v>
+      </c>
+      <c r="H42">
+        <v>16424</v>
+      </c>
+      <c r="I42">
+        <v>17555</v>
+      </c>
+      <c r="L42">
+        <v>251188</v>
+      </c>
+      <c r="M42">
+        <v>55066</v>
+      </c>
+      <c r="N42">
+        <v>54892</v>
+      </c>
+      <c r="O42">
+        <v>54230</v>
+      </c>
+      <c r="P42">
+        <v>55316</v>
+      </c>
+      <c r="Q42">
+        <v>202600</v>
+      </c>
+      <c r="R42">
+        <v>116486</v>
+      </c>
+    </row>
+    <row r="43" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C43">
+        <v>466158</v>
+      </c>
+      <c r="D43">
+        <v>28646</v>
+      </c>
+      <c r="E43">
+        <v>28163</v>
+      </c>
+      <c r="F43">
+        <v>28361</v>
+      </c>
+      <c r="G43">
+        <v>28596</v>
+      </c>
+      <c r="H43">
+        <v>27992</v>
+      </c>
+      <c r="I43">
+        <v>29511</v>
+      </c>
+      <c r="L43">
+        <v>398107</v>
+      </c>
+      <c r="M43">
+        <v>116971</v>
+      </c>
+      <c r="N43">
+        <v>122366</v>
+      </c>
+      <c r="O43">
+        <v>119574</v>
+      </c>
+    </row>
+    <row r="44" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="L44">
+        <v>630957</v>
+      </c>
+    </row>
+    <row r="45" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="L45">
+        <v>1000000</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/exp/exp2.xlsx
+++ b/exp/exp2.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="19">
   <si>
     <t>JoinHybridOpt</t>
   </si>
@@ -95,6 +95,14 @@
   </si>
   <si>
     <t>Synthetic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USPS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AOL</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -234,7 +242,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1063,7 +1070,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1171,7 +1177,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1589,7 +1594,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1697,7 +1701,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2511,7 +2514,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2619,7 +2621,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3190,7 +3191,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3298,7 +3298,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3854,7 +3853,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3962,7 +3960,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4404,7 +4401,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4512,7 +4508,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5179,7 +5174,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5287,7 +5281,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5768,7 +5761,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5875,7 +5867,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6653,7 +6644,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6760,7 +6750,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7313,7 +7302,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7420,7 +7408,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7952,7 +7939,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8060,7 +8046,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8631,7 +8616,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8738,7 +8722,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9168,7 +9151,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9270,7 +9252,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" altLang="ko-KR"/>
-              <a:t>USPS</a:t>
+              <a:t>SPROT</a:t>
             </a:r>
             <a:endParaRPr lang="ko-KR" altLang="en-US"/>
           </a:p>
@@ -13120,6 +13102,3868 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart25.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR"/>
+              <a:t>USPS</a:t>
+            </a:r>
+            <a:endParaRPr lang="ko-KR" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sample!$U$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.01</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sample!$T$7:$T$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15848</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25118</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39810</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>63095</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>158489</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>251188</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>398107</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>630957</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sample!$U$7:$U$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>607</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>794</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1050</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1503</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2356</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3222</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4734</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7606</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11801</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>19389</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>40658</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-021B-4D12-A0C5-C3E254CBBE14}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sample!$V$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.001</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sample!$T$7:$T$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15848</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25118</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39810</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>63095</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>158489</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>251188</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>398107</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>630957</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sample!$V$7:$V$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>618</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>789</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1130</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1477</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2253</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3062</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4497</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7420</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11371</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>18735</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>42874</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-021B-4D12-A0C5-C3E254CBBE14}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sample!$W$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.0001</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sample!$T$7:$T$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15848</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25118</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39810</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>63095</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>158489</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>251188</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>398107</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>630957</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sample!$W$7:$W$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>595</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>824</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1045</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1489</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2246</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3086</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4638</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7374</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11198</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>18371</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>40764</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-021B-4D12-A0C5-C3E254CBBE14}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sample!$X$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sample!$T$7:$T$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15848</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25118</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39810</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>63095</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>158489</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>251188</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>398107</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>630957</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sample!$X$7:$X$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>679</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>823</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1051</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1460</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2245</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3022</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4531</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7561</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11322</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>18765</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>40894</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-021B-4D12-A0C5-C3E254CBBE14}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sample!$Y$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sample!$T$7:$T$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15848</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25118</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39810</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>63095</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>158489</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>251188</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>398107</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>630957</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sample!$Y$7:$Y$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>725</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1039</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1160</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1593</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2324</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3132</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4897</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7593</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11370</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>18946</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>40908</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-021B-4D12-A0C5-C3E254CBBE14}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sample!$Z$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sample!$T$7:$T$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15848</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25118</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39810</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>63095</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>158489</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>251188</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>398107</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>630957</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sample!$Z$7:$Z$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1565</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1495</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2111</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2690</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3040</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4291</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5318</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7888</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11987</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>19385</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>41462</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-021B-4D12-A0C5-C3E254CBBE14}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1930761168"/>
+        <c:axId val="1930755760"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1930761168"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:min val="10000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1930755760"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1930755760"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:min val="100"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1930761168"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ko-KR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart26.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sample!$AC$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.01</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sample!$AB$7:$AB$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15848</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25118</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39810</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>63095</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>158489</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>251188</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>398107</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>630957</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sample!$AC$7:$AC$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>2195</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2647</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3534</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4756</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6175</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9219</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>23802</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>19389</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>40658</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-04F6-44B3-BC0D-1B8C6CB542F8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sample!$AD$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.001</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sample!$AB$7:$AB$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15848</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25118</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39810</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>63095</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>158489</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>251188</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>398107</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>630957</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sample!$AD$7:$AD$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>2290</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2754</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3288</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3710</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5009</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6510</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9268</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14129</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>22825</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>18735</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>42874</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-04F6-44B3-BC0D-1B8C6CB542F8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sample!$AE$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.0001</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sample!$AB$7:$AB$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15848</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25118</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39810</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>63095</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>158489</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>251188</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>398107</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>630957</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sample!$AE$7:$AE$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>2404</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5149</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3161</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3967</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4965</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6460</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9463</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14318</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>23138</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>18371</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>40764</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-04F6-44B3-BC0D-1B8C6CB542F8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sample!$AF$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sample!$AB$7:$AB$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15848</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25118</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39810</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>63095</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>158489</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>251188</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>398107</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>630957</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sample!$AF$7:$AF$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>2370</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2817</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3096</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3775</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4651</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5959</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8952</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14403</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>22836</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>18765</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>40894</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-04F6-44B3-BC0D-1B8C6CB542F8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sample!$AG$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sample!$AB$7:$AB$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15848</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25118</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39810</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>63095</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>158489</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>251188</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>398107</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>630957</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sample!$AG$7:$AG$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>2511</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2661</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3235</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3665</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4832</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6310</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9310</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14348</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>22571</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>18946</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>40908</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-04F6-44B3-BC0D-1B8C6CB542F8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sample!$AH$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sample!$AB$7:$AB$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15848</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25118</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39810</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>63095</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>158489</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>251188</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>398107</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>630957</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sample!$AH$7:$AH$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>3013</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3686</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3944</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4992</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5649</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7143</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10114</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15130</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>23733</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>19385</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>41462</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-04F6-44B3-BC0D-1B8C6CB542F8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1930755344"/>
+        <c:axId val="1930754512"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1930755344"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:min val="10000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1930754512"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1930754512"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:min val="1000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1930755344"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ko-KR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart27.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sample!$U$34</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sample!$T$35:$T$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15848</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25118</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39810</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>63095</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>158489</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>251188</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>398107</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>630957</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sample!$U$35:$U$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1295</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1629</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2259</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3353</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5300</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8539</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15922</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>35001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>76987</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>184028</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>460865</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F0EA-4D87-B1FA-988BB4EDE724}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sample!$V$34</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sample!$T$35:$T$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15848</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25118</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39810</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>63095</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>158489</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>251188</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>398107</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>630957</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sample!$V$35:$V$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>548</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>789</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1036</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1387</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2241</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5661</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7692</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11682</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>19567</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>31383</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>56939</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F0EA-4D87-B1FA-988BB4EDE724}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sample!$W$34</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sample!$T$35:$T$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15848</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25118</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39810</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>63095</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>158489</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>251188</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>398107</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>630957</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sample!$W$35:$W$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>730</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>989</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1398</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2246</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3022</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4465</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7406</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11092</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>18189</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>40748</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-F0EA-4D87-B1FA-988BB4EDE724}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sample!$X$34</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>150</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sample!$T$35:$T$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15848</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25118</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39810</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>63095</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>158489</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>251188</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>398107</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>630957</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sample!$X$35:$X$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>564</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>729</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1063</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1387</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2168</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2926</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4394</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7278</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11080</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>18425</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>40619</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-F0EA-4D87-B1FA-988BB4EDE724}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1930753680"/>
+        <c:axId val="1930754928"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1930753680"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:min val="10000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1930754928"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1930754928"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:min val="100"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1930753680"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ko-KR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart28.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sample!$AC$34</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sample!$AB$35:$AB$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15848</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25118</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39810</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>63095</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>158489</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>251188</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>398107</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>630957</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sample!$AC$35:$AC$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>2102</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2621</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3147</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3564</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4694</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6149</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9147</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13385</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>22248</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>36696</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>75928</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E3C0-462E-9565-799CC374A335}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sample!$AD$34</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sample!$AB$35:$AB$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15848</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25118</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39810</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>63095</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>158489</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>251188</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>398107</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>630957</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sample!$AD$35:$AD$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>2194</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2517</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3190</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3709</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5026</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6386</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9441</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14888</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>23337</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>37334</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>75934</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E3C0-462E-9565-799CC374A335}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sample!$AE$34</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sample!$AB$35:$AB$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15848</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25118</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39810</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>63095</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>158489</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>251188</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>398107</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>630957</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sample!$AE$35:$AE$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1970</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2503</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3291</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3832</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4766</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6593</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9852</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15195</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>23936</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45445</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>77193</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-E3C0-462E-9565-799CC374A335}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sample!$AF$34</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>150</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sample!$AB$35:$AB$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15848</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25118</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39810</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>63095</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>158489</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>251188</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>398107</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>630957</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sample!$AF$35:$AF$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1938</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2739</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3104</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5313</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6928</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9801</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15096</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>24017</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45238</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>80091</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-E3C0-462E-9565-799CC374A335}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sample!$AG$34</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sample!$AB$35:$AB$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15848</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25118</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39810</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>63095</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>158489</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>251188</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>398107</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>630957</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sample!$AG$35:$AG$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-E3C0-462E-9565-799CC374A335}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sample!$AH$34</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sample!$AB$35:$AB$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15848</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25118</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39810</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>63095</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>158489</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>251188</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>398107</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>630957</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sample!$AH$35:$AH$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-E3C0-462E-9565-799CC374A335}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1930755344"/>
+        <c:axId val="1930753680"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1930755344"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1930753680"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1930753680"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1930755344"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ko-KR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
@@ -13161,7 +17005,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -13732,7 +17575,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -13840,7 +17682,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -14282,7 +18123,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -14390,7 +18230,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -15099,7 +18938,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -15207,7 +19045,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -15976,7 +19813,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -16084,7 +19920,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -16583,7 +20418,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -16691,7 +20525,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -17226,7 +21059,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -17334,7 +21166,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -17869,7 +21700,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -18616,6 +22446,166 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors25.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors26.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors27.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors28.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -27153,6 +31143,2070 @@
 </file>
 
 <file path=xl/charts/style24.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style25.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style26.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style27.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style28.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -32050,6 +38104,126 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="차트 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>242887</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>14287</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="차트 6"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>233362</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>4762</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="차트 7"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>614362</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>385762</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="차트 8"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -32870,7 +39044,7 @@
     </row>
     <row r="21" spans="3:16" x14ac:dyDescent="0.3">
       <c r="L21">
-        <f t="shared" ref="L21:L31" si="2">L9/P9</f>
+        <f t="shared" ref="L21:L30" si="2">L9/P9</f>
         <v>1.292168674698795</v>
       </c>
     </row>
@@ -33699,7 +39873,7 @@
     </row>
     <row r="30" spans="4:16" x14ac:dyDescent="0.3">
       <c r="L30">
-        <f t="shared" ref="L29:L40" si="4">L18/P18</f>
+        <f t="shared" ref="L30:L38" si="4">L18/P18</f>
         <v>1.1369341955116012</v>
       </c>
     </row>
@@ -34621,7 +40795,7 @@
         <v>3.0379999999999998</v>
       </c>
       <c r="M18">
-        <f t="shared" ref="M18:P28" si="5">F18/1000</f>
+        <f t="shared" ref="M18:P27" si="5">F18/1000</f>
         <v>2.9710000000000001</v>
       </c>
       <c r="N18">
@@ -34660,7 +40834,7 @@
         <v>15848</v>
       </c>
       <c r="L19">
-        <f t="shared" ref="L19:L28" si="6">E19/1000</f>
+        <f t="shared" ref="L19:L27" si="6">E19/1000</f>
         <v>3.56</v>
       </c>
       <c r="M19">
@@ -35275,15 +41449,15 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C5:R45"/>
+  <dimension ref="C5:AH45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="T12" sqref="T12"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="AI39" sqref="AI39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="5" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:34" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>13</v>
       </c>
@@ -35293,8 +41467,14 @@
       <c r="L5" t="s">
         <v>16</v>
       </c>
+      <c r="T5" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="6" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:34" x14ac:dyDescent="0.3">
       <c r="D6">
         <v>0.01</v>
       </c>
@@ -35331,8 +41511,44 @@
       <c r="R6">
         <v>10000</v>
       </c>
+      <c r="U6">
+        <v>0.01</v>
+      </c>
+      <c r="V6">
+        <v>1E-3</v>
+      </c>
+      <c r="W6">
+        <v>1E-4</v>
+      </c>
+      <c r="X6">
+        <v>100</v>
+      </c>
+      <c r="Y6">
+        <v>1000</v>
+      </c>
+      <c r="Z6">
+        <v>10000</v>
+      </c>
+      <c r="AC6">
+        <v>0.01</v>
+      </c>
+      <c r="AD6">
+        <v>1E-3</v>
+      </c>
+      <c r="AE6">
+        <v>1E-4</v>
+      </c>
+      <c r="AF6">
+        <v>100</v>
+      </c>
+      <c r="AG6">
+        <v>1000</v>
+      </c>
+      <c r="AH6">
+        <v>10000</v>
+      </c>
     </row>
-    <row r="7" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:34" x14ac:dyDescent="0.3">
       <c r="C7">
         <v>10000</v>
       </c>
@@ -35375,8 +41591,50 @@
       <c r="R7">
         <v>4508</v>
       </c>
+      <c r="T7">
+        <v>10000</v>
+      </c>
+      <c r="U7">
+        <v>607</v>
+      </c>
+      <c r="V7">
+        <v>618</v>
+      </c>
+      <c r="W7">
+        <v>595</v>
+      </c>
+      <c r="X7">
+        <v>679</v>
+      </c>
+      <c r="Y7">
+        <v>725</v>
+      </c>
+      <c r="Z7">
+        <v>1565</v>
+      </c>
+      <c r="AB7">
+        <v>10000</v>
+      </c>
+      <c r="AC7">
+        <v>2195</v>
+      </c>
+      <c r="AD7">
+        <v>2290</v>
+      </c>
+      <c r="AE7">
+        <v>2404</v>
+      </c>
+      <c r="AF7">
+        <v>2370</v>
+      </c>
+      <c r="AG7">
+        <v>2511</v>
+      </c>
+      <c r="AH7">
+        <v>3013</v>
+      </c>
     </row>
-    <row r="8" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:34" x14ac:dyDescent="0.3">
       <c r="C8">
         <v>15848</v>
       </c>
@@ -35419,8 +41677,50 @@
       <c r="R8">
         <v>5367</v>
       </c>
+      <c r="T8">
+        <v>15848</v>
+      </c>
+      <c r="U8">
+        <v>794</v>
+      </c>
+      <c r="V8">
+        <v>789</v>
+      </c>
+      <c r="W8">
+        <v>824</v>
+      </c>
+      <c r="X8">
+        <v>823</v>
+      </c>
+      <c r="Y8">
+        <v>1039</v>
+      </c>
+      <c r="Z8">
+        <v>1495</v>
+      </c>
+      <c r="AB8">
+        <v>15848</v>
+      </c>
+      <c r="AC8">
+        <v>2647</v>
+      </c>
+      <c r="AD8">
+        <v>2754</v>
+      </c>
+      <c r="AE8">
+        <v>5149</v>
+      </c>
+      <c r="AF8">
+        <v>2817</v>
+      </c>
+      <c r="AG8">
+        <v>2661</v>
+      </c>
+      <c r="AH8">
+        <v>3686</v>
+      </c>
     </row>
-    <row r="9" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:34" x14ac:dyDescent="0.3">
       <c r="C9">
         <v>25118</v>
       </c>
@@ -35463,8 +41763,50 @@
       <c r="R9">
         <v>6618</v>
       </c>
+      <c r="T9">
+        <v>25118</v>
+      </c>
+      <c r="U9">
+        <v>1050</v>
+      </c>
+      <c r="V9">
+        <v>1130</v>
+      </c>
+      <c r="W9">
+        <v>1045</v>
+      </c>
+      <c r="X9">
+        <v>1051</v>
+      </c>
+      <c r="Y9">
+        <v>1160</v>
+      </c>
+      <c r="Z9">
+        <v>2111</v>
+      </c>
+      <c r="AB9">
+        <v>25118</v>
+      </c>
+      <c r="AC9">
+        <v>2996</v>
+      </c>
+      <c r="AD9">
+        <v>3288</v>
+      </c>
+      <c r="AE9">
+        <v>3161</v>
+      </c>
+      <c r="AF9">
+        <v>3096</v>
+      </c>
+      <c r="AG9">
+        <v>3235</v>
+      </c>
+      <c r="AH9">
+        <v>3944</v>
+      </c>
     </row>
-    <row r="10" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:34" x14ac:dyDescent="0.3">
       <c r="C10">
         <v>39810</v>
       </c>
@@ -35507,8 +41849,50 @@
       <c r="R10">
         <v>8189</v>
       </c>
+      <c r="T10">
+        <v>39810</v>
+      </c>
+      <c r="U10">
+        <v>1503</v>
+      </c>
+      <c r="V10">
+        <v>1477</v>
+      </c>
+      <c r="W10">
+        <v>1489</v>
+      </c>
+      <c r="X10">
+        <v>1460</v>
+      </c>
+      <c r="Y10">
+        <v>1593</v>
+      </c>
+      <c r="Z10">
+        <v>2690</v>
+      </c>
+      <c r="AB10">
+        <v>39810</v>
+      </c>
+      <c r="AC10">
+        <v>3534</v>
+      </c>
+      <c r="AD10">
+        <v>3710</v>
+      </c>
+      <c r="AE10">
+        <v>3967</v>
+      </c>
+      <c r="AF10">
+        <v>3775</v>
+      </c>
+      <c r="AG10">
+        <v>3665</v>
+      </c>
+      <c r="AH10">
+        <v>4992</v>
+      </c>
     </row>
-    <row r="11" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="3:34" x14ac:dyDescent="0.3">
       <c r="C11">
         <v>63095</v>
       </c>
@@ -35551,8 +41935,50 @@
       <c r="R11">
         <v>11113</v>
       </c>
+      <c r="T11">
+        <v>63095</v>
+      </c>
+      <c r="U11">
+        <v>2356</v>
+      </c>
+      <c r="V11">
+        <v>2253</v>
+      </c>
+      <c r="W11">
+        <v>2246</v>
+      </c>
+      <c r="X11">
+        <v>2245</v>
+      </c>
+      <c r="Y11">
+        <v>2324</v>
+      </c>
+      <c r="Z11">
+        <v>3040</v>
+      </c>
+      <c r="AB11">
+        <v>63095</v>
+      </c>
+      <c r="AC11">
+        <v>4756</v>
+      </c>
+      <c r="AD11">
+        <v>5009</v>
+      </c>
+      <c r="AE11">
+        <v>4965</v>
+      </c>
+      <c r="AF11">
+        <v>4651</v>
+      </c>
+      <c r="AG11">
+        <v>4832</v>
+      </c>
+      <c r="AH11">
+        <v>5649</v>
+      </c>
     </row>
-    <row r="12" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:34" x14ac:dyDescent="0.3">
       <c r="C12">
         <v>100000</v>
       </c>
@@ -35595,8 +42021,50 @@
       <c r="R12">
         <v>17858</v>
       </c>
+      <c r="T12">
+        <v>100000</v>
+      </c>
+      <c r="U12">
+        <v>3222</v>
+      </c>
+      <c r="V12">
+        <v>3062</v>
+      </c>
+      <c r="W12">
+        <v>3086</v>
+      </c>
+      <c r="X12">
+        <v>3022</v>
+      </c>
+      <c r="Y12">
+        <v>3132</v>
+      </c>
+      <c r="Z12">
+        <v>4291</v>
+      </c>
+      <c r="AB12">
+        <v>100000</v>
+      </c>
+      <c r="AC12">
+        <v>6175</v>
+      </c>
+      <c r="AD12">
+        <v>6510</v>
+      </c>
+      <c r="AE12">
+        <v>6460</v>
+      </c>
+      <c r="AF12">
+        <v>5959</v>
+      </c>
+      <c r="AG12">
+        <v>6310</v>
+      </c>
+      <c r="AH12">
+        <v>7143</v>
+      </c>
     </row>
-    <row r="13" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="3:34" x14ac:dyDescent="0.3">
       <c r="C13">
         <v>158489</v>
       </c>
@@ -35639,8 +42107,50 @@
       <c r="R13">
         <v>29331</v>
       </c>
+      <c r="T13">
+        <v>158489</v>
+      </c>
+      <c r="U13">
+        <v>4734</v>
+      </c>
+      <c r="V13">
+        <v>4497</v>
+      </c>
+      <c r="W13">
+        <v>4638</v>
+      </c>
+      <c r="X13">
+        <v>4531</v>
+      </c>
+      <c r="Y13">
+        <v>4897</v>
+      </c>
+      <c r="Z13">
+        <v>5318</v>
+      </c>
+      <c r="AB13">
+        <v>158489</v>
+      </c>
+      <c r="AC13">
+        <v>9219</v>
+      </c>
+      <c r="AD13">
+        <v>9268</v>
+      </c>
+      <c r="AE13">
+        <v>9463</v>
+      </c>
+      <c r="AF13">
+        <v>8952</v>
+      </c>
+      <c r="AG13">
+        <v>9310</v>
+      </c>
+      <c r="AH13">
+        <v>10114</v>
+      </c>
     </row>
-    <row r="14" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="3:34" x14ac:dyDescent="0.3">
       <c r="C14">
         <v>251188</v>
       </c>
@@ -35683,8 +42193,50 @@
       <c r="R14">
         <v>56795</v>
       </c>
+      <c r="T14">
+        <v>251188</v>
+      </c>
+      <c r="U14">
+        <v>7606</v>
+      </c>
+      <c r="V14">
+        <v>7420</v>
+      </c>
+      <c r="W14">
+        <v>7374</v>
+      </c>
+      <c r="X14">
+        <v>7561</v>
+      </c>
+      <c r="Y14">
+        <v>7593</v>
+      </c>
+      <c r="Z14">
+        <v>7888</v>
+      </c>
+      <c r="AB14">
+        <v>251188</v>
+      </c>
+      <c r="AC14">
+        <v>15001</v>
+      </c>
+      <c r="AD14">
+        <v>14129</v>
+      </c>
+      <c r="AE14">
+        <v>14318</v>
+      </c>
+      <c r="AF14">
+        <v>14403</v>
+      </c>
+      <c r="AG14">
+        <v>14348</v>
+      </c>
+      <c r="AH14">
+        <v>15130</v>
+      </c>
     </row>
-    <row r="15" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="3:34" x14ac:dyDescent="0.3">
       <c r="C15">
         <v>466158</v>
       </c>
@@ -35728,53 +42280,179 @@
       <c r="R15">
         <v>123366</v>
       </c>
+      <c r="T15">
+        <v>398107</v>
+      </c>
+      <c r="U15">
+        <v>11801</v>
+      </c>
+      <c r="V15">
+        <v>11371</v>
+      </c>
+      <c r="W15">
+        <v>11198</v>
+      </c>
+      <c r="X15">
+        <v>11322</v>
+      </c>
+      <c r="Y15">
+        <v>11370</v>
+      </c>
+      <c r="Z15">
+        <v>11987</v>
+      </c>
+      <c r="AB15">
+        <v>398107</v>
+      </c>
+      <c r="AC15">
+        <v>23802</v>
+      </c>
+      <c r="AD15">
+        <v>22825</v>
+      </c>
+      <c r="AE15">
+        <v>23138</v>
+      </c>
+      <c r="AF15">
+        <v>22836</v>
+      </c>
+      <c r="AG15">
+        <v>22571</v>
+      </c>
+      <c r="AH15">
+        <v>23733</v>
+      </c>
     </row>
-    <row r="16" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="3:34" x14ac:dyDescent="0.3">
       <c r="J16" s="1"/>
       <c r="L16">
         <v>630957</v>
       </c>
+      <c r="T16">
+        <v>630957</v>
+      </c>
+      <c r="U16">
+        <v>19389</v>
+      </c>
+      <c r="V16">
+        <v>18735</v>
+      </c>
+      <c r="W16">
+        <v>18371</v>
+      </c>
+      <c r="X16">
+        <v>18765</v>
+      </c>
+      <c r="Y16">
+        <v>18946</v>
+      </c>
+      <c r="Z16">
+        <v>19385</v>
+      </c>
+      <c r="AB16">
+        <v>630957</v>
+      </c>
+      <c r="AC16">
+        <v>19389</v>
+      </c>
+      <c r="AD16">
+        <v>18735</v>
+      </c>
+      <c r="AE16">
+        <v>18371</v>
+      </c>
+      <c r="AF16">
+        <v>18765</v>
+      </c>
+      <c r="AG16">
+        <v>18946</v>
+      </c>
+      <c r="AH16">
+        <v>19385</v>
+      </c>
     </row>
-    <row r="17" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="10:34" x14ac:dyDescent="0.3">
       <c r="J17" s="1"/>
       <c r="L17">
         <v>1000000</v>
       </c>
+      <c r="T17">
+        <v>1000000</v>
+      </c>
+      <c r="U17">
+        <v>40658</v>
+      </c>
+      <c r="V17">
+        <v>42874</v>
+      </c>
+      <c r="W17">
+        <v>40764</v>
+      </c>
+      <c r="X17">
+        <v>40894</v>
+      </c>
+      <c r="Y17">
+        <v>40908</v>
+      </c>
+      <c r="Z17">
+        <v>41462</v>
+      </c>
+      <c r="AB17">
+        <v>1000000</v>
+      </c>
+      <c r="AC17">
+        <v>40658</v>
+      </c>
+      <c r="AD17">
+        <v>42874</v>
+      </c>
+      <c r="AE17">
+        <v>40764</v>
+      </c>
+      <c r="AF17">
+        <v>40894</v>
+      </c>
+      <c r="AG17">
+        <v>40908</v>
+      </c>
+      <c r="AH17">
+        <v>41462</v>
+      </c>
     </row>
-    <row r="18" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="10:34" x14ac:dyDescent="0.3">
       <c r="J18" s="1"/>
     </row>
-    <row r="19" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="10:34" x14ac:dyDescent="0.3">
       <c r="J19" s="1"/>
     </row>
-    <row r="20" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="10:34" x14ac:dyDescent="0.3">
       <c r="J20" s="1"/>
     </row>
-    <row r="21" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="10:34" x14ac:dyDescent="0.3">
       <c r="J21" s="1"/>
     </row>
-    <row r="22" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="10:34" x14ac:dyDescent="0.3">
       <c r="J22" s="1"/>
     </row>
-    <row r="23" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="10:34" x14ac:dyDescent="0.3">
       <c r="J23" s="1"/>
     </row>
-    <row r="24" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="10:34" x14ac:dyDescent="0.3">
       <c r="J24" s="1"/>
     </row>
-    <row r="25" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="10:34" x14ac:dyDescent="0.3">
       <c r="J25" s="1"/>
     </row>
-    <row r="26" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="10:34" x14ac:dyDescent="0.3">
       <c r="J26" s="1"/>
     </row>
-    <row r="27" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="10:34" x14ac:dyDescent="0.3">
       <c r="J27" s="1"/>
     </row>
-    <row r="28" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="10:34" x14ac:dyDescent="0.3">
       <c r="J28" s="1"/>
     </row>
-    <row r="33" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:34" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>13</v>
       </c>
@@ -35782,7 +42460,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="34" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:34" x14ac:dyDescent="0.3">
       <c r="D34">
         <v>10</v>
       </c>
@@ -35819,8 +42497,44 @@
       <c r="R34">
         <v>1000</v>
       </c>
+      <c r="U34">
+        <v>10</v>
+      </c>
+      <c r="V34">
+        <v>50</v>
+      </c>
+      <c r="W34">
+        <v>100</v>
+      </c>
+      <c r="X34">
+        <v>150</v>
+      </c>
+      <c r="Y34">
+        <v>500</v>
+      </c>
+      <c r="Z34">
+        <v>1000</v>
+      </c>
+      <c r="AC34">
+        <v>10</v>
+      </c>
+      <c r="AD34">
+        <v>50</v>
+      </c>
+      <c r="AE34">
+        <v>100</v>
+      </c>
+      <c r="AF34">
+        <v>150</v>
+      </c>
+      <c r="AG34">
+        <v>500</v>
+      </c>
+      <c r="AH34">
+        <v>1000</v>
+      </c>
     </row>
-    <row r="35" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:34" x14ac:dyDescent="0.3">
       <c r="C35">
         <v>10000</v>
       </c>
@@ -35863,8 +42577,38 @@
       <c r="R35">
         <v>3421</v>
       </c>
+      <c r="T35">
+        <v>10000</v>
+      </c>
+      <c r="U35">
+        <v>1295</v>
+      </c>
+      <c r="V35">
+        <v>548</v>
+      </c>
+      <c r="W35">
+        <v>600</v>
+      </c>
+      <c r="X35">
+        <v>564</v>
+      </c>
+      <c r="AB35">
+        <v>10000</v>
+      </c>
+      <c r="AC35">
+        <v>2102</v>
+      </c>
+      <c r="AD35">
+        <v>2194</v>
+      </c>
+      <c r="AE35">
+        <v>1970</v>
+      </c>
+      <c r="AF35">
+        <v>1938</v>
+      </c>
     </row>
-    <row r="36" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:34" x14ac:dyDescent="0.3">
       <c r="C36">
         <v>15848</v>
       </c>
@@ -35907,8 +42651,38 @@
       <c r="R36">
         <v>5081</v>
       </c>
+      <c r="T36">
+        <v>15848</v>
+      </c>
+      <c r="U36">
+        <v>1629</v>
+      </c>
+      <c r="V36">
+        <v>789</v>
+      </c>
+      <c r="W36">
+        <v>730</v>
+      </c>
+      <c r="X36">
+        <v>729</v>
+      </c>
+      <c r="AB36">
+        <v>15848</v>
+      </c>
+      <c r="AC36">
+        <v>2621</v>
+      </c>
+      <c r="AD36">
+        <v>2517</v>
+      </c>
+      <c r="AE36">
+        <v>2503</v>
+      </c>
+      <c r="AF36">
+        <v>2739</v>
+      </c>
     </row>
-    <row r="37" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:34" x14ac:dyDescent="0.3">
       <c r="C37">
         <v>25118</v>
       </c>
@@ -35951,8 +42725,38 @@
       <c r="R37">
         <v>6658</v>
       </c>
+      <c r="T37">
+        <v>25118</v>
+      </c>
+      <c r="U37">
+        <v>2259</v>
+      </c>
+      <c r="V37">
+        <v>1036</v>
+      </c>
+      <c r="W37">
+        <v>989</v>
+      </c>
+      <c r="X37">
+        <v>1063</v>
+      </c>
+      <c r="AB37">
+        <v>25118</v>
+      </c>
+      <c r="AC37">
+        <v>3147</v>
+      </c>
+      <c r="AD37">
+        <v>3190</v>
+      </c>
+      <c r="AE37">
+        <v>3291</v>
+      </c>
+      <c r="AF37">
+        <v>3104</v>
+      </c>
     </row>
-    <row r="38" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:34" x14ac:dyDescent="0.3">
       <c r="C38">
         <v>39810</v>
       </c>
@@ -35995,8 +42799,38 @@
       <c r="R38">
         <v>10131</v>
       </c>
+      <c r="T38">
+        <v>39810</v>
+      </c>
+      <c r="U38">
+        <v>3353</v>
+      </c>
+      <c r="V38">
+        <v>1387</v>
+      </c>
+      <c r="W38">
+        <v>1398</v>
+      </c>
+      <c r="X38">
+        <v>1387</v>
+      </c>
+      <c r="AB38">
+        <v>39810</v>
+      </c>
+      <c r="AC38">
+        <v>3564</v>
+      </c>
+      <c r="AD38">
+        <v>3709</v>
+      </c>
+      <c r="AE38">
+        <v>3832</v>
+      </c>
+      <c r="AF38">
+        <v>4096</v>
+      </c>
     </row>
-    <row r="39" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:34" x14ac:dyDescent="0.3">
       <c r="C39">
         <v>63095</v>
       </c>
@@ -36039,8 +42873,38 @@
       <c r="R39">
         <v>21601</v>
       </c>
+      <c r="T39">
+        <v>63095</v>
+      </c>
+      <c r="U39">
+        <v>5300</v>
+      </c>
+      <c r="V39">
+        <v>2241</v>
+      </c>
+      <c r="W39">
+        <v>2246</v>
+      </c>
+      <c r="X39">
+        <v>2168</v>
+      </c>
+      <c r="AB39">
+        <v>63095</v>
+      </c>
+      <c r="AC39">
+        <v>4694</v>
+      </c>
+      <c r="AD39">
+        <v>5026</v>
+      </c>
+      <c r="AE39">
+        <v>4766</v>
+      </c>
+      <c r="AF39">
+        <v>5313</v>
+      </c>
     </row>
-    <row r="40" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:34" x14ac:dyDescent="0.3">
       <c r="C40">
         <v>100000</v>
       </c>
@@ -36083,8 +42947,38 @@
       <c r="R40">
         <v>45991</v>
       </c>
+      <c r="T40">
+        <v>100000</v>
+      </c>
+      <c r="U40">
+        <v>8539</v>
+      </c>
+      <c r="V40">
+        <v>5661</v>
+      </c>
+      <c r="W40">
+        <v>3022</v>
+      </c>
+      <c r="X40">
+        <v>2926</v>
+      </c>
+      <c r="AB40">
+        <v>100000</v>
+      </c>
+      <c r="AC40">
+        <v>6149</v>
+      </c>
+      <c r="AD40">
+        <v>6386</v>
+      </c>
+      <c r="AE40">
+        <v>6593</v>
+      </c>
+      <c r="AF40">
+        <v>6928</v>
+      </c>
     </row>
-    <row r="41" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:34" x14ac:dyDescent="0.3">
       <c r="C41">
         <v>158489</v>
       </c>
@@ -36127,8 +43021,38 @@
       <c r="R41">
         <v>190568</v>
       </c>
+      <c r="T41">
+        <v>158489</v>
+      </c>
+      <c r="U41">
+        <v>15922</v>
+      </c>
+      <c r="V41">
+        <v>7692</v>
+      </c>
+      <c r="W41">
+        <v>4465</v>
+      </c>
+      <c r="X41">
+        <v>4394</v>
+      </c>
+      <c r="AB41">
+        <v>158489</v>
+      </c>
+      <c r="AC41">
+        <v>9147</v>
+      </c>
+      <c r="AD41">
+        <v>9441</v>
+      </c>
+      <c r="AE41">
+        <v>9852</v>
+      </c>
+      <c r="AF41">
+        <v>9801</v>
+      </c>
     </row>
-    <row r="42" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:34" x14ac:dyDescent="0.3">
       <c r="C42">
         <v>251188</v>
       </c>
@@ -36171,8 +43095,38 @@
       <c r="R42">
         <v>116486</v>
       </c>
+      <c r="T42">
+        <v>251188</v>
+      </c>
+      <c r="U42">
+        <v>35001</v>
+      </c>
+      <c r="V42">
+        <v>11682</v>
+      </c>
+      <c r="W42">
+        <v>7406</v>
+      </c>
+      <c r="X42">
+        <v>7278</v>
+      </c>
+      <c r="AB42">
+        <v>251188</v>
+      </c>
+      <c r="AC42">
+        <v>13385</v>
+      </c>
+      <c r="AD42">
+        <v>14888</v>
+      </c>
+      <c r="AE42">
+        <v>15195</v>
+      </c>
+      <c r="AF42">
+        <v>15096</v>
+      </c>
     </row>
-    <row r="43" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:34" x14ac:dyDescent="0.3">
       <c r="C43">
         <v>466158</v>
       </c>
@@ -36206,15 +43160,105 @@
       <c r="O43">
         <v>119574</v>
       </c>
+      <c r="T43">
+        <v>398107</v>
+      </c>
+      <c r="U43">
+        <v>76987</v>
+      </c>
+      <c r="V43">
+        <v>19567</v>
+      </c>
+      <c r="W43">
+        <v>11092</v>
+      </c>
+      <c r="X43">
+        <v>11080</v>
+      </c>
+      <c r="AB43">
+        <v>398107</v>
+      </c>
+      <c r="AC43">
+        <v>22248</v>
+      </c>
+      <c r="AD43">
+        <v>23337</v>
+      </c>
+      <c r="AE43">
+        <v>23936</v>
+      </c>
+      <c r="AF43">
+        <v>24017</v>
+      </c>
     </row>
-    <row r="44" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:34" x14ac:dyDescent="0.3">
       <c r="L44">
         <v>630957</v>
       </c>
+      <c r="T44">
+        <v>630957</v>
+      </c>
+      <c r="U44">
+        <v>184028</v>
+      </c>
+      <c r="V44">
+        <v>31383</v>
+      </c>
+      <c r="W44">
+        <v>18189</v>
+      </c>
+      <c r="X44">
+        <v>18425</v>
+      </c>
+      <c r="AB44">
+        <v>630957</v>
+      </c>
+      <c r="AC44">
+        <v>36696</v>
+      </c>
+      <c r="AD44">
+        <v>37334</v>
+      </c>
+      <c r="AE44">
+        <v>45445</v>
+      </c>
+      <c r="AF44">
+        <v>45238</v>
+      </c>
     </row>
-    <row r="45" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:34" x14ac:dyDescent="0.3">
       <c r="L45">
         <v>1000000</v>
+      </c>
+      <c r="T45">
+        <v>1000000</v>
+      </c>
+      <c r="U45">
+        <v>460865</v>
+      </c>
+      <c r="V45">
+        <v>56939</v>
+      </c>
+      <c r="W45">
+        <v>40748</v>
+      </c>
+      <c r="X45">
+        <v>40619</v>
+      </c>
+      <c r="AB45">
+        <v>1000000</v>
+      </c>
+      <c r="AC45">
+        <v>75928</v>
+      </c>
+      <c r="AD45">
+        <v>75934</v>
+      </c>
+      <c r="AE45">
+        <v>77193</v>
+      </c>
+      <c r="AF45">
+        <v>80091</v>
       </c>
     </row>
   </sheetData>

--- a/exp/exp2.xlsx
+++ b/exp/exp2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27870" windowHeight="12840" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27870" windowHeight="12840"/>
   </bookViews>
   <sheets>
     <sheet name="AOLSampleUSPS" sheetId="2" r:id="rId1"/>
@@ -242,6 +242,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -282,7 +283,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>AOLSampleUSPS!$L$7</c:f>
+              <c:f>AOLSampleUSPS!$M$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -317,7 +318,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>AOLSampleUSPS!$K$8:$K$18</c:f>
+              <c:f>AOLSampleUSPS!$L$8:$L$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -359,7 +360,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>AOLSampleUSPS!$L$8:$L$18</c:f>
+              <c:f>AOLSampleUSPS!$M$8:$M$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -411,7 +412,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>AOLSampleUSPS!$M$7</c:f>
+              <c:f>AOLSampleUSPS!$N$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -446,7 +447,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>AOLSampleUSPS!$K$8:$K$18</c:f>
+              <c:f>AOLSampleUSPS!$L$8:$L$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -488,7 +489,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>AOLSampleUSPS!$M$8:$M$18</c:f>
+              <c:f>AOLSampleUSPS!$N$8:$N$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -540,7 +541,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>AOLSampleUSPS!$N$7</c:f>
+              <c:f>AOLSampleUSPS!$O$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -575,7 +576,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>AOLSampleUSPS!$K$8:$K$18</c:f>
+              <c:f>AOLSampleUSPS!$L$8:$L$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -617,7 +618,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>AOLSampleUSPS!$N$8:$N$18</c:f>
+              <c:f>AOLSampleUSPS!$O$8:$O$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -669,7 +670,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>AOLSampleUSPS!$O$7</c:f>
+              <c:f>AOLSampleUSPS!$P$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -704,7 +705,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>AOLSampleUSPS!$K$8:$K$18</c:f>
+              <c:f>AOLSampleUSPS!$L$8:$L$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -746,7 +747,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>AOLSampleUSPS!$O$8:$O$18</c:f>
+              <c:f>AOLSampleUSPS!$P$8:$P$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -798,7 +799,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>AOLSampleUSPS!$P$7</c:f>
+              <c:f>AOLSampleUSPS!$Q$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -833,7 +834,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>AOLSampleUSPS!$K$8:$K$18</c:f>
+              <c:f>AOLSampleUSPS!$L$8:$L$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -875,7 +876,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>AOLSampleUSPS!$P$8:$P$18</c:f>
+              <c:f>AOLSampleUSPS!$Q$8:$Q$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -1070,6 +1071,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1177,6 +1179,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1217,7 +1220,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>SPROT!$L$17</c:f>
+              <c:f>SPROT!$M$17</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1252,7 +1255,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>SPROT!$K$18:$K$26</c:f>
+              <c:f>SPROT!$L$18:$L$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -1288,7 +1291,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>SPROT!$L$18:$L$26</c:f>
+              <c:f>SPROT!$M$18:$M$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -1334,7 +1337,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>SPROT!$M$17</c:f>
+              <c:f>SPROT!$N$17</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1369,7 +1372,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>SPROT!$K$18:$K$26</c:f>
+              <c:f>SPROT!$L$18:$L$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -1405,7 +1408,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>SPROT!$M$18:$M$26</c:f>
+              <c:f>SPROT!$N$18:$N$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -1594,6 +1597,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1701,6 +1705,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1741,7 +1746,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>AOLSampleRemoved!$L$7</c:f>
+              <c:f>AOLSampleRemoved!$M$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1776,7 +1781,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>AOLSampleRemoved!$K$8:$K$18</c:f>
+              <c:f>AOLSampleRemoved!$L$8:$L$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -1818,7 +1823,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>AOLSampleRemoved!$L$8:$L$18</c:f>
+              <c:f>AOLSampleRemoved!$M$8:$M$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -1870,7 +1875,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>AOLSampleRemoved!$M$7</c:f>
+              <c:f>AOLSampleRemoved!$N$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1905,7 +1910,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>AOLSampleRemoved!$K$8:$K$18</c:f>
+              <c:f>AOLSampleRemoved!$L$8:$L$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -1947,7 +1952,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>AOLSampleRemoved!$M$8:$M$18</c:f>
+              <c:f>AOLSampleRemoved!$N$8:$N$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -1999,7 +2004,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>AOLSampleRemoved!$N$7</c:f>
+              <c:f>AOLSampleRemoved!$O$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2034,7 +2039,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>AOLSampleRemoved!$K$8:$K$18</c:f>
+              <c:f>AOLSampleRemoved!$L$8:$L$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -2076,7 +2081,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>AOLSampleRemoved!$N$8:$N$18</c:f>
+              <c:f>AOLSampleRemoved!$O$8:$O$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -2128,7 +2133,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>AOLSampleRemoved!$O$7</c:f>
+              <c:f>AOLSampleRemoved!$P$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2163,7 +2168,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>AOLSampleRemoved!$K$8:$K$18</c:f>
+              <c:f>AOLSampleRemoved!$L$8:$L$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -2205,7 +2210,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>AOLSampleRemoved!$O$8:$O$18</c:f>
+              <c:f>AOLSampleRemoved!$P$8:$P$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -2257,7 +2262,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>AOLSampleRemoved!$P$7</c:f>
+              <c:f>AOLSampleRemoved!$Q$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2292,7 +2297,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>AOLSampleRemoved!$K$8:$K$18</c:f>
+              <c:f>AOLSampleRemoved!$L$8:$L$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -2334,7 +2339,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>AOLSampleRemoved!$P$8:$P$18</c:f>
+              <c:f>AOLSampleRemoved!$Q$8:$Q$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -2363,6 +2368,114 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-BE60-48A9-B2BB-E0D8C8BB89AE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>AOLSampleRemoved!$R$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.001</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>AOLSampleRemoved!$L$8:$L$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15820</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25064</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39712</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>62978</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>99825</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>158208</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>250626</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>397246</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>629557</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>997775</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>AOLSampleRemoved!$R$8:$R$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="7">
+                  <c:v>13.82</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>22.937999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>37.935000000000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>78.554000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3444-4AFB-9068-6D87633862E4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2514,6 +2627,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2621,6 +2735,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2661,7 +2776,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>AOLSampleRemoved!$L$7</c:f>
+              <c:f>AOLSampleRemoved!$M$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2696,7 +2811,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>AOLSampleRemoved!$K$8:$K$18</c:f>
+              <c:f>AOLSampleRemoved!$L$8:$L$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -2738,7 +2853,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>AOLSampleRemoved!$L$8:$L$18</c:f>
+              <c:f>AOLSampleRemoved!$M$8:$M$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -2790,7 +2905,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>AOLSampleRemoved!$N$7</c:f>
+              <c:f>AOLSampleRemoved!$O$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2825,7 +2940,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>AOLSampleRemoved!$K$8:$K$18</c:f>
+              <c:f>AOLSampleRemoved!$L$8:$L$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -2867,7 +2982,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>AOLSampleRemoved!$N$8:$N$18</c:f>
+              <c:f>AOLSampleRemoved!$O$8:$O$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -2919,7 +3034,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>AOLSampleRemoved!$O$7</c:f>
+              <c:f>AOLSampleRemoved!$P$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2954,7 +3069,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>AOLSampleRemoved!$K$8:$K$18</c:f>
+              <c:f>AOLSampleRemoved!$L$8:$L$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -2996,7 +3111,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>AOLSampleRemoved!$O$8:$O$18</c:f>
+              <c:f>AOLSampleRemoved!$P$8:$P$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -3191,6 +3306,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3298,6 +3414,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3338,7 +3455,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>AOLSampleRemoved!$L$7</c:f>
+              <c:f>AOLSampleRemoved!$M$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3373,7 +3490,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>AOLSampleRemoved!$K$8:$K$18</c:f>
+              <c:f>AOLSampleRemoved!$L$8:$L$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -3415,7 +3532,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>AOLSampleRemoved!$L$8:$L$18</c:f>
+              <c:f>AOLSampleRemoved!$M$8:$M$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -3467,7 +3584,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>AOLSampleRemoved!$N$7</c:f>
+              <c:f>AOLSampleRemoved!$O$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3502,7 +3619,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>AOLSampleRemoved!$K$8:$K$18</c:f>
+              <c:f>AOLSampleRemoved!$L$8:$L$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -3544,7 +3661,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>AOLSampleRemoved!$N$8:$N$18</c:f>
+              <c:f>AOLSampleRemoved!$O$8:$O$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -3596,7 +3713,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>AOLSampleRemoved!$P$7</c:f>
+              <c:f>AOLSampleRemoved!$Q$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3631,7 +3748,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>AOLSampleRemoved!$K$8:$K$18</c:f>
+              <c:f>AOLSampleRemoved!$L$8:$L$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -3673,7 +3790,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>AOLSampleRemoved!$P$8:$P$18</c:f>
+              <c:f>AOLSampleRemoved!$Q$8:$Q$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -3853,6 +3970,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3960,6 +4078,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4000,7 +4119,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>AOLSampleRemoved!$L$7</c:f>
+              <c:f>AOLSampleRemoved!$M$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4035,7 +4154,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>AOLSampleRemoved!$K$8:$K$18</c:f>
+              <c:f>AOLSampleRemoved!$L$8:$L$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -4077,7 +4196,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>AOLSampleRemoved!$L$8:$L$18</c:f>
+              <c:f>AOLSampleRemoved!$M$8:$M$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -4129,7 +4248,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>AOLSampleRemoved!$M$7</c:f>
+              <c:f>AOLSampleRemoved!$N$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4164,7 +4283,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>AOLSampleRemoved!$K$8:$K$18</c:f>
+              <c:f>AOLSampleRemoved!$L$8:$L$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -4206,7 +4325,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>AOLSampleRemoved!$M$8:$M$18</c:f>
+              <c:f>AOLSampleRemoved!$N$8:$N$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -4401,6 +4520,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4508,6 +4628,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4548,7 +4669,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Synthetic!$L$7</c:f>
+              <c:f>Synthetic!$M$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4583,7 +4704,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Synthetic!$K$8:$K$13</c:f>
+              <c:f>Synthetic!$L$8:$L$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -4610,7 +4731,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Synthetic!$L$8:$L$13</c:f>
+              <c:f>Synthetic!$M$8:$M$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -4647,7 +4768,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Synthetic!$M$7</c:f>
+              <c:f>Synthetic!$N$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4682,7 +4803,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Synthetic!$K$8:$K$13</c:f>
+              <c:f>Synthetic!$L$8:$L$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -4709,7 +4830,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Synthetic!$M$8:$M$13</c:f>
+              <c:f>Synthetic!$N$8:$N$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -4746,7 +4867,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Synthetic!$N$7</c:f>
+              <c:f>Synthetic!$O$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4781,7 +4902,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Synthetic!$K$8:$K$13</c:f>
+              <c:f>Synthetic!$L$8:$L$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -4808,7 +4929,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Synthetic!$N$8:$N$13</c:f>
+              <c:f>Synthetic!$O$8:$O$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -4845,7 +4966,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Synthetic!$O$7</c:f>
+              <c:f>Synthetic!$P$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4880,7 +5001,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Synthetic!$K$8:$K$13</c:f>
+              <c:f>Synthetic!$L$8:$L$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -4907,7 +5028,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Synthetic!$O$8:$O$13</c:f>
+              <c:f>Synthetic!$P$8:$P$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -4944,7 +5065,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Synthetic!$P$7</c:f>
+              <c:f>Synthetic!$Q$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4979,7 +5100,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Synthetic!$K$8:$K$13</c:f>
+              <c:f>Synthetic!$L$8:$L$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -5006,7 +5127,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Synthetic!$P$8:$P$13</c:f>
+              <c:f>Synthetic!$Q$8:$Q$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -5174,6 +5295,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5281,6 +5403,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5321,7 +5444,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Synthetic!$L$7</c:f>
+              <c:f>Synthetic!$M$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5356,7 +5479,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Synthetic!$K$8:$K$13</c:f>
+              <c:f>Synthetic!$L$8:$L$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -5383,7 +5506,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Synthetic!$L$8:$L$13</c:f>
+              <c:f>Synthetic!$M$8:$M$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -5420,7 +5543,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Synthetic!$N$7</c:f>
+              <c:f>Synthetic!$O$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5455,7 +5578,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Synthetic!$K$8:$K$13</c:f>
+              <c:f>Synthetic!$L$8:$L$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -5482,7 +5605,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Synthetic!$N$8:$N$13</c:f>
+              <c:f>Synthetic!$O$8:$O$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -5519,7 +5642,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Synthetic!$O$7</c:f>
+              <c:f>Synthetic!$P$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5554,7 +5677,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Synthetic!$K$8:$K$13</c:f>
+              <c:f>Synthetic!$L$8:$L$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -5581,7 +5704,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Synthetic!$O$8:$O$13</c:f>
+              <c:f>Synthetic!$P$8:$P$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -5761,6 +5884,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5867,6 +5991,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5907,7 +6032,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Synthetic!$L$17</c:f>
+              <c:f>Synthetic!$M$17</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5942,7 +6067,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Synthetic!$K$18:$K$27</c:f>
+              <c:f>Synthetic!$L$18:$L$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -5981,7 +6106,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Synthetic!$L$18:$L$27</c:f>
+              <c:f>Synthetic!$M$18:$M$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -6030,7 +6155,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Synthetic!$M$17</c:f>
+              <c:f>Synthetic!$N$17</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6065,7 +6190,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Synthetic!$K$18:$K$27</c:f>
+              <c:f>Synthetic!$L$18:$L$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -6104,7 +6229,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Synthetic!$M$18:$M$27</c:f>
+              <c:f>Synthetic!$N$18:$N$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -6153,7 +6278,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Synthetic!$N$17</c:f>
+              <c:f>Synthetic!$O$17</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6188,7 +6313,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Synthetic!$K$18:$K$27</c:f>
+              <c:f>Synthetic!$L$18:$L$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -6227,7 +6352,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Synthetic!$N$18:$N$27</c:f>
+              <c:f>Synthetic!$O$18:$O$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -6276,7 +6401,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Synthetic!$O$17</c:f>
+              <c:f>Synthetic!$P$17</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6311,7 +6436,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Synthetic!$K$18:$K$27</c:f>
+              <c:f>Synthetic!$L$18:$L$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -6350,7 +6475,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Synthetic!$O$18:$O$27</c:f>
+              <c:f>Synthetic!$P$18:$P$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -6399,7 +6524,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Synthetic!$P$17</c:f>
+              <c:f>Synthetic!$Q$17</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6434,7 +6559,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Synthetic!$K$18:$K$27</c:f>
+              <c:f>Synthetic!$L$18:$L$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -6473,7 +6598,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Synthetic!$P$18:$P$27</c:f>
+              <c:f>Synthetic!$Q$18:$Q$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -6493,6 +6618,111 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-7C43-437A-843F-BB3008A50A52}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Synthetic!$R$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.001</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Synthetic!$L$18:$L$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15848</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25118</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39810</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>63095</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>158489</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>251188</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>398107</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>630957</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Synthetic!$R$18:$R$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="5">
+                  <c:v>15.622999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>29.021000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>56.164999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>120.992</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CC0B-492F-B789-DF880E27C50B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6644,6 +6874,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6750,6 +6981,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6790,7 +7022,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Synthetic!$L$17</c:f>
+              <c:f>Synthetic!$M$17</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6825,7 +7057,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Synthetic!$K$18:$K$27</c:f>
+              <c:f>Synthetic!$L$18:$L$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -6864,7 +7096,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Synthetic!$L$18:$L$27</c:f>
+              <c:f>Synthetic!$M$18:$M$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -6913,7 +7145,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Synthetic!$N$17</c:f>
+              <c:f>Synthetic!$O$17</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6948,7 +7180,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Synthetic!$K$18:$K$27</c:f>
+              <c:f>Synthetic!$L$18:$L$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -6987,7 +7219,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Synthetic!$N$18:$N$27</c:f>
+              <c:f>Synthetic!$O$18:$O$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -7036,7 +7268,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Synthetic!$O$17</c:f>
+              <c:f>Synthetic!$P$17</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7071,7 +7303,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Synthetic!$K$18:$K$27</c:f>
+              <c:f>Synthetic!$L$18:$L$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -7110,7 +7342,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Synthetic!$O$18:$O$27</c:f>
+              <c:f>Synthetic!$P$18:$P$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -7302,6 +7534,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7408,6 +7641,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7448,7 +7682,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Synthetic!$L$17</c:f>
+              <c:f>Synthetic!$M$17</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7483,7 +7717,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Synthetic!$K$18:$K$27</c:f>
+              <c:f>Synthetic!$L$18:$L$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -7522,7 +7756,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Synthetic!$L$18:$L$27</c:f>
+              <c:f>Synthetic!$M$18:$M$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -7571,7 +7805,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Synthetic!$N$17</c:f>
+              <c:f>Synthetic!$O$17</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7606,7 +7840,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Synthetic!$K$18:$K$27</c:f>
+              <c:f>Synthetic!$L$18:$L$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -7645,7 +7879,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Synthetic!$N$18:$N$27</c:f>
+              <c:f>Synthetic!$O$18:$O$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -7694,7 +7928,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Synthetic!$P$17</c:f>
+              <c:f>Synthetic!$Q$17</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7729,7 +7963,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Synthetic!$K$18:$K$27</c:f>
+              <c:f>Synthetic!$L$18:$L$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -7768,7 +8002,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Synthetic!$P$18:$P$27</c:f>
+              <c:f>Synthetic!$Q$18:$Q$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -7939,6 +8173,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8046,6 +8281,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8086,7 +8322,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>AOLSampleUSPS!$L$7</c:f>
+              <c:f>AOLSampleUSPS!$M$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8121,7 +8357,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>AOLSampleUSPS!$K$8:$K$18</c:f>
+              <c:f>AOLSampleUSPS!$L$8:$L$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -8163,7 +8399,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>AOLSampleUSPS!$L$8:$L$18</c:f>
+              <c:f>AOLSampleUSPS!$M$8:$M$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -8215,7 +8451,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>AOLSampleUSPS!$N$7</c:f>
+              <c:f>AOLSampleUSPS!$O$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8250,7 +8486,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>AOLSampleUSPS!$K$8:$K$18</c:f>
+              <c:f>AOLSampleUSPS!$L$8:$L$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -8292,7 +8528,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>AOLSampleUSPS!$N$8:$N$18</c:f>
+              <c:f>AOLSampleUSPS!$O$8:$O$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -8344,7 +8580,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>AOLSampleUSPS!$O$7</c:f>
+              <c:f>AOLSampleUSPS!$P$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8379,7 +8615,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>AOLSampleUSPS!$K$8:$K$18</c:f>
+              <c:f>AOLSampleUSPS!$L$8:$L$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -8421,7 +8657,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>AOLSampleUSPS!$O$8:$O$18</c:f>
+              <c:f>AOLSampleUSPS!$P$8:$P$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -8616,6 +8852,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8722,6 +8959,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8762,7 +9000,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Synthetic!$L$17</c:f>
+              <c:f>Synthetic!$M$17</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8797,7 +9035,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Synthetic!$K$18:$K$27</c:f>
+              <c:f>Synthetic!$L$18:$L$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -8836,7 +9074,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Synthetic!$L$18:$L$27</c:f>
+              <c:f>Synthetic!$M$18:$M$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -8885,7 +9123,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Synthetic!$M$17</c:f>
+              <c:f>Synthetic!$N$17</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8920,7 +9158,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Synthetic!$K$18:$K$27</c:f>
+              <c:f>Synthetic!$L$18:$L$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -8959,7 +9197,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Synthetic!$M$18:$M$27</c:f>
+              <c:f>Synthetic!$N$18:$N$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -9151,6 +9389,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -16008,7 +16247,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -16897,7 +17135,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -17005,6 +17242,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -17045,7 +17283,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>AOLSampleUSPS!$L$7</c:f>
+              <c:f>AOLSampleUSPS!$M$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -17080,7 +17318,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>AOLSampleUSPS!$K$8:$K$18</c:f>
+              <c:f>AOLSampleUSPS!$L$8:$L$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -17122,7 +17360,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>AOLSampleUSPS!$L$8:$L$18</c:f>
+              <c:f>AOLSampleUSPS!$M$8:$M$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -17174,7 +17412,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>AOLSampleUSPS!$O$7</c:f>
+              <c:f>AOLSampleUSPS!$P$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -17209,7 +17447,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>AOLSampleUSPS!$K$8:$K$18</c:f>
+              <c:f>AOLSampleUSPS!$L$8:$L$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -17251,7 +17489,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>AOLSampleUSPS!$O$8:$O$18</c:f>
+              <c:f>AOLSampleUSPS!$P$8:$P$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -17303,7 +17541,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>AOLSampleUSPS!$P$7</c:f>
+              <c:f>AOLSampleUSPS!$Q$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -17338,7 +17576,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>AOLSampleUSPS!$K$8:$K$18</c:f>
+              <c:f>AOLSampleUSPS!$L$8:$L$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -17380,7 +17618,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>AOLSampleUSPS!$P$8:$P$18</c:f>
+              <c:f>AOLSampleUSPS!$Q$8:$Q$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -17575,6 +17813,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -17682,6 +17921,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -17722,7 +17962,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>AOLSampleUSPS!$L$7</c:f>
+              <c:f>AOLSampleUSPS!$M$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -17757,7 +17997,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>AOLSampleUSPS!$K$8:$K$18</c:f>
+              <c:f>AOLSampleUSPS!$L$8:$L$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -17799,7 +18039,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>AOLSampleUSPS!$L$8:$L$18</c:f>
+              <c:f>AOLSampleUSPS!$M$8:$M$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -17851,7 +18091,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>AOLSampleUSPS!$M$7</c:f>
+              <c:f>AOLSampleUSPS!$N$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -17886,7 +18126,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>AOLSampleUSPS!$K$8:$K$18</c:f>
+              <c:f>AOLSampleUSPS!$L$8:$L$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -17928,7 +18168,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>AOLSampleUSPS!$M$8:$M$18</c:f>
+              <c:f>AOLSampleUSPS!$N$8:$N$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -18123,6 +18363,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -18230,6 +18471,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -18270,7 +18512,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>SPROT!$L$7</c:f>
+              <c:f>SPROT!$M$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -18305,7 +18547,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>SPROT!$K$8:$K$14</c:f>
+              <c:f>SPROT!$L$8:$L$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -18335,7 +18577,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>SPROT!$L$8:$L$14</c:f>
+              <c:f>SPROT!$M$8:$M$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -18375,7 +18617,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>SPROT!$M$7</c:f>
+              <c:f>SPROT!$N$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -18410,7 +18652,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>SPROT!$K$8:$K$14</c:f>
+              <c:f>SPROT!$L$8:$L$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -18440,7 +18682,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>SPROT!$M$8:$M$14</c:f>
+              <c:f>SPROT!$N$8:$N$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -18480,7 +18722,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>SPROT!$N$7</c:f>
+              <c:f>SPROT!$O$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -18515,7 +18757,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>SPROT!$K$8:$K$14</c:f>
+              <c:f>SPROT!$L$8:$L$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -18545,7 +18787,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>SPROT!$N$8:$N$14</c:f>
+              <c:f>SPROT!$O$8:$O$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -18585,7 +18827,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>SPROT!$O$7</c:f>
+              <c:f>SPROT!$P$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -18620,7 +18862,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>SPROT!$K$8:$K$14</c:f>
+              <c:f>SPROT!$L$8:$L$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -18650,7 +18892,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>SPROT!$O$8:$O$14</c:f>
+              <c:f>SPROT!$P$8:$P$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -18690,7 +18932,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>SPROT!$P$7</c:f>
+              <c:f>SPROT!$Q$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -18725,7 +18967,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>SPROT!$K$8:$K$14</c:f>
+              <c:f>SPROT!$L$8:$L$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -18755,7 +18997,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>SPROT!$P$8:$P$14</c:f>
+              <c:f>SPROT!$Q$8:$Q$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -18938,6 +19180,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -19045,6 +19288,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -19085,7 +19329,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>SPROT!$L$17</c:f>
+              <c:f>SPROT!$M$17</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -19120,7 +19364,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>SPROT!$K$18:$K$26</c:f>
+              <c:f>SPROT!$L$18:$L$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -19156,7 +19400,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>SPROT!$L$18:$L$26</c:f>
+              <c:f>SPROT!$M$18:$M$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -19202,7 +19446,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>SPROT!$M$17</c:f>
+              <c:f>SPROT!$N$17</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -19237,7 +19481,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>SPROT!$K$18:$K$26</c:f>
+              <c:f>SPROT!$L$18:$L$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -19273,7 +19517,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>SPROT!$M$18:$M$26</c:f>
+              <c:f>SPROT!$N$18:$N$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -19319,7 +19563,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>SPROT!$N$17</c:f>
+              <c:f>SPROT!$O$17</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -19354,7 +19598,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>SPROT!$K$18:$K$26</c:f>
+              <c:f>SPROT!$L$18:$L$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -19390,7 +19634,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>SPROT!$N$18:$N$26</c:f>
+              <c:f>SPROT!$O$18:$O$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -19436,7 +19680,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>SPROT!$O$17</c:f>
+              <c:f>SPROT!$P$17</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -19471,7 +19715,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>SPROT!$K$18:$K$26</c:f>
+              <c:f>SPROT!$L$18:$L$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -19507,7 +19751,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>SPROT!$O$18:$O$26</c:f>
+              <c:f>SPROT!$P$18:$P$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -19553,7 +19797,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>SPROT!$P$17</c:f>
+              <c:f>SPROT!$Q$17</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -19588,7 +19832,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>SPROT!$K$18:$K$26</c:f>
+              <c:f>SPROT!$L$18:$L$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -19624,7 +19868,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>SPROT!$P$18:$P$26</c:f>
+              <c:f>SPROT!$Q$18:$Q$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -19662,6 +19906,123 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-261A-4476-B842-BE25122A73CE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>SPROT!$R$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.001</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>SPROT!$L$18:$L$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15848</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25118</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39810</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>63095</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>158489</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>251188</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>466158</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>SPROT!$R$18:$R$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>3.6320000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.1360000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.8369999999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.3730000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.1210000000000004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.1300000000000008</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12.461</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17.82</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>29.943000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-95CC-4EFF-A950-FBC689C8EF67}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -19813,6 +20174,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -19920,6 +20282,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -19960,7 +20323,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>SPROT!$L$7</c:f>
+              <c:f>SPROT!$M$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -19995,7 +20358,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>SPROT!$K$8:$K$14</c:f>
+              <c:f>SPROT!$L$8:$L$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -20025,7 +20388,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>SPROT!$L$8:$L$14</c:f>
+              <c:f>SPROT!$M$8:$M$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -20065,7 +20428,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>SPROT!$N$7</c:f>
+              <c:f>SPROT!$O$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -20100,7 +20463,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>SPROT!$K$8:$K$14</c:f>
+              <c:f>SPROT!$L$8:$L$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -20130,7 +20493,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>SPROT!$N$8:$N$14</c:f>
+              <c:f>SPROT!$O$8:$O$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -20170,7 +20533,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>SPROT!$O$7</c:f>
+              <c:f>SPROT!$P$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -20205,7 +20568,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>SPROT!$K$8:$K$14</c:f>
+              <c:f>SPROT!$L$8:$L$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -20235,7 +20598,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>SPROT!$O$8:$O$14</c:f>
+              <c:f>SPROT!$P$8:$P$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -20418,6 +20781,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -20525,6 +20889,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -20565,7 +20930,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>SPROT!$L$17</c:f>
+              <c:f>SPROT!$M$17</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -20600,7 +20965,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>SPROT!$K$18:$K$26</c:f>
+              <c:f>SPROT!$L$18:$L$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -20636,7 +21001,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>SPROT!$L$18:$L$26</c:f>
+              <c:f>SPROT!$M$18:$M$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -20682,7 +21047,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>SPROT!$N$17</c:f>
+              <c:f>SPROT!$O$17</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -20717,7 +21082,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>SPROT!$K$18:$K$26</c:f>
+              <c:f>SPROT!$L$18:$L$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -20753,7 +21118,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>SPROT!$N$18:$N$26</c:f>
+              <c:f>SPROT!$O$18:$O$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -20799,7 +21164,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>SPROT!$O$17</c:f>
+              <c:f>SPROT!$P$17</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -20834,7 +21199,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>SPROT!$K$18:$K$26</c:f>
+              <c:f>SPROT!$L$18:$L$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -20870,7 +21235,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>SPROT!$O$18:$O$26</c:f>
+              <c:f>SPROT!$P$18:$P$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -21059,6 +21424,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -21166,6 +21532,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -21206,7 +21573,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>SPROT!$L$17</c:f>
+              <c:f>SPROT!$M$17</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -21241,7 +21608,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>SPROT!$K$18:$K$26</c:f>
+              <c:f>SPROT!$L$18:$L$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -21277,7 +21644,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>SPROT!$L$18:$L$26</c:f>
+              <c:f>SPROT!$M$18:$M$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -21323,7 +21690,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>SPROT!$O$17</c:f>
+              <c:f>SPROT!$P$17</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -21358,7 +21725,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>SPROT!$K$18:$K$26</c:f>
+              <c:f>SPROT!$L$18:$L$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -21394,7 +21761,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>SPROT!$O$18:$O$26</c:f>
+              <c:f>SPROT!$P$18:$P$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -21440,7 +21807,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>SPROT!$P$17</c:f>
+              <c:f>SPROT!$Q$17</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -21475,7 +21842,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>SPROT!$K$18:$K$26</c:f>
+              <c:f>SPROT!$L$18:$L$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -21511,7 +21878,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>SPROT!$P$18:$P$26</c:f>
+              <c:f>SPROT!$Q$18:$Q$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -21700,6 +22067,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -37338,13 +37706,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>433387</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
+      <xdr:col>25</xdr:col>
       <xdr:colOff>204787</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
@@ -37368,13 +37736,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
+      <xdr:col>25</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
+      <xdr:col>32</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -37400,13 +37768,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>447675</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
+      <xdr:col>25</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -37432,13 +37800,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
+      <xdr:col>25</xdr:col>
       <xdr:colOff>257175</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
+      <xdr:col>32</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
@@ -37469,13 +37837,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>290512</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>61912</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
@@ -37499,16 +37867,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -37529,13 +37897,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>361950</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
+      <xdr:col>31</xdr:col>
       <xdr:colOff>133350</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
@@ -37561,13 +37929,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>361950</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
+      <xdr:col>31</xdr:col>
       <xdr:colOff>133350</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -37593,13 +37961,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>276225</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
       <xdr:row>42</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
@@ -37625,13 +37993,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
+      <xdr:col>31</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
       <xdr:row>42</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
@@ -37662,16 +38030,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>404812</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>395287</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>176212</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>166687</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -37692,13 +38060,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
+      <xdr:col>25</xdr:col>
       <xdr:colOff>428625</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
+      <xdr:col>32</xdr:col>
       <xdr:colOff>200025</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
@@ -37724,13 +38092,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>476250</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
+      <xdr:col>25</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
@@ -37756,13 +38124,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
+      <xdr:col>25</xdr:col>
       <xdr:colOff>504825</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
+      <xdr:col>32</xdr:col>
       <xdr:colOff>276225</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
@@ -37793,16 +38161,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>252412</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>61912</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>23812</xdr:colOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>519112</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -37823,13 +38191,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
+      <xdr:col>25</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
+      <xdr:col>32</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
@@ -37855,16 +38223,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>357187</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>119062</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>128587</xdr:colOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>576262</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -37885,13 +38253,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
+      <xdr:col>25</xdr:col>
       <xdr:colOff>371475</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
+      <xdr:col>32</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
@@ -37917,16 +38285,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -37949,13 +38317,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
+      <xdr:col>25</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
+      <xdr:col>31</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
       <xdr:row>45</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
@@ -38490,15 +38858,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C7:P30"/>
+  <dimension ref="C7:Q31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8:E18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="7" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:17" x14ac:dyDescent="0.3">
       <c r="E7" t="s">
         <v>0</v>
       </c>
@@ -38514,23 +38882,23 @@
       <c r="I7" t="s">
         <v>4</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>0</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
         <v>1</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>2</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>3</v>
       </c>
-      <c r="P7" t="s">
+      <c r="Q7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C8">
         <v>1</v>
       </c>
@@ -38552,31 +38920,31 @@
       <c r="I8">
         <v>529</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>10000</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <f>E8/1000</f>
         <v>0.67600000000000005</v>
       </c>
-      <c r="M8">
-        <f t="shared" ref="M8:P18" si="0">F8/1000</f>
+      <c r="N8">
+        <f>F8/1000</f>
         <v>0.61099999999999999</v>
       </c>
-      <c r="N8">
-        <f t="shared" si="0"/>
+      <c r="O8">
+        <f>G8/1000</f>
         <v>1.385</v>
       </c>
-      <c r="O8">
-        <f t="shared" si="0"/>
+      <c r="P8">
+        <f>H8/1000</f>
         <v>1.131</v>
       </c>
-      <c r="P8">
-        <f t="shared" si="0"/>
+      <c r="Q8">
+        <f>I8/1000</f>
         <v>0.52900000000000003</v>
       </c>
     </row>
-    <row r="9" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C9">
         <v>2</v>
       </c>
@@ -38598,31 +38966,31 @@
       <c r="I9">
         <v>664</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>15848</v>
       </c>
-      <c r="L9">
-        <f t="shared" ref="L9:L18" si="1">E9/1000</f>
+      <c r="M9">
+        <f t="shared" ref="M9:M18" si="0">E9/1000</f>
         <v>0.85799999999999998</v>
       </c>
-      <c r="M9">
-        <f t="shared" si="0"/>
+      <c r="N9">
+        <f>F9/1000</f>
         <v>0.73099999999999998</v>
       </c>
-      <c r="N9">
-        <f t="shared" si="0"/>
+      <c r="O9">
+        <f>G9/1000</f>
         <v>2.4180000000000001</v>
       </c>
-      <c r="O9">
-        <f t="shared" si="0"/>
+      <c r="P9">
+        <f>H9/1000</f>
         <v>1.6319999999999999</v>
       </c>
-      <c r="P9">
-        <f t="shared" si="0"/>
+      <c r="Q9">
+        <f>I9/1000</f>
         <v>0.66400000000000003</v>
       </c>
     </row>
-    <row r="10" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C10">
         <v>3</v>
       </c>
@@ -38644,31 +39012,31 @@
       <c r="I10">
         <v>913</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>25118</v>
-      </c>
-      <c r="L10">
-        <f t="shared" si="1"/>
-        <v>1.069</v>
       </c>
       <c r="M10">
         <f t="shared" si="0"/>
+        <v>1.069</v>
+      </c>
+      <c r="N10">
+        <f>F10/1000</f>
         <v>0.99399999999999999</v>
       </c>
-      <c r="N10">
-        <f t="shared" si="0"/>
+      <c r="O10">
+        <f>G10/1000</f>
         <v>4.875</v>
       </c>
-      <c r="O10">
-        <f t="shared" si="0"/>
+      <c r="P10">
+        <f>H10/1000</f>
         <v>2.1890000000000001</v>
       </c>
-      <c r="P10">
-        <f t="shared" si="0"/>
+      <c r="Q10">
+        <f>I10/1000</f>
         <v>0.91300000000000003</v>
       </c>
     </row>
-    <row r="11" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C11">
         <v>4</v>
       </c>
@@ -38690,31 +39058,31 @@
       <c r="I11">
         <v>1203</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>39810</v>
-      </c>
-      <c r="L11">
-        <f t="shared" si="1"/>
-        <v>1.5029999999999999</v>
       </c>
       <c r="M11">
         <f t="shared" si="0"/>
+        <v>1.5029999999999999</v>
+      </c>
+      <c r="N11">
+        <f>F11/1000</f>
         <v>1.3939999999999999</v>
       </c>
-      <c r="N11">
-        <f t="shared" si="0"/>
+      <c r="O11">
+        <f>G11/1000</f>
         <v>11.037000000000001</v>
       </c>
-      <c r="O11">
-        <f t="shared" si="0"/>
+      <c r="P11">
+        <f>H11/1000</f>
         <v>4.1479999999999997</v>
       </c>
-      <c r="P11">
-        <f t="shared" si="0"/>
+      <c r="Q11">
+        <f>I11/1000</f>
         <v>1.2030000000000001</v>
       </c>
     </row>
-    <row r="12" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C12">
         <v>5</v>
       </c>
@@ -38736,31 +39104,31 @@
       <c r="I12">
         <v>1902</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>63095</v>
-      </c>
-      <c r="L12">
-        <f t="shared" si="1"/>
-        <v>2.355</v>
       </c>
       <c r="M12">
         <f t="shared" si="0"/>
+        <v>2.355</v>
+      </c>
+      <c r="N12">
+        <f>F12/1000</f>
         <v>2.1949999999999998</v>
       </c>
-      <c r="N12">
-        <f t="shared" si="0"/>
+      <c r="O12">
+        <f>G12/1000</f>
         <v>27.213000000000001</v>
       </c>
-      <c r="O12">
-        <f t="shared" si="0"/>
+      <c r="P12">
+        <f>H12/1000</f>
         <v>6.2249999999999996</v>
       </c>
-      <c r="P12">
-        <f t="shared" si="0"/>
+      <c r="Q12">
+        <f>I12/1000</f>
         <v>1.9019999999999999</v>
       </c>
     </row>
-    <row r="13" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C13">
         <v>6</v>
       </c>
@@ -38782,31 +39150,31 @@
       <c r="I13">
         <v>2533</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>100000</v>
-      </c>
-      <c r="L13">
-        <f t="shared" si="1"/>
-        <v>3.1720000000000002</v>
       </c>
       <c r="M13">
         <f t="shared" si="0"/>
+        <v>3.1720000000000002</v>
+      </c>
+      <c r="N13">
+        <f>F13/1000</f>
         <v>2.9249999999999998</v>
       </c>
-      <c r="N13">
-        <f t="shared" si="0"/>
+      <c r="O13">
+        <f>G13/1000</f>
         <v>67.323999999999998</v>
       </c>
-      <c r="O13">
-        <f t="shared" si="0"/>
+      <c r="P13">
+        <f>H13/1000</f>
         <v>13.332000000000001</v>
       </c>
-      <c r="P13">
-        <f t="shared" si="0"/>
+      <c r="Q13">
+        <f>I13/1000</f>
         <v>2.5329999999999999</v>
       </c>
     </row>
-    <row r="14" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C14">
         <v>7</v>
       </c>
@@ -38828,31 +39196,31 @@
       <c r="I14">
         <v>3815</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>158489</v>
-      </c>
-      <c r="L14">
-        <f t="shared" si="1"/>
-        <v>4.8860000000000001</v>
       </c>
       <c r="M14">
         <f t="shared" si="0"/>
+        <v>4.8860000000000001</v>
+      </c>
+      <c r="N14">
+        <f>F14/1000</f>
         <v>4.41</v>
       </c>
-      <c r="N14">
-        <f t="shared" si="0"/>
+      <c r="O14">
+        <f>G14/1000</f>
         <v>158.096</v>
       </c>
-      <c r="O14">
-        <f t="shared" si="0"/>
+      <c r="P14">
+        <f>H14/1000</f>
         <v>26.391999999999999</v>
       </c>
-      <c r="P14">
-        <f t="shared" si="0"/>
+      <c r="Q14">
+        <f>I14/1000</f>
         <v>3.8149999999999999</v>
       </c>
     </row>
-    <row r="15" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C15">
         <v>8</v>
       </c>
@@ -38874,31 +39242,31 @@
       <c r="I15">
         <v>5709</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>251188</v>
-      </c>
-      <c r="L15">
-        <f t="shared" si="1"/>
-        <v>7.7960000000000003</v>
       </c>
       <c r="M15">
         <f t="shared" si="0"/>
+        <v>7.7960000000000003</v>
+      </c>
+      <c r="N15">
+        <f>F15/1000</f>
         <v>7.2629999999999999</v>
       </c>
-      <c r="N15">
-        <f t="shared" si="0"/>
+      <c r="O15">
+        <f>G15/1000</f>
         <v>414.86399999999998</v>
       </c>
-      <c r="O15">
-        <f t="shared" si="0"/>
+      <c r="P15">
+        <f>H15/1000</f>
         <v>62.813000000000002</v>
       </c>
-      <c r="P15">
-        <f t="shared" si="0"/>
+      <c r="Q15">
+        <f>I15/1000</f>
         <v>5.7089999999999996</v>
       </c>
     </row>
-    <row r="16" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C16">
         <v>9</v>
       </c>
@@ -38920,31 +39288,31 @@
       <c r="I16">
         <v>9439</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>398107</v>
-      </c>
-      <c r="L16">
-        <f t="shared" si="1"/>
-        <v>11.885</v>
       </c>
       <c r="M16">
         <f t="shared" si="0"/>
+        <v>11.885</v>
+      </c>
+      <c r="N16">
+        <f>F16/1000</f>
         <v>11.151999999999999</v>
       </c>
-      <c r="N16">
-        <f t="shared" si="0"/>
+      <c r="O16">
+        <f>G16/1000</f>
         <v>1070.865</v>
       </c>
-      <c r="O16">
-        <f t="shared" si="0"/>
+      <c r="P16">
+        <f>H16/1000</f>
         <v>145.00299999999999</v>
       </c>
-      <c r="P16">
-        <f t="shared" si="0"/>
+      <c r="Q16">
+        <f>I16/1000</f>
         <v>9.4390000000000001</v>
       </c>
     </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C17">
         <v>10</v>
       </c>
@@ -38966,31 +39334,31 @@
       <c r="I17">
         <v>15126</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>630957</v>
-      </c>
-      <c r="L17">
-        <f t="shared" si="1"/>
-        <v>19.347999999999999</v>
       </c>
       <c r="M17">
         <f t="shared" si="0"/>
+        <v>19.347999999999999</v>
+      </c>
+      <c r="N17">
+        <f>F17/1000</f>
         <v>18.283999999999999</v>
       </c>
-      <c r="N17">
-        <f t="shared" si="0"/>
+      <c r="O17">
+        <f>G17/1000</f>
         <v>2816.54</v>
       </c>
-      <c r="O17">
-        <f t="shared" si="0"/>
+      <c r="P17">
+        <f>H17/1000</f>
         <v>354.38799999999998</v>
       </c>
-      <c r="P17">
-        <f t="shared" si="0"/>
+      <c r="Q17">
+        <f>I17/1000</f>
         <v>15.125999999999999</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C18">
         <v>11</v>
       </c>
@@ -39012,94 +39380,171 @@
       <c r="I18">
         <v>24215</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>1000000</v>
-      </c>
-      <c r="L18">
-        <f t="shared" si="1"/>
-        <v>40.935000000000002</v>
       </c>
       <c r="M18">
         <f t="shared" si="0"/>
+        <v>40.935000000000002</v>
+      </c>
+      <c r="N18">
+        <f>F18/1000</f>
         <v>40.165999999999997</v>
       </c>
-      <c r="N18">
-        <f t="shared" si="0"/>
+      <c r="O18">
+        <f>G18/1000</f>
         <v>8115.0550000000003</v>
       </c>
-      <c r="O18">
-        <f t="shared" si="0"/>
+      <c r="P18">
+        <f>H18/1000</f>
         <v>913.60199999999998</v>
       </c>
-      <c r="P18">
-        <f t="shared" si="0"/>
+      <c r="Q18">
+        <f>I18/1000</f>
         <v>24.215</v>
       </c>
     </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="L20">
-        <f>L8/P8</f>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.3">
+      <c r="D20">
+        <v>0.01</v>
+      </c>
+      <c r="E20">
+        <v>0.02</v>
+      </c>
+      <c r="F20">
+        <v>0.03</v>
+      </c>
+      <c r="G20">
+        <v>1E-3</v>
+      </c>
+      <c r="H20">
+        <v>2E-3</v>
+      </c>
+      <c r="I20">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="J20">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="M20">
+        <f>M8/Q8</f>
         <v>1.277882797731569</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="L21">
-        <f t="shared" ref="L21:L30" si="2">L9/P9</f>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.3">
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <f t="shared" ref="M21:M30" si="1">M9/Q9</f>
         <v>1.292168674698795</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="L22">
-        <f t="shared" si="2"/>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.3">
+      <c r="C22">
+        <v>2</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="1"/>
         <v>1.1708652792990142</v>
       </c>
     </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="L23">
-        <f t="shared" si="2"/>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.3">
+      <c r="C23">
+        <v>3</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="1"/>
         <v>1.2493765586034911</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="L24">
-        <f t="shared" si="2"/>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.3">
+      <c r="C24">
+        <v>4</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="1"/>
         <v>1.2381703470031546</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="L25">
-        <f t="shared" si="2"/>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.3">
+      <c r="C25">
+        <v>5</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="1"/>
         <v>1.252270035530991</v>
       </c>
     </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="L26">
-        <f t="shared" si="2"/>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.3">
+      <c r="C26">
+        <v>6</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="1"/>
         <v>1.2807339449541284</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="L27">
-        <f t="shared" si="2"/>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.3">
+      <c r="C27">
+        <v>7</v>
+      </c>
+      <c r="M27">
+        <f t="shared" si="1"/>
         <v>1.3655631459099669</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="L28">
-        <f t="shared" si="2"/>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.3">
+      <c r="C28">
+        <v>8</v>
+      </c>
+      <c r="M28">
+        <f t="shared" si="1"/>
         <v>1.2591376205106473</v>
       </c>
     </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="L29">
-        <f t="shared" si="2"/>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.3">
+      <c r="C29">
+        <v>9</v>
+      </c>
+      <c r="M29">
+        <f t="shared" si="1"/>
         <v>1.2791220415179161</v>
       </c>
     </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="L30">
-        <f t="shared" si="2"/>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.3">
+      <c r="C30">
+        <v>10</v>
+      </c>
+      <c r="M30">
+        <f t="shared" si="1"/>
         <v>1.6904811067520134</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.3">
+      <c r="C31">
+        <v>11</v>
+      </c>
+      <c r="D31">
+        <v>9688</v>
+      </c>
+      <c r="E31">
+        <v>9629</v>
+      </c>
+      <c r="F31">
+        <v>9415</v>
+      </c>
+      <c r="G31">
+        <v>9226</v>
+      </c>
+      <c r="H31">
+        <v>9234</v>
+      </c>
+      <c r="I31">
+        <v>9201</v>
+      </c>
+      <c r="J31">
+        <v>9176</v>
       </c>
     </row>
   </sheetData>
@@ -39111,15 +39556,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D7:P38"/>
+  <dimension ref="D7:R39"/>
   <sheetViews>
-    <sheetView topLeftCell="J4" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18:E26"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="O29" sqref="O29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="7" spans="4:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="4:17" x14ac:dyDescent="0.3">
       <c r="E7" t="s">
         <v>0</v>
       </c>
@@ -39135,23 +39580,23 @@
       <c r="I7" t="s">
         <v>4</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>0</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
         <v>1</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>2</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>3</v>
       </c>
-      <c r="P7" t="s">
+      <c r="Q7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="4:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="4:17" x14ac:dyDescent="0.3">
       <c r="D8">
         <v>1000</v>
       </c>
@@ -39170,31 +39615,31 @@
       <c r="I8">
         <v>2363</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>1000</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <f>E8/1000</f>
         <v>2.57</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <f>F8/1000</f>
         <v>2.3969999999999998</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <f>G8/1000</f>
         <v>2.3839999999999999</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <f>H8/1000</f>
         <v>2.2949999999999999</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <f>I8/1000</f>
         <v>2.363</v>
       </c>
     </row>
-    <row r="9" spans="4:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="4:17" x14ac:dyDescent="0.3">
       <c r="D9">
         <v>3000</v>
       </c>
@@ -39213,31 +39658,31 @@
       <c r="I9">
         <v>2397</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>3000</v>
       </c>
-      <c r="L9">
-        <f t="shared" ref="L9:M14" si="0">E9/1000</f>
+      <c r="M9">
+        <f>E9/1000</f>
         <v>2.7690000000000001</v>
       </c>
-      <c r="M9">
-        <f t="shared" si="0"/>
+      <c r="N9">
+        <f>F9/1000</f>
         <v>2.3530000000000002</v>
       </c>
-      <c r="N9">
-        <f t="shared" ref="N9:P14" si="1">G9/1000</f>
+      <c r="O9">
+        <f>G9/1000</f>
         <v>2.3239999999999998</v>
       </c>
-      <c r="O9">
-        <f t="shared" si="1"/>
+      <c r="P9">
+        <f>H9/1000</f>
         <v>2.5950000000000002</v>
       </c>
-      <c r="P9">
-        <f t="shared" si="1"/>
+      <c r="Q9">
+        <f>I9/1000</f>
         <v>2.3969999999999998</v>
       </c>
     </row>
-    <row r="10" spans="4:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="4:17" x14ac:dyDescent="0.3">
       <c r="D10">
         <v>10000</v>
       </c>
@@ -39256,31 +39701,31 @@
       <c r="I10">
         <v>2627</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>10000</v>
       </c>
-      <c r="L10">
-        <f t="shared" si="0"/>
+      <c r="M10">
+        <f>E10/1000</f>
         <v>2.9950000000000001</v>
       </c>
-      <c r="M10">
-        <f t="shared" si="0"/>
+      <c r="N10">
+        <f>F10/1000</f>
         <v>3.1589999999999998</v>
       </c>
-      <c r="N10">
-        <f t="shared" si="1"/>
+      <c r="O10">
+        <f>G10/1000</f>
         <v>2.7360000000000002</v>
       </c>
-      <c r="O10">
-        <f t="shared" si="1"/>
+      <c r="P10">
+        <f>H10/1000</f>
         <v>3.0070000000000001</v>
       </c>
-      <c r="P10">
-        <f t="shared" si="1"/>
+      <c r="Q10">
+        <f>I10/1000</f>
         <v>2.6269999999999998</v>
       </c>
     </row>
-    <row r="11" spans="4:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="4:17" x14ac:dyDescent="0.3">
       <c r="D11">
         <v>30000</v>
       </c>
@@ -39299,31 +39744,31 @@
       <c r="I11">
         <v>3460</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>30000</v>
       </c>
-      <c r="L11">
-        <f t="shared" si="0"/>
+      <c r="M11">
+        <f>E11/1000</f>
         <v>4.0090000000000003</v>
       </c>
-      <c r="M11">
-        <f t="shared" si="0"/>
+      <c r="N11">
+        <f>F11/1000</f>
         <v>4.8070000000000004</v>
       </c>
-      <c r="N11">
-        <f t="shared" si="1"/>
+      <c r="O11">
+        <f>G11/1000</f>
         <v>4.2569999999999997</v>
       </c>
-      <c r="O11">
-        <f t="shared" si="1"/>
+      <c r="P11">
+        <f>H11/1000</f>
         <v>4.6239999999999997</v>
       </c>
-      <c r="P11">
-        <f t="shared" si="1"/>
+      <c r="Q11">
+        <f>I11/1000</f>
         <v>3.46</v>
       </c>
     </row>
-    <row r="12" spans="4:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="4:17" x14ac:dyDescent="0.3">
       <c r="D12">
         <v>100000</v>
       </c>
@@ -39342,31 +39787,31 @@
       <c r="I12">
         <v>5589</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>100000</v>
       </c>
-      <c r="L12">
-        <f t="shared" si="0"/>
+      <c r="M12">
+        <f>E12/1000</f>
         <v>6.6079999999999997</v>
       </c>
-      <c r="M12">
-        <f t="shared" si="0"/>
+      <c r="N12">
+        <f>F12/1000</f>
         <v>8.4570000000000007</v>
       </c>
-      <c r="N12">
-        <f t="shared" si="1"/>
+      <c r="O12">
+        <f>G12/1000</f>
         <v>13.195</v>
       </c>
-      <c r="O12">
-        <f t="shared" si="1"/>
+      <c r="P12">
+        <f>H12/1000</f>
         <v>8.3010000000000002</v>
       </c>
-      <c r="P12">
-        <f t="shared" si="1"/>
+      <c r="Q12">
+        <f>I12/1000</f>
         <v>5.5890000000000004</v>
       </c>
     </row>
-    <row r="13" spans="4:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="4:17" x14ac:dyDescent="0.3">
       <c r="D13">
         <v>300000</v>
       </c>
@@ -39385,31 +39830,31 @@
       <c r="I13">
         <v>12061</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>300000</v>
       </c>
-      <c r="L13">
-        <f t="shared" si="0"/>
+      <c r="M13">
+        <f>E13/1000</f>
         <v>14.627000000000001</v>
       </c>
-      <c r="M13">
-        <f t="shared" si="0"/>
+      <c r="N13">
+        <f>F13/1000</f>
         <v>19.792000000000002</v>
       </c>
-      <c r="N13">
-        <f t="shared" si="1"/>
+      <c r="O13">
+        <f>G13/1000</f>
         <v>78.876000000000005</v>
       </c>
-      <c r="O13">
-        <f t="shared" si="1"/>
+      <c r="P13">
+        <f>H13/1000</f>
         <v>19.192</v>
       </c>
-      <c r="P13">
-        <f t="shared" si="1"/>
+      <c r="Q13">
+        <f>I13/1000</f>
         <v>12.061</v>
       </c>
     </row>
-    <row r="14" spans="4:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="4:17" x14ac:dyDescent="0.3">
       <c r="D14">
         <v>466158</v>
       </c>
@@ -39428,31 +39873,31 @@
       <c r="I14">
         <v>19683</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>466158</v>
       </c>
-      <c r="L14">
-        <f t="shared" si="0"/>
+      <c r="M14">
+        <f>E14/1000</f>
         <v>23.859000000000002</v>
       </c>
-      <c r="M14">
-        <f t="shared" si="0"/>
+      <c r="N14">
+        <f>F14/1000</f>
         <v>28.792000000000002</v>
       </c>
-      <c r="N14">
-        <f t="shared" si="1"/>
+      <c r="O14">
+        <f>G14/1000</f>
         <v>172.03299999999999</v>
       </c>
-      <c r="O14">
-        <f t="shared" si="1"/>
+      <c r="P14">
+        <f>H14/1000</f>
         <v>26.567</v>
       </c>
-      <c r="P14">
-        <f t="shared" si="1"/>
+      <c r="Q14">
+        <f>I14/1000</f>
         <v>19.683</v>
       </c>
     </row>
-    <row r="17" spans="4:16" x14ac:dyDescent="0.3">
+    <row r="17" spans="4:18" x14ac:dyDescent="0.3">
       <c r="E17" t="s">
         <v>0</v>
       </c>
@@ -39468,23 +39913,29 @@
       <c r="I17" t="s">
         <v>4</v>
       </c>
-      <c r="L17" t="s">
+      <c r="J17">
+        <v>1E-3</v>
+      </c>
+      <c r="M17" t="s">
         <v>0</v>
       </c>
-      <c r="M17" t="s">
+      <c r="N17" t="s">
         <v>1</v>
       </c>
-      <c r="N17" t="s">
+      <c r="O17" t="s">
         <v>2</v>
       </c>
-      <c r="O17" t="s">
+      <c r="P17" t="s">
         <v>3</v>
       </c>
-      <c r="P17" t="s">
+      <c r="Q17" t="s">
         <v>4</v>
       </c>
+      <c r="R17">
+        <v>1E-3</v>
+      </c>
     </row>
-    <row r="18" spans="4:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D18">
         <v>10000</v>
       </c>
@@ -39503,31 +39954,38 @@
       <c r="I18">
         <v>2629</v>
       </c>
-      <c r="K18">
+      <c r="J18">
+        <v>3632</v>
+      </c>
+      <c r="L18">
         <v>10000</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <f>E18/1000</f>
         <v>2.9889999999999999</v>
       </c>
-      <c r="M18">
-        <f t="shared" ref="M18:P26" si="2">F18/1000</f>
+      <c r="N18">
+        <f>F18/1000</f>
         <v>3.0070000000000001</v>
       </c>
-      <c r="N18">
-        <f t="shared" si="2"/>
+      <c r="O18">
+        <f>G18/1000</f>
         <v>2.8919999999999999</v>
       </c>
-      <c r="O18">
-        <f t="shared" si="2"/>
+      <c r="P18">
+        <f>H18/1000</f>
         <v>3.093</v>
       </c>
-      <c r="P18">
-        <f t="shared" si="2"/>
+      <c r="Q18">
+        <f>I18/1000</f>
         <v>2.629</v>
       </c>
+      <c r="R18">
+        <f>J18/1000</f>
+        <v>3.6320000000000001</v>
+      </c>
     </row>
-    <row r="19" spans="4:16" x14ac:dyDescent="0.3">
+    <row r="19" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D19">
         <v>15848</v>
       </c>
@@ -39546,31 +40004,38 @@
       <c r="I19">
         <v>2755</v>
       </c>
-      <c r="K19">
+      <c r="J19">
+        <v>4136</v>
+      </c>
+      <c r="L19">
         <v>15848</v>
       </c>
-      <c r="L19">
-        <f t="shared" ref="L19:L26" si="3">E19/1000</f>
+      <c r="M19">
+        <f t="shared" ref="M19:M26" si="0">E19/1000</f>
         <v>3.4420000000000002</v>
       </c>
-      <c r="M19">
-        <f t="shared" si="2"/>
+      <c r="N19">
+        <f>F19/1000</f>
         <v>3.5459999999999998</v>
       </c>
-      <c r="N19">
-        <f t="shared" si="2"/>
+      <c r="O19">
+        <f>G19/1000</f>
         <v>3.109</v>
       </c>
-      <c r="O19">
-        <f t="shared" si="2"/>
+      <c r="P19">
+        <f>H19/1000</f>
         <v>3.7450000000000001</v>
       </c>
-      <c r="P19">
-        <f t="shared" si="2"/>
+      <c r="Q19">
+        <f>I19/1000</f>
         <v>2.7549999999999999</v>
       </c>
+      <c r="R19">
+        <f>J19/1000</f>
+        <v>4.1360000000000001</v>
+      </c>
     </row>
-    <row r="20" spans="4:16" x14ac:dyDescent="0.3">
+    <row r="20" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D20">
         <v>25118</v>
       </c>
@@ -39589,31 +40054,38 @@
       <c r="I20">
         <v>3067</v>
       </c>
-      <c r="K20">
+      <c r="J20">
+        <v>4837</v>
+      </c>
+      <c r="L20">
         <v>25118</v>
       </c>
-      <c r="L20">
-        <f t="shared" si="3"/>
+      <c r="M20">
+        <f t="shared" si="0"/>
         <v>3.782</v>
       </c>
-      <c r="M20">
-        <f t="shared" si="2"/>
+      <c r="N20">
+        <f>F20/1000</f>
         <v>4.4820000000000002</v>
       </c>
-      <c r="N20">
-        <f t="shared" si="2"/>
+      <c r="O20">
+        <f>G20/1000</f>
         <v>3.7959999999999998</v>
       </c>
-      <c r="O20">
-        <f t="shared" si="2"/>
+      <c r="P20">
+        <f>H20/1000</f>
         <v>4.29</v>
       </c>
-      <c r="P20">
-        <f t="shared" si="2"/>
+      <c r="Q20">
+        <f>I20/1000</f>
         <v>3.0670000000000002</v>
       </c>
+      <c r="R20">
+        <f>J20/1000</f>
+        <v>4.8369999999999997</v>
+      </c>
     </row>
-    <row r="21" spans="4:16" x14ac:dyDescent="0.3">
+    <row r="21" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D21">
         <v>39810</v>
       </c>
@@ -39632,31 +40104,38 @@
       <c r="I21">
         <v>4612</v>
       </c>
-      <c r="K21">
+      <c r="J21">
+        <v>5373</v>
+      </c>
+      <c r="L21">
         <v>39810</v>
       </c>
-      <c r="L21">
-        <f t="shared" si="3"/>
+      <c r="M21">
+        <f t="shared" si="0"/>
         <v>5.694</v>
       </c>
-      <c r="M21">
-        <f t="shared" si="2"/>
+      <c r="N21">
+        <f>F21/1000</f>
         <v>5.0439999999999996</v>
       </c>
-      <c r="N21">
-        <f t="shared" si="2"/>
+      <c r="O21">
+        <f>G21/1000</f>
         <v>4.9960000000000004</v>
       </c>
-      <c r="O21">
-        <f t="shared" si="2"/>
+      <c r="P21">
+        <f>H21/1000</f>
         <v>5.12</v>
       </c>
-      <c r="P21">
-        <f t="shared" si="2"/>
+      <c r="Q21">
+        <f>I21/1000</f>
         <v>4.6120000000000001</v>
       </c>
+      <c r="R21">
+        <f>J21/1000</f>
+        <v>5.3730000000000002</v>
+      </c>
     </row>
-    <row r="22" spans="4:16" x14ac:dyDescent="0.3">
+    <row r="22" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D22">
         <v>63095</v>
       </c>
@@ -39675,31 +40154,38 @@
       <c r="I22">
         <v>5296</v>
       </c>
-      <c r="K22">
+      <c r="J22">
+        <v>7121</v>
+      </c>
+      <c r="L22">
         <v>63095</v>
       </c>
-      <c r="L22">
-        <f t="shared" si="3"/>
+      <c r="M22">
+        <f t="shared" si="0"/>
         <v>7.1909999999999998</v>
       </c>
-      <c r="M22">
-        <f t="shared" si="2"/>
+      <c r="N22">
+        <f>F22/1000</f>
         <v>6.61</v>
       </c>
-      <c r="N22">
-        <f t="shared" si="2"/>
+      <c r="O22">
+        <f>G22/1000</f>
         <v>7.6820000000000004</v>
       </c>
-      <c r="O22">
-        <f t="shared" si="2"/>
+      <c r="P22">
+        <f>H22/1000</f>
         <v>7.2210000000000001</v>
       </c>
-      <c r="P22">
-        <f t="shared" si="2"/>
+      <c r="Q22">
+        <f>I22/1000</f>
         <v>5.2960000000000003</v>
       </c>
+      <c r="R22">
+        <f>J22/1000</f>
+        <v>7.1210000000000004</v>
+      </c>
     </row>
-    <row r="23" spans="4:16" x14ac:dyDescent="0.3">
+    <row r="23" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D23">
         <v>100000</v>
       </c>
@@ -39718,31 +40204,38 @@
       <c r="I23">
         <v>5635</v>
       </c>
-      <c r="K23">
+      <c r="J23">
+        <v>9130</v>
+      </c>
+      <c r="L23">
         <v>100000</v>
       </c>
-      <c r="L23">
-        <f t="shared" si="3"/>
+      <c r="M23">
+        <f t="shared" si="0"/>
         <v>6.7480000000000002</v>
       </c>
-      <c r="M23">
-        <f t="shared" si="2"/>
+      <c r="N23">
+        <f>F23/1000</f>
         <v>8.5730000000000004</v>
       </c>
-      <c r="N23">
-        <f t="shared" si="2"/>
+      <c r="O23">
+        <f>G23/1000</f>
         <v>13.361000000000001</v>
       </c>
-      <c r="O23">
-        <f t="shared" si="2"/>
+      <c r="P23">
+        <f>H23/1000</f>
         <v>8.15</v>
       </c>
-      <c r="P23">
-        <f t="shared" si="2"/>
+      <c r="Q23">
+        <f>I23/1000</f>
         <v>5.6349999999999998</v>
       </c>
+      <c r="R23">
+        <f>J23/1000</f>
+        <v>9.1300000000000008</v>
+      </c>
     </row>
-    <row r="24" spans="4:16" x14ac:dyDescent="0.3">
+    <row r="24" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D24">
         <v>158489</v>
       </c>
@@ -39761,31 +40254,38 @@
       <c r="I24">
         <v>8342</v>
       </c>
-      <c r="K24">
+      <c r="J24">
+        <v>12461</v>
+      </c>
+      <c r="L24">
         <v>158489</v>
       </c>
-      <c r="L24">
-        <f t="shared" si="3"/>
+      <c r="M24">
+        <f t="shared" si="0"/>
         <v>12.808999999999999</v>
       </c>
-      <c r="M24">
-        <f t="shared" si="2"/>
+      <c r="N24">
+        <f>F24/1000</f>
         <v>11.797000000000001</v>
       </c>
-      <c r="N24">
-        <f t="shared" si="2"/>
+      <c r="O24">
+        <f>G24/1000</f>
         <v>25.893000000000001</v>
       </c>
-      <c r="O24">
-        <f t="shared" si="2"/>
+      <c r="P24">
+        <f>H24/1000</f>
         <v>10.967000000000001</v>
       </c>
-      <c r="P24">
-        <f t="shared" si="2"/>
+      <c r="Q24">
+        <f>I24/1000</f>
         <v>8.3420000000000005</v>
       </c>
+      <c r="R24">
+        <f>J24/1000</f>
+        <v>12.461</v>
+      </c>
     </row>
-    <row r="25" spans="4:16" x14ac:dyDescent="0.3">
+    <row r="25" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D25">
         <v>251188</v>
       </c>
@@ -39804,31 +40304,38 @@
       <c r="I25">
         <v>10472</v>
       </c>
-      <c r="K25">
+      <c r="J25">
+        <v>17820</v>
+      </c>
+      <c r="L25">
         <v>251188</v>
       </c>
-      <c r="L25">
-        <f t="shared" si="3"/>
+      <c r="M25">
+        <f t="shared" si="0"/>
         <v>12.621</v>
       </c>
-      <c r="M25">
-        <f t="shared" si="2"/>
+      <c r="N25">
+        <f>F25/1000</f>
         <v>16.905999999999999</v>
       </c>
-      <c r="N25">
-        <f t="shared" si="2"/>
+      <c r="O25">
+        <f>G25/1000</f>
         <v>54.76</v>
       </c>
-      <c r="O25">
-        <f t="shared" si="2"/>
+      <c r="P25">
+        <f>H25/1000</f>
         <v>15.481999999999999</v>
       </c>
-      <c r="P25">
-        <f t="shared" si="2"/>
+      <c r="Q25">
+        <f>I25/1000</f>
         <v>10.472</v>
       </c>
+      <c r="R25">
+        <f>J25/1000</f>
+        <v>17.82</v>
+      </c>
     </row>
-    <row r="26" spans="4:16" x14ac:dyDescent="0.3">
+    <row r="26" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D26">
         <v>466158</v>
       </c>
@@ -39847,82 +40354,301 @@
       <c r="I26">
         <v>19451</v>
       </c>
-      <c r="K26">
+      <c r="J26">
+        <v>29943</v>
+      </c>
+      <c r="L26">
         <v>466158</v>
       </c>
-      <c r="L26">
-        <f t="shared" si="3"/>
+      <c r="M26">
+        <f t="shared" si="0"/>
         <v>30.114999999999998</v>
       </c>
-      <c r="M26">
-        <f t="shared" si="2"/>
+      <c r="N26">
+        <f>F26/1000</f>
         <v>28.483000000000001</v>
       </c>
-      <c r="N26">
-        <f t="shared" si="2"/>
+      <c r="O26">
+        <f>G26/1000</f>
         <v>161.69800000000001</v>
       </c>
-      <c r="O26">
-        <f t="shared" si="2"/>
+      <c r="P26">
+        <f>H26/1000</f>
         <v>28.812000000000001</v>
       </c>
-      <c r="P26">
-        <f t="shared" si="2"/>
+      <c r="Q26">
+        <f>I26/1000</f>
         <v>19.451000000000001</v>
       </c>
+      <c r="R26">
+        <f>J26/1000</f>
+        <v>29.943000000000001</v>
+      </c>
     </row>
-    <row r="30" spans="4:16" x14ac:dyDescent="0.3">
-      <c r="L30">
-        <f t="shared" ref="L30:L38" si="4">L18/P18</f>
+    <row r="30" spans="4:18" x14ac:dyDescent="0.3">
+      <c r="D30">
+        <v>0.01</v>
+      </c>
+      <c r="E30">
+        <v>0.02</v>
+      </c>
+      <c r="F30">
+        <v>0.03</v>
+      </c>
+      <c r="G30">
+        <v>1E-3</v>
+      </c>
+      <c r="H30">
+        <v>2E-3</v>
+      </c>
+      <c r="I30">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="J30">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="M30">
+        <f t="shared" ref="M30:M38" si="1">M18/Q18</f>
         <v>1.1369341955116012</v>
       </c>
     </row>
-    <row r="31" spans="4:16" x14ac:dyDescent="0.3">
-      <c r="L31">
-        <f t="shared" si="4"/>
+    <row r="31" spans="4:18" x14ac:dyDescent="0.3">
+      <c r="D31">
+        <v>3633</v>
+      </c>
+      <c r="E31">
+        <v>3613</v>
+      </c>
+      <c r="F31">
+        <v>3662</v>
+      </c>
+      <c r="G31">
+        <v>3632</v>
+      </c>
+      <c r="H31">
+        <v>3582</v>
+      </c>
+      <c r="I31">
+        <v>3810</v>
+      </c>
+      <c r="J31">
+        <v>3787</v>
+      </c>
+      <c r="M31">
+        <f t="shared" si="1"/>
         <v>1.2493647912885664</v>
       </c>
     </row>
-    <row r="32" spans="4:16" x14ac:dyDescent="0.3">
-      <c r="L32">
-        <f t="shared" si="4"/>
+    <row r="32" spans="4:18" x14ac:dyDescent="0.3">
+      <c r="D32">
+        <v>4083</v>
+      </c>
+      <c r="E32">
+        <v>4243</v>
+      </c>
+      <c r="F32">
+        <v>4239</v>
+      </c>
+      <c r="G32">
+        <v>4136</v>
+      </c>
+      <c r="H32">
+        <v>4034</v>
+      </c>
+      <c r="I32">
+        <v>4123</v>
+      </c>
+      <c r="J32">
+        <v>4066</v>
+      </c>
+      <c r="M32">
+        <f t="shared" si="1"/>
         <v>1.2331268340397783</v>
       </c>
     </row>
-    <row r="33" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L33">
-        <f t="shared" si="4"/>
+    <row r="33" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D33">
+        <v>4590</v>
+      </c>
+      <c r="E33">
+        <v>4954</v>
+      </c>
+      <c r="F33">
+        <v>5066</v>
+      </c>
+      <c r="G33">
+        <v>4837</v>
+      </c>
+      <c r="H33">
+        <v>4738</v>
+      </c>
+      <c r="I33">
+        <v>4684</v>
+      </c>
+      <c r="J33">
+        <v>4654</v>
+      </c>
+      <c r="M33">
+        <f t="shared" si="1"/>
         <v>1.2346053772766694</v>
       </c>
     </row>
-    <row r="34" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L34">
-        <f t="shared" si="4"/>
+    <row r="34" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D34">
+        <v>5640</v>
+      </c>
+      <c r="E34">
+        <v>5425</v>
+      </c>
+      <c r="F34">
+        <v>5861</v>
+      </c>
+      <c r="G34">
+        <v>5373</v>
+      </c>
+      <c r="H34">
+        <v>5601</v>
+      </c>
+      <c r="I34">
+        <v>5626</v>
+      </c>
+      <c r="J34">
+        <v>5694</v>
+      </c>
+      <c r="M34">
+        <f t="shared" si="1"/>
         <v>1.3578172205438066</v>
       </c>
     </row>
-    <row r="35" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L35">
-        <f t="shared" si="4"/>
+    <row r="35" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D35">
+        <v>7276</v>
+      </c>
+      <c r="E35">
+        <v>7127</v>
+      </c>
+      <c r="F35">
+        <v>7208</v>
+      </c>
+      <c r="G35">
+        <v>7121</v>
+      </c>
+      <c r="H35">
+        <v>7191</v>
+      </c>
+      <c r="I35">
+        <v>7008</v>
+      </c>
+      <c r="J35">
+        <v>7168</v>
+      </c>
+      <c r="M35">
+        <f t="shared" si="1"/>
         <v>1.1975155279503107</v>
       </c>
     </row>
-    <row r="36" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L36">
-        <f t="shared" si="4"/>
+    <row r="36" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D36">
+        <v>9509</v>
+      </c>
+      <c r="E36">
+        <v>9716</v>
+      </c>
+      <c r="F36">
+        <v>9447</v>
+      </c>
+      <c r="G36">
+        <v>9130</v>
+      </c>
+      <c r="H36">
+        <v>9178</v>
+      </c>
+      <c r="I36">
+        <v>9105</v>
+      </c>
+      <c r="J36">
+        <v>9659</v>
+      </c>
+      <c r="M36">
+        <f t="shared" si="1"/>
         <v>1.5354830975785181</v>
       </c>
     </row>
-    <row r="37" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L37">
-        <f t="shared" si="4"/>
+    <row r="37" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D37">
+        <v>12895</v>
+      </c>
+      <c r="E37">
+        <v>13012</v>
+      </c>
+      <c r="F37">
+        <v>13505</v>
+      </c>
+      <c r="G37">
+        <v>12461</v>
+      </c>
+      <c r="H37">
+        <v>12894</v>
+      </c>
+      <c r="I37">
+        <v>12588</v>
+      </c>
+      <c r="J37">
+        <v>12781</v>
+      </c>
+      <c r="M37">
+        <f t="shared" si="1"/>
         <v>1.2052139037433156</v>
       </c>
     </row>
-    <row r="38" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L38">
-        <f t="shared" si="4"/>
+    <row r="38" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D38">
+        <v>18200</v>
+      </c>
+      <c r="E38">
+        <v>18705</v>
+      </c>
+      <c r="F38">
+        <v>18620</v>
+      </c>
+      <c r="G38">
+        <v>17820</v>
+      </c>
+      <c r="H38">
+        <v>18066</v>
+      </c>
+      <c r="I38">
+        <v>18177</v>
+      </c>
+      <c r="J38">
+        <v>17931</v>
+      </c>
+      <c r="M38">
+        <f t="shared" si="1"/>
         <v>1.5482494473291861</v>
+      </c>
+    </row>
+    <row r="39" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D39">
+        <v>30928</v>
+      </c>
+      <c r="E39">
+        <v>30699</v>
+      </c>
+      <c r="F39">
+        <v>31597</v>
+      </c>
+      <c r="G39">
+        <v>29943</v>
+      </c>
+      <c r="H39">
+        <v>30922</v>
+      </c>
+      <c r="I39">
+        <v>30454</v>
+      </c>
+      <c r="J39">
+        <v>29830</v>
       </c>
     </row>
   </sheetData>
@@ -39934,15 +40660,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C7:P18"/>
+  <dimension ref="C7:R35"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="AA24" sqref="AA24"/>
+    <sheetView topLeftCell="B16" workbookViewId="0">
+      <selection activeCell="N30" sqref="N30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="7" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:18" x14ac:dyDescent="0.3">
       <c r="E7" t="s">
         <v>0</v>
       </c>
@@ -39958,23 +40684,29 @@
       <c r="I7" t="s">
         <v>4</v>
       </c>
-      <c r="L7" t="s">
+      <c r="J7">
+        <v>1E-3</v>
+      </c>
+      <c r="M7" t="s">
         <v>0</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
         <v>1</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>2</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>3</v>
       </c>
-      <c r="P7" t="s">
+      <c r="Q7" t="s">
         <v>4</v>
       </c>
+      <c r="R7">
+        <v>1E-3</v>
+      </c>
     </row>
-    <row r="8" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C8">
         <v>1</v>
       </c>
@@ -39996,31 +40728,32 @@
       <c r="I8">
         <v>3087</v>
       </c>
-      <c r="K8">
+      <c r="J8" s="2"/>
+      <c r="L8">
         <v>10000</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <f>E8/1000</f>
         <v>2.2589999999999999</v>
       </c>
-      <c r="M8">
-        <f t="shared" ref="M8:P18" si="0">F8/1000</f>
+      <c r="N8">
+        <f t="shared" ref="N8:R18" si="0">F8/1000</f>
         <v>1.925</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <f t="shared" si="0"/>
         <v>1.5429999999999999</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <f t="shared" si="0"/>
         <v>2.0990000000000002</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <f t="shared" si="0"/>
         <v>3.0870000000000002</v>
       </c>
     </row>
-    <row r="9" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C9">
         <v>2</v>
       </c>
@@ -40042,31 +40775,32 @@
       <c r="I9">
         <v>4891</v>
       </c>
-      <c r="K9">
+      <c r="J9" s="2"/>
+      <c r="L9">
         <v>15820</v>
       </c>
-      <c r="L9">
-        <f t="shared" ref="L9:L18" si="1">E9/1000</f>
+      <c r="M9">
+        <f t="shared" ref="M9:M18" si="1">E9/1000</f>
         <v>2.879</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <f t="shared" si="0"/>
         <v>2.972</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <f t="shared" si="0"/>
         <v>1.6020000000000001</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <f t="shared" si="0"/>
         <v>2.4550000000000001</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <f t="shared" si="0"/>
         <v>4.891</v>
       </c>
     </row>
-    <row r="10" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C10">
         <v>3</v>
       </c>
@@ -40088,31 +40822,32 @@
       <c r="I10">
         <v>6451</v>
       </c>
-      <c r="K10">
+      <c r="J10" s="2"/>
+      <c r="L10">
         <v>25064</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <f t="shared" si="1"/>
         <v>2.9550000000000001</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <f t="shared" si="0"/>
         <v>3.3</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <f t="shared" si="0"/>
         <v>2.0259999999999998</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <f t="shared" si="0"/>
         <v>2.9830000000000001</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <f t="shared" si="0"/>
         <v>6.4509999999999996</v>
       </c>
     </row>
-    <row r="11" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C11">
         <v>4</v>
       </c>
@@ -40134,31 +40869,32 @@
       <c r="I11">
         <v>21001</v>
       </c>
-      <c r="K11">
+      <c r="J11" s="2"/>
+      <c r="L11">
         <v>39712</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <f t="shared" si="1"/>
         <v>3.4929999999999999</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <f t="shared" si="0"/>
         <v>4.048</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <f t="shared" si="0"/>
         <v>2.577</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <f t="shared" si="0"/>
         <v>3.3290000000000002</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <f t="shared" si="0"/>
         <v>21.001000000000001</v>
       </c>
     </row>
-    <row r="12" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C12">
         <v>5</v>
       </c>
@@ -40180,31 +40916,32 @@
       <c r="I12">
         <v>28034</v>
       </c>
-      <c r="K12">
+      <c r="J12" s="2"/>
+      <c r="L12">
         <v>62978</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <f t="shared" si="1"/>
         <v>4.7569999999999997</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <f t="shared" si="0"/>
         <v>4.8860000000000001</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <f t="shared" si="0"/>
         <v>3.335</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <f t="shared" si="0"/>
         <v>4.5140000000000002</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <f t="shared" si="0"/>
         <v>28.033999999999999</v>
       </c>
     </row>
-    <row r="13" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C13">
         <v>6</v>
       </c>
@@ -40226,31 +40963,32 @@
       <c r="I13">
         <v>879483</v>
       </c>
-      <c r="K13">
+      <c r="J13" s="2"/>
+      <c r="L13">
         <v>99825</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <f t="shared" si="1"/>
         <v>6.2670000000000003</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <f t="shared" si="0"/>
         <v>6.5519999999999996</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <f t="shared" si="0"/>
         <v>4.4340000000000002</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <f t="shared" si="0"/>
         <v>5.6879999999999997</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <f t="shared" si="0"/>
         <v>879.48299999999995</v>
       </c>
     </row>
-    <row r="14" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C14">
         <v>7</v>
       </c>
@@ -40269,27 +41007,28 @@
       <c r="H14">
         <v>8916</v>
       </c>
-      <c r="K14">
+      <c r="J14" s="2"/>
+      <c r="L14">
         <v>158208</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <f t="shared" si="1"/>
         <v>9.8640000000000008</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <f t="shared" si="0"/>
         <v>9.5370000000000008</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <f t="shared" si="0"/>
         <v>6.6639999999999997</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <f t="shared" si="0"/>
         <v>8.9160000000000004</v>
       </c>
     </row>
-    <row r="15" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C15">
         <v>8</v>
       </c>
@@ -40308,27 +41047,34 @@
       <c r="H15">
         <v>13428</v>
       </c>
-      <c r="K15">
+      <c r="J15">
+        <v>13820</v>
+      </c>
+      <c r="L15">
         <v>250626</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <f t="shared" si="1"/>
         <v>14.92</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <f t="shared" si="0"/>
         <v>15.129</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <f t="shared" si="0"/>
         <v>10.526</v>
       </c>
-      <c r="O15">
+      <c r="P15">
         <f t="shared" si="0"/>
         <v>13.428000000000001</v>
       </c>
+      <c r="R15">
+        <f t="shared" si="0"/>
+        <v>13.82</v>
+      </c>
     </row>
-    <row r="16" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C16">
         <v>9</v>
       </c>
@@ -40347,27 +41093,34 @@
       <c r="H16">
         <v>21789</v>
       </c>
-      <c r="K16">
+      <c r="J16">
+        <v>22938</v>
+      </c>
+      <c r="L16">
         <v>397246</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <f t="shared" si="1"/>
         <v>23.763000000000002</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <f t="shared" si="0"/>
         <v>23.92</v>
       </c>
-      <c r="N16">
+      <c r="O16">
         <f t="shared" si="0"/>
         <v>18.155000000000001</v>
       </c>
-      <c r="O16">
+      <c r="P16">
         <f t="shared" si="0"/>
         <v>21.789000000000001</v>
       </c>
+      <c r="R16">
+        <f t="shared" si="0"/>
+        <v>22.937999999999999</v>
+      </c>
     </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C17">
         <v>10</v>
       </c>
@@ -40386,27 +41139,34 @@
       <c r="H17">
         <v>36221</v>
       </c>
-      <c r="K17">
+      <c r="J17">
+        <v>37935</v>
+      </c>
+      <c r="L17">
         <v>629557</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <f t="shared" si="1"/>
         <v>37.338999999999999</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <f t="shared" si="0"/>
         <v>44.118000000000002</v>
       </c>
-      <c r="N17">
+      <c r="O17">
         <f t="shared" si="0"/>
         <v>40.847000000000001</v>
       </c>
-      <c r="O17">
+      <c r="P17">
         <f t="shared" si="0"/>
         <v>36.220999999999997</v>
       </c>
+      <c r="R17">
+        <f t="shared" si="0"/>
+        <v>37.935000000000002</v>
+      </c>
     </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C18">
         <v>11</v>
       </c>
@@ -40425,24 +41185,193 @@
       <c r="H18">
         <v>78928</v>
       </c>
-      <c r="K18">
+      <c r="J18">
+        <v>78554</v>
+      </c>
+      <c r="L18">
         <v>997775</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <f t="shared" si="1"/>
         <v>77.653999999999996</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <f t="shared" si="0"/>
         <v>76.623999999999995</v>
       </c>
-      <c r="N18">
+      <c r="O18">
         <f t="shared" si="0"/>
         <v>70.918000000000006</v>
       </c>
-      <c r="O18">
+      <c r="P18">
         <f t="shared" si="0"/>
         <v>78.927999999999997</v>
+      </c>
+      <c r="R18">
+        <f t="shared" si="0"/>
+        <v>78.554000000000002</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="D24">
+        <v>0.01</v>
+      </c>
+      <c r="E24">
+        <v>0.02</v>
+      </c>
+      <c r="F24">
+        <v>0.03</v>
+      </c>
+      <c r="G24">
+        <v>1E-3</v>
+      </c>
+      <c r="H24">
+        <v>2E-3</v>
+      </c>
+      <c r="I24">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="J24">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C29">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C30">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C31">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C32">
+        <v>8</v>
+      </c>
+      <c r="D32">
+        <v>15128</v>
+      </c>
+      <c r="E32">
+        <v>15855</v>
+      </c>
+      <c r="F32">
+        <v>17234</v>
+      </c>
+      <c r="G32">
+        <v>13820</v>
+      </c>
+      <c r="H32">
+        <v>13935</v>
+      </c>
+      <c r="I32">
+        <v>13962</v>
+      </c>
+      <c r="J32">
+        <v>14774</v>
+      </c>
+    </row>
+    <row r="33" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C33">
+        <v>9</v>
+      </c>
+      <c r="D33">
+        <v>25027</v>
+      </c>
+      <c r="E33">
+        <v>25286</v>
+      </c>
+      <c r="F33">
+        <v>26758</v>
+      </c>
+      <c r="G33">
+        <v>22938</v>
+      </c>
+      <c r="H33">
+        <v>23974</v>
+      </c>
+      <c r="I33">
+        <v>23584</v>
+      </c>
+      <c r="J33">
+        <v>24495</v>
+      </c>
+    </row>
+    <row r="34" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C34">
+        <v>10</v>
+      </c>
+      <c r="D34">
+        <v>39920</v>
+      </c>
+      <c r="E34">
+        <v>40304</v>
+      </c>
+      <c r="F34">
+        <v>41577</v>
+      </c>
+      <c r="G34">
+        <v>37935</v>
+      </c>
+      <c r="H34">
+        <v>37787</v>
+      </c>
+      <c r="I34">
+        <v>38732</v>
+      </c>
+      <c r="J34">
+        <v>39348</v>
+      </c>
+    </row>
+    <row r="35" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C35">
+        <v>11</v>
+      </c>
+      <c r="D35">
+        <v>81644</v>
+      </c>
+      <c r="E35">
+        <v>84899</v>
+      </c>
+      <c r="F35">
+        <v>83019</v>
+      </c>
+      <c r="G35">
+        <v>78554</v>
+      </c>
+      <c r="H35">
+        <v>80146</v>
+      </c>
+      <c r="I35">
+        <v>78942</v>
+      </c>
+      <c r="J35">
+        <v>80706</v>
       </c>
     </row>
   </sheetData>
@@ -40455,15 +41384,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D7:P28"/>
+  <dimension ref="A7:R40"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18:K28"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="7" spans="4:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="4:17" x14ac:dyDescent="0.3">
       <c r="E7" t="s">
         <v>0</v>
       </c>
@@ -40479,23 +41408,23 @@
       <c r="I7" t="s">
         <v>4</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>0</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
         <v>1</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>2</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>3</v>
       </c>
-      <c r="P7" t="s">
+      <c r="Q7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="4:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="4:17" x14ac:dyDescent="0.3">
       <c r="D8">
         <v>1000</v>
       </c>
@@ -40514,31 +41443,31 @@
       <c r="I8" s="2">
         <v>1406</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>1000</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <f>E8/1000</f>
         <v>1.607</v>
       </c>
-      <c r="M8">
-        <f t="shared" ref="M8:P8" si="0">F8/1000</f>
+      <c r="N8">
+        <f t="shared" ref="N8:R11" si="0">F8/1000</f>
         <v>1.3879999999999999</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <f t="shared" si="0"/>
         <v>1.097</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <f t="shared" si="0"/>
         <v>1.379</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <f t="shared" si="0"/>
         <v>1.4059999999999999</v>
       </c>
     </row>
-    <row r="9" spans="4:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="4:17" x14ac:dyDescent="0.3">
       <c r="D9">
         <v>3000</v>
       </c>
@@ -40555,27 +41484,27 @@
         <v>1751</v>
       </c>
       <c r="I9" s="2"/>
-      <c r="K9">
+      <c r="L9">
         <v>3000</v>
       </c>
-      <c r="L9">
-        <f t="shared" ref="L9:L13" si="1">E9/1000</f>
+      <c r="M9">
+        <f t="shared" ref="M9:M13" si="1">E9/1000</f>
         <v>1.929</v>
       </c>
-      <c r="M9">
-        <f t="shared" ref="M9:M13" si="2">F9/1000</f>
+      <c r="N9">
+        <f t="shared" ref="N9:N13" si="2">F9/1000</f>
         <v>1.6060000000000001</v>
       </c>
-      <c r="N9">
-        <f t="shared" ref="N9:N13" si="3">G9/1000</f>
+      <c r="O9">
+        <f t="shared" ref="O9:O13" si="3">G9/1000</f>
         <v>1.343</v>
       </c>
-      <c r="O9">
-        <f t="shared" ref="O9:P13" si="4">H9/1000</f>
+      <c r="P9">
+        <f t="shared" ref="P9:Q13" si="4">H9/1000</f>
         <v>1.7509999999999999</v>
       </c>
     </row>
-    <row r="10" spans="4:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="4:17" x14ac:dyDescent="0.3">
       <c r="D10">
         <v>10000</v>
       </c>
@@ -40594,31 +41523,31 @@
       <c r="I10" s="2">
         <v>5782</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>10000</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <f t="shared" si="1"/>
         <v>2.9470000000000001</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <f t="shared" si="2"/>
         <v>2.827</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <f t="shared" si="3"/>
         <v>1.8169999999999999</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <f t="shared" si="4"/>
         <v>2.726</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <f t="shared" si="4"/>
         <v>5.782</v>
       </c>
     </row>
-    <row r="11" spans="4:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="4:17" x14ac:dyDescent="0.3">
       <c r="D11">
         <v>30000</v>
       </c>
@@ -40635,27 +41564,27 @@
         <v>4716</v>
       </c>
       <c r="I11" s="2"/>
-      <c r="K11">
+      <c r="L11">
         <v>30000</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <f t="shared" si="1"/>
         <v>5.28</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <f t="shared" si="2"/>
         <v>5.2939999999999996</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <f t="shared" si="3"/>
         <v>3.6739999999999999</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <f t="shared" si="4"/>
         <v>4.7160000000000002</v>
       </c>
     </row>
-    <row r="12" spans="4:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="4:17" x14ac:dyDescent="0.3">
       <c r="D12">
         <v>100000</v>
       </c>
@@ -40672,27 +41601,27 @@
         <v>15021</v>
       </c>
       <c r="I12" s="2"/>
-      <c r="K12">
+      <c r="L12">
         <v>100000</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <f t="shared" si="1"/>
         <v>16.100999999999999</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <f t="shared" si="2"/>
         <v>15.968999999999999</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <f t="shared" si="3"/>
         <v>18.908999999999999</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <f t="shared" si="4"/>
         <v>15.021000000000001</v>
       </c>
     </row>
-    <row r="13" spans="4:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="4:17" x14ac:dyDescent="0.3">
       <c r="D13">
         <v>300000</v>
       </c>
@@ -40708,35 +41637,35 @@
       <c r="H13">
         <v>80797</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>300000</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <f t="shared" si="1"/>
         <v>79.53</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <f t="shared" si="2"/>
         <v>77.385999999999996</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <f t="shared" si="3"/>
         <v>156.39099999999999</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <f t="shared" si="4"/>
         <v>80.796999999999997</v>
       </c>
     </row>
-    <row r="14" spans="4:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="4:17" x14ac:dyDescent="0.3">
       <c r="D14">
         <v>1000000</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>1000000</v>
       </c>
     </row>
-    <row r="17" spans="4:16" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="E17" t="s">
         <v>0</v>
       </c>
@@ -40752,23 +41681,29 @@
       <c r="I17" t="s">
         <v>4</v>
       </c>
-      <c r="L17" t="s">
+      <c r="J17">
+        <v>1E-3</v>
+      </c>
+      <c r="M17" t="s">
         <v>0</v>
       </c>
-      <c r="M17" t="s">
+      <c r="N17" t="s">
         <v>1</v>
       </c>
-      <c r="N17" t="s">
+      <c r="O17" t="s">
         <v>2</v>
       </c>
-      <c r="O17" t="s">
+      <c r="P17" t="s">
         <v>3</v>
       </c>
-      <c r="P17" t="s">
+      <c r="Q17" t="s">
         <v>4</v>
       </c>
+      <c r="R17">
+        <v>1E-3</v>
+      </c>
     </row>
-    <row r="18" spans="4:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="D18">
         <v>10000</v>
       </c>
@@ -40787,31 +41722,31 @@
       <c r="I18">
         <v>5994</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>10000</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <f>E18/1000</f>
         <v>3.0379999999999998</v>
       </c>
-      <c r="M18">
-        <f t="shared" ref="M18:P27" si="5">F18/1000</f>
+      <c r="N18">
+        <f t="shared" ref="N18:R27" si="5">F18/1000</f>
         <v>2.9710000000000001</v>
       </c>
-      <c r="N18">
+      <c r="O18">
         <f t="shared" si="5"/>
         <v>1.881</v>
       </c>
-      <c r="O18">
+      <c r="P18">
         <f t="shared" si="5"/>
         <v>2.7370000000000001</v>
       </c>
-      <c r="P18">
+      <c r="Q18">
         <f t="shared" si="5"/>
         <v>5.9939999999999998</v>
       </c>
     </row>
-    <row r="19" spans="4:16" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="D19">
         <v>15848</v>
       </c>
@@ -40830,31 +41765,31 @@
       <c r="I19">
         <v>21344</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>15848</v>
       </c>
-      <c r="L19">
-        <f t="shared" ref="L19:L27" si="6">E19/1000</f>
+      <c r="M19">
+        <f t="shared" ref="M19:M27" si="6">E19/1000</f>
         <v>3.56</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <f t="shared" si="5"/>
         <v>3.512</v>
       </c>
-      <c r="N19">
+      <c r="O19">
         <f t="shared" si="5"/>
         <v>2.2669999999999999</v>
       </c>
-      <c r="O19">
+      <c r="P19">
         <f t="shared" si="5"/>
         <v>3.1459999999999999</v>
       </c>
-      <c r="P19">
+      <c r="Q19">
         <f t="shared" si="5"/>
         <v>21.344000000000001</v>
       </c>
     </row>
-    <row r="20" spans="4:16" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
       <c r="D20">
         <v>25118</v>
       </c>
@@ -40873,31 +41808,31 @@
       <c r="I20">
         <v>42393</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>25118</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <f t="shared" si="6"/>
         <v>4.5659999999999998</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <f t="shared" si="5"/>
         <v>4.9009999999999998</v>
       </c>
-      <c r="N20">
+      <c r="O20">
         <f t="shared" si="5"/>
         <v>3.016</v>
       </c>
-      <c r="O20">
+      <c r="P20">
         <f t="shared" si="5"/>
         <v>4.1109999999999998</v>
       </c>
-      <c r="P20">
+      <c r="Q20">
         <f t="shared" si="5"/>
         <v>42.393000000000001</v>
       </c>
     </row>
-    <row r="21" spans="4:16" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
       <c r="D21">
         <v>39810</v>
       </c>
@@ -40913,27 +41848,27 @@
       <c r="H21">
         <v>6037</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>39810</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <f t="shared" si="6"/>
         <v>6.55</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <f t="shared" si="5"/>
         <v>6.766</v>
       </c>
-      <c r="N21">
+      <c r="O21">
         <f t="shared" si="5"/>
         <v>5.1779999999999999</v>
       </c>
-      <c r="O21">
+      <c r="P21">
         <f t="shared" si="5"/>
         <v>6.0369999999999999</v>
       </c>
     </row>
-    <row r="22" spans="4:16" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
       <c r="D22">
         <v>63095</v>
       </c>
@@ -40949,27 +41884,27 @@
       <c r="H22">
         <v>9425</v>
       </c>
-      <c r="K22">
+      <c r="L22">
         <v>63095</v>
       </c>
-      <c r="L22">
+      <c r="M22">
         <f t="shared" si="6"/>
         <v>10.052</v>
       </c>
-      <c r="M22">
+      <c r="N22">
         <f t="shared" si="5"/>
         <v>10.154999999999999</v>
       </c>
-      <c r="N22">
+      <c r="O22">
         <f t="shared" si="5"/>
         <v>8.0860000000000003</v>
       </c>
-      <c r="O22">
+      <c r="P22">
         <f t="shared" si="5"/>
         <v>9.4250000000000007</v>
       </c>
     </row>
-    <row r="23" spans="4:16" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
       <c r="D23">
         <v>100000</v>
       </c>
@@ -40986,27 +41921,34 @@
         <v>15351</v>
       </c>
       <c r="I23" s="2"/>
-      <c r="K23">
+      <c r="J23">
+        <v>15623</v>
+      </c>
+      <c r="L23">
         <v>100000</v>
       </c>
-      <c r="L23">
+      <c r="M23">
         <f t="shared" si="6"/>
         <v>16.026</v>
       </c>
-      <c r="M23">
+      <c r="N23">
         <f t="shared" si="5"/>
         <v>15.84</v>
       </c>
-      <c r="N23">
+      <c r="O23">
         <f t="shared" si="5"/>
         <v>19.391999999999999</v>
       </c>
-      <c r="O23">
+      <c r="P23">
         <f t="shared" si="5"/>
         <v>15.351000000000001</v>
       </c>
+      <c r="R23">
+        <f t="shared" si="5"/>
+        <v>15.622999999999999</v>
+      </c>
     </row>
-    <row r="24" spans="4:16" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
       <c r="D24">
         <v>158489</v>
       </c>
@@ -41022,27 +41964,34 @@
       <c r="H24">
         <v>28285</v>
       </c>
-      <c r="K24">
+      <c r="J24">
+        <v>29021</v>
+      </c>
+      <c r="L24">
         <v>158489</v>
       </c>
-      <c r="L24">
+      <c r="M24">
         <f t="shared" si="6"/>
         <v>28.562000000000001</v>
       </c>
-      <c r="M24">
+      <c r="N24">
         <f t="shared" si="5"/>
         <v>29.11</v>
       </c>
-      <c r="N24">
+      <c r="O24">
         <f t="shared" si="5"/>
         <v>43.192999999999998</v>
       </c>
-      <c r="O24">
+      <c r="P24">
         <f t="shared" si="5"/>
         <v>28.285</v>
       </c>
+      <c r="R24">
+        <f t="shared" si="5"/>
+        <v>29.021000000000001</v>
+      </c>
     </row>
-    <row r="25" spans="4:16" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
       <c r="D25">
         <v>251188</v>
       </c>
@@ -41058,27 +42007,34 @@
       <c r="H25">
         <v>57142</v>
       </c>
-      <c r="K25">
+      <c r="J25">
+        <v>56165</v>
+      </c>
+      <c r="L25">
         <v>251188</v>
       </c>
-      <c r="L25">
+      <c r="M25">
         <f t="shared" si="6"/>
         <v>54.603999999999999</v>
       </c>
-      <c r="M25">
+      <c r="N25">
         <f t="shared" si="5"/>
         <v>53.869</v>
       </c>
-      <c r="N25">
+      <c r="O25">
         <f t="shared" si="5"/>
         <v>106.596</v>
       </c>
-      <c r="O25">
+      <c r="P25">
         <f t="shared" si="5"/>
         <v>57.142000000000003</v>
       </c>
+      <c r="R25">
+        <f t="shared" si="5"/>
+        <v>56.164999999999999</v>
+      </c>
     </row>
-    <row r="26" spans="4:16" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
       <c r="D26">
         <v>398107</v>
       </c>
@@ -41094,27 +42050,34 @@
       <c r="H26">
         <v>121364</v>
       </c>
-      <c r="K26">
+      <c r="J26">
+        <v>120992</v>
+      </c>
+      <c r="L26">
         <v>398107</v>
       </c>
-      <c r="L26">
+      <c r="M26">
         <f t="shared" si="6"/>
         <v>119.26600000000001</v>
       </c>
-      <c r="M26">
+      <c r="N26">
         <f t="shared" si="5"/>
         <v>123.24</v>
       </c>
-      <c r="N26">
+      <c r="O26">
         <f t="shared" si="5"/>
         <v>275.00900000000001</v>
       </c>
-      <c r="O26">
+      <c r="P26">
         <f t="shared" si="5"/>
         <v>121.364</v>
       </c>
+      <c r="R26">
+        <f t="shared" si="5"/>
+        <v>120.992</v>
+      </c>
     </row>
-    <row r="27" spans="4:16" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
       <c r="D27">
         <v>630957</v>
       </c>
@@ -41130,32 +42093,184 @@
       <c r="H27">
         <v>267649</v>
       </c>
-      <c r="K27">
+      <c r="L27">
         <v>630957</v>
       </c>
-      <c r="L27">
+      <c r="M27">
         <f t="shared" si="6"/>
         <v>266.471</v>
       </c>
-      <c r="M27">
+      <c r="N27">
         <f t="shared" si="5"/>
         <v>236.35900000000001</v>
       </c>
-      <c r="N27">
+      <c r="O27">
         <f t="shared" si="5"/>
         <v>661.84500000000003</v>
       </c>
-      <c r="O27">
+      <c r="P27">
         <f t="shared" si="5"/>
         <v>267.649</v>
       </c>
     </row>
-    <row r="28" spans="4:16" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
       <c r="D28">
         <v>1000000</v>
       </c>
-      <c r="K28">
+      <c r="L28">
         <v>1000000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B31">
+        <v>0.01</v>
+      </c>
+      <c r="C31">
+        <v>0.02</v>
+      </c>
+      <c r="D31">
+        <v>0.03</v>
+      </c>
+      <c r="E31">
+        <v>1E-3</v>
+      </c>
+      <c r="F31">
+        <v>2E-3</v>
+      </c>
+      <c r="G31">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="H31">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>15848</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>25118</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>39810</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>63095</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>100000</v>
+      </c>
+      <c r="B37">
+        <v>17851</v>
+      </c>
+      <c r="C37">
+        <v>17193</v>
+      </c>
+      <c r="D37">
+        <v>18043</v>
+      </c>
+      <c r="E37">
+        <v>15623</v>
+      </c>
+      <c r="F37">
+        <v>16073</v>
+      </c>
+      <c r="G37">
+        <v>16161</v>
+      </c>
+      <c r="H37">
+        <v>16873</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>158489</v>
+      </c>
+      <c r="B38">
+        <v>29119</v>
+      </c>
+      <c r="C38">
+        <v>29819</v>
+      </c>
+      <c r="D38">
+        <v>30308</v>
+      </c>
+      <c r="E38">
+        <v>29021</v>
+      </c>
+      <c r="F38">
+        <v>29068</v>
+      </c>
+      <c r="G38">
+        <v>29063</v>
+      </c>
+      <c r="H38">
+        <v>30992</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>251188</v>
+      </c>
+      <c r="B39">
+        <v>56543</v>
+      </c>
+      <c r="C39">
+        <v>57953</v>
+      </c>
+      <c r="D39">
+        <v>58608</v>
+      </c>
+      <c r="E39">
+        <v>56165</v>
+      </c>
+      <c r="F39">
+        <v>56814</v>
+      </c>
+      <c r="G39">
+        <v>56062</v>
+      </c>
+      <c r="H39">
+        <v>59749</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>398107</v>
+      </c>
+      <c r="B40">
+        <v>121206</v>
+      </c>
+      <c r="C40">
+        <v>124540</v>
+      </c>
+      <c r="D40">
+        <v>127637</v>
+      </c>
+      <c r="E40">
+        <v>120992</v>
+      </c>
+      <c r="F40">
+        <v>122182</v>
+      </c>
+      <c r="G40">
+        <v>122437</v>
+      </c>
+      <c r="H40">
+        <v>121908</v>
       </c>
     </row>
   </sheetData>
@@ -41451,7 +42566,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C5:AH45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="AI39" sqref="AI39"/>
     </sheetView>
   </sheetViews>

--- a/exp/exp2.xlsx
+++ b/exp/exp2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27870" windowHeight="12840"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27870" windowHeight="12840" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="AOLSampleUSPS" sheetId="2" r:id="rId1"/>
@@ -2457,6 +2457,27 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.9729999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.089</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.8159999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.1840000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.1280000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.2710000000000008</c:v>
+                </c:pt>
                 <c:pt idx="7">
                   <c:v>13.82</c:v>
                 </c:pt>
@@ -6704,8 +6725,23 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>3.0329999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.7730000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.7510000000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.63</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.7759999999999998</c:v>
+                </c:pt>
                 <c:pt idx="5">
-                  <c:v>15.622999999999999</c:v>
+                  <c:v>15.86</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>29.021000000000001</c:v>
@@ -38860,7 +38896,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C7:Q31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
@@ -39559,7 +39595,7 @@
   <dimension ref="D7:R39"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="O29" sqref="O29"/>
+      <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -40662,8 +40698,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C7:R35"/>
   <sheetViews>
-    <sheetView topLeftCell="B16" workbookViewId="0">
-      <selection activeCell="N30" sqref="N30"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="P25" sqref="P25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -40728,7 +40764,9 @@
       <c r="I8">
         <v>3087</v>
       </c>
-      <c r="J8" s="2"/>
+      <c r="J8">
+        <v>2400</v>
+      </c>
       <c r="L8">
         <v>10000</v>
       </c>
@@ -40751,6 +40789,10 @@
       <c r="Q8">
         <f t="shared" si="0"/>
         <v>3.0870000000000002</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="0"/>
+        <v>2.4</v>
       </c>
     </row>
     <row r="9" spans="3:18" x14ac:dyDescent="0.3">
@@ -40775,7 +40817,9 @@
       <c r="I9">
         <v>4891</v>
       </c>
-      <c r="J9" s="2"/>
+      <c r="J9">
+        <v>2973</v>
+      </c>
       <c r="L9">
         <v>15820</v>
       </c>
@@ -40798,6 +40842,10 @@
       <c r="Q9">
         <f t="shared" si="0"/>
         <v>4.891</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="0"/>
+        <v>2.9729999999999999</v>
       </c>
     </row>
     <row r="10" spans="3:18" x14ac:dyDescent="0.3">
@@ -40822,7 +40870,9 @@
       <c r="I10">
         <v>6451</v>
       </c>
-      <c r="J10" s="2"/>
+      <c r="J10">
+        <v>3089</v>
+      </c>
       <c r="L10">
         <v>25064</v>
       </c>
@@ -40845,6 +40895,10 @@
       <c r="Q10">
         <f t="shared" si="0"/>
         <v>6.4509999999999996</v>
+      </c>
+      <c r="R10">
+        <f t="shared" si="0"/>
+        <v>3.089</v>
       </c>
     </row>
     <row r="11" spans="3:18" x14ac:dyDescent="0.3">
@@ -40869,7 +40923,9 @@
       <c r="I11">
         <v>21001</v>
       </c>
-      <c r="J11" s="2"/>
+      <c r="J11">
+        <v>4816</v>
+      </c>
       <c r="L11">
         <v>39712</v>
       </c>
@@ -40892,6 +40948,10 @@
       <c r="Q11">
         <f t="shared" si="0"/>
         <v>21.001000000000001</v>
+      </c>
+      <c r="R11">
+        <f t="shared" si="0"/>
+        <v>4.8159999999999998</v>
       </c>
     </row>
     <row r="12" spans="3:18" x14ac:dyDescent="0.3">
@@ -40916,7 +40976,9 @@
       <c r="I12">
         <v>28034</v>
       </c>
-      <c r="J12" s="2"/>
+      <c r="J12">
+        <v>5184</v>
+      </c>
       <c r="L12">
         <v>62978</v>
       </c>
@@ -40939,6 +41001,10 @@
       <c r="Q12">
         <f t="shared" si="0"/>
         <v>28.033999999999999</v>
+      </c>
+      <c r="R12">
+        <f t="shared" si="0"/>
+        <v>5.1840000000000002</v>
       </c>
     </row>
     <row r="13" spans="3:18" x14ac:dyDescent="0.3">
@@ -40963,7 +41029,9 @@
       <c r="I13">
         <v>879483</v>
       </c>
-      <c r="J13" s="2"/>
+      <c r="J13">
+        <v>8128</v>
+      </c>
       <c r="L13">
         <v>99825</v>
       </c>
@@ -40986,6 +41054,10 @@
       <c r="Q13">
         <f t="shared" si="0"/>
         <v>879.48299999999995</v>
+      </c>
+      <c r="R13">
+        <f t="shared" si="0"/>
+        <v>8.1280000000000001</v>
       </c>
     </row>
     <row r="14" spans="3:18" x14ac:dyDescent="0.3">
@@ -41007,7 +41079,9 @@
       <c r="H14">
         <v>8916</v>
       </c>
-      <c r="J14" s="2"/>
+      <c r="J14">
+        <v>9271</v>
+      </c>
       <c r="L14">
         <v>158208</v>
       </c>
@@ -41026,6 +41100,10 @@
       <c r="P14">
         <f t="shared" si="0"/>
         <v>8.9160000000000004</v>
+      </c>
+      <c r="R14">
+        <f t="shared" si="0"/>
+        <v>9.2710000000000008</v>
       </c>
     </row>
     <row r="15" spans="3:18" x14ac:dyDescent="0.3">
@@ -41239,35 +41317,182 @@
       <c r="C25">
         <v>1</v>
       </c>
+      <c r="D25">
+        <v>2586</v>
+      </c>
+      <c r="E25">
+        <v>2262</v>
+      </c>
+      <c r="F25">
+        <v>2294</v>
+      </c>
+      <c r="G25">
+        <v>2400</v>
+      </c>
+      <c r="H25">
+        <v>2346</v>
+      </c>
+      <c r="I25">
+        <v>2488</v>
+      </c>
+      <c r="J25">
+        <v>2475</v>
+      </c>
     </row>
     <row r="26" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C26">
         <v>2</v>
       </c>
+      <c r="D26">
+        <v>2650</v>
+      </c>
+      <c r="E26">
+        <v>2546</v>
+      </c>
+      <c r="F26">
+        <v>2718</v>
+      </c>
+      <c r="G26">
+        <v>2973</v>
+      </c>
+      <c r="H26">
+        <v>2837</v>
+      </c>
+      <c r="I26">
+        <v>2768</v>
+      </c>
+      <c r="J26">
+        <v>2832</v>
+      </c>
     </row>
     <row r="27" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C27">
         <v>3</v>
       </c>
+      <c r="D27">
+        <v>3234</v>
+      </c>
+      <c r="E27">
+        <v>4511</v>
+      </c>
+      <c r="F27">
+        <v>6040</v>
+      </c>
+      <c r="G27">
+        <v>3089</v>
+      </c>
+      <c r="H27">
+        <v>3575</v>
+      </c>
+      <c r="I27">
+        <v>3170</v>
+      </c>
+      <c r="J27">
+        <v>3826</v>
+      </c>
     </row>
     <row r="28" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C28">
         <v>4</v>
       </c>
+      <c r="D28">
+        <v>3678</v>
+      </c>
+      <c r="E28">
+        <v>3669</v>
+      </c>
+      <c r="F28">
+        <v>4108</v>
+      </c>
+      <c r="G28">
+        <v>4816</v>
+      </c>
+      <c r="H28">
+        <v>3627</v>
+      </c>
+      <c r="I28">
+        <v>3776</v>
+      </c>
+      <c r="J28">
+        <v>3413</v>
+      </c>
     </row>
     <row r="29" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C29">
         <v>5</v>
       </c>
+      <c r="D29">
+        <v>4821</v>
+      </c>
+      <c r="E29">
+        <v>5140</v>
+      </c>
+      <c r="F29">
+        <v>5769</v>
+      </c>
+      <c r="G29">
+        <v>5184</v>
+      </c>
+      <c r="H29">
+        <v>4765</v>
+      </c>
+      <c r="I29">
+        <v>4856</v>
+      </c>
+      <c r="J29">
+        <v>4673</v>
+      </c>
     </row>
     <row r="30" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C30">
         <v>6</v>
       </c>
+      <c r="D30">
+        <v>6261</v>
+      </c>
+      <c r="E30">
+        <v>7484</v>
+      </c>
+      <c r="F30">
+        <v>7454</v>
+      </c>
+      <c r="G30">
+        <v>8128</v>
+      </c>
+      <c r="H30">
+        <v>5986</v>
+      </c>
+      <c r="I30">
+        <v>6320</v>
+      </c>
+      <c r="J30">
+        <v>6361</v>
+      </c>
     </row>
     <row r="31" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C31">
         <v>7</v>
+      </c>
+      <c r="D31">
+        <v>9923</v>
+      </c>
+      <c r="E31">
+        <v>11084</v>
+      </c>
+      <c r="F31">
+        <v>11535</v>
+      </c>
+      <c r="G31">
+        <v>9271</v>
+      </c>
+      <c r="H31">
+        <v>9375</v>
+      </c>
+      <c r="I31">
+        <v>9394</v>
+      </c>
+      <c r="J31">
+        <v>9587</v>
       </c>
     </row>
     <row r="32" spans="3:18" x14ac:dyDescent="0.3">
@@ -41384,10 +41609,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A7:R40"/>
+  <dimension ref="A7:R41"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="K32" sqref="K32"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H41" sqref="H41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -41451,7 +41676,7 @@
         <v>1.607</v>
       </c>
       <c r="N8">
-        <f t="shared" ref="N8:R11" si="0">F8/1000</f>
+        <f t="shared" ref="N8:Q8" si="0">F8/1000</f>
         <v>1.3879999999999999</v>
       </c>
       <c r="O8">
@@ -41722,6 +41947,9 @@
       <c r="I18">
         <v>5994</v>
       </c>
+      <c r="J18">
+        <v>3033</v>
+      </c>
       <c r="L18">
         <v>10000</v>
       </c>
@@ -41744,6 +41972,10 @@
       <c r="Q18">
         <f t="shared" si="5"/>
         <v>5.9939999999999998</v>
+      </c>
+      <c r="R18">
+        <f t="shared" si="5"/>
+        <v>3.0329999999999999</v>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.3">
@@ -41765,6 +41997,9 @@
       <c r="I19">
         <v>21344</v>
       </c>
+      <c r="J19">
+        <v>3773</v>
+      </c>
       <c r="L19">
         <v>15848</v>
       </c>
@@ -41787,6 +42022,10 @@
       <c r="Q19">
         <f t="shared" si="5"/>
         <v>21.344000000000001</v>
+      </c>
+      <c r="R19">
+        <f t="shared" si="5"/>
+        <v>3.7730000000000001</v>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.3">
@@ -41808,6 +42047,9 @@
       <c r="I20">
         <v>42393</v>
       </c>
+      <c r="J20">
+        <v>4751</v>
+      </c>
       <c r="L20">
         <v>25118</v>
       </c>
@@ -41830,6 +42072,10 @@
       <c r="Q20">
         <f t="shared" si="5"/>
         <v>42.393000000000001</v>
+      </c>
+      <c r="R20">
+        <f t="shared" si="5"/>
+        <v>4.7510000000000003</v>
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.3">
@@ -41848,6 +42094,9 @@
       <c r="H21">
         <v>6037</v>
       </c>
+      <c r="J21">
+        <v>6630</v>
+      </c>
       <c r="L21">
         <v>39810</v>
       </c>
@@ -41866,6 +42115,10 @@
       <c r="P21">
         <f t="shared" si="5"/>
         <v>6.0369999999999999</v>
+      </c>
+      <c r="R21">
+        <f t="shared" si="5"/>
+        <v>6.63</v>
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.3">
@@ -41884,6 +42137,9 @@
       <c r="H22">
         <v>9425</v>
       </c>
+      <c r="J22">
+        <v>9776</v>
+      </c>
       <c r="L22">
         <v>63095</v>
       </c>
@@ -41902,6 +42158,10 @@
       <c r="P22">
         <f t="shared" si="5"/>
         <v>9.4250000000000007</v>
+      </c>
+      <c r="R22">
+        <f t="shared" si="5"/>
+        <v>9.7759999999999998</v>
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.3">
@@ -41922,7 +42182,7 @@
       </c>
       <c r="I23" s="2"/>
       <c r="J23">
-        <v>15623</v>
+        <v>15860</v>
       </c>
       <c r="L23">
         <v>100000</v>
@@ -41945,7 +42205,7 @@
       </c>
       <c r="R23">
         <f t="shared" si="5"/>
-        <v>15.622999999999999</v>
+        <v>15.86</v>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.3">
@@ -42093,6 +42353,9 @@
       <c r="H27">
         <v>267649</v>
       </c>
+      <c r="J27">
+        <v>255886</v>
+      </c>
       <c r="L27">
         <v>630957</v>
       </c>
@@ -42148,51 +42411,156 @@
       <c r="A32">
         <v>10000</v>
       </c>
+      <c r="B32">
+        <v>3187</v>
+      </c>
+      <c r="C32">
+        <v>3073</v>
+      </c>
+      <c r="D32">
+        <v>3209</v>
+      </c>
+      <c r="E32">
+        <v>3033</v>
+      </c>
+      <c r="F32">
+        <v>3021</v>
+      </c>
+      <c r="G32">
+        <v>3197</v>
+      </c>
+      <c r="H32">
+        <v>3607</v>
+      </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>15848</v>
       </c>
+      <c r="B33">
+        <v>3881</v>
+      </c>
+      <c r="C33">
+        <v>3809</v>
+      </c>
+      <c r="D33">
+        <v>3790</v>
+      </c>
+      <c r="E33">
+        <v>3773</v>
+      </c>
+      <c r="F33">
+        <v>3552</v>
+      </c>
+      <c r="G33">
+        <v>3798</v>
+      </c>
+      <c r="H33">
+        <v>3581</v>
+      </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>25118</v>
       </c>
+      <c r="B34">
+        <v>4684</v>
+      </c>
+      <c r="C34">
+        <v>5136</v>
+      </c>
+      <c r="D34">
+        <v>5594</v>
+      </c>
+      <c r="E34">
+        <v>4751</v>
+      </c>
+      <c r="F34">
+        <v>21043</v>
+      </c>
+      <c r="G34">
+        <v>4719</v>
+      </c>
+      <c r="H34">
+        <v>4647</v>
+      </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>39810</v>
       </c>
+      <c r="B35">
+        <v>6579</v>
+      </c>
+      <c r="C35">
+        <v>6526</v>
+      </c>
+      <c r="D35">
+        <v>8010</v>
+      </c>
+      <c r="E35">
+        <v>6630</v>
+      </c>
+      <c r="F35">
+        <v>6363</v>
+      </c>
+      <c r="G35">
+        <v>6682</v>
+      </c>
+      <c r="H35">
+        <v>6531</v>
+      </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>63095</v>
       </c>
+      <c r="B36">
+        <v>10103</v>
+      </c>
+      <c r="C36">
+        <v>12272</v>
+      </c>
+      <c r="D36">
+        <v>10962</v>
+      </c>
+      <c r="E36">
+        <v>9776</v>
+      </c>
+      <c r="F36">
+        <v>9732</v>
+      </c>
+      <c r="G36">
+        <v>9922</v>
+      </c>
+      <c r="H36">
+        <v>10406</v>
+      </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>100000</v>
       </c>
       <c r="B37">
-        <v>17851</v>
+        <v>16942</v>
       </c>
       <c r="C37">
-        <v>17193</v>
+        <v>18138</v>
       </c>
       <c r="D37">
-        <v>18043</v>
+        <v>17808</v>
       </c>
       <c r="E37">
-        <v>15623</v>
+        <v>15860</v>
       </c>
       <c r="F37">
-        <v>16073</v>
+        <v>15712</v>
       </c>
       <c r="G37">
-        <v>16161</v>
+        <v>15925</v>
       </c>
       <c r="H37">
-        <v>16873</v>
+        <v>16229</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
@@ -42271,6 +42639,32 @@
       </c>
       <c r="H40">
         <v>121908</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>630957</v>
+      </c>
+      <c r="B41">
+        <v>274060</v>
+      </c>
+      <c r="C41">
+        <v>274572</v>
+      </c>
+      <c r="D41">
+        <v>304824</v>
+      </c>
+      <c r="E41">
+        <v>255886</v>
+      </c>
+      <c r="F41">
+        <v>271059</v>
+      </c>
+      <c r="G41">
+        <v>271778</v>
+      </c>
+      <c r="H41">
+        <v>266299</v>
       </c>
     </row>
   </sheetData>

--- a/exp/exp2.xlsx
+++ b/exp/exp2.xlsx
@@ -9,10 +9,10 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27870" windowHeight="12840" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27870" windowHeight="12840"/>
   </bookViews>
   <sheets>
-    <sheet name="AOLSampleUSPS" sheetId="2" r:id="rId1"/>
+    <sheet name="USPSSampleUSPS" sheetId="2" r:id="rId1"/>
     <sheet name="SPROT" sheetId="3" r:id="rId2"/>
     <sheet name="AOLSampleRemoved" sheetId="1" r:id="rId3"/>
     <sheet name="Synthetic" sheetId="4" r:id="rId4"/>
@@ -283,7 +283,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>AOLSampleUSPS!$M$7</c:f>
+              <c:f>USPSSampleUSPS!$M$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -318,7 +318,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>AOLSampleUSPS!$L$8:$L$18</c:f>
+              <c:f>USPSSampleUSPS!$L$8:$L$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -360,7 +360,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>AOLSampleUSPS!$M$8:$M$18</c:f>
+              <c:f>USPSSampleUSPS!$M$8:$M$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -412,7 +412,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>AOLSampleUSPS!$N$7</c:f>
+              <c:f>USPSSampleUSPS!$N$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -447,7 +447,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>AOLSampleUSPS!$L$8:$L$18</c:f>
+              <c:f>USPSSampleUSPS!$L$8:$L$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -489,7 +489,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>AOLSampleUSPS!$N$8:$N$18</c:f>
+              <c:f>USPSSampleUSPS!$N$8:$N$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -541,7 +541,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>AOLSampleUSPS!$O$7</c:f>
+              <c:f>USPSSampleUSPS!$O$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -576,7 +576,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>AOLSampleUSPS!$L$8:$L$18</c:f>
+              <c:f>USPSSampleUSPS!$L$8:$L$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -618,7 +618,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>AOLSampleUSPS!$O$8:$O$18</c:f>
+              <c:f>USPSSampleUSPS!$O$8:$O$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -670,7 +670,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>AOLSampleUSPS!$P$7</c:f>
+              <c:f>USPSSampleUSPS!$P$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -705,7 +705,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>AOLSampleUSPS!$L$8:$L$18</c:f>
+              <c:f>USPSSampleUSPS!$L$8:$L$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -747,7 +747,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>AOLSampleUSPS!$P$8:$P$18</c:f>
+              <c:f>USPSSampleUSPS!$P$8:$P$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -799,7 +799,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>AOLSampleUSPS!$Q$7</c:f>
+              <c:f>USPSSampleUSPS!$Q$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -834,7 +834,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>AOLSampleUSPS!$L$8:$L$18</c:f>
+              <c:f>USPSSampleUSPS!$L$8:$L$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -876,7 +876,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>AOLSampleUSPS!$Q$8:$Q$18</c:f>
+              <c:f>USPSSampleUSPS!$Q$8:$Q$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -920,6 +920,135 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-2B97-48E3-923A-EB5F708ED6FE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>USPSSampleUSPS!$R$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.001</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>USPSSampleUSPS!$L$8:$L$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15848</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25118</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39810</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>63095</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>158489</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>251188</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>398107</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>630957</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>USPSSampleUSPS!$R$8:$R$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1.3380000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.6970000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.4279999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.6030000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.0129999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.7140000000000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.9789999999999992</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15.632999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20.567</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>32.183</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.2260000000000009</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AE39-4072-BBB7-E0AF7DB31A1D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8358,7 +8487,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>AOLSampleUSPS!$M$7</c:f>
+              <c:f>USPSSampleUSPS!$M$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8393,7 +8522,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>AOLSampleUSPS!$L$8:$L$18</c:f>
+              <c:f>USPSSampleUSPS!$L$8:$L$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -8435,7 +8564,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>AOLSampleUSPS!$M$8:$M$18</c:f>
+              <c:f>USPSSampleUSPS!$M$8:$M$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -8487,7 +8616,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>AOLSampleUSPS!$O$7</c:f>
+              <c:f>USPSSampleUSPS!$O$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8522,7 +8651,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>AOLSampleUSPS!$L$8:$L$18</c:f>
+              <c:f>USPSSampleUSPS!$L$8:$L$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -8564,7 +8693,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>AOLSampleUSPS!$O$8:$O$18</c:f>
+              <c:f>USPSSampleUSPS!$O$8:$O$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -8616,7 +8745,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>AOLSampleUSPS!$P$7</c:f>
+              <c:f>USPSSampleUSPS!$P$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8651,7 +8780,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>AOLSampleUSPS!$L$8:$L$18</c:f>
+              <c:f>USPSSampleUSPS!$L$8:$L$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -8693,7 +8822,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>AOLSampleUSPS!$P$8:$P$18</c:f>
+              <c:f>USPSSampleUSPS!$P$8:$P$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -17319,7 +17448,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>AOLSampleUSPS!$M$7</c:f>
+              <c:f>USPSSampleUSPS!$M$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -17354,7 +17483,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>AOLSampleUSPS!$L$8:$L$18</c:f>
+              <c:f>USPSSampleUSPS!$L$8:$L$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -17396,7 +17525,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>AOLSampleUSPS!$M$8:$M$18</c:f>
+              <c:f>USPSSampleUSPS!$M$8:$M$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -17448,7 +17577,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>AOLSampleUSPS!$P$7</c:f>
+              <c:f>USPSSampleUSPS!$P$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -17483,7 +17612,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>AOLSampleUSPS!$L$8:$L$18</c:f>
+              <c:f>USPSSampleUSPS!$L$8:$L$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -17525,7 +17654,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>AOLSampleUSPS!$P$8:$P$18</c:f>
+              <c:f>USPSSampleUSPS!$P$8:$P$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -17577,7 +17706,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>AOLSampleUSPS!$Q$7</c:f>
+              <c:f>USPSSampleUSPS!$Q$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -17612,7 +17741,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>AOLSampleUSPS!$L$8:$L$18</c:f>
+              <c:f>USPSSampleUSPS!$L$8:$L$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -17654,7 +17783,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>AOLSampleUSPS!$Q$8:$Q$18</c:f>
+              <c:f>USPSSampleUSPS!$Q$8:$Q$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -17998,7 +18127,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>AOLSampleUSPS!$M$7</c:f>
+              <c:f>USPSSampleUSPS!$M$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -18033,7 +18162,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>AOLSampleUSPS!$L$8:$L$18</c:f>
+              <c:f>USPSSampleUSPS!$L$8:$L$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -18075,7 +18204,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>AOLSampleUSPS!$M$8:$M$18</c:f>
+              <c:f>USPSSampleUSPS!$M$8:$M$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -18127,7 +18256,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>AOLSampleUSPS!$N$7</c:f>
+              <c:f>USPSSampleUSPS!$N$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -18162,7 +18291,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>AOLSampleUSPS!$L$8:$L$18</c:f>
+              <c:f>USPSSampleUSPS!$L$8:$L$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -18204,7 +18333,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>AOLSampleUSPS!$N$8:$N$18</c:f>
+              <c:f>USPSSampleUSPS!$N$8:$N$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -38894,15 +39023,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C7:Q31"/>
+  <dimension ref="C7:R31"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M21" sqref="M21:M31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="7" spans="3:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:18" x14ac:dyDescent="0.3">
       <c r="E7" t="s">
         <v>0</v>
       </c>
@@ -38918,6 +39047,9 @@
       <c r="I7" t="s">
         <v>4</v>
       </c>
+      <c r="J7">
+        <v>1E-3</v>
+      </c>
       <c r="M7" t="s">
         <v>0</v>
       </c>
@@ -38933,8 +39065,11 @@
       <c r="Q7" t="s">
         <v>4</v>
       </c>
+      <c r="R7">
+        <v>1E-3</v>
+      </c>
     </row>
-    <row r="8" spans="3:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C8">
         <v>1</v>
       </c>
@@ -38955,6 +39090,9 @@
       </c>
       <c r="I8">
         <v>529</v>
+      </c>
+      <c r="J8">
+        <v>1338</v>
       </c>
       <c r="L8">
         <v>10000</v>
@@ -38979,8 +39117,12 @@
         <f>I8/1000</f>
         <v>0.52900000000000003</v>
       </c>
+      <c r="R8">
+        <f>J8/1000</f>
+        <v>1.3380000000000001</v>
+      </c>
     </row>
-    <row r="9" spans="3:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C9">
         <v>2</v>
       </c>
@@ -39001,6 +39143,9 @@
       </c>
       <c r="I9">
         <v>664</v>
+      </c>
+      <c r="J9">
+        <v>1697</v>
       </c>
       <c r="L9">
         <v>15848</v>
@@ -39025,8 +39170,12 @@
         <f>I9/1000</f>
         <v>0.66400000000000003</v>
       </c>
+      <c r="R9">
+        <f>J9/1000</f>
+        <v>1.6970000000000001</v>
+      </c>
     </row>
-    <row r="10" spans="3:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C10">
         <v>3</v>
       </c>
@@ -39047,6 +39196,9 @@
       </c>
       <c r="I10">
         <v>913</v>
+      </c>
+      <c r="J10">
+        <v>2428</v>
       </c>
       <c r="L10">
         <v>25118</v>
@@ -39071,8 +39223,12 @@
         <f>I10/1000</f>
         <v>0.91300000000000003</v>
       </c>
+      <c r="R10">
+        <f>J10/1000</f>
+        <v>2.4279999999999999</v>
+      </c>
     </row>
-    <row r="11" spans="3:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C11">
         <v>4</v>
       </c>
@@ -39093,6 +39249,9 @@
       </c>
       <c r="I11">
         <v>1203</v>
+      </c>
+      <c r="J11">
+        <v>3603</v>
       </c>
       <c r="L11">
         <v>39810</v>
@@ -39117,8 +39276,12 @@
         <f>I11/1000</f>
         <v>1.2030000000000001</v>
       </c>
+      <c r="R11">
+        <f>J11/1000</f>
+        <v>3.6030000000000002</v>
+      </c>
     </row>
-    <row r="12" spans="3:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C12">
         <v>5</v>
       </c>
@@ -39139,6 +39302,9 @@
       </c>
       <c r="I12">
         <v>1902</v>
+      </c>
+      <c r="J12">
+        <v>4013</v>
       </c>
       <c r="L12">
         <v>63095</v>
@@ -39163,8 +39329,12 @@
         <f>I12/1000</f>
         <v>1.9019999999999999</v>
       </c>
+      <c r="R12">
+        <f>J12/1000</f>
+        <v>4.0129999999999999</v>
+      </c>
     </row>
-    <row r="13" spans="3:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C13">
         <v>6</v>
       </c>
@@ -39185,6 +39355,9 @@
       </c>
       <c r="I13">
         <v>2533</v>
+      </c>
+      <c r="J13">
+        <v>8714</v>
       </c>
       <c r="L13">
         <v>100000</v>
@@ -39209,8 +39382,12 @@
         <f>I13/1000</f>
         <v>2.5329999999999999</v>
       </c>
+      <c r="R13">
+        <f>J13/1000</f>
+        <v>8.7140000000000004</v>
+      </c>
     </row>
-    <row r="14" spans="3:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C14">
         <v>7</v>
       </c>
@@ -39231,6 +39408,9 @@
       </c>
       <c r="I14">
         <v>3815</v>
+      </c>
+      <c r="J14">
+        <v>8979</v>
       </c>
       <c r="L14">
         <v>158489</v>
@@ -39255,8 +39435,12 @@
         <f>I14/1000</f>
         <v>3.8149999999999999</v>
       </c>
+      <c r="R14">
+        <f>J14/1000</f>
+        <v>8.9789999999999992</v>
+      </c>
     </row>
-    <row r="15" spans="3:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C15">
         <v>8</v>
       </c>
@@ -39277,6 +39461,9 @@
       </c>
       <c r="I15">
         <v>5709</v>
+      </c>
+      <c r="J15">
+        <v>15633</v>
       </c>
       <c r="L15">
         <v>251188</v>
@@ -39301,8 +39488,12 @@
         <f>I15/1000</f>
         <v>5.7089999999999996</v>
       </c>
+      <c r="R15">
+        <f>J15/1000</f>
+        <v>15.632999999999999</v>
+      </c>
     </row>
-    <row r="16" spans="3:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C16">
         <v>9</v>
       </c>
@@ -39323,6 +39514,9 @@
       </c>
       <c r="I16">
         <v>9439</v>
+      </c>
+      <c r="J16">
+        <v>20567</v>
       </c>
       <c r="L16">
         <v>398107</v>
@@ -39347,8 +39541,12 @@
         <f>I16/1000</f>
         <v>9.4390000000000001</v>
       </c>
+      <c r="R16">
+        <f>J16/1000</f>
+        <v>20.567</v>
+      </c>
     </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C17">
         <v>10</v>
       </c>
@@ -39369,6 +39567,9 @@
       </c>
       <c r="I17">
         <v>15126</v>
+      </c>
+      <c r="J17">
+        <v>32183</v>
       </c>
       <c r="L17">
         <v>630957</v>
@@ -39393,8 +39594,12 @@
         <f>I17/1000</f>
         <v>15.125999999999999</v>
       </c>
+      <c r="R17">
+        <f>J17/1000</f>
+        <v>32.183</v>
+      </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C18">
         <v>11</v>
       </c>
@@ -39415,6 +39620,9 @@
       </c>
       <c r="I18">
         <v>24215</v>
+      </c>
+      <c r="J18">
+        <v>9226</v>
       </c>
       <c r="L18">
         <v>1000000</v>
@@ -39439,8 +39647,12 @@
         <f>I18/1000</f>
         <v>24.215</v>
       </c>
+      <c r="R18">
+        <f>J18/1000</f>
+        <v>9.2260000000000009</v>
+      </c>
     </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:18" x14ac:dyDescent="0.3">
       <c r="D20">
         <v>0.01</v>
       </c>
@@ -39467,97 +39679,307 @@
         <v>1.277882797731569</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C21">
         <v>1</v>
       </c>
+      <c r="D21">
+        <v>1211</v>
+      </c>
+      <c r="E21">
+        <v>1307</v>
+      </c>
+      <c r="F21">
+        <v>1239</v>
+      </c>
+      <c r="G21">
+        <v>1338</v>
+      </c>
+      <c r="H21">
+        <v>1124</v>
+      </c>
+      <c r="I21">
+        <v>1093</v>
+      </c>
+      <c r="J21">
+        <v>1177</v>
+      </c>
       <c r="M21">
-        <f t="shared" ref="M21:M30" si="1">M9/Q9</f>
+        <f>M9/Q9</f>
         <v>1.292168674698795</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C22">
         <v>2</v>
       </c>
+      <c r="D22">
+        <v>1558</v>
+      </c>
+      <c r="E22">
+        <v>1622</v>
+      </c>
+      <c r="F22">
+        <v>1461</v>
+      </c>
+      <c r="G22">
+        <v>1697</v>
+      </c>
+      <c r="H22">
+        <v>1606</v>
+      </c>
+      <c r="I22">
+        <v>1588</v>
+      </c>
+      <c r="J22">
+        <v>1552</v>
+      </c>
       <c r="M22">
-        <f t="shared" si="1"/>
+        <f>M10/Q10</f>
         <v>1.1708652792990142</v>
       </c>
     </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C23">
         <v>3</v>
       </c>
+      <c r="D23">
+        <v>2081</v>
+      </c>
+      <c r="E23">
+        <v>1898</v>
+      </c>
+      <c r="F23">
+        <v>1930</v>
+      </c>
+      <c r="G23">
+        <v>2428</v>
+      </c>
+      <c r="H23">
+        <v>2333</v>
+      </c>
+      <c r="I23">
+        <v>2343</v>
+      </c>
+      <c r="J23">
+        <v>2248</v>
+      </c>
       <c r="M23">
-        <f t="shared" si="1"/>
+        <f>M11/Q11</f>
         <v>1.2493765586034911</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C24">
         <v>4</v>
       </c>
+      <c r="D24">
+        <v>1568</v>
+      </c>
+      <c r="E24">
+        <v>1757</v>
+      </c>
+      <c r="F24">
+        <v>1879</v>
+      </c>
+      <c r="G24">
+        <v>3603</v>
+      </c>
+      <c r="H24">
+        <v>3179</v>
+      </c>
+      <c r="I24">
+        <v>2967</v>
+      </c>
+      <c r="J24">
+        <v>1728</v>
+      </c>
       <c r="M24">
-        <f t="shared" si="1"/>
+        <f>M12/Q12</f>
         <v>1.2381703470031546</v>
       </c>
     </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C25">
         <v>5</v>
       </c>
+      <c r="D25">
+        <v>4006</v>
+      </c>
+      <c r="E25">
+        <v>3755</v>
+      </c>
+      <c r="F25">
+        <v>4233</v>
+      </c>
+      <c r="G25">
+        <v>4013</v>
+      </c>
+      <c r="H25">
+        <v>4126</v>
+      </c>
+      <c r="I25">
+        <v>3964</v>
+      </c>
+      <c r="J25">
+        <v>3910</v>
+      </c>
       <c r="M25">
-        <f t="shared" si="1"/>
+        <f>M13/Q13</f>
         <v>1.252270035530991</v>
       </c>
     </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C26">
         <v>6</v>
       </c>
+      <c r="D26">
+        <v>6002</v>
+      </c>
+      <c r="E26">
+        <v>5486</v>
+      </c>
+      <c r="F26">
+        <v>6056</v>
+      </c>
+      <c r="G26">
+        <v>8714</v>
+      </c>
+      <c r="H26">
+        <v>5837</v>
+      </c>
+      <c r="I26">
+        <v>6194</v>
+      </c>
+      <c r="J26">
+        <v>5946</v>
+      </c>
       <c r="M26">
-        <f t="shared" si="1"/>
+        <f>M14/Q14</f>
         <v>1.2807339449541284</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C27">
         <v>7</v>
       </c>
+      <c r="D27">
+        <v>8146</v>
+      </c>
+      <c r="E27">
+        <v>8974</v>
+      </c>
+      <c r="F27">
+        <v>9444</v>
+      </c>
+      <c r="G27">
+        <v>8979</v>
+      </c>
+      <c r="H27">
+        <v>8953</v>
+      </c>
+      <c r="I27">
+        <v>8777</v>
+      </c>
+      <c r="J27">
+        <v>8088</v>
+      </c>
       <c r="M27">
-        <f t="shared" si="1"/>
+        <f>M15/Q15</f>
         <v>1.3655631459099669</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C28">
         <v>8</v>
       </c>
+      <c r="D28">
+        <v>12367</v>
+      </c>
+      <c r="E28">
+        <v>12769</v>
+      </c>
+      <c r="F28">
+        <v>13256</v>
+      </c>
+      <c r="G28">
+        <v>15633</v>
+      </c>
+      <c r="H28">
+        <v>15445</v>
+      </c>
+      <c r="I28">
+        <v>12226</v>
+      </c>
+      <c r="J28">
+        <v>12650</v>
+      </c>
       <c r="M28">
-        <f t="shared" si="1"/>
+        <f>M16/Q16</f>
         <v>1.2591376205106473</v>
       </c>
     </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C29">
         <v>9</v>
       </c>
+      <c r="D29">
+        <v>20745</v>
+      </c>
+      <c r="E29">
+        <v>22267</v>
+      </c>
+      <c r="F29">
+        <v>12337</v>
+      </c>
+      <c r="G29">
+        <v>20567</v>
+      </c>
+      <c r="H29">
+        <v>20146</v>
+      </c>
+      <c r="I29">
+        <v>20537</v>
+      </c>
+      <c r="J29">
+        <v>21033</v>
+      </c>
       <c r="M29">
-        <f t="shared" si="1"/>
+        <f>M17/Q17</f>
         <v>1.2791220415179161</v>
       </c>
     </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C30">
         <v>10</v>
       </c>
+      <c r="D30">
+        <v>359622</v>
+      </c>
+      <c r="E30">
+        <v>361006</v>
+      </c>
+      <c r="F30">
+        <v>357633</v>
+      </c>
+      <c r="G30">
+        <v>32183</v>
+      </c>
+      <c r="H30">
+        <v>31845</v>
+      </c>
+      <c r="I30">
+        <v>32382</v>
+      </c>
+      <c r="J30">
+        <v>33501</v>
+      </c>
       <c r="M30">
-        <f t="shared" si="1"/>
+        <f>M18/Q18</f>
         <v>1.6904811067520134</v>
       </c>
     </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C31">
         <v>11</v>
       </c>
@@ -39586,7 +40008,8 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -40698,7 +41121,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C7:R35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B22" workbookViewId="0">
       <selection activeCell="P25" sqref="P25"/>
     </sheetView>
   </sheetViews>

--- a/exp/exp2.xlsx
+++ b/exp/exp2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14430" windowHeight="7905" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14430" windowHeight="7905"/>
   </bookViews>
   <sheets>
     <sheet name="SPROT" sheetId="3" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="62">
   <si>
     <t>JoinHybridOpt</t>
   </si>
@@ -257,6 +257,14 @@
   </si>
   <si>
     <t>JoinHybridOpt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#UNI AOL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#BI AOL</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -23840,31 +23848,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>3473</c:v>
+                  <c:v>3475</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4127</c:v>
+                  <c:v>3908</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4627</c:v>
+                  <c:v>4544</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5451</c:v>
+                  <c:v>5434</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6605</c:v>
+                  <c:v>6567</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8522</c:v>
+                  <c:v>8568</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>11842</c:v>
+                  <c:v>11722</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>16589</c:v>
+                  <c:v>16462</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>27863</c:v>
+                  <c:v>27117</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -44062,8 +44070,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B7:BT148"/>
   <sheetViews>
-    <sheetView topLeftCell="AC40" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="BI51" sqref="BI51:BT51"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="L70" sqref="L70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -47141,8 +47149,8 @@
       <c r="D64">
         <v>10000</v>
       </c>
-      <c r="E64" s="4">
-        <v>3473</v>
+      <c r="E64">
+        <v>3475</v>
       </c>
       <c r="F64" s="4">
         <v>3244</v>
@@ -47270,49 +47278,49 @@
       <c r="BH64">
         <v>10000</v>
       </c>
-      <c r="BI64" s="4">
-        <v>3473</v>
+      <c r="BI64">
+        <v>3475</v>
       </c>
       <c r="BJ64">
-        <v>3449</v>
+        <v>3663</v>
       </c>
       <c r="BK64">
-        <v>3635</v>
+        <v>3410</v>
       </c>
       <c r="BL64">
-        <v>3519</v>
+        <v>3675</v>
       </c>
       <c r="BM64">
-        <v>3713</v>
-      </c>
-      <c r="BN64" s="4">
-        <v>3644</v>
+        <v>3664</v>
+      </c>
+      <c r="BN64">
+        <v>3778</v>
       </c>
       <c r="BO64">
-        <v>3542</v>
+        <v>3584</v>
       </c>
       <c r="BP64">
-        <v>3642</v>
+        <v>4027</v>
       </c>
       <c r="BQ64">
-        <v>3696</v>
+        <v>3692</v>
       </c>
       <c r="BR64">
-        <v>3727</v>
-      </c>
-      <c r="BS64" s="4">
-        <v>3567</v>
+        <v>3919</v>
+      </c>
+      <c r="BS64">
+        <v>3790</v>
       </c>
       <c r="BT64">
-        <v>4068</v>
+        <v>3764</v>
       </c>
     </row>
     <row r="65" spans="4:72" x14ac:dyDescent="0.3">
       <c r="D65">
         <v>15848</v>
       </c>
-      <c r="E65" s="4">
-        <v>4127</v>
+      <c r="E65">
+        <v>3908</v>
       </c>
       <c r="F65" s="4">
         <v>3743</v>
@@ -47440,49 +47448,49 @@
       <c r="BH65">
         <v>15848</v>
       </c>
-      <c r="BI65" s="4">
-        <v>4127</v>
+      <c r="BI65">
+        <v>3908</v>
       </c>
       <c r="BJ65">
-        <v>3884</v>
+        <v>3840</v>
       </c>
       <c r="BK65">
-        <v>4155</v>
+        <v>3921</v>
       </c>
       <c r="BL65">
-        <v>3833</v>
+        <v>3862</v>
       </c>
       <c r="BM65">
-        <v>4191</v>
-      </c>
-      <c r="BN65" s="4">
-        <v>4077</v>
+        <v>4109</v>
+      </c>
+      <c r="BN65">
+        <v>3958</v>
       </c>
       <c r="BO65">
-        <v>3956</v>
+        <v>3942</v>
       </c>
       <c r="BP65">
-        <v>4469</v>
+        <v>4171</v>
       </c>
       <c r="BQ65">
-        <v>3981</v>
+        <v>4204</v>
       </c>
       <c r="BR65">
-        <v>4172</v>
-      </c>
-      <c r="BS65" s="4">
-        <v>4203</v>
+        <v>4110</v>
+      </c>
+      <c r="BS65">
+        <v>4269</v>
       </c>
       <c r="BT65">
-        <v>4480</v>
+        <v>4337</v>
       </c>
     </row>
     <row r="66" spans="4:72" x14ac:dyDescent="0.3">
       <c r="D66">
         <v>25118</v>
       </c>
-      <c r="E66" s="4">
-        <v>4627</v>
+      <c r="E66">
+        <v>4544</v>
       </c>
       <c r="F66" s="4">
         <v>4252</v>
@@ -47610,49 +47618,49 @@
       <c r="BH66">
         <v>25118</v>
       </c>
-      <c r="BI66" s="4">
-        <v>4627</v>
+      <c r="BI66">
+        <v>4544</v>
       </c>
       <c r="BJ66">
-        <v>4436</v>
+        <v>4412</v>
       </c>
       <c r="BK66">
-        <v>4700</v>
+        <v>4524</v>
       </c>
       <c r="BL66">
-        <v>4570</v>
+        <v>4304</v>
       </c>
       <c r="BM66">
-        <v>4659</v>
-      </c>
-      <c r="BN66" s="4">
-        <v>4707</v>
+        <v>4907</v>
+      </c>
+      <c r="BN66">
+        <v>4871</v>
       </c>
       <c r="BO66">
-        <v>4553</v>
+        <v>4567</v>
       </c>
       <c r="BP66">
-        <v>4733</v>
+        <v>4437</v>
       </c>
       <c r="BQ66">
-        <v>4737</v>
+        <v>4674</v>
       </c>
       <c r="BR66">
-        <v>4912</v>
-      </c>
-      <c r="BS66" s="4">
-        <v>4868</v>
+        <v>4562</v>
+      </c>
+      <c r="BS66">
+        <v>5060</v>
       </c>
       <c r="BT66">
-        <v>4652</v>
+        <v>5061</v>
       </c>
     </row>
     <row r="67" spans="4:72" x14ac:dyDescent="0.3">
       <c r="D67">
         <v>39810</v>
       </c>
-      <c r="E67" s="4">
-        <v>5451</v>
+      <c r="E67">
+        <v>5434</v>
       </c>
       <c r="F67" s="4">
         <v>5108</v>
@@ -47780,49 +47788,49 @@
       <c r="BH67">
         <v>39810</v>
       </c>
-      <c r="BI67" s="4">
-        <v>5451</v>
+      <c r="BI67">
+        <v>5434</v>
       </c>
       <c r="BJ67">
-        <v>5088</v>
+        <v>5140</v>
       </c>
       <c r="BK67">
-        <v>5161</v>
+        <v>5398</v>
       </c>
       <c r="BL67">
-        <v>5023</v>
+        <v>5200</v>
       </c>
       <c r="BM67">
-        <v>5850</v>
-      </c>
-      <c r="BN67" s="4">
-        <v>5651</v>
+        <v>5577</v>
+      </c>
+      <c r="BN67">
+        <v>5024</v>
       </c>
       <c r="BO67">
-        <v>5517</v>
+        <v>5578</v>
       </c>
       <c r="BP67">
-        <v>5793</v>
+        <v>5664</v>
       </c>
       <c r="BQ67">
-        <v>5673</v>
+        <v>5468</v>
       </c>
       <c r="BR67">
-        <v>5726</v>
-      </c>
-      <c r="BS67" s="4">
-        <v>5603</v>
+        <v>5729</v>
+      </c>
+      <c r="BS67">
+        <v>5814</v>
       </c>
       <c r="BT67">
-        <v>5891</v>
+        <v>5863</v>
       </c>
     </row>
     <row r="68" spans="4:72" x14ac:dyDescent="0.3">
       <c r="D68">
         <v>63095</v>
       </c>
-      <c r="E68" s="4">
-        <v>6605</v>
+      <c r="E68">
+        <v>6567</v>
       </c>
       <c r="F68" s="4">
         <v>6699</v>
@@ -47950,49 +47958,49 @@
       <c r="BH68">
         <v>63095</v>
       </c>
-      <c r="BI68" s="4">
-        <v>6605</v>
+      <c r="BI68">
+        <v>6567</v>
       </c>
       <c r="BJ68">
-        <v>6693</v>
+        <v>6555</v>
       </c>
       <c r="BK68">
-        <v>6489</v>
+        <v>6756</v>
       </c>
       <c r="BL68">
-        <v>6709</v>
+        <v>6705</v>
       </c>
       <c r="BM68">
-        <v>7218</v>
-      </c>
-      <c r="BN68" s="4">
-        <v>6830</v>
+        <v>7079</v>
+      </c>
+      <c r="BN68">
+        <v>7026</v>
       </c>
       <c r="BO68">
-        <v>6903</v>
+        <v>7035</v>
       </c>
       <c r="BP68">
-        <v>7040</v>
+        <v>6952</v>
       </c>
       <c r="BQ68">
-        <v>7638</v>
+        <v>7044</v>
       </c>
       <c r="BR68">
-        <v>6976</v>
-      </c>
-      <c r="BS68" s="4">
-        <v>7204</v>
+        <v>6950</v>
+      </c>
+      <c r="BS68">
+        <v>7198</v>
       </c>
       <c r="BT68">
-        <v>7169</v>
+        <v>7497</v>
       </c>
     </row>
     <row r="69" spans="4:72" x14ac:dyDescent="0.3">
       <c r="D69">
         <v>100000</v>
       </c>
-      <c r="E69" s="4">
-        <v>8522</v>
+      <c r="E69">
+        <v>8568</v>
       </c>
       <c r="F69" s="4">
         <v>8375</v>
@@ -48120,49 +48128,49 @@
       <c r="BH69">
         <v>100000</v>
       </c>
-      <c r="BI69" s="4">
-        <v>8522</v>
+      <c r="BI69">
+        <v>8568</v>
       </c>
       <c r="BJ69">
-        <v>8633</v>
+        <v>8356</v>
       </c>
       <c r="BK69">
-        <v>8310</v>
+        <v>8282</v>
       </c>
       <c r="BL69">
-        <v>8541</v>
+        <v>8362</v>
       </c>
       <c r="BM69">
-        <v>9293</v>
-      </c>
-      <c r="BN69" s="4">
-        <v>8701</v>
+        <v>9235</v>
+      </c>
+      <c r="BN69">
+        <v>8800</v>
       </c>
       <c r="BO69">
-        <v>9160</v>
+        <v>9015</v>
       </c>
       <c r="BP69">
-        <v>9114</v>
+        <v>9765</v>
       </c>
       <c r="BQ69">
-        <v>9509</v>
+        <v>9508</v>
       </c>
       <c r="BR69">
+        <v>9279</v>
+      </c>
+      <c r="BS69">
+        <v>9403</v>
+      </c>
+      <c r="BT69">
         <v>9614</v>
-      </c>
-      <c r="BS69" s="4">
-        <v>9344</v>
-      </c>
-      <c r="BT69">
-        <v>9249</v>
       </c>
     </row>
     <row r="70" spans="4:72" x14ac:dyDescent="0.3">
       <c r="D70">
         <v>158489</v>
       </c>
-      <c r="E70" s="4">
-        <v>11842</v>
+      <c r="E70">
+        <v>11722</v>
       </c>
       <c r="F70" s="4">
         <v>11859</v>
@@ -48290,49 +48298,49 @@
       <c r="BH70">
         <v>158489</v>
       </c>
-      <c r="BI70" s="4">
-        <v>11842</v>
+      <c r="BI70">
+        <v>11722</v>
       </c>
       <c r="BJ70">
-        <v>11469</v>
+        <v>11474</v>
       </c>
       <c r="BK70">
-        <v>12292</v>
+        <v>11617</v>
       </c>
       <c r="BL70">
-        <v>12350</v>
+        <v>12022</v>
       </c>
       <c r="BM70">
-        <v>12287</v>
-      </c>
-      <c r="BN70" s="4">
-        <v>12637</v>
+        <v>12307</v>
+      </c>
+      <c r="BN70">
+        <v>12374</v>
       </c>
       <c r="BO70">
-        <v>12534</v>
+        <v>12653</v>
       </c>
       <c r="BP70">
-        <v>12378</v>
+        <v>12544</v>
       </c>
       <c r="BQ70">
-        <v>12803</v>
+        <v>12772</v>
       </c>
       <c r="BR70">
-        <v>12611</v>
-      </c>
-      <c r="BS70" s="4">
-        <v>12974</v>
+        <v>12664</v>
+      </c>
+      <c r="BS70">
+        <v>12689</v>
       </c>
       <c r="BT70">
-        <v>12971</v>
+        <v>12938</v>
       </c>
     </row>
     <row r="71" spans="4:72" x14ac:dyDescent="0.3">
       <c r="D71">
         <v>251188</v>
       </c>
-      <c r="E71" s="4">
-        <v>16589</v>
+      <c r="E71">
+        <v>16462</v>
       </c>
       <c r="F71" s="4">
         <v>16670</v>
@@ -48460,49 +48468,49 @@
       <c r="BH71">
         <v>251188</v>
       </c>
-      <c r="BI71" s="4">
-        <v>16589</v>
+      <c r="BI71">
+        <v>16462</v>
       </c>
       <c r="BJ71">
-        <v>16249</v>
+        <v>16198</v>
       </c>
       <c r="BK71">
-        <v>17101</v>
+        <v>16475</v>
       </c>
       <c r="BL71">
-        <v>17632</v>
+        <v>17195</v>
       </c>
       <c r="BM71">
-        <v>17403</v>
-      </c>
-      <c r="BN71" s="4">
-        <v>17256</v>
+        <v>17579</v>
+      </c>
+      <c r="BN71">
+        <v>17960</v>
       </c>
       <c r="BO71">
-        <v>18119</v>
+        <v>17927</v>
       </c>
       <c r="BP71">
-        <v>17701</v>
+        <v>17899</v>
       </c>
       <c r="BQ71">
-        <v>18805</v>
+        <v>18324</v>
       </c>
       <c r="BR71">
-        <v>18811</v>
-      </c>
-      <c r="BS71" s="4">
-        <v>18885</v>
+        <v>18266</v>
+      </c>
+      <c r="BS71">
+        <v>18121</v>
       </c>
       <c r="BT71">
-        <v>18896</v>
+        <v>18765</v>
       </c>
     </row>
     <row r="72" spans="4:72" x14ac:dyDescent="0.3">
       <c r="D72">
         <v>466158</v>
       </c>
-      <c r="E72" s="4">
-        <v>27863</v>
+      <c r="E72">
+        <v>27117</v>
       </c>
       <c r="F72" s="4">
         <v>27949</v>
@@ -48630,41 +48638,41 @@
       <c r="BH72">
         <v>466158</v>
       </c>
-      <c r="BI72" s="4">
-        <v>27863</v>
+      <c r="BI72">
+        <v>27117</v>
       </c>
       <c r="BJ72">
-        <v>28563</v>
+        <v>27447</v>
       </c>
       <c r="BK72">
-        <v>27993</v>
+        <v>28485</v>
       </c>
       <c r="BL72">
-        <v>29816</v>
+        <v>28729</v>
       </c>
       <c r="BM72">
-        <v>29828</v>
-      </c>
-      <c r="BN72" s="4">
-        <v>29432</v>
+        <v>29410</v>
+      </c>
+      <c r="BN72">
+        <v>30010</v>
       </c>
       <c r="BO72">
-        <v>29909</v>
+        <v>29497</v>
       </c>
       <c r="BP72">
-        <v>31398</v>
+        <v>30660</v>
       </c>
       <c r="BQ72">
-        <v>31518</v>
+        <v>30943</v>
       </c>
       <c r="BR72">
-        <v>31438</v>
-      </c>
-      <c r="BS72" s="4">
-        <v>31027</v>
+        <v>31062</v>
+      </c>
+      <c r="BS72">
+        <v>30880</v>
       </c>
       <c r="BT72">
-        <v>31476</v>
+        <v>31882</v>
       </c>
     </row>
     <row r="86" spans="4:43" x14ac:dyDescent="0.3">
@@ -48786,7 +48794,7 @@
       </c>
       <c r="I92">
         <f>E64/1000</f>
-        <v>3.4729999999999999</v>
+        <v>3.4750000000000001</v>
       </c>
       <c r="AM92">
         <v>100000</v>
@@ -48816,7 +48824,7 @@
       </c>
       <c r="I93">
         <f t="shared" ref="I93:I100" si="8">E65/1000</f>
-        <v>4.1269999999999998</v>
+        <v>3.9079999999999999</v>
       </c>
       <c r="AM93">
         <v>158489</v>
@@ -48846,7 +48854,7 @@
       </c>
       <c r="I94">
         <f t="shared" si="8"/>
-        <v>4.6269999999999998</v>
+        <v>4.5439999999999996</v>
       </c>
       <c r="AM94">
         <v>251188</v>
@@ -48876,7 +48884,7 @@
       </c>
       <c r="I95">
         <f t="shared" si="8"/>
-        <v>5.4509999999999996</v>
+        <v>5.4340000000000002</v>
       </c>
       <c r="AM95">
         <v>466158</v>
@@ -48906,7 +48914,7 @@
       </c>
       <c r="I96">
         <f t="shared" si="8"/>
-        <v>6.6050000000000004</v>
+        <v>6.5670000000000002</v>
       </c>
     </row>
     <row r="97" spans="4:43" x14ac:dyDescent="0.3">
@@ -48922,7 +48930,7 @@
       </c>
       <c r="I97">
         <f t="shared" si="8"/>
-        <v>8.5220000000000002</v>
+        <v>8.5679999999999996</v>
       </c>
     </row>
     <row r="98" spans="4:43" x14ac:dyDescent="0.3">
@@ -48938,7 +48946,7 @@
       </c>
       <c r="I98">
         <f t="shared" si="8"/>
-        <v>11.842000000000001</v>
+        <v>11.722</v>
       </c>
       <c r="AM98" t="s">
         <v>51</v>
@@ -48966,7 +48974,7 @@
       </c>
       <c r="I99">
         <f t="shared" si="8"/>
-        <v>16.588999999999999</v>
+        <v>16.462</v>
       </c>
       <c r="AM99">
         <v>10000</v>
@@ -48996,7 +49004,7 @@
       </c>
       <c r="I100">
         <f t="shared" si="8"/>
-        <v>27.863</v>
+        <v>27.117000000000001</v>
       </c>
       <c r="AM100">
         <v>15848</v>
@@ -49900,8 +49908,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B7:BQ143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L85" sqref="L85"/>
+    <sheetView topLeftCell="A57" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H143" sqref="G76:H143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -56582,8 +56590,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C7:BO205"/>
   <sheetViews>
-    <sheetView topLeftCell="X18" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="BL61" sqref="BL61:BO71"/>
+    <sheetView topLeftCell="A105" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AJ132" sqref="AJ132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -61454,13 +61462,13 @@
     </row>
     <row r="77" spans="3:67" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="D77" t="s">
         <v>0</v>
       </c>
       <c r="G77" t="s">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="H77" t="s">
         <v>0</v>
@@ -61845,13 +61853,13 @@
     </row>
     <row r="91" spans="3:30" x14ac:dyDescent="0.3">
       <c r="C91" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="D91" t="s">
         <v>1</v>
       </c>
       <c r="G91" t="s">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="H91" t="s">
         <v>1</v>
@@ -62285,13 +62293,13 @@
     </row>
     <row r="105" spans="3:30" x14ac:dyDescent="0.3">
       <c r="C105" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="D105" t="s">
         <v>2</v>
       </c>
       <c r="G105" t="s">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="H105" t="s">
         <v>2</v>
@@ -62725,13 +62733,13 @@
     </row>
     <row r="119" spans="3:30" x14ac:dyDescent="0.3">
       <c r="C119" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="D119" t="s">
         <v>3</v>
       </c>
       <c r="G119" t="s">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="H119" t="s">
         <v>3</v>
@@ -63027,13 +63035,13 @@
     </row>
     <row r="133" spans="3:30" x14ac:dyDescent="0.3">
       <c r="C133" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="D133" t="s">
         <v>4</v>
       </c>
       <c r="G133" t="s">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="H133" t="s">
         <v>4</v>
@@ -63754,7 +63762,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A7:AN150"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="L31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="AI26" sqref="AI26"/>
     </sheetView>
   </sheetViews>

--- a/exp/exp2.xlsx
+++ b/exp/exp2.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="62">
   <si>
     <t>JoinHybridOpt</t>
   </si>
@@ -23030,31 +23030,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>3178</c:v>
+                  <c:v>3234</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3737</c:v>
+                  <c:v>3687</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4109</c:v>
+                  <c:v>3952</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4666</c:v>
+                  <c:v>4756</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5768</c:v>
+                  <c:v>5547</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7426</c:v>
+                  <c:v>7627</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10178</c:v>
+                  <c:v>8711</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>13990</c:v>
+                  <c:v>11731</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>23748</c:v>
+                  <c:v>20299</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -44070,8 +44070,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B7:BT148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="L70" sqref="L70"/>
+    <sheetView tabSelected="1" topLeftCell="A94" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="P121" sqref="P121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -45215,14 +45215,41 @@
       <c r="BH50" t="s">
         <v>58</v>
       </c>
-      <c r="BI50" t="s">
-        <v>53</v>
-      </c>
-      <c r="BM50" t="s">
-        <v>54</v>
-      </c>
-      <c r="BQ50" t="s">
-        <v>57</v>
+      <c r="BI50">
+        <v>1</v>
+      </c>
+      <c r="BJ50">
+        <v>1</v>
+      </c>
+      <c r="BK50">
+        <v>1</v>
+      </c>
+      <c r="BL50">
+        <v>1</v>
+      </c>
+      <c r="BM50">
+        <v>2</v>
+      </c>
+      <c r="BN50">
+        <v>2</v>
+      </c>
+      <c r="BO50">
+        <v>2</v>
+      </c>
+      <c r="BP50">
+        <v>2</v>
+      </c>
+      <c r="BQ50">
+        <v>3</v>
+      </c>
+      <c r="BR50">
+        <v>3</v>
+      </c>
+      <c r="BS50">
+        <v>3</v>
+      </c>
+      <c r="BT50">
+        <v>3</v>
       </c>
     </row>
     <row r="51" spans="2:72" x14ac:dyDescent="0.3">
@@ -45393,8 +45420,8 @@
       <c r="D52">
         <v>10000</v>
       </c>
-      <c r="E52" s="4">
-        <v>3178</v>
+      <c r="E52">
+        <v>3234</v>
       </c>
       <c r="F52" s="4">
         <v>2820</v>
@@ -45523,48 +45550,48 @@
         <v>10000</v>
       </c>
       <c r="BI52">
-        <v>3144</v>
+        <v>3234</v>
       </c>
       <c r="BJ52">
-        <v>3171</v>
-      </c>
-      <c r="BK52" s="4">
-        <v>3178</v>
+        <v>3153</v>
+      </c>
+      <c r="BK52">
+        <v>2972</v>
       </c>
       <c r="BL52">
-        <v>3202</v>
+        <v>2958</v>
       </c>
       <c r="BM52">
-        <v>3218</v>
-      </c>
-      <c r="BN52" s="4">
-        <v>3196</v>
+        <v>3174</v>
+      </c>
+      <c r="BN52">
+        <v>3443</v>
       </c>
       <c r="BO52">
-        <v>3372</v>
+        <v>2955</v>
       </c>
       <c r="BP52">
-        <v>3518</v>
-      </c>
-      <c r="BQ52" s="4">
-        <v>3334</v>
+        <v>3017</v>
+      </c>
+      <c r="BQ52">
+        <v>3352</v>
       </c>
       <c r="BR52">
-        <v>3377</v>
+        <v>3219</v>
       </c>
       <c r="BS52">
-        <v>3260</v>
+        <v>2954</v>
       </c>
       <c r="BT52">
-        <v>3529</v>
+        <v>3043</v>
       </c>
     </row>
     <row r="53" spans="2:72" x14ac:dyDescent="0.3">
       <c r="D53">
         <v>15848</v>
       </c>
-      <c r="E53" s="4">
-        <v>3737</v>
+      <c r="E53">
+        <v>3687</v>
       </c>
       <c r="F53" s="4">
         <v>3141</v>
@@ -45693,48 +45720,48 @@
         <v>15848</v>
       </c>
       <c r="BI53">
-        <v>3678</v>
+        <v>3687</v>
       </c>
       <c r="BJ53">
-        <v>3573</v>
-      </c>
-      <c r="BK53" s="4">
-        <v>3737</v>
+        <v>3580</v>
+      </c>
+      <c r="BK53">
+        <v>3362</v>
       </c>
       <c r="BL53">
-        <v>3669</v>
+        <v>3548</v>
       </c>
       <c r="BM53">
-        <v>3858</v>
-      </c>
-      <c r="BN53" s="4">
-        <v>3605</v>
+        <v>3693</v>
+      </c>
+      <c r="BN53">
+        <v>3718</v>
       </c>
       <c r="BO53">
-        <v>3635</v>
+        <v>3511</v>
       </c>
       <c r="BP53">
-        <v>3708</v>
-      </c>
-      <c r="BQ53" s="4">
-        <v>3604</v>
+        <v>3649</v>
+      </c>
+      <c r="BQ53">
+        <v>3800</v>
       </c>
       <c r="BR53">
-        <v>3775</v>
+        <v>3728</v>
       </c>
       <c r="BS53">
-        <v>3834</v>
+        <v>3370</v>
       </c>
       <c r="BT53">
-        <v>4084</v>
+        <v>3568</v>
       </c>
     </row>
     <row r="54" spans="2:72" x14ac:dyDescent="0.3">
       <c r="D54">
         <v>25118</v>
       </c>
-      <c r="E54" s="4">
-        <v>4109</v>
+      <c r="E54">
+        <v>3952</v>
       </c>
       <c r="F54" s="4">
         <v>3802</v>
@@ -45863,48 +45890,48 @@
         <v>25118</v>
       </c>
       <c r="BI54">
-        <v>4375</v>
+        <v>3952</v>
       </c>
       <c r="BJ54">
-        <v>4152</v>
-      </c>
-      <c r="BK54" s="4">
-        <v>4109</v>
+        <v>4163</v>
+      </c>
+      <c r="BK54">
+        <v>3746</v>
       </c>
       <c r="BL54">
-        <v>4385</v>
+        <v>3694</v>
       </c>
       <c r="BM54">
-        <v>4308</v>
-      </c>
-      <c r="BN54" s="4">
-        <v>4369</v>
+        <v>4105</v>
+      </c>
+      <c r="BN54">
+        <v>4475</v>
       </c>
       <c r="BO54">
-        <v>4062</v>
+        <v>3789</v>
       </c>
       <c r="BP54">
-        <v>4323</v>
-      </c>
-      <c r="BQ54" s="4">
-        <v>4112</v>
+        <v>3761</v>
+      </c>
+      <c r="BQ54">
+        <v>4359</v>
       </c>
       <c r="BR54">
-        <v>4355</v>
+        <v>4357</v>
       </c>
       <c r="BS54">
-        <v>4212</v>
+        <v>3858</v>
       </c>
       <c r="BT54">
-        <v>4338</v>
+        <v>3804</v>
       </c>
     </row>
     <row r="55" spans="2:72" x14ac:dyDescent="0.3">
       <c r="D55">
         <v>39810</v>
       </c>
-      <c r="E55" s="4">
-        <v>4666</v>
+      <c r="E55">
+        <v>4756</v>
       </c>
       <c r="F55" s="4">
         <v>4746</v>
@@ -46033,48 +46060,48 @@
         <v>39810</v>
       </c>
       <c r="BI55">
-        <v>4907</v>
+        <v>4756</v>
       </c>
       <c r="BJ55">
-        <v>4887</v>
-      </c>
-      <c r="BK55" s="4">
-        <v>4666</v>
+        <v>4476</v>
+      </c>
+      <c r="BK55">
+        <v>4564</v>
       </c>
       <c r="BL55">
-        <v>4856</v>
+        <v>4716</v>
       </c>
       <c r="BM55">
-        <v>4851</v>
-      </c>
-      <c r="BN55" s="4">
-        <v>4960</v>
+        <v>5019</v>
+      </c>
+      <c r="BN55">
+        <v>4590</v>
       </c>
       <c r="BO55">
-        <v>4956</v>
+        <v>4656</v>
       </c>
       <c r="BP55">
-        <v>5001</v>
-      </c>
-      <c r="BQ55" s="4">
-        <v>5042</v>
+        <v>4782</v>
+      </c>
+      <c r="BQ55">
+        <v>5011</v>
       </c>
       <c r="BR55">
-        <v>4852</v>
+        <v>4474</v>
       </c>
       <c r="BS55">
-        <v>5048</v>
+        <v>4608</v>
       </c>
       <c r="BT55">
-        <v>5363</v>
+        <v>4672</v>
       </c>
     </row>
     <row r="56" spans="2:72" x14ac:dyDescent="0.3">
       <c r="D56">
         <v>63095</v>
       </c>
-      <c r="E56" s="4">
-        <v>5768</v>
+      <c r="E56">
+        <v>5547</v>
       </c>
       <c r="F56" s="4">
         <v>5605</v>
@@ -46203,48 +46230,48 @@
         <v>63095</v>
       </c>
       <c r="BI56">
-        <v>5848</v>
+        <v>5547</v>
       </c>
       <c r="BJ56">
-        <v>5798</v>
-      </c>
-      <c r="BK56" s="4">
-        <v>5768</v>
+        <v>5059</v>
+      </c>
+      <c r="BK56">
+        <v>5321</v>
       </c>
       <c r="BL56">
-        <v>5761</v>
+        <v>5473</v>
       </c>
       <c r="BM56">
-        <v>6216</v>
-      </c>
-      <c r="BN56" s="4">
-        <v>5824</v>
+        <v>5778</v>
+      </c>
+      <c r="BN56">
+        <v>5026</v>
       </c>
       <c r="BO56">
-        <v>5861</v>
+        <v>5255</v>
       </c>
       <c r="BP56">
-        <v>6152</v>
-      </c>
-      <c r="BQ56" s="4">
-        <v>6100</v>
+        <v>5328</v>
+      </c>
+      <c r="BQ56">
+        <v>5875</v>
       </c>
       <c r="BR56">
-        <v>5885</v>
+        <v>5321</v>
       </c>
       <c r="BS56">
-        <v>6129</v>
+        <v>5394</v>
       </c>
       <c r="BT56">
-        <v>6143</v>
+        <v>5413</v>
       </c>
     </row>
     <row r="57" spans="2:72" x14ac:dyDescent="0.3">
       <c r="D57">
         <v>100000</v>
       </c>
-      <c r="E57" s="4">
-        <v>7426</v>
+      <c r="E57">
+        <v>7627</v>
       </c>
       <c r="F57" s="4">
         <v>7729</v>
@@ -46373,48 +46400,48 @@
         <v>100000</v>
       </c>
       <c r="BI57">
-        <v>7896</v>
+        <v>7627</v>
       </c>
       <c r="BJ57">
-        <v>7428</v>
-      </c>
-      <c r="BK57" s="4">
-        <v>7426</v>
+        <v>6514</v>
+      </c>
+      <c r="BK57">
+        <v>6657</v>
       </c>
       <c r="BL57">
-        <v>8027</v>
+        <v>6998</v>
       </c>
       <c r="BM57">
-        <v>7990</v>
-      </c>
-      <c r="BN57" s="4">
-        <v>7846</v>
+        <v>8000</v>
+      </c>
+      <c r="BN57">
+        <v>6721</v>
       </c>
       <c r="BO57">
-        <v>8508</v>
+        <v>6656</v>
       </c>
       <c r="BP57">
-        <v>8213</v>
-      </c>
-      <c r="BQ57" s="4">
-        <v>8462</v>
+        <v>7050</v>
+      </c>
+      <c r="BQ57">
+        <v>8206</v>
       </c>
       <c r="BR57">
-        <v>8065</v>
+        <v>6657</v>
       </c>
       <c r="BS57">
-        <v>8210</v>
+        <v>6840</v>
       </c>
       <c r="BT57">
-        <v>8159</v>
+        <v>7042</v>
       </c>
     </row>
     <row r="58" spans="2:72" x14ac:dyDescent="0.3">
       <c r="D58">
         <v>158489</v>
       </c>
-      <c r="E58" s="4">
-        <v>10178</v>
+      <c r="E58">
+        <v>8711</v>
       </c>
       <c r="F58" s="4">
         <v>10083</v>
@@ -46543,48 +46570,48 @@
         <v>158489</v>
       </c>
       <c r="BI58">
-        <v>10446</v>
+        <v>8711</v>
       </c>
       <c r="BJ58">
-        <v>10723</v>
-      </c>
-      <c r="BK58" s="4">
-        <v>10178</v>
+        <v>8781</v>
+      </c>
+      <c r="BK58">
+        <v>8806</v>
       </c>
       <c r="BL58">
-        <v>10956</v>
+        <v>9217</v>
       </c>
       <c r="BM58">
-        <v>10717</v>
-      </c>
-      <c r="BN58" s="4">
-        <v>10829</v>
+        <v>8588</v>
+      </c>
+      <c r="BN58">
+        <v>8597</v>
       </c>
       <c r="BO58">
-        <v>10537</v>
+        <v>8961</v>
       </c>
       <c r="BP58">
-        <v>11077</v>
-      </c>
-      <c r="BQ58" s="4">
-        <v>11096</v>
+        <v>9031</v>
+      </c>
+      <c r="BQ58">
+        <v>8676</v>
       </c>
       <c r="BR58">
-        <v>10830</v>
+        <v>8598</v>
       </c>
       <c r="BS58">
-        <v>11123</v>
+        <v>8624</v>
       </c>
       <c r="BT58">
-        <v>11206</v>
+        <v>9105</v>
       </c>
     </row>
     <row r="59" spans="2:72" x14ac:dyDescent="0.3">
       <c r="D59">
         <v>251188</v>
       </c>
-      <c r="E59" s="4">
-        <v>13990</v>
+      <c r="E59">
+        <v>11731</v>
       </c>
       <c r="F59" s="4">
         <v>14330</v>
@@ -46713,48 +46740,48 @@
         <v>251188</v>
       </c>
       <c r="BI59">
-        <v>14204</v>
+        <v>11731</v>
       </c>
       <c r="BJ59">
-        <v>14193</v>
-      </c>
-      <c r="BK59" s="4">
-        <v>13990</v>
+        <v>11370</v>
+      </c>
+      <c r="BK59">
+        <v>11685</v>
       </c>
       <c r="BL59">
-        <v>14537</v>
+        <v>12214</v>
       </c>
       <c r="BM59">
-        <v>14794</v>
-      </c>
-      <c r="BN59" s="4">
-        <v>14936</v>
+        <v>11420</v>
+      </c>
+      <c r="BN59">
+        <v>11472</v>
       </c>
       <c r="BO59">
-        <v>14871</v>
+        <v>11878</v>
       </c>
       <c r="BP59">
-        <v>15318</v>
-      </c>
-      <c r="BQ59" s="4">
-        <v>14900</v>
+        <v>12425</v>
+      </c>
+      <c r="BQ59">
+        <v>11411</v>
       </c>
       <c r="BR59">
-        <v>15157</v>
+        <v>12098</v>
       </c>
       <c r="BS59">
-        <v>15329</v>
+        <v>11713</v>
       </c>
       <c r="BT59">
-        <v>15523</v>
+        <v>12620</v>
       </c>
     </row>
     <row r="60" spans="2:72" x14ac:dyDescent="0.3">
       <c r="D60">
         <v>466158</v>
       </c>
-      <c r="E60" s="4">
-        <v>23748</v>
+      <c r="E60">
+        <v>20299</v>
       </c>
       <c r="F60" s="4">
         <v>24043</v>
@@ -46883,40 +46910,40 @@
         <v>466158</v>
       </c>
       <c r="BI60">
-        <v>23788</v>
+        <v>20299</v>
       </c>
       <c r="BJ60">
-        <v>23895</v>
-      </c>
-      <c r="BK60" s="4">
-        <v>23748</v>
+        <v>20970</v>
+      </c>
+      <c r="BK60">
+        <v>20602</v>
       </c>
       <c r="BL60">
-        <v>24270</v>
+        <v>21777</v>
       </c>
       <c r="BM60">
-        <v>25344</v>
-      </c>
-      <c r="BN60" s="4">
-        <v>24977</v>
+        <v>20473</v>
+      </c>
+      <c r="BN60">
+        <v>20569</v>
       </c>
       <c r="BO60">
-        <v>26385</v>
+        <v>20772</v>
       </c>
       <c r="BP60">
-        <v>26649</v>
-      </c>
-      <c r="BQ60" s="4">
-        <v>26132</v>
+        <v>21240</v>
+      </c>
+      <c r="BQ60">
+        <v>19644</v>
       </c>
       <c r="BR60">
-        <v>26808</v>
+        <v>20363</v>
       </c>
       <c r="BS60">
-        <v>26988</v>
+        <v>20597</v>
       </c>
       <c r="BT60">
-        <v>27836</v>
+        <v>22261</v>
       </c>
     </row>
     <row r="62" spans="2:72" x14ac:dyDescent="0.3">
@@ -48787,7 +48814,7 @@
       </c>
       <c r="E92">
         <f>E52/1000</f>
-        <v>3.1779999999999999</v>
+        <v>3.234</v>
       </c>
       <c r="H92">
         <v>10000</v>
@@ -48817,7 +48844,7 @@
       </c>
       <c r="E93">
         <f t="shared" ref="E93:E100" si="7">E53/1000</f>
-        <v>3.7370000000000001</v>
+        <v>3.6869999999999998</v>
       </c>
       <c r="H93">
         <v>15848</v>
@@ -48847,7 +48874,7 @@
       </c>
       <c r="E94">
         <f t="shared" si="7"/>
-        <v>4.109</v>
+        <v>3.952</v>
       </c>
       <c r="H94">
         <v>25118</v>
@@ -48877,7 +48904,7 @@
       </c>
       <c r="E95">
         <f t="shared" si="7"/>
-        <v>4.6660000000000004</v>
+        <v>4.7560000000000002</v>
       </c>
       <c r="H95">
         <v>39810</v>
@@ -48907,7 +48934,7 @@
       </c>
       <c r="E96">
         <f t="shared" si="7"/>
-        <v>5.7679999999999998</v>
+        <v>5.5469999999999997</v>
       </c>
       <c r="H96">
         <v>63095</v>
@@ -48923,7 +48950,7 @@
       </c>
       <c r="E97">
         <f t="shared" si="7"/>
-        <v>7.4260000000000002</v>
+        <v>7.6269999999999998</v>
       </c>
       <c r="H97">
         <v>100000</v>
@@ -48939,7 +48966,7 @@
       </c>
       <c r="E98">
         <f t="shared" si="7"/>
-        <v>10.178000000000001</v>
+        <v>8.7110000000000003</v>
       </c>
       <c r="H98">
         <v>158489</v>
@@ -48967,7 +48994,7 @@
       </c>
       <c r="E99">
         <f t="shared" si="7"/>
-        <v>13.99</v>
+        <v>11.731</v>
       </c>
       <c r="H99">
         <v>251188</v>
@@ -48997,7 +49024,7 @@
       </c>
       <c r="E100">
         <f t="shared" si="7"/>
-        <v>23.748000000000001</v>
+        <v>20.298999999999999</v>
       </c>
       <c r="H100">
         <v>466158</v>
@@ -49908,8 +49935,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B7:BQ143"/>
   <sheetViews>
-    <sheetView topLeftCell="A57" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H143" sqref="G76:H143"/>
+    <sheetView topLeftCell="AI21" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="BJ44" sqref="BJ44:BM55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -50944,14 +50971,41 @@
       <c r="BE43" t="s">
         <v>59</v>
       </c>
-      <c r="BF43" t="s">
-        <v>53</v>
-      </c>
-      <c r="BJ43" t="s">
-        <v>54</v>
-      </c>
-      <c r="BN43" t="s">
-        <v>57</v>
+      <c r="BF43">
+        <v>1</v>
+      </c>
+      <c r="BG43">
+        <v>1</v>
+      </c>
+      <c r="BH43">
+        <v>1</v>
+      </c>
+      <c r="BI43">
+        <v>1</v>
+      </c>
+      <c r="BJ43">
+        <v>2</v>
+      </c>
+      <c r="BK43">
+        <v>2</v>
+      </c>
+      <c r="BL43">
+        <v>2</v>
+      </c>
+      <c r="BM43">
+        <v>2</v>
+      </c>
+      <c r="BN43">
+        <v>3</v>
+      </c>
+      <c r="BO43">
+        <v>3</v>
+      </c>
+      <c r="BP43">
+        <v>3</v>
+      </c>
+      <c r="BQ43">
+        <v>3</v>
       </c>
     </row>
     <row r="44" spans="2:69" x14ac:dyDescent="0.3">
@@ -51122,8 +51176,8 @@
       <c r="D45">
         <v>10000</v>
       </c>
-      <c r="E45" s="4">
-        <v>1812</v>
+      <c r="E45">
+        <v>874</v>
       </c>
       <c r="F45">
         <v>545</v>
@@ -51251,41 +51305,41 @@
       <c r="BE45">
         <v>10000</v>
       </c>
-      <c r="BF45" s="4">
-        <v>897</v>
+      <c r="BF45">
+        <v>874</v>
       </c>
       <c r="BG45">
-        <v>739</v>
+        <v>777</v>
       </c>
       <c r="BH45">
-        <v>703</v>
+        <v>602</v>
       </c>
       <c r="BI45">
-        <v>723</v>
-      </c>
-      <c r="BJ45" s="4">
-        <v>929</v>
+        <v>645</v>
+      </c>
+      <c r="BJ45">
+        <v>817</v>
       </c>
       <c r="BK45">
-        <v>795</v>
+        <v>813</v>
       </c>
       <c r="BL45">
-        <v>796</v>
+        <v>566</v>
       </c>
       <c r="BM45">
-        <v>773</v>
-      </c>
-      <c r="BN45" s="4">
-        <v>851</v>
+        <v>635</v>
+      </c>
+      <c r="BN45">
+        <v>918</v>
       </c>
       <c r="BO45">
-        <v>822</v>
+        <v>884</v>
       </c>
       <c r="BP45">
-        <v>919</v>
+        <v>642</v>
       </c>
       <c r="BQ45">
-        <v>877</v>
+        <v>688</v>
       </c>
     </row>
     <row r="46" spans="2:69" x14ac:dyDescent="0.3">
@@ -51295,8 +51349,8 @@
       <c r="D46">
         <v>15848</v>
       </c>
-      <c r="E46" s="4">
-        <v>2035</v>
+      <c r="E46">
+        <v>1101</v>
       </c>
       <c r="F46">
         <v>671</v>
@@ -51424,41 +51478,41 @@
       <c r="BE46">
         <v>15848</v>
       </c>
-      <c r="BF46" s="4">
-        <v>978</v>
+      <c r="BF46">
+        <v>1101</v>
       </c>
       <c r="BG46">
-        <v>998</v>
+        <v>1152</v>
       </c>
       <c r="BH46">
-        <v>943</v>
+        <v>832</v>
       </c>
       <c r="BI46">
-        <v>1049</v>
-      </c>
-      <c r="BJ46" s="4">
-        <v>1207</v>
+        <v>826</v>
+      </c>
+      <c r="BJ46">
+        <v>1158</v>
       </c>
       <c r="BK46">
-        <v>1151</v>
+        <v>1236</v>
       </c>
       <c r="BL46">
-        <v>1097</v>
+        <v>818</v>
       </c>
       <c r="BM46">
-        <v>1200</v>
-      </c>
-      <c r="BN46" s="4">
-        <v>1340</v>
+        <v>896</v>
+      </c>
+      <c r="BN46">
+        <v>1222</v>
       </c>
       <c r="BO46">
-        <v>1086</v>
+        <v>1161</v>
       </c>
       <c r="BP46">
-        <v>1094</v>
+        <v>752</v>
       </c>
       <c r="BQ46">
-        <v>1099</v>
+        <v>876</v>
       </c>
     </row>
     <row r="47" spans="2:69" x14ac:dyDescent="0.3">
@@ -51468,8 +51522,8 @@
       <c r="D47">
         <v>25118</v>
       </c>
-      <c r="E47" s="4">
-        <v>2487</v>
+      <c r="E47">
+        <v>1627</v>
       </c>
       <c r="F47">
         <v>889</v>
@@ -51597,41 +51651,41 @@
       <c r="BE47">
         <v>25118</v>
       </c>
-      <c r="BF47" s="4">
-        <v>1660</v>
+      <c r="BF47">
+        <v>1627</v>
       </c>
       <c r="BG47">
-        <v>1365</v>
+        <v>1493</v>
       </c>
       <c r="BH47">
-        <v>1247</v>
+        <v>1020</v>
       </c>
       <c r="BI47">
-        <v>1286</v>
-      </c>
-      <c r="BJ47" s="4">
-        <v>1991</v>
+        <v>1106</v>
+      </c>
+      <c r="BJ47">
+        <v>1513</v>
       </c>
       <c r="BK47">
-        <v>1644</v>
+        <v>1791</v>
       </c>
       <c r="BL47">
-        <v>1422</v>
+        <v>1001</v>
       </c>
       <c r="BM47">
-        <v>1601</v>
-      </c>
-      <c r="BN47" s="4">
-        <v>1598</v>
+        <v>1076</v>
+      </c>
+      <c r="BN47">
+        <v>1791</v>
       </c>
       <c r="BO47">
-        <v>1628</v>
+        <v>1596</v>
       </c>
       <c r="BP47">
-        <v>1845</v>
+        <v>1070</v>
       </c>
       <c r="BQ47">
-        <v>1683</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="48" spans="2:69" x14ac:dyDescent="0.3">
@@ -51641,8 +51695,8 @@
       <c r="D48">
         <v>39810</v>
       </c>
-      <c r="E48" s="4">
-        <v>2670</v>
+      <c r="E48">
+        <v>2312</v>
       </c>
       <c r="F48">
         <v>1313</v>
@@ -51770,41 +51824,41 @@
       <c r="BE48">
         <v>39810</v>
       </c>
-      <c r="BF48" s="4">
-        <v>1929</v>
+      <c r="BF48">
+        <v>2312</v>
       </c>
       <c r="BG48">
-        <v>1798</v>
+        <v>1370</v>
       </c>
       <c r="BH48">
-        <v>1396</v>
+        <v>1491</v>
       </c>
       <c r="BI48">
-        <v>1471</v>
-      </c>
-      <c r="BJ48" s="4">
-        <v>2268</v>
+        <v>1602</v>
+      </c>
+      <c r="BJ48">
+        <v>2613</v>
       </c>
       <c r="BK48">
-        <v>1926</v>
+        <v>1354</v>
       </c>
       <c r="BL48">
-        <v>1397</v>
+        <v>1465</v>
       </c>
       <c r="BM48">
-        <v>1526</v>
-      </c>
-      <c r="BN48" s="4">
-        <v>2277</v>
+        <v>1486</v>
+      </c>
+      <c r="BN48">
+        <v>2616</v>
       </c>
       <c r="BO48">
-        <v>2302</v>
+        <v>1372</v>
       </c>
       <c r="BP48">
-        <v>1417</v>
+        <v>1408</v>
       </c>
       <c r="BQ48">
-        <v>1695</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="49" spans="2:69" x14ac:dyDescent="0.3">
@@ -51814,8 +51868,8 @@
       <c r="D49">
         <v>63095</v>
       </c>
-      <c r="E49" s="4">
-        <v>3272</v>
+      <c r="E49">
+        <v>3273</v>
       </c>
       <c r="F49">
         <v>2057</v>
@@ -51943,41 +51997,41 @@
       <c r="BE49">
         <v>63095</v>
       </c>
-      <c r="BF49" s="4">
-        <v>2579</v>
+      <c r="BF49">
+        <v>3273</v>
       </c>
       <c r="BG49">
-        <v>2662</v>
+        <v>2104</v>
       </c>
       <c r="BH49">
-        <v>2604</v>
+        <v>2153</v>
       </c>
       <c r="BI49">
-        <v>3277</v>
-      </c>
-      <c r="BJ49" s="4">
-        <v>2852</v>
+        <v>2336</v>
+      </c>
+      <c r="BJ49">
+        <v>3605</v>
       </c>
       <c r="BK49">
-        <v>3096</v>
+        <v>2098</v>
       </c>
       <c r="BL49">
-        <v>2945</v>
+        <v>2133</v>
       </c>
       <c r="BM49">
-        <v>3079</v>
-      </c>
-      <c r="BN49" s="4">
-        <v>3046</v>
+        <v>2445</v>
+      </c>
+      <c r="BN49">
+        <v>3366</v>
       </c>
       <c r="BO49">
-        <v>3210</v>
+        <v>2073</v>
       </c>
       <c r="BP49">
-        <v>2954</v>
+        <v>2240</v>
       </c>
       <c r="BQ49">
-        <v>3284</v>
+        <v>2339</v>
       </c>
     </row>
     <row r="50" spans="2:69" x14ac:dyDescent="0.3">
@@ -51987,8 +52041,8 @@
       <c r="D50">
         <v>100000</v>
       </c>
-      <c r="E50" s="4">
-        <v>4442</v>
+      <c r="E50">
+        <v>4960</v>
       </c>
       <c r="F50">
         <v>2629</v>
@@ -52116,41 +52170,41 @@
       <c r="BE50">
         <v>100000</v>
       </c>
-      <c r="BF50" s="4">
-        <v>4225</v>
+      <c r="BF50">
+        <v>4960</v>
       </c>
       <c r="BG50">
-        <v>3800</v>
+        <v>2827</v>
       </c>
       <c r="BH50">
-        <v>3970</v>
+        <v>2945</v>
       </c>
       <c r="BI50">
-        <v>3911</v>
-      </c>
-      <c r="BJ50" s="4">
-        <v>4948</v>
+        <v>3038</v>
+      </c>
+      <c r="BJ50">
+        <v>5010</v>
       </c>
       <c r="BK50">
-        <v>4411</v>
+        <v>2814</v>
       </c>
       <c r="BL50">
-        <v>4421</v>
+        <v>2989</v>
       </c>
       <c r="BM50">
-        <v>4817</v>
-      </c>
-      <c r="BN50" s="4">
-        <v>4678</v>
+        <v>3204</v>
+      </c>
+      <c r="BN50">
+        <v>4914</v>
       </c>
       <c r="BO50">
-        <v>4569</v>
+        <v>2921</v>
       </c>
       <c r="BP50">
-        <v>4516</v>
+        <v>2999</v>
       </c>
       <c r="BQ50">
-        <v>4753</v>
+        <v>3217</v>
       </c>
     </row>
     <row r="51" spans="2:69" x14ac:dyDescent="0.3">
@@ -52160,8 +52214,8 @@
       <c r="D51">
         <v>158489</v>
       </c>
-      <c r="E51" s="4">
-        <v>5657</v>
+      <c r="E51">
+        <v>4115</v>
       </c>
       <c r="F51">
         <v>4039</v>
@@ -52289,41 +52343,41 @@
       <c r="BE51">
         <v>158489</v>
       </c>
-      <c r="BF51" s="4">
-        <v>5401</v>
+      <c r="BF51">
+        <v>4115</v>
       </c>
       <c r="BG51">
-        <v>5339</v>
+        <v>4229</v>
       </c>
       <c r="BH51">
-        <v>5454</v>
+        <v>4307</v>
       </c>
       <c r="BI51">
-        <v>5836</v>
-      </c>
-      <c r="BJ51" s="4">
-        <v>5851</v>
+        <v>4640</v>
+      </c>
+      <c r="BJ51">
+        <v>4257</v>
       </c>
       <c r="BK51">
-        <v>5931</v>
+        <v>4177</v>
       </c>
       <c r="BL51">
-        <v>5801</v>
+        <v>4403</v>
       </c>
       <c r="BM51">
-        <v>6837</v>
-      </c>
-      <c r="BN51" s="4">
-        <v>6593</v>
+        <v>4666</v>
+      </c>
+      <c r="BN51">
+        <v>4239</v>
       </c>
       <c r="BO51">
-        <v>6115</v>
+        <v>4139</v>
       </c>
       <c r="BP51">
-        <v>6337</v>
+        <v>4435</v>
       </c>
       <c r="BQ51">
-        <v>6604</v>
+        <v>4764</v>
       </c>
     </row>
     <row r="52" spans="2:69" x14ac:dyDescent="0.3">
@@ -52333,8 +52387,8 @@
       <c r="D52">
         <v>251188</v>
       </c>
-      <c r="E52" s="4">
-        <v>8150</v>
+      <c r="E52">
+        <v>5844</v>
       </c>
       <c r="F52">
         <v>5650</v>
@@ -52462,41 +52516,41 @@
       <c r="BE52">
         <v>251188</v>
       </c>
-      <c r="BF52" s="4">
-        <v>8005</v>
+      <c r="BF52">
+        <v>5844</v>
       </c>
       <c r="BG52">
-        <v>7844</v>
+        <v>5925</v>
       </c>
       <c r="BH52">
-        <v>7789</v>
+        <v>6708</v>
       </c>
       <c r="BI52">
-        <v>20573</v>
-      </c>
-      <c r="BJ52" s="4">
-        <v>9269</v>
+        <v>7167</v>
+      </c>
+      <c r="BJ52">
+        <v>5971</v>
       </c>
       <c r="BK52">
-        <v>8795</v>
+        <v>5991</v>
       </c>
       <c r="BL52">
-        <v>9219</v>
+        <v>6802</v>
       </c>
       <c r="BM52">
-        <v>17712</v>
-      </c>
-      <c r="BN52" s="4">
-        <v>9316</v>
+        <v>7365</v>
+      </c>
+      <c r="BN52">
+        <v>5936</v>
       </c>
       <c r="BO52">
-        <v>9315</v>
+        <v>6066</v>
       </c>
       <c r="BP52">
-        <v>9614</v>
+        <v>6811</v>
       </c>
       <c r="BQ52">
-        <v>10200</v>
+        <v>7265</v>
       </c>
     </row>
     <row r="53" spans="2:69" x14ac:dyDescent="0.3">
@@ -52506,8 +52560,8 @@
       <c r="D53">
         <v>398107</v>
       </c>
-      <c r="E53" s="4">
-        <v>12068</v>
+      <c r="E53">
+        <v>9800</v>
       </c>
       <c r="F53">
         <v>9504</v>
@@ -52635,41 +52689,41 @@
       <c r="BE53">
         <v>398107</v>
       </c>
-      <c r="BF53" s="4">
-        <v>12276</v>
+      <c r="BF53">
+        <v>9800</v>
       </c>
       <c r="BG53">
-        <v>12214</v>
+        <v>10044</v>
       </c>
       <c r="BH53">
-        <v>12859</v>
+        <v>10301</v>
       </c>
       <c r="BI53">
-        <v>42041</v>
-      </c>
-      <c r="BJ53" s="4">
-        <v>14365</v>
+        <v>11129</v>
+      </c>
+      <c r="BJ53">
+        <v>9978</v>
       </c>
       <c r="BK53">
-        <v>14203</v>
+        <v>10043</v>
       </c>
       <c r="BL53">
-        <v>14433</v>
+        <v>10594</v>
       </c>
       <c r="BM53">
-        <v>34064</v>
-      </c>
-      <c r="BN53" s="4">
-        <v>15037</v>
+        <v>11067</v>
+      </c>
+      <c r="BN53">
+        <v>9948</v>
       </c>
       <c r="BO53">
-        <v>15755</v>
+        <v>10050</v>
       </c>
       <c r="BP53">
-        <v>15790</v>
+        <v>10506</v>
       </c>
       <c r="BQ53">
-        <v>10996</v>
+        <v>10913</v>
       </c>
     </row>
     <row r="54" spans="2:69" x14ac:dyDescent="0.3">
@@ -52679,8 +52733,8 @@
       <c r="D54">
         <v>630957</v>
       </c>
-      <c r="E54" s="4">
-        <v>18864</v>
+      <c r="E54">
+        <v>15440</v>
       </c>
       <c r="F54">
         <v>15136</v>
@@ -52808,41 +52862,41 @@
       <c r="BE54">
         <v>630957</v>
       </c>
-      <c r="BF54" s="4">
-        <v>19952</v>
+      <c r="BF54">
+        <v>15440</v>
       </c>
       <c r="BG54">
-        <v>19958</v>
+        <v>15356</v>
       </c>
       <c r="BH54">
-        <v>93776</v>
+        <v>16126</v>
       </c>
       <c r="BI54">
-        <v>96710</v>
-      </c>
-      <c r="BJ54" s="4">
-        <v>23650</v>
+        <v>18301</v>
+      </c>
+      <c r="BJ54">
+        <v>14632</v>
       </c>
       <c r="BK54">
-        <v>23316</v>
+        <v>15790</v>
       </c>
       <c r="BL54">
-        <v>75495</v>
+        <v>16047</v>
       </c>
       <c r="BM54">
-        <v>76929</v>
-      </c>
-      <c r="BN54" s="4">
-        <v>25495</v>
+        <v>16456</v>
+      </c>
+      <c r="BN54">
+        <v>15464</v>
       </c>
       <c r="BO54">
-        <v>25561</v>
+        <v>15862</v>
       </c>
       <c r="BP54">
-        <v>26073</v>
+        <v>16047</v>
       </c>
       <c r="BQ54">
-        <v>26514</v>
+        <v>16895</v>
       </c>
     </row>
     <row r="55" spans="2:69" x14ac:dyDescent="0.3">
@@ -52852,8 +52906,8 @@
       <c r="D55">
         <v>1000000</v>
       </c>
-      <c r="E55" s="4">
-        <v>31219</v>
+      <c r="E55">
+        <v>23823</v>
       </c>
       <c r="F55">
         <v>23751</v>
@@ -52975,41 +53029,41 @@
       <c r="BE55">
         <v>1000000</v>
       </c>
-      <c r="BF55" s="4">
-        <v>29277</v>
+      <c r="BF55">
+        <v>23823</v>
       </c>
       <c r="BG55">
-        <v>29734</v>
+        <v>24543</v>
       </c>
       <c r="BH55">
-        <v>224130</v>
+        <v>24689</v>
       </c>
       <c r="BI55">
-        <v>33420</v>
-      </c>
-      <c r="BJ55" s="4">
-        <v>38286</v>
+        <v>28727</v>
+      </c>
+      <c r="BJ55">
+        <v>24445</v>
       </c>
       <c r="BK55">
-        <v>38377</v>
+        <v>24583</v>
       </c>
       <c r="BL55">
-        <v>39305</v>
+        <v>24982</v>
       </c>
       <c r="BM55">
-        <v>39927</v>
-      </c>
-      <c r="BN55" s="4">
-        <v>48151</v>
+        <v>26041</v>
+      </c>
+      <c r="BN55">
+        <v>24456</v>
       </c>
       <c r="BO55">
-        <v>49646</v>
+        <v>24619</v>
       </c>
       <c r="BP55">
-        <v>55249</v>
+        <v>25011</v>
       </c>
       <c r="BQ55">
-        <v>50954</v>
+        <v>26453</v>
       </c>
     </row>
     <row r="57" spans="2:69" x14ac:dyDescent="0.3">
@@ -55138,7 +55192,7 @@
       </c>
       <c r="D77">
         <f>E45/1000</f>
-        <v>1.8120000000000001</v>
+        <v>0.874</v>
       </c>
       <c r="G77">
         <v>10000</v>
@@ -55154,7 +55208,7 @@
       </c>
       <c r="D78">
         <f t="shared" ref="D78:D87" si="8">E46/1000</f>
-        <v>2.0350000000000001</v>
+        <v>1.101</v>
       </c>
       <c r="G78">
         <v>15848</v>
@@ -55170,7 +55224,7 @@
       </c>
       <c r="D79">
         <f t="shared" si="8"/>
-        <v>2.4870000000000001</v>
+        <v>1.627</v>
       </c>
       <c r="G79">
         <v>25118</v>
@@ -55198,7 +55252,7 @@
       </c>
       <c r="D80">
         <f t="shared" si="8"/>
-        <v>2.67</v>
+        <v>2.3119999999999998</v>
       </c>
       <c r="G80">
         <v>39810</v>
@@ -55228,7 +55282,7 @@
       </c>
       <c r="D81">
         <f t="shared" si="8"/>
-        <v>3.2719999999999998</v>
+        <v>3.2730000000000001</v>
       </c>
       <c r="G81">
         <v>63095</v>
@@ -55258,7 +55312,7 @@
       </c>
       <c r="D82">
         <f t="shared" si="8"/>
-        <v>4.4420000000000002</v>
+        <v>4.96</v>
       </c>
       <c r="G82">
         <v>100000</v>
@@ -55288,7 +55342,7 @@
       </c>
       <c r="D83">
         <f t="shared" si="8"/>
-        <v>5.657</v>
+        <v>4.1150000000000002</v>
       </c>
       <c r="G83">
         <v>158489</v>
@@ -55318,7 +55372,7 @@
       </c>
       <c r="D84">
         <f t="shared" si="8"/>
-        <v>8.15</v>
+        <v>5.8440000000000003</v>
       </c>
       <c r="G84">
         <v>251188</v>
@@ -55348,7 +55402,7 @@
       </c>
       <c r="D85">
         <f t="shared" si="8"/>
-        <v>12.068</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="G85">
         <v>398107</v>
@@ -55378,7 +55432,7 @@
       </c>
       <c r="D86">
         <f t="shared" si="8"/>
-        <v>18.864000000000001</v>
+        <v>15.44</v>
       </c>
       <c r="G86">
         <v>630957</v>
@@ -55408,7 +55462,7 @@
       </c>
       <c r="D87">
         <f t="shared" si="8"/>
-        <v>31.219000000000001</v>
+        <v>23.823</v>
       </c>
       <c r="G87">
         <v>1000000</v>
@@ -56590,8 +56644,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C7:BO205"/>
   <sheetViews>
-    <sheetView topLeftCell="A105" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AJ132" sqref="AJ132"/>
+    <sheetView topLeftCell="A30" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E47" sqref="E47:E57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -57534,14 +57588,41 @@
       <c r="BC45" t="s">
         <v>59</v>
       </c>
-      <c r="BD45" t="s">
-        <v>53</v>
-      </c>
-      <c r="BH45" t="s">
-        <v>54</v>
-      </c>
-      <c r="BL45" t="s">
-        <v>57</v>
+      <c r="BD45">
+        <v>1</v>
+      </c>
+      <c r="BE45">
+        <v>1</v>
+      </c>
+      <c r="BF45">
+        <v>1</v>
+      </c>
+      <c r="BG45">
+        <v>1</v>
+      </c>
+      <c r="BH45">
+        <v>2</v>
+      </c>
+      <c r="BI45">
+        <v>2</v>
+      </c>
+      <c r="BJ45">
+        <v>2</v>
+      </c>
+      <c r="BK45">
+        <v>2</v>
+      </c>
+      <c r="BL45">
+        <v>3</v>
+      </c>
+      <c r="BM45">
+        <v>3</v>
+      </c>
+      <c r="BN45">
+        <v>3</v>
+      </c>
+      <c r="BO45">
+        <v>3</v>
       </c>
     </row>
     <row r="46" spans="3:67" x14ac:dyDescent="0.3">
@@ -57713,7 +57794,7 @@
         <v>10000</v>
       </c>
       <c r="E47">
-        <v>1864</v>
+        <v>1764</v>
       </c>
       <c r="F47">
         <v>1474</v>
@@ -57841,29 +57922,41 @@
       <c r="BC47">
         <v>10000</v>
       </c>
-      <c r="BD47" s="4">
-        <v>1812</v>
+      <c r="BD47">
+        <v>1828</v>
       </c>
       <c r="BE47">
-        <v>1723</v>
+        <v>1764</v>
       </c>
       <c r="BF47">
-        <v>1778</v>
+        <v>1827</v>
       </c>
       <c r="BG47">
-        <v>1735</v>
+        <v>1846</v>
+      </c>
+      <c r="BH47">
+        <v>2017</v>
+      </c>
+      <c r="BI47">
+        <v>2099</v>
+      </c>
+      <c r="BJ47">
+        <v>1951</v>
+      </c>
+      <c r="BK47">
+        <v>2065</v>
       </c>
       <c r="BL47">
-        <v>2430</v>
+        <v>2486</v>
       </c>
       <c r="BM47">
-        <v>2393</v>
+        <v>2683</v>
       </c>
       <c r="BN47">
-        <v>2553</v>
-      </c>
-      <c r="BO47" s="4">
-        <v>2175</v>
+        <v>2301</v>
+      </c>
+      <c r="BO47">
+        <v>2311</v>
       </c>
     </row>
     <row r="48" spans="3:67" x14ac:dyDescent="0.3">
@@ -57874,7 +57967,7 @@
         <v>15820</v>
       </c>
       <c r="E48">
-        <v>2314</v>
+        <v>2113</v>
       </c>
       <c r="F48">
         <v>1762</v>
@@ -58002,29 +58095,41 @@
       <c r="BC48">
         <v>15848</v>
       </c>
-      <c r="BD48" s="4">
-        <v>2035</v>
+      <c r="BD48">
+        <v>2068</v>
       </c>
       <c r="BE48">
-        <v>1966</v>
+        <v>2113</v>
       </c>
       <c r="BF48">
-        <v>2081</v>
+        <v>2092</v>
       </c>
       <c r="BG48">
-        <v>2119</v>
+        <v>2121</v>
+      </c>
+      <c r="BH48">
+        <v>2335</v>
+      </c>
+      <c r="BI48">
+        <v>2423</v>
+      </c>
+      <c r="BJ48">
+        <v>2444</v>
+      </c>
+      <c r="BK48">
+        <v>2505</v>
       </c>
       <c r="BL48">
-        <v>2899</v>
+        <v>3023</v>
       </c>
       <c r="BM48">
-        <v>2734</v>
+        <v>2920</v>
       </c>
       <c r="BN48">
-        <v>2947</v>
-      </c>
-      <c r="BO48" s="4">
-        <v>2891</v>
+        <v>2840</v>
+      </c>
+      <c r="BO48">
+        <v>2985</v>
       </c>
     </row>
     <row r="49" spans="3:67" x14ac:dyDescent="0.3">
@@ -58035,7 +58140,7 @@
         <v>25064</v>
       </c>
       <c r="E49">
-        <v>2661</v>
+        <v>2238</v>
       </c>
       <c r="F49">
         <v>2211</v>
@@ -58163,29 +58268,41 @@
       <c r="BC49">
         <v>25118</v>
       </c>
-      <c r="BD49" s="4">
-        <v>2487</v>
+      <c r="BD49">
+        <v>2385</v>
       </c>
       <c r="BE49">
-        <v>2451</v>
+        <v>2238</v>
       </c>
       <c r="BF49">
-        <v>2332</v>
+        <v>2305</v>
       </c>
       <c r="BG49">
-        <v>2387</v>
+        <v>2311</v>
+      </c>
+      <c r="BH49">
+        <v>2868</v>
+      </c>
+      <c r="BI49">
+        <v>2607</v>
+      </c>
+      <c r="BJ49">
+        <v>2695</v>
+      </c>
+      <c r="BK49">
+        <v>2944</v>
       </c>
       <c r="BL49">
-        <v>3477</v>
+        <v>3245</v>
       </c>
       <c r="BM49">
-        <v>3324</v>
+        <v>3154</v>
       </c>
       <c r="BN49">
-        <v>3400</v>
-      </c>
-      <c r="BO49" s="4">
-        <v>3656</v>
+        <v>3287</v>
+      </c>
+      <c r="BO49">
+        <v>3150</v>
       </c>
     </row>
     <row r="50" spans="3:67" x14ac:dyDescent="0.3">
@@ -58196,7 +58313,7 @@
         <v>39712</v>
       </c>
       <c r="E50">
-        <v>3257</v>
+        <v>2694</v>
       </c>
       <c r="F50">
         <v>2681</v>
@@ -58324,29 +58441,41 @@
       <c r="BC50">
         <v>39810</v>
       </c>
-      <c r="BD50" s="4">
-        <v>2670</v>
+      <c r="BD50">
+        <v>2722</v>
       </c>
       <c r="BE50">
-        <v>2699</v>
+        <v>2694</v>
       </c>
       <c r="BF50">
-        <v>2708</v>
+        <v>2665</v>
       </c>
       <c r="BG50">
-        <v>2904</v>
+        <v>2821</v>
+      </c>
+      <c r="BH50">
+        <v>3251</v>
+      </c>
+      <c r="BI50">
+        <v>3052</v>
+      </c>
+      <c r="BJ50">
+        <v>3196</v>
+      </c>
+      <c r="BK50">
+        <v>3217</v>
       </c>
       <c r="BL50">
-        <v>4014</v>
+        <v>3925</v>
       </c>
       <c r="BM50">
-        <v>4187</v>
+        <v>4232</v>
       </c>
       <c r="BN50">
-        <v>4286</v>
-      </c>
-      <c r="BO50" s="4">
-        <v>4522</v>
+        <v>4311</v>
+      </c>
+      <c r="BO50">
+        <v>5118</v>
       </c>
     </row>
     <row r="51" spans="3:67" x14ac:dyDescent="0.3">
@@ -58357,7 +58486,7 @@
         <v>62978</v>
       </c>
       <c r="E51">
-        <v>4215</v>
+        <v>3443</v>
       </c>
       <c r="F51">
         <v>3061</v>
@@ -58483,29 +58612,41 @@
       <c r="BC51">
         <v>63095</v>
       </c>
-      <c r="BD51" s="4">
-        <v>3272</v>
+      <c r="BD51">
+        <v>3265</v>
       </c>
       <c r="BE51">
-        <v>3298</v>
+        <v>3443</v>
       </c>
       <c r="BF51">
-        <v>3269</v>
+        <v>3249</v>
       </c>
       <c r="BG51">
-        <v>3577</v>
+        <v>3416</v>
+      </c>
+      <c r="BH51">
+        <v>4374</v>
+      </c>
+      <c r="BI51">
+        <v>3974</v>
+      </c>
+      <c r="BJ51">
+        <v>4094</v>
+      </c>
+      <c r="BK51">
+        <v>4409</v>
       </c>
       <c r="BL51">
-        <v>5281</v>
+        <v>5278</v>
       </c>
       <c r="BM51">
-        <v>5380</v>
+        <v>5205</v>
       </c>
       <c r="BN51">
-        <v>5444</v>
-      </c>
-      <c r="BO51" s="4">
-        <v>6285</v>
+        <v>5483</v>
+      </c>
+      <c r="BO51">
+        <v>6107</v>
       </c>
     </row>
     <row r="52" spans="3:67" x14ac:dyDescent="0.3">
@@ -58516,7 +58657,7 @@
         <v>99825</v>
       </c>
       <c r="E52">
-        <v>5395</v>
+        <v>4046</v>
       </c>
       <c r="F52">
         <v>4126</v>
@@ -58642,29 +58783,41 @@
       <c r="BC52">
         <v>100000</v>
       </c>
-      <c r="BD52" s="4">
-        <v>4442</v>
+      <c r="BD52">
+        <v>4092</v>
       </c>
       <c r="BE52">
-        <v>4304</v>
+        <v>4046</v>
       </c>
       <c r="BF52">
-        <v>4055</v>
+        <v>4282</v>
       </c>
       <c r="BG52">
-        <v>4349</v>
+        <v>4539</v>
+      </c>
+      <c r="BH52">
+        <v>5390</v>
+      </c>
+      <c r="BI52">
+        <v>4973</v>
+      </c>
+      <c r="BJ52">
+        <v>5189</v>
+      </c>
+      <c r="BK52">
+        <v>5886</v>
       </c>
       <c r="BL52">
-        <v>7132</v>
+        <v>7181</v>
       </c>
       <c r="BM52">
-        <v>7525</v>
+        <v>7400</v>
       </c>
       <c r="BN52">
-        <v>7126</v>
-      </c>
-      <c r="BO52" s="4">
-        <v>7803</v>
+        <v>8130</v>
+      </c>
+      <c r="BO52">
+        <v>7389</v>
       </c>
     </row>
     <row r="53" spans="3:67" x14ac:dyDescent="0.3">
@@ -58675,7 +58828,7 @@
         <v>158208</v>
       </c>
       <c r="E53">
-        <v>7559</v>
+        <v>5546</v>
       </c>
       <c r="F53">
         <v>5553</v>
@@ -58801,29 +58954,41 @@
       <c r="BC53">
         <v>158489</v>
       </c>
-      <c r="BD53" s="4">
-        <v>5657</v>
+      <c r="BD53">
+        <v>5722</v>
       </c>
       <c r="BE53">
-        <v>5642</v>
+        <v>5546</v>
       </c>
       <c r="BF53">
-        <v>5794</v>
+        <v>5789</v>
       </c>
       <c r="BG53">
-        <v>6625</v>
+        <v>6341</v>
+      </c>
+      <c r="BH53">
+        <v>7575</v>
+      </c>
+      <c r="BI53">
+        <v>7274</v>
+      </c>
+      <c r="BJ53">
+        <v>7626</v>
+      </c>
+      <c r="BK53">
+        <v>7845</v>
       </c>
       <c r="BL53">
-        <v>10988</v>
+        <v>11141</v>
       </c>
       <c r="BM53">
-        <v>11134</v>
+        <v>10681</v>
       </c>
       <c r="BN53">
-        <v>11584</v>
-      </c>
-      <c r="BO53" s="4">
-        <v>11794</v>
+        <v>11543</v>
+      </c>
+      <c r="BO53">
+        <v>12024</v>
       </c>
     </row>
     <row r="54" spans="3:67" x14ac:dyDescent="0.3">
@@ -58834,7 +58999,7 @@
         <v>250626</v>
       </c>
       <c r="E54">
-        <v>10661</v>
+        <v>8000</v>
       </c>
       <c r="F54">
         <v>7689</v>
@@ -58960,29 +59125,41 @@
       <c r="BC54">
         <v>251188</v>
       </c>
-      <c r="BD54" s="4">
-        <v>8150</v>
+      <c r="BD54">
+        <v>8198</v>
       </c>
       <c r="BE54">
-        <v>7854</v>
+        <v>8000</v>
       </c>
       <c r="BF54">
-        <v>8130</v>
+        <v>8209</v>
       </c>
       <c r="BG54">
-        <v>9083</v>
+        <v>8571</v>
+      </c>
+      <c r="BH54">
+        <v>10428</v>
+      </c>
+      <c r="BI54">
+        <v>10956</v>
+      </c>
+      <c r="BJ54">
+        <v>11003</v>
+      </c>
+      <c r="BK54">
+        <v>11752</v>
       </c>
       <c r="BL54">
-        <v>16035</v>
+        <v>16086</v>
       </c>
       <c r="BM54">
-        <v>16360</v>
+        <v>16387</v>
       </c>
       <c r="BN54">
-        <v>16713</v>
-      </c>
-      <c r="BO54" s="4">
-        <v>17325</v>
+        <v>16624</v>
+      </c>
+      <c r="BO54">
+        <v>17147</v>
       </c>
     </row>
     <row r="55" spans="3:67" x14ac:dyDescent="0.3">
@@ -58993,7 +59170,7 @@
         <v>397246</v>
       </c>
       <c r="E55">
-        <v>15528</v>
+        <v>12251</v>
       </c>
       <c r="F55">
         <v>11264</v>
@@ -59118,29 +59295,41 @@
       <c r="BC55">
         <v>398107</v>
       </c>
-      <c r="BD55" s="4">
-        <v>12068</v>
+      <c r="BD55">
+        <v>11962</v>
       </c>
       <c r="BE55">
-        <v>12415</v>
+        <v>12251</v>
       </c>
       <c r="BF55">
-        <v>13165</v>
+        <v>12636</v>
       </c>
       <c r="BG55">
-        <v>13793</v>
+        <v>13435</v>
+      </c>
+      <c r="BH55">
+        <v>15514</v>
+      </c>
+      <c r="BI55">
+        <v>15271</v>
+      </c>
+      <c r="BJ55">
+        <v>16331</v>
+      </c>
+      <c r="BK55">
+        <v>17048</v>
       </c>
       <c r="BL55">
-        <v>26742</v>
+        <v>26258</v>
       </c>
       <c r="BM55">
-        <v>27038</v>
+        <v>27208</v>
       </c>
       <c r="BN55">
-        <v>35949</v>
-      </c>
-      <c r="BO55" s="4">
-        <v>35763</v>
+        <v>35789</v>
+      </c>
+      <c r="BO55">
+        <v>36428</v>
       </c>
     </row>
     <row r="56" spans="3:67" x14ac:dyDescent="0.3">
@@ -59151,7 +59340,7 @@
         <v>629557</v>
       </c>
       <c r="E56">
-        <v>23489</v>
+        <v>19039</v>
       </c>
       <c r="F56">
         <v>16006</v>
@@ -59276,29 +59465,41 @@
       <c r="BC56">
         <v>630957</v>
       </c>
-      <c r="BD56" s="4">
-        <v>18864</v>
+      <c r="BD56">
+        <v>18794</v>
       </c>
       <c r="BE56">
-        <v>19409</v>
+        <v>19039</v>
       </c>
       <c r="BF56">
-        <v>19191</v>
+        <v>19154</v>
       </c>
       <c r="BG56">
-        <v>21133</v>
+        <v>21341</v>
+      </c>
+      <c r="BH56">
+        <v>24774</v>
+      </c>
+      <c r="BI56">
+        <v>23903</v>
+      </c>
+      <c r="BJ56">
+        <v>25768</v>
+      </c>
+      <c r="BK56">
+        <v>26613</v>
       </c>
       <c r="BL56">
-        <v>51608</v>
+        <v>53803</v>
       </c>
       <c r="BM56">
-        <v>51664</v>
+        <v>54157</v>
       </c>
       <c r="BN56">
-        <v>53546</v>
-      </c>
-      <c r="BO56" s="4">
-        <v>56213</v>
+        <v>54635</v>
+      </c>
+      <c r="BO56">
+        <v>54761</v>
       </c>
     </row>
     <row r="57" spans="3:67" x14ac:dyDescent="0.3">
@@ -59309,7 +59510,7 @@
         <v>997775</v>
       </c>
       <c r="E57">
-        <v>40375</v>
+        <v>30396</v>
       </c>
       <c r="F57">
         <v>25396</v>
@@ -59434,29 +59635,41 @@
       <c r="BC57">
         <v>1000000</v>
       </c>
-      <c r="BD57" s="4">
-        <v>31219</v>
+      <c r="BD57">
+        <v>30398</v>
       </c>
       <c r="BE57">
-        <v>30804</v>
+        <v>30396</v>
       </c>
       <c r="BF57">
-        <v>32064</v>
+        <v>31221</v>
       </c>
       <c r="BG57">
-        <v>34782</v>
+        <v>33845</v>
+      </c>
+      <c r="BH57">
+        <v>40669</v>
+      </c>
+      <c r="BI57">
+        <v>47520</v>
+      </c>
+      <c r="BJ57">
+        <v>49126</v>
+      </c>
+      <c r="BK57">
+        <v>50583</v>
       </c>
       <c r="BL57">
-        <v>260774</v>
+        <v>230523</v>
       </c>
       <c r="BM57">
-        <v>245571</v>
+        <v>154748</v>
       </c>
       <c r="BN57">
-        <v>151072</v>
-      </c>
-      <c r="BO57" s="4">
-        <v>147192</v>
+        <v>305702</v>
+      </c>
+      <c r="BO57">
+        <v>121804</v>
       </c>
     </row>
     <row r="59" spans="3:67" x14ac:dyDescent="0.3">
@@ -59773,29 +59986,41 @@
       <c r="BC61">
         <v>10000</v>
       </c>
-      <c r="BD61" s="4">
-        <v>2552</v>
+      <c r="BD61">
+        <v>2011</v>
       </c>
       <c r="BE61">
-        <v>2047</v>
+        <v>2106</v>
       </c>
       <c r="BF61">
-        <v>1997</v>
+        <v>2156</v>
       </c>
       <c r="BG61">
-        <v>1948</v>
+        <v>1926</v>
+      </c>
+      <c r="BH61">
+        <v>2362</v>
+      </c>
+      <c r="BI61">
+        <v>2359</v>
+      </c>
+      <c r="BJ61">
+        <v>2219</v>
+      </c>
+      <c r="BK61">
+        <v>2202</v>
       </c>
       <c r="BL61">
-        <v>2826</v>
+        <v>2976</v>
       </c>
       <c r="BM61">
-        <v>2814</v>
-      </c>
-      <c r="BN61" s="4">
-        <v>2572</v>
+        <v>2833</v>
+      </c>
+      <c r="BN61">
+        <v>2621</v>
       </c>
       <c r="BO61">
-        <v>2513</v>
+        <v>2645</v>
       </c>
     </row>
     <row r="62" spans="3:67" x14ac:dyDescent="0.3">
@@ -59806,7 +60031,7 @@
         <v>10000</v>
       </c>
       <c r="E62">
-        <v>2379</v>
+        <v>2362</v>
       </c>
       <c r="F62">
         <v>2193</v>
@@ -59934,29 +60159,41 @@
       <c r="BC62">
         <v>15820</v>
       </c>
-      <c r="BD62" s="4">
-        <v>2438</v>
+      <c r="BD62">
+        <v>2320</v>
       </c>
       <c r="BE62">
-        <v>2301</v>
+        <v>2161</v>
       </c>
       <c r="BF62">
-        <v>2332</v>
+        <v>2445</v>
       </c>
       <c r="BG62">
-        <v>2418</v>
+        <v>2463</v>
+      </c>
+      <c r="BH62">
+        <v>2841</v>
+      </c>
+      <c r="BI62">
+        <v>2619</v>
+      </c>
+      <c r="BJ62">
+        <v>2843</v>
+      </c>
+      <c r="BK62">
+        <v>2659</v>
       </c>
       <c r="BL62">
-        <v>3352</v>
+        <v>3323</v>
       </c>
       <c r="BM62">
-        <v>2940</v>
-      </c>
-      <c r="BN62" s="4">
-        <v>3240</v>
+        <v>2993</v>
+      </c>
+      <c r="BN62">
+        <v>2945</v>
       </c>
       <c r="BO62">
-        <v>3112</v>
+        <v>3133</v>
       </c>
     </row>
     <row r="63" spans="3:67" x14ac:dyDescent="0.3">
@@ -59967,7 +60204,7 @@
         <v>15820</v>
       </c>
       <c r="E63">
-        <v>2683</v>
+        <v>2841</v>
       </c>
       <c r="F63">
         <v>2585</v>
@@ -60095,29 +60332,41 @@
       <c r="BC63">
         <v>25064</v>
       </c>
-      <c r="BD63" s="4">
-        <v>2917</v>
+      <c r="BD63">
+        <v>2910</v>
       </c>
       <c r="BE63">
-        <v>2589</v>
+        <v>2749</v>
       </c>
       <c r="BF63">
-        <v>2773</v>
+        <v>2682</v>
       </c>
       <c r="BG63">
-        <v>2657</v>
+        <v>2622</v>
+      </c>
+      <c r="BH63">
+        <v>3493</v>
+      </c>
+      <c r="BI63">
+        <v>3659</v>
+      </c>
+      <c r="BJ63">
+        <v>2997</v>
+      </c>
+      <c r="BK63">
+        <v>3209</v>
       </c>
       <c r="BL63">
-        <v>4269</v>
+        <v>4088</v>
       </c>
       <c r="BM63">
-        <v>4328</v>
-      </c>
-      <c r="BN63" s="4">
-        <v>4008</v>
+        <v>4281</v>
+      </c>
+      <c r="BN63">
+        <v>3834</v>
       </c>
       <c r="BO63">
-        <v>6255</v>
+        <v>5935</v>
       </c>
     </row>
     <row r="64" spans="3:67" x14ac:dyDescent="0.3">
@@ -60128,7 +60377,7 @@
         <v>25064</v>
       </c>
       <c r="E64">
-        <v>3654</v>
+        <v>3493</v>
       </c>
       <c r="F64">
         <v>2840</v>
@@ -60256,29 +60505,41 @@
       <c r="BC64">
         <v>39712</v>
       </c>
-      <c r="BD64" s="4">
-        <v>3519</v>
+      <c r="BD64">
+        <v>3139</v>
       </c>
       <c r="BE64">
-        <v>3574</v>
+        <v>3121</v>
       </c>
       <c r="BF64">
-        <v>3098</v>
+        <v>3303</v>
       </c>
       <c r="BG64">
-        <v>3227</v>
+        <v>3371</v>
+      </c>
+      <c r="BH64">
+        <v>3867</v>
+      </c>
+      <c r="BI64">
+        <v>3473</v>
+      </c>
+      <c r="BJ64">
+        <v>3549</v>
+      </c>
+      <c r="BK64">
+        <v>3832</v>
       </c>
       <c r="BL64">
-        <v>5430</v>
+        <v>5556</v>
       </c>
       <c r="BM64">
-        <v>4717</v>
-      </c>
-      <c r="BN64" s="4">
-        <v>4940</v>
+        <v>4961</v>
+      </c>
+      <c r="BN64">
+        <v>5105</v>
       </c>
       <c r="BO64">
-        <v>5886</v>
+        <v>5221</v>
       </c>
     </row>
     <row r="65" spans="3:67" x14ac:dyDescent="0.3">
@@ -60289,7 +60550,7 @@
         <v>39712</v>
       </c>
       <c r="E65">
-        <v>3579</v>
+        <v>3867</v>
       </c>
       <c r="F65">
         <v>3743</v>
@@ -60417,29 +60678,41 @@
       <c r="BC65">
         <v>62978</v>
       </c>
-      <c r="BD65" s="4">
-        <v>4451</v>
+      <c r="BD65">
+        <v>4396</v>
       </c>
       <c r="BE65">
-        <v>4518</v>
+        <v>4422</v>
       </c>
       <c r="BF65">
-        <v>4414</v>
+        <v>4448</v>
       </c>
       <c r="BG65">
-        <v>4546</v>
+        <v>4593</v>
+      </c>
+      <c r="BH65">
+        <v>4959</v>
+      </c>
+      <c r="BI65">
+        <v>4740</v>
+      </c>
+      <c r="BJ65">
+        <v>4644</v>
+      </c>
+      <c r="BK65">
+        <v>4866</v>
       </c>
       <c r="BL65">
-        <v>6165</v>
+        <v>6107</v>
       </c>
       <c r="BM65">
-        <v>6439</v>
-      </c>
-      <c r="BN65" s="4">
-        <v>6560</v>
+        <v>6465</v>
+      </c>
+      <c r="BN65">
+        <v>6365</v>
       </c>
       <c r="BO65">
-        <v>7679</v>
+        <v>7742</v>
       </c>
     </row>
     <row r="66" spans="3:67" x14ac:dyDescent="0.3">
@@ -60450,7 +60723,7 @@
         <v>62978</v>
       </c>
       <c r="E66">
-        <v>4681</v>
+        <v>4959</v>
       </c>
       <c r="F66">
         <v>5091</v>
@@ -60575,29 +60848,41 @@
       <c r="BC66">
         <v>99825</v>
       </c>
-      <c r="BD66" s="4">
-        <v>6486</v>
+      <c r="BD66">
+        <v>6703</v>
       </c>
       <c r="BE66">
-        <v>6479</v>
+        <v>6547</v>
       </c>
       <c r="BF66">
-        <v>6783</v>
+        <v>6631</v>
       </c>
       <c r="BG66">
-        <v>6821</v>
+        <v>6638</v>
+      </c>
+      <c r="BH66">
+        <v>8739</v>
+      </c>
+      <c r="BI66">
+        <v>6010</v>
+      </c>
+      <c r="BJ66">
+        <v>6187</v>
+      </c>
+      <c r="BK66">
+        <v>6707</v>
       </c>
       <c r="BL66">
-        <v>11138</v>
+        <v>11217</v>
       </c>
       <c r="BM66">
-        <v>9554</v>
-      </c>
-      <c r="BN66" s="4">
-        <v>9953</v>
+        <v>9382</v>
+      </c>
+      <c r="BN66">
+        <v>9595</v>
       </c>
       <c r="BO66">
-        <v>10069</v>
+        <v>9985</v>
       </c>
     </row>
     <row r="67" spans="3:67" x14ac:dyDescent="0.3">
@@ -60608,7 +60893,7 @@
         <v>99825</v>
       </c>
       <c r="E67">
-        <v>8093</v>
+        <v>8739</v>
       </c>
       <c r="F67">
         <v>6512</v>
@@ -60733,29 +61018,41 @@
       <c r="BC67">
         <v>158208</v>
       </c>
-      <c r="BD67" s="4">
-        <v>11382</v>
+      <c r="BD67">
+        <v>11259</v>
       </c>
       <c r="BE67">
-        <v>11471</v>
+        <v>11336</v>
       </c>
       <c r="BF67">
-        <v>11695</v>
+        <v>11718</v>
       </c>
       <c r="BG67">
-        <v>11905</v>
+        <v>11921</v>
+      </c>
+      <c r="BH67">
+        <v>9024</v>
+      </c>
+      <c r="BI67">
+        <v>9229</v>
+      </c>
+      <c r="BJ67">
+        <v>9489</v>
+      </c>
+      <c r="BK67">
+        <v>10662</v>
       </c>
       <c r="BL67">
-        <v>14645</v>
+        <v>14384</v>
       </c>
       <c r="BM67">
-        <v>14377</v>
-      </c>
-      <c r="BN67" s="4">
-        <v>14672</v>
+        <v>14453</v>
+      </c>
+      <c r="BN67">
+        <v>14584</v>
       </c>
       <c r="BO67">
-        <v>15670</v>
+        <v>15077</v>
       </c>
     </row>
     <row r="68" spans="3:67" x14ac:dyDescent="0.3">
@@ -60766,7 +61063,7 @@
         <v>158208</v>
       </c>
       <c r="E68">
-        <v>9714</v>
+        <v>9024</v>
       </c>
       <c r="F68">
         <v>9681</v>
@@ -60891,29 +61188,41 @@
       <c r="BC68">
         <v>250626</v>
       </c>
-      <c r="BD68" s="4">
-        <v>21934</v>
+      <c r="BD68">
+        <v>21982</v>
       </c>
       <c r="BE68">
-        <v>22099</v>
+        <v>21989</v>
       </c>
       <c r="BF68">
-        <v>22438</v>
+        <v>22173</v>
       </c>
       <c r="BG68">
-        <v>22517</v>
+        <v>22767</v>
+      </c>
+      <c r="BH68">
+        <v>14452</v>
+      </c>
+      <c r="BI68">
+        <v>13876</v>
+      </c>
+      <c r="BJ68">
+        <v>15036</v>
+      </c>
+      <c r="BK68">
+        <v>15026</v>
       </c>
       <c r="BL68">
-        <v>22311</v>
+        <v>22186</v>
       </c>
       <c r="BM68">
-        <v>22449</v>
-      </c>
-      <c r="BN68" s="4">
-        <v>23939</v>
+        <v>22969</v>
+      </c>
+      <c r="BN68">
+        <v>22647</v>
       </c>
       <c r="BO68">
-        <v>23814</v>
+        <v>23892</v>
       </c>
     </row>
     <row r="69" spans="3:67" x14ac:dyDescent="0.3">
@@ -60924,7 +61233,7 @@
         <v>250626</v>
       </c>
       <c r="E69">
-        <v>14272</v>
+        <v>14452</v>
       </c>
       <c r="F69">
         <v>14460</v>
@@ -61049,29 +61358,41 @@
       <c r="BC69">
         <v>397246</v>
       </c>
-      <c r="BD69" s="4">
-        <v>46421</v>
+      <c r="BD69">
+        <v>46186</v>
       </c>
       <c r="BE69">
-        <v>46313</v>
+        <v>46337</v>
       </c>
       <c r="BF69">
-        <v>47108</v>
+        <v>46707</v>
       </c>
       <c r="BG69">
-        <v>47613</v>
+        <v>47538</v>
+      </c>
+      <c r="BH69">
+        <v>22564</v>
+      </c>
+      <c r="BI69">
+        <v>23666</v>
+      </c>
+      <c r="BJ69">
+        <v>24045</v>
+      </c>
+      <c r="BK69">
+        <v>24489</v>
       </c>
       <c r="BL69">
-        <v>44746</v>
+        <v>43265</v>
       </c>
       <c r="BM69">
-        <v>44462</v>
-      </c>
-      <c r="BN69" s="4">
-        <v>45510</v>
+        <v>45263</v>
+      </c>
+      <c r="BN69">
+        <v>44558</v>
       </c>
       <c r="BO69">
-        <v>45187</v>
+        <v>45517</v>
       </c>
     </row>
     <row r="70" spans="3:67" x14ac:dyDescent="0.3">
@@ -61082,7 +61403,7 @@
         <v>397246</v>
       </c>
       <c r="E70">
-        <v>22297</v>
+        <v>22564</v>
       </c>
       <c r="F70">
         <v>23211</v>
@@ -61207,29 +61528,41 @@
       <c r="BC70">
         <v>629557</v>
       </c>
-      <c r="BD70" s="4">
-        <v>104035</v>
+      <c r="BD70">
+        <v>103497</v>
       </c>
       <c r="BE70">
-        <v>104015</v>
+        <v>103306</v>
       </c>
       <c r="BF70">
-        <v>104207</v>
+        <v>103741</v>
       </c>
       <c r="BG70">
-        <v>105471</v>
+        <v>105863</v>
+      </c>
+      <c r="BH70">
+        <v>37050</v>
+      </c>
+      <c r="BI70">
+        <v>38606</v>
+      </c>
+      <c r="BJ70">
+        <v>38564</v>
+      </c>
+      <c r="BK70">
+        <v>39860</v>
       </c>
       <c r="BL70">
-        <v>68590</v>
+        <v>68813</v>
       </c>
       <c r="BM70">
-        <v>70952</v>
-      </c>
-      <c r="BN70" s="4">
-        <v>69605</v>
+        <v>71375</v>
+      </c>
+      <c r="BN70">
+        <v>69978</v>
       </c>
       <c r="BO70">
-        <v>71798</v>
+        <v>72542</v>
       </c>
     </row>
     <row r="71" spans="3:67" x14ac:dyDescent="0.3">
@@ -61240,7 +61573,7 @@
         <v>629557</v>
       </c>
       <c r="E71">
-        <v>37641</v>
+        <v>37050</v>
       </c>
       <c r="F71">
         <v>37087</v>
@@ -61362,29 +61695,38 @@
       <c r="BC71">
         <v>997775</v>
       </c>
-      <c r="BD71" s="4">
-        <v>238806</v>
+      <c r="BD71">
+        <v>239871</v>
       </c>
       <c r="BE71">
-        <v>242159</v>
+        <v>238142</v>
       </c>
       <c r="BF71">
-        <v>244070</v>
+        <v>240192</v>
       </c>
       <c r="BG71">
-        <v>244650</v>
-      </c>
-      <c r="BL71">
-        <v>816327</v>
+        <v>243746</v>
+      </c>
+      <c r="BH71">
+        <v>79265</v>
+      </c>
+      <c r="BI71">
+        <v>79438</v>
+      </c>
+      <c r="BJ71">
+        <v>80125</v>
+      </c>
+      <c r="BK71">
+        <v>83248</v>
       </c>
       <c r="BM71">
-        <v>754795</v>
-      </c>
-      <c r="BN71" s="4">
-        <v>679015</v>
+        <v>658865</v>
+      </c>
+      <c r="BN71">
+        <v>980347</v>
       </c>
       <c r="BO71">
-        <v>723344</v>
+        <v>552833</v>
       </c>
     </row>
     <row r="72" spans="3:67" x14ac:dyDescent="0.3">
@@ -61395,7 +61737,7 @@
         <v>997775</v>
       </c>
       <c r="E72">
-        <v>78775</v>
+        <v>79265</v>
       </c>
       <c r="F72">
         <v>77249</v>
@@ -61480,14 +61822,14 @@
       </c>
       <c r="D78">
         <f>E47/1000</f>
-        <v>1.8640000000000001</v>
+        <v>1.764</v>
       </c>
       <c r="G78">
         <v>10000</v>
       </c>
       <c r="H78">
         <f>E62/1000</f>
-        <v>2.379</v>
+        <v>2.3620000000000001</v>
       </c>
     </row>
     <row r="79" spans="3:67" x14ac:dyDescent="0.3">
@@ -61496,14 +61838,14 @@
       </c>
       <c r="D79">
         <f t="shared" ref="D79:D88" si="3">E48/1000</f>
-        <v>2.3140000000000001</v>
+        <v>2.113</v>
       </c>
       <c r="G79">
         <v>15848</v>
       </c>
       <c r="H79">
         <f t="shared" ref="H79:H88" si="4">E63/1000</f>
-        <v>2.6829999999999998</v>
+        <v>2.8410000000000002</v>
       </c>
     </row>
     <row r="80" spans="3:67" x14ac:dyDescent="0.3">
@@ -61512,14 +61854,14 @@
       </c>
       <c r="D80">
         <f t="shared" si="3"/>
-        <v>2.661</v>
+        <v>2.238</v>
       </c>
       <c r="G80">
         <v>25118</v>
       </c>
       <c r="H80">
         <f t="shared" si="4"/>
-        <v>3.6539999999999999</v>
+        <v>3.4929999999999999</v>
       </c>
     </row>
     <row r="81" spans="3:30" x14ac:dyDescent="0.3">
@@ -61528,14 +61870,14 @@
       </c>
       <c r="D81">
         <f t="shared" si="3"/>
-        <v>3.2570000000000001</v>
+        <v>2.694</v>
       </c>
       <c r="G81">
         <v>39810</v>
       </c>
       <c r="H81">
         <f t="shared" si="4"/>
-        <v>3.5790000000000002</v>
+        <v>3.867</v>
       </c>
       <c r="R81" t="s">
         <v>51</v>
@@ -61556,14 +61898,14 @@
       </c>
       <c r="D82">
         <f t="shared" si="3"/>
-        <v>4.2149999999999999</v>
+        <v>3.4430000000000001</v>
       </c>
       <c r="G82">
         <v>63095</v>
       </c>
       <c r="H82">
         <f t="shared" si="4"/>
-        <v>4.681</v>
+        <v>4.9589999999999996</v>
       </c>
       <c r="R82">
         <v>10000</v>
@@ -61589,14 +61931,14 @@
       </c>
       <c r="D83">
         <f t="shared" si="3"/>
-        <v>5.3949999999999996</v>
+        <v>4.0460000000000003</v>
       </c>
       <c r="G83">
         <v>100000</v>
       </c>
       <c r="H83">
         <f t="shared" si="4"/>
-        <v>8.093</v>
+        <v>8.7390000000000008</v>
       </c>
       <c r="R83">
         <v>15820</v>
@@ -61626,14 +61968,14 @@
       </c>
       <c r="D84">
         <f t="shared" si="3"/>
-        <v>7.5590000000000002</v>
+        <v>5.5460000000000003</v>
       </c>
       <c r="G84">
         <v>158489</v>
       </c>
       <c r="H84">
         <f t="shared" si="4"/>
-        <v>9.7140000000000004</v>
+        <v>9.0239999999999991</v>
       </c>
       <c r="R84">
         <v>25064</v>
@@ -61663,14 +62005,14 @@
       </c>
       <c r="D85">
         <f t="shared" si="3"/>
-        <v>10.661</v>
+        <v>8</v>
       </c>
       <c r="G85">
         <v>251188</v>
       </c>
       <c r="H85">
         <f t="shared" si="4"/>
-        <v>14.272</v>
+        <v>14.452</v>
       </c>
       <c r="R85">
         <v>39712</v>
@@ -61700,14 +62042,14 @@
       </c>
       <c r="D86">
         <f t="shared" si="3"/>
-        <v>15.528</v>
+        <v>12.250999999999999</v>
       </c>
       <c r="G86">
         <v>398107</v>
       </c>
       <c r="H86">
         <f t="shared" si="4"/>
-        <v>22.297000000000001</v>
+        <v>22.564</v>
       </c>
       <c r="R86">
         <v>62978</v>
@@ -61737,14 +62079,14 @@
       </c>
       <c r="D87">
         <f t="shared" si="3"/>
-        <v>23.489000000000001</v>
+        <v>19.039000000000001</v>
       </c>
       <c r="G87">
         <v>630957</v>
       </c>
       <c r="H87">
         <f t="shared" si="4"/>
-        <v>37.640999999999998</v>
+        <v>37.049999999999997</v>
       </c>
       <c r="R87">
         <v>99825</v>
@@ -61774,14 +62116,14 @@
       </c>
       <c r="D88">
         <f t="shared" si="3"/>
-        <v>40.375</v>
+        <v>30.396000000000001</v>
       </c>
       <c r="G88">
         <v>1000000</v>
       </c>
       <c r="H88">
         <f t="shared" si="4"/>
-        <v>78.775000000000006</v>
+        <v>79.265000000000001</v>
       </c>
       <c r="R88">
         <v>158208</v>

--- a/exp/exp2.xlsx
+++ b/exp/exp2.xlsx
@@ -9,15 +9,16 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14430" windowHeight="7905"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14430" windowHeight="7905" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="SPROT" sheetId="3" r:id="rId1"/>
     <sheet name="USPSSampleUSPS" sheetId="2" r:id="rId2"/>
     <sheet name="AOLSampleRemoved" sheetId="1" r:id="rId3"/>
     <sheet name="Synthetic" sheetId="4" r:id="rId4"/>
-    <sheet name="MH vs Min" sheetId="5" r:id="rId5"/>
-    <sheet name="Sample" sheetId="6" r:id="rId6"/>
+    <sheet name="Synthetic_small" sheetId="7" r:id="rId5"/>
+    <sheet name="MH vs Min" sheetId="5" r:id="rId6"/>
+    <sheet name="Sample" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="62">
   <si>
     <t>JoinHybridOpt</t>
   </si>
@@ -12749,6 +12750,903 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Synthetic_small!$F$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>JoinHybridOpt</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Synthetic_small!$E$8:$E$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15848</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25118</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39810</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>63095</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>158489</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>251188</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>398107</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>630957</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Synthetic_small!$F$8:$F$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>736</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>904</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1185</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1643</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2359</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3412</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4708</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7310</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10936</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>17575</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A901-4539-94A4-57203F10DEEB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Synthetic_small!$G$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>JoinHybridThres</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Synthetic_small!$E$8:$E$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15848</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25118</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39810</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>63095</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>158489</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>251188</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>398107</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>630957</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Synthetic_small!$G$8:$G$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>497</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>613</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1022</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1393</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2098</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2847</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4204</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6786</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10166</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15946</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A901-4539-94A4-57203F10DEEB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Synthetic_small!$H$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>JoinMH</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Synthetic_small!$E$8:$E$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15848</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25118</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39810</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>63095</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>158489</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>251188</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>398107</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>630957</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Synthetic_small!$H$8:$H$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>560</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>654</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1130</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1487</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2256</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3309</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4498</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7316</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11709</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>18694</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-A901-4539-94A4-57203F10DEEB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Synthetic_small!$I$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>JoinMin</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Synthetic_small!$E$8:$E$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15848</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25118</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39810</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>63095</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>158489</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>251188</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>398107</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>630957</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Synthetic_small!$I$8:$I$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>607</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>779</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1432</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2152</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2915</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4131</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6108</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9392</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14573</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>22784</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-A901-4539-94A4-57203F10DEEB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Synthetic_small!$J$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>JoinNaive</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Synthetic_small!$E$8:$E$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15848</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25118</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39810</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>63095</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>158489</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>251188</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>398107</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>630957</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Synthetic_small!$J$8:$J$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>415</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>516</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>862</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1133</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1756</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2270</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3386</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4928</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7550</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11636</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-A901-4539-94A4-57203F10DEEB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1593432911"/>
+        <c:axId val="1593427919"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1593432911"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:min val="10000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1593427919"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1593427919"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:min val="100"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1593432911"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ko-KR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart25.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
       <c:tx>
         <c:rich>
           <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
@@ -13725,7 +14623,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart26.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ko-KR"/>
@@ -14692,7 +15590,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart27.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ko-KR"/>
@@ -14707,6 +15605,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -15593,6 +16492,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -15659,7 +16559,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart28.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ko-KR"/>
@@ -15674,6 +16574,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -16547,6 +17448,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -16613,7 +17515,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart29.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ko-KR"/>
@@ -16654,6 +17556,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -17612,1045 +18515,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ko-KR"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="ko-KR"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart29.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="ko-KR"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ko-KR"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
       <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sample!$AC$6</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>0.01</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sample!$AB$7:$AB$17</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>15848</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>25118</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>39810</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>63095</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>100000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>158489</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>251188</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>398107</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>630957</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1000000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sample!$AC$7:$AC$17</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>2195</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2647</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2996</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3534</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4756</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6175</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>9219</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>15001</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>23802</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>19389</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>40658</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-04F6-44B3-BC0D-1B8C6CB542F8}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sample!$AD$6</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>0.001</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sample!$AB$7:$AB$17</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>15848</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>25118</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>39810</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>63095</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>100000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>158489</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>251188</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>398107</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>630957</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1000000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sample!$AD$7:$AD$17</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>2290</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2754</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3288</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3710</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5009</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6510</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>9268</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>14129</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>22825</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>18735</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>42874</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-04F6-44B3-BC0D-1B8C6CB542F8}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sample!$AE$6</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>0.0001</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sample!$AB$7:$AB$17</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>15848</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>25118</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>39810</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>63095</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>100000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>158489</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>251188</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>398107</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>630957</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1000000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sample!$AE$7:$AE$17</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>2404</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5149</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3161</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3967</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4965</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6460</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>9463</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>14318</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>23138</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>18371</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>40764</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-04F6-44B3-BC0D-1B8C6CB542F8}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sample!$AF$6</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>100</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sample!$AB$7:$AB$17</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>15848</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>25118</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>39810</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>63095</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>100000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>158489</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>251188</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>398107</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>630957</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1000000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sample!$AF$7:$AF$17</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>2370</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2817</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3096</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3775</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4651</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5959</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>8952</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>14403</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>22836</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>18765</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>40894</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-04F6-44B3-BC0D-1B8C6CB542F8}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sample!$AG$6</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1000</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent5"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sample!$AB$7:$AB$17</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>15848</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>25118</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>39810</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>63095</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>100000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>158489</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>251188</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>398107</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>630957</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1000000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sample!$AG$7:$AG$17</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>2511</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2661</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3235</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3665</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4832</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6310</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>9310</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>14348</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>22571</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>18946</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>40908</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-04F6-44B3-BC0D-1B8C6CB542F8}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sample!$AH$6</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>10000</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent6"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sample!$AB$7:$AB$17</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>15848</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>25118</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>39810</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>63095</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>100000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>158489</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>251188</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>398107</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>630957</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1000000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sample!$AH$7:$AH$17</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>3013</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3686</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3944</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4992</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5649</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7143</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10114</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>15130</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>23733</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>19385</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>41462</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-04F6-44B3-BC0D-1B8C6CB542F8}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="1930755344"/>
-        <c:axId val="1930754512"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1930755344"/>
-        <c:scaling>
-          <c:logBase val="10"/>
-          <c:orientation val="minMax"/>
-          <c:min val="10000"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ko-KR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1930754512"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="1930754512"/>
-        <c:scaling>
-          <c:logBase val="10"/>
-          <c:orientation val="minMax"/>
-          <c:min val="1000"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ko-KR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1930755344"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -19337,6 +19202,1048 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sample!$AC$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.01</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sample!$AB$7:$AB$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15848</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25118</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39810</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>63095</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>158489</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>251188</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>398107</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>630957</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sample!$AC$7:$AC$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>2195</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2647</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3534</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4756</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6175</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9219</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>23802</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>19389</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>40658</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-04F6-44B3-BC0D-1B8C6CB542F8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sample!$AD$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.001</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sample!$AB$7:$AB$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15848</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25118</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39810</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>63095</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>158489</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>251188</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>398107</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>630957</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sample!$AD$7:$AD$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>2290</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2754</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3288</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3710</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5009</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6510</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9268</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14129</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>22825</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>18735</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>42874</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-04F6-44B3-BC0D-1B8C6CB542F8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sample!$AE$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.0001</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sample!$AB$7:$AB$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15848</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25118</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39810</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>63095</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>158489</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>251188</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>398107</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>630957</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sample!$AE$7:$AE$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>2404</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5149</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3161</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3967</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4965</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6460</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9463</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14318</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>23138</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>18371</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>40764</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-04F6-44B3-BC0D-1B8C6CB542F8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sample!$AF$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sample!$AB$7:$AB$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15848</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25118</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39810</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>63095</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>158489</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>251188</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>398107</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>630957</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sample!$AF$7:$AF$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>2370</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2817</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3096</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3775</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4651</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5959</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8952</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14403</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>22836</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>18765</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>40894</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-04F6-44B3-BC0D-1B8C6CB542F8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sample!$AG$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sample!$AB$7:$AB$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15848</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25118</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39810</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>63095</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>158489</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>251188</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>398107</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>630957</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sample!$AG$7:$AG$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>2511</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2661</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3235</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3665</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4832</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6310</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9310</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14348</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>22571</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>18946</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>40908</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-04F6-44B3-BC0D-1B8C6CB542F8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sample!$AH$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sample!$AB$7:$AB$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15848</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25118</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39810</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>63095</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>158489</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>251188</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>398107</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>630957</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sample!$AH$7:$AH$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>3013</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3686</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3944</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4992</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5649</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7143</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10114</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15130</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>23733</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>19385</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>41462</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-04F6-44B3-BC0D-1B8C6CB542F8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1930755344"/>
+        <c:axId val="1930754512"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1930755344"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:min val="10000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1930754512"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1930754512"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:min val="1000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1930755344"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ko-KR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart31.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -20037,6 +20944,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -20103,7 +21011,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart32.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ko-KR"/>
@@ -20118,6 +21026,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -21006,6 +21915,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -26586,6 +27496,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors32.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -39211,6 +40161,522 @@
 </file>
 
 <file path=xl/charts/style31.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style32.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -43564,6 +45030,41 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>649941</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>73957</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>437029</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>49304</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="차트 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>109537</xdr:colOff>
       <xdr:row>16</xdr:row>
@@ -44070,8 +45571,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B7:BT148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P121" sqref="P121"/>
+    <sheetView topLeftCell="A52" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E64" sqref="E64:E72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -45420,7 +46921,7 @@
       <c r="D52">
         <v>10000</v>
       </c>
-      <c r="E52">
+      <c r="E52" s="4">
         <v>3234</v>
       </c>
       <c r="F52" s="4">
@@ -45590,7 +47091,7 @@
       <c r="D53">
         <v>15848</v>
       </c>
-      <c r="E53">
+      <c r="E53" s="4">
         <v>3687</v>
       </c>
       <c r="F53" s="4">
@@ -45760,7 +47261,7 @@
       <c r="D54">
         <v>25118</v>
       </c>
-      <c r="E54">
+      <c r="E54" s="4">
         <v>3952</v>
       </c>
       <c r="F54" s="4">
@@ -45930,7 +47431,7 @@
       <c r="D55">
         <v>39810</v>
       </c>
-      <c r="E55">
+      <c r="E55" s="4">
         <v>4756</v>
       </c>
       <c r="F55" s="4">
@@ -46100,7 +47601,7 @@
       <c r="D56">
         <v>63095</v>
       </c>
-      <c r="E56">
+      <c r="E56" s="4">
         <v>5547</v>
       </c>
       <c r="F56" s="4">
@@ -46270,7 +47771,7 @@
       <c r="D57">
         <v>100000</v>
       </c>
-      <c r="E57">
+      <c r="E57" s="4">
         <v>7627</v>
       </c>
       <c r="F57" s="4">
@@ -46440,7 +47941,7 @@
       <c r="D58">
         <v>158489</v>
       </c>
-      <c r="E58">
+      <c r="E58" s="4">
         <v>8711</v>
       </c>
       <c r="F58" s="4">
@@ -46610,7 +48111,7 @@
       <c r="D59">
         <v>251188</v>
       </c>
-      <c r="E59">
+      <c r="E59" s="4">
         <v>11731</v>
       </c>
       <c r="F59" s="4">
@@ -46780,7 +48281,7 @@
       <c r="D60">
         <v>466158</v>
       </c>
-      <c r="E60">
+      <c r="E60" s="4">
         <v>20299</v>
       </c>
       <c r="F60" s="4">
@@ -47176,7 +48677,7 @@
       <c r="D64">
         <v>10000</v>
       </c>
-      <c r="E64">
+      <c r="E64" s="4">
         <v>3475</v>
       </c>
       <c r="F64" s="4">
@@ -47346,7 +48847,7 @@
       <c r="D65">
         <v>15848</v>
       </c>
-      <c r="E65">
+      <c r="E65" s="4">
         <v>3908</v>
       </c>
       <c r="F65" s="4">
@@ -47516,7 +49017,7 @@
       <c r="D66">
         <v>25118</v>
       </c>
-      <c r="E66">
+      <c r="E66" s="4">
         <v>4544</v>
       </c>
       <c r="F66" s="4">
@@ -47686,7 +49187,7 @@
       <c r="D67">
         <v>39810</v>
       </c>
-      <c r="E67">
+      <c r="E67" s="4">
         <v>5434</v>
       </c>
       <c r="F67" s="4">
@@ -47856,7 +49357,7 @@
       <c r="D68">
         <v>63095</v>
       </c>
-      <c r="E68">
+      <c r="E68" s="4">
         <v>6567</v>
       </c>
       <c r="F68" s="4">
@@ -48026,7 +49527,7 @@
       <c r="D69">
         <v>100000</v>
       </c>
-      <c r="E69">
+      <c r="E69" s="4">
         <v>8568</v>
       </c>
       <c r="F69" s="4">
@@ -48196,7 +49697,7 @@
       <c r="D70">
         <v>158489</v>
       </c>
-      <c r="E70">
+      <c r="E70" s="4">
         <v>11722</v>
       </c>
       <c r="F70" s="4">
@@ -48366,7 +49867,7 @@
       <c r="D71">
         <v>251188</v>
       </c>
-      <c r="E71">
+      <c r="E71" s="4">
         <v>16462</v>
       </c>
       <c r="F71" s="4">
@@ -48536,7 +50037,7 @@
       <c r="D72">
         <v>466158</v>
       </c>
-      <c r="E72">
+      <c r="E72" s="4">
         <v>27117</v>
       </c>
       <c r="F72" s="4">
@@ -49935,8 +51436,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B7:BQ143"/>
   <sheetViews>
-    <sheetView topLeftCell="AI21" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="BJ44" sqref="BJ44:BM55"/>
+    <sheetView topLeftCell="A42" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E45" sqref="E45:I55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -51176,19 +52677,19 @@
       <c r="D45">
         <v>10000</v>
       </c>
-      <c r="E45">
+      <c r="E45" s="4">
         <v>874</v>
       </c>
-      <c r="F45">
+      <c r="F45" s="4">
         <v>545</v>
       </c>
-      <c r="G45">
+      <c r="G45" s="4">
         <v>784</v>
       </c>
-      <c r="H45">
+      <c r="H45" s="4">
         <v>884</v>
       </c>
-      <c r="I45">
+      <c r="I45" s="4">
         <v>523</v>
       </c>
       <c r="O45">
@@ -51206,16 +52707,16 @@
       <c r="T45">
         <v>10000</v>
       </c>
-      <c r="U45" s="4">
+      <c r="U45" s="2">
         <v>929</v>
       </c>
-      <c r="V45">
+      <c r="V45" s="2">
         <v>795</v>
       </c>
-      <c r="W45">
+      <c r="W45" s="2">
         <v>796</v>
       </c>
-      <c r="X45">
+      <c r="X45" s="2">
         <v>773</v>
       </c>
       <c r="Z45">
@@ -51349,19 +52850,19 @@
       <c r="D46">
         <v>15848</v>
       </c>
-      <c r="E46">
+      <c r="E46" s="4">
         <v>1101</v>
       </c>
-      <c r="F46">
+      <c r="F46" s="4">
         <v>671</v>
       </c>
-      <c r="G46">
+      <c r="G46" s="4">
         <v>1122</v>
       </c>
-      <c r="H46">
+      <c r="H46" s="4">
         <v>1503</v>
       </c>
-      <c r="I46">
+      <c r="I46" s="4">
         <v>570</v>
       </c>
       <c r="O46">
@@ -51379,16 +52880,16 @@
       <c r="T46">
         <v>15848</v>
       </c>
-      <c r="U46" s="4">
+      <c r="U46" s="2">
         <v>1207</v>
       </c>
-      <c r="V46">
+      <c r="V46" s="2">
         <v>1151</v>
       </c>
-      <c r="W46">
+      <c r="W46" s="2">
         <v>1097</v>
       </c>
-      <c r="X46">
+      <c r="X46" s="2">
         <v>1200</v>
       </c>
       <c r="Z46">
@@ -51522,19 +53023,19 @@
       <c r="D47">
         <v>25118</v>
       </c>
-      <c r="E47">
+      <c r="E47" s="4">
         <v>1627</v>
       </c>
-      <c r="F47">
+      <c r="F47" s="4">
         <v>889</v>
       </c>
-      <c r="G47">
+      <c r="G47" s="4">
         <v>1661</v>
       </c>
-      <c r="H47">
+      <c r="H47" s="4">
         <v>2016</v>
       </c>
-      <c r="I47">
+      <c r="I47" s="4">
         <v>786</v>
       </c>
       <c r="O47">
@@ -51552,16 +53053,16 @@
       <c r="T47">
         <v>25118</v>
       </c>
-      <c r="U47" s="4">
+      <c r="U47" s="2">
         <v>1991</v>
       </c>
-      <c r="V47">
+      <c r="V47" s="2">
         <v>1644</v>
       </c>
-      <c r="W47">
+      <c r="W47" s="2">
         <v>1422</v>
       </c>
-      <c r="X47">
+      <c r="X47" s="2">
         <v>1601</v>
       </c>
       <c r="Z47">
@@ -51695,19 +53196,19 @@
       <c r="D48">
         <v>39810</v>
       </c>
-      <c r="E48">
+      <c r="E48" s="4">
         <v>2312</v>
       </c>
-      <c r="F48">
+      <c r="F48" s="4">
         <v>1313</v>
       </c>
-      <c r="G48">
+      <c r="G48" s="4">
         <v>3046</v>
       </c>
-      <c r="H48">
+      <c r="H48" s="4">
         <v>2643</v>
       </c>
-      <c r="I48">
+      <c r="I48" s="4">
         <v>1060</v>
       </c>
       <c r="O48">
@@ -51725,16 +53226,16 @@
       <c r="T48">
         <v>39810</v>
       </c>
-      <c r="U48" s="4">
+      <c r="U48" s="2">
         <v>2268</v>
       </c>
-      <c r="V48">
+      <c r="V48" s="2">
         <v>1926</v>
       </c>
-      <c r="W48">
+      <c r="W48" s="2">
         <v>1397</v>
       </c>
-      <c r="X48">
+      <c r="X48" s="2">
         <v>1526</v>
       </c>
       <c r="Z48">
@@ -51868,19 +53369,19 @@
       <c r="D49">
         <v>63095</v>
       </c>
-      <c r="E49">
+      <c r="E49" s="4">
         <v>3273</v>
       </c>
-      <c r="F49">
+      <c r="F49" s="4">
         <v>2057</v>
       </c>
-      <c r="G49">
+      <c r="G49" s="4">
         <v>6016</v>
       </c>
-      <c r="H49">
+      <c r="H49" s="4">
         <v>3229</v>
       </c>
-      <c r="I49">
+      <c r="I49" s="4">
         <v>1428</v>
       </c>
       <c r="O49">
@@ -51898,16 +53399,16 @@
       <c r="T49">
         <v>63095</v>
       </c>
-      <c r="U49" s="4">
+      <c r="U49" s="2">
         <v>2852</v>
       </c>
-      <c r="V49">
+      <c r="V49" s="2">
         <v>3096</v>
       </c>
-      <c r="W49">
+      <c r="W49" s="2">
         <v>2945</v>
       </c>
-      <c r="X49">
+      <c r="X49" s="2">
         <v>3079</v>
       </c>
       <c r="Z49">
@@ -52041,19 +53542,19 @@
       <c r="D50">
         <v>100000</v>
       </c>
-      <c r="E50">
+      <c r="E50" s="4">
         <v>4960</v>
       </c>
-      <c r="F50">
+      <c r="F50" s="4">
         <v>2629</v>
       </c>
-      <c r="G50">
+      <c r="G50" s="4">
         <v>11749</v>
       </c>
-      <c r="H50">
+      <c r="H50" s="4">
         <v>4546</v>
       </c>
-      <c r="I50">
+      <c r="I50" s="4">
         <v>2181</v>
       </c>
       <c r="O50">
@@ -52071,16 +53572,16 @@
       <c r="T50">
         <v>100000</v>
       </c>
-      <c r="U50" s="4">
+      <c r="U50" s="2">
         <v>4948</v>
       </c>
-      <c r="V50">
+      <c r="V50" s="2">
         <v>4411</v>
       </c>
-      <c r="W50">
+      <c r="W50" s="2">
         <v>4421</v>
       </c>
-      <c r="X50">
+      <c r="X50" s="2">
         <v>4817</v>
       </c>
       <c r="Z50">
@@ -52214,19 +53715,19 @@
       <c r="D51">
         <v>158489</v>
       </c>
-      <c r="E51">
+      <c r="E51" s="4">
         <v>4115</v>
       </c>
-      <c r="F51">
+      <c r="F51" s="4">
         <v>4039</v>
       </c>
-      <c r="G51">
+      <c r="G51" s="4">
         <v>26294</v>
       </c>
-      <c r="H51">
+      <c r="H51" s="4">
         <v>6683</v>
       </c>
-      <c r="I51">
+      <c r="I51" s="4">
         <v>2991</v>
       </c>
       <c r="O51">
@@ -52244,16 +53745,16 @@
       <c r="T51">
         <v>158489</v>
       </c>
-      <c r="U51" s="4">
+      <c r="U51" s="2">
         <v>5851</v>
       </c>
-      <c r="V51">
+      <c r="V51" s="2">
         <v>5931</v>
       </c>
-      <c r="W51">
+      <c r="W51" s="2">
         <v>5801</v>
       </c>
-      <c r="X51">
+      <c r="X51" s="2">
         <v>6837</v>
       </c>
       <c r="Z51">
@@ -52387,19 +53888,19 @@
       <c r="D52">
         <v>251188</v>
       </c>
-      <c r="E52">
+      <c r="E52" s="4">
         <v>5844</v>
       </c>
-      <c r="F52">
+      <c r="F52" s="4">
         <v>5650</v>
       </c>
-      <c r="G52">
+      <c r="G52" s="4">
         <v>55528</v>
       </c>
-      <c r="H52">
+      <c r="H52" s="4">
         <v>10128</v>
       </c>
-      <c r="I52">
+      <c r="I52" s="4">
         <v>4668</v>
       </c>
       <c r="O52">
@@ -52417,16 +53918,16 @@
       <c r="T52">
         <v>251188</v>
       </c>
-      <c r="U52" s="4">
+      <c r="U52" s="2">
         <v>9269</v>
       </c>
-      <c r="V52">
+      <c r="V52" s="2">
         <v>8795</v>
       </c>
-      <c r="W52">
+      <c r="W52" s="2">
         <v>9219</v>
       </c>
-      <c r="X52">
+      <c r="X52" s="2">
         <v>17712</v>
       </c>
       <c r="Z52">
@@ -52560,19 +54061,19 @@
       <c r="D53">
         <v>398107</v>
       </c>
-      <c r="E53">
+      <c r="E53" s="4">
         <v>9800</v>
       </c>
-      <c r="F53">
+      <c r="F53" s="4">
         <v>9504</v>
       </c>
-      <c r="G53">
+      <c r="G53" s="4">
         <v>140116</v>
       </c>
-      <c r="H53">
+      <c r="H53" s="4">
         <v>16999</v>
       </c>
-      <c r="I53">
+      <c r="I53" s="4">
         <v>7246</v>
       </c>
       <c r="O53">
@@ -52590,16 +54091,16 @@
       <c r="T53">
         <v>398107</v>
       </c>
-      <c r="U53" s="4">
+      <c r="U53" s="2">
         <v>14365</v>
       </c>
-      <c r="V53">
+      <c r="V53" s="2">
         <v>14203</v>
       </c>
-      <c r="W53">
+      <c r="W53" s="2">
         <v>14433</v>
       </c>
-      <c r="X53">
+      <c r="X53" s="2">
         <v>34064</v>
       </c>
       <c r="Z53">
@@ -52733,19 +54234,19 @@
       <c r="D54">
         <v>630957</v>
       </c>
-      <c r="E54">
+      <c r="E54" s="4">
         <v>15440</v>
       </c>
-      <c r="F54">
+      <c r="F54" s="4">
         <v>15136</v>
       </c>
-      <c r="G54">
+      <c r="G54" s="4">
         <v>332428</v>
       </c>
-      <c r="H54">
+      <c r="H54" s="4">
         <v>25841</v>
       </c>
-      <c r="I54">
+      <c r="I54" s="4">
         <v>11123</v>
       </c>
       <c r="O54">
@@ -52763,16 +54264,16 @@
       <c r="T54">
         <v>630957</v>
       </c>
-      <c r="U54" s="4">
+      <c r="U54" s="2">
         <v>23650</v>
       </c>
-      <c r="V54">
+      <c r="V54" s="2">
         <v>23316</v>
       </c>
-      <c r="W54">
+      <c r="W54" s="2">
         <v>75495</v>
       </c>
-      <c r="X54">
+      <c r="X54" s="2">
         <v>76929</v>
       </c>
       <c r="Z54">
@@ -52906,19 +54407,19 @@
       <c r="D55">
         <v>1000000</v>
       </c>
-      <c r="E55">
+      <c r="E55" s="4">
         <v>23823</v>
       </c>
-      <c r="F55">
+      <c r="F55" s="4">
         <v>23751</v>
       </c>
-      <c r="G55">
+      <c r="G55" s="4">
         <v>914773</v>
       </c>
-      <c r="H55">
+      <c r="H55" s="4">
         <v>51381</v>
       </c>
-      <c r="I55">
+      <c r="I55" s="4">
         <v>17909</v>
       </c>
       <c r="O55">
@@ -52936,16 +54437,16 @@
       <c r="T55">
         <v>1000000</v>
       </c>
-      <c r="U55" s="4">
+      <c r="U55" s="2">
         <v>38286</v>
       </c>
-      <c r="V55">
+      <c r="V55" s="2">
         <v>38377</v>
       </c>
-      <c r="W55">
+      <c r="W55" s="2">
         <v>39305</v>
       </c>
-      <c r="X55">
+      <c r="X55" s="2">
         <v>39927</v>
       </c>
       <c r="Z55">
@@ -53299,16 +54800,16 @@
       <c r="E60" s="4">
         <v>1247</v>
       </c>
-      <c r="F60">
+      <c r="F60" s="4">
         <v>581</v>
       </c>
-      <c r="G60">
+      <c r="G60" s="4">
         <v>1003</v>
       </c>
-      <c r="H60">
+      <c r="H60" s="4">
         <v>1313</v>
       </c>
-      <c r="I60">
+      <c r="I60" s="4">
         <v>538</v>
       </c>
       <c r="O60">
@@ -53472,16 +54973,16 @@
       <c r="E61" s="4">
         <v>1673</v>
       </c>
-      <c r="F61">
+      <c r="F61" s="4">
         <v>739</v>
       </c>
-      <c r="G61">
+      <c r="G61" s="4">
         <v>1682</v>
       </c>
-      <c r="H61">
+      <c r="H61" s="4">
         <v>1714</v>
       </c>
-      <c r="I61">
+      <c r="I61" s="4">
         <v>705</v>
       </c>
       <c r="O61">
@@ -53645,16 +55146,16 @@
       <c r="E62" s="4">
         <v>4115</v>
       </c>
-      <c r="F62">
+      <c r="F62" s="4">
         <v>985</v>
       </c>
-      <c r="G62">
+      <c r="G62" s="4">
         <v>2780</v>
       </c>
-      <c r="H62">
+      <c r="H62" s="4">
         <v>1796</v>
       </c>
-      <c r="I62">
+      <c r="I62" s="4">
         <v>880</v>
       </c>
       <c r="O62">
@@ -53818,16 +55319,16 @@
       <c r="E63" s="4">
         <v>3740</v>
       </c>
-      <c r="F63">
+      <c r="F63" s="4">
         <v>1444</v>
       </c>
-      <c r="G63">
+      <c r="G63" s="4">
         <v>5274</v>
       </c>
-      <c r="H63">
+      <c r="H63" s="4">
         <v>3197</v>
       </c>
-      <c r="I63">
+      <c r="I63" s="4">
         <v>1260</v>
       </c>
       <c r="O63">
@@ -53991,16 +55492,16 @@
       <c r="E64" s="4">
         <v>3930</v>
       </c>
-      <c r="F64">
+      <c r="F64" s="4">
         <v>2176</v>
       </c>
-      <c r="G64">
+      <c r="G64" s="4">
         <v>11576</v>
       </c>
-      <c r="H64">
+      <c r="H64" s="4">
         <v>4639</v>
       </c>
-      <c r="I64">
+      <c r="I64" s="4">
         <v>1906</v>
       </c>
       <c r="O64">
@@ -54164,16 +55665,16 @@
       <c r="E65" s="4">
         <v>11795</v>
       </c>
-      <c r="F65">
+      <c r="F65" s="4">
         <v>2932</v>
       </c>
-      <c r="G65">
+      <c r="G65" s="4">
         <v>26128</v>
       </c>
-      <c r="H65">
+      <c r="H65" s="4">
         <v>6982</v>
       </c>
-      <c r="I65">
+      <c r="I65" s="4">
         <v>2614</v>
       </c>
       <c r="O65">
@@ -54337,16 +55838,16 @@
       <c r="E66" s="4">
         <v>9581</v>
       </c>
-      <c r="F66">
+      <c r="F66" s="4">
         <v>4404</v>
       </c>
-      <c r="G66">
+      <c r="G66" s="4">
         <v>61139</v>
       </c>
-      <c r="H66">
+      <c r="H66" s="4">
         <v>13860</v>
       </c>
-      <c r="I66">
+      <c r="I66" s="4">
         <v>3832</v>
       </c>
       <c r="O66">
@@ -54510,16 +56011,16 @@
       <c r="E67" s="4">
         <v>17206</v>
       </c>
-      <c r="F67">
+      <c r="F67" s="4">
         <v>7241</v>
       </c>
-      <c r="G67">
+      <c r="G67" s="4">
         <v>148976</v>
       </c>
-      <c r="H67">
+      <c r="H67" s="4">
         <v>28512</v>
       </c>
-      <c r="I67">
+      <c r="I67" s="4">
         <v>5636</v>
       </c>
       <c r="O67">
@@ -54683,16 +56184,16 @@
       <c r="E68" s="4">
         <v>16875</v>
       </c>
-      <c r="F68">
+      <c r="F68" s="4">
         <v>11277</v>
       </c>
-      <c r="G68">
+      <c r="G68" s="4">
         <v>366907</v>
       </c>
-      <c r="H68">
+      <c r="H68" s="4">
         <v>60591</v>
       </c>
-      <c r="I68">
+      <c r="I68" s="4">
         <v>9504</v>
       </c>
       <c r="O68">
@@ -54856,16 +56357,16 @@
       <c r="E69" s="4">
         <v>27039</v>
       </c>
-      <c r="F69">
+      <c r="F69" s="4">
         <v>18293</v>
       </c>
-      <c r="G69">
+      <c r="G69" s="4">
         <v>975708</v>
       </c>
-      <c r="H69">
+      <c r="H69" s="4">
         <v>141080</v>
       </c>
-      <c r="I69">
+      <c r="I69" s="4">
         <v>15050</v>
       </c>
       <c r="O69">
@@ -55025,16 +56526,16 @@
       <c r="E70" s="4">
         <v>52544</v>
       </c>
-      <c r="F70">
+      <c r="F70" s="4">
         <v>40484</v>
       </c>
-      <c r="G70">
+      <c r="G70" s="4">
         <v>2669452</v>
       </c>
-      <c r="H70">
+      <c r="H70" s="4">
         <v>297581</v>
       </c>
-      <c r="I70">
+      <c r="I70" s="4">
         <v>24209</v>
       </c>
       <c r="O70">
@@ -56644,8 +58145,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C7:BO205"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E47" sqref="E47:E57"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M81" sqref="M81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -57793,19 +59294,19 @@
       <c r="D47">
         <v>10000</v>
       </c>
-      <c r="E47">
+      <c r="E47" s="4">
         <v>1764</v>
       </c>
-      <c r="F47">
+      <c r="F47" s="4">
         <v>1474</v>
       </c>
-      <c r="G47">
+      <c r="G47" s="4">
         <v>1376</v>
       </c>
-      <c r="H47">
+      <c r="H47" s="4">
         <v>1558</v>
       </c>
-      <c r="I47">
+      <c r="I47" s="4">
         <v>1860</v>
       </c>
       <c r="L47">
@@ -57966,19 +59467,19 @@
       <c r="D48">
         <v>15820</v>
       </c>
-      <c r="E48">
+      <c r="E48" s="4">
         <v>2113</v>
       </c>
-      <c r="F48">
+      <c r="F48" s="4">
         <v>1762</v>
       </c>
-      <c r="G48">
+      <c r="G48" s="4">
         <v>1474</v>
       </c>
-      <c r="H48">
+      <c r="H48" s="4">
         <v>1689</v>
       </c>
-      <c r="I48">
+      <c r="I48" s="4">
         <v>1941</v>
       </c>
       <c r="L48">
@@ -58139,19 +59640,19 @@
       <c r="D49">
         <v>25064</v>
       </c>
-      <c r="E49">
+      <c r="E49" s="4">
         <v>2238</v>
       </c>
-      <c r="F49">
+      <c r="F49" s="4">
         <v>2211</v>
       </c>
-      <c r="G49">
+      <c r="G49" s="4">
         <v>1783</v>
       </c>
-      <c r="H49">
+      <c r="H49" s="4">
         <v>2067</v>
       </c>
-      <c r="I49">
+      <c r="I49" s="4">
         <v>2306</v>
       </c>
       <c r="L49">
@@ -58312,19 +59813,19 @@
       <c r="D50">
         <v>39712</v>
       </c>
-      <c r="E50">
+      <c r="E50" s="4">
         <v>2694</v>
       </c>
-      <c r="F50">
+      <c r="F50" s="4">
         <v>2681</v>
       </c>
-      <c r="G50">
+      <c r="G50" s="4">
         <v>2123</v>
       </c>
-      <c r="H50">
+      <c r="H50" s="4">
         <v>2362</v>
       </c>
-      <c r="I50">
+      <c r="I50" s="4">
         <v>3320</v>
       </c>
       <c r="L50">
@@ -58485,19 +59986,21 @@
       <c r="D51">
         <v>62978</v>
       </c>
-      <c r="E51">
+      <c r="E51" s="4">
         <v>3443</v>
       </c>
-      <c r="F51">
+      <c r="F51" s="4">
         <v>3061</v>
       </c>
-      <c r="G51">
+      <c r="G51" s="4">
         <v>2435</v>
       </c>
-      <c r="H51">
+      <c r="H51" s="4">
         <v>3000</v>
       </c>
-      <c r="I51" s="3"/>
+      <c r="I51" s="4">
+        <v>4543</v>
+      </c>
       <c r="L51">
         <v>62978</v>
       </c>
@@ -58656,19 +60159,21 @@
       <c r="D52">
         <v>99825</v>
       </c>
-      <c r="E52">
+      <c r="E52" s="4">
         <v>4046</v>
       </c>
-      <c r="F52">
+      <c r="F52" s="4">
         <v>4126</v>
       </c>
-      <c r="G52">
+      <c r="G52" s="4">
         <v>3097</v>
       </c>
-      <c r="H52">
+      <c r="H52" s="4">
         <v>3710</v>
       </c>
-      <c r="I52" s="3"/>
+      <c r="I52" s="4">
+        <v>6544</v>
+      </c>
       <c r="L52">
         <v>99825</v>
       </c>
@@ -58827,19 +60332,21 @@
       <c r="D53">
         <v>158208</v>
       </c>
-      <c r="E53">
+      <c r="E53" s="4">
         <v>5546</v>
       </c>
-      <c r="F53">
+      <c r="F53" s="4">
         <v>5553</v>
       </c>
-      <c r="G53">
+      <c r="G53" s="4">
         <v>4448</v>
       </c>
-      <c r="H53">
+      <c r="H53" s="4">
         <v>5547</v>
       </c>
-      <c r="I53" s="3"/>
+      <c r="I53" s="4">
+        <v>10473</v>
+      </c>
       <c r="L53">
         <v>158208</v>
       </c>
@@ -58998,19 +60505,21 @@
       <c r="D54">
         <v>250626</v>
       </c>
-      <c r="E54">
+      <c r="E54" s="4">
         <v>8000</v>
       </c>
-      <c r="F54">
+      <c r="F54" s="4">
         <v>7689</v>
       </c>
-      <c r="G54">
+      <c r="G54" s="4">
         <v>6338</v>
       </c>
-      <c r="H54">
+      <c r="H54" s="4">
         <v>7544</v>
       </c>
-      <c r="I54" s="3"/>
+      <c r="I54" s="4">
+        <v>14872</v>
+      </c>
       <c r="L54">
         <v>250626</v>
       </c>
@@ -59169,17 +60678,20 @@
       <c r="D55">
         <v>397246</v>
       </c>
-      <c r="E55">
+      <c r="E55" s="4">
         <v>12251</v>
       </c>
-      <c r="F55">
+      <c r="F55" s="4">
         <v>11264</v>
       </c>
-      <c r="G55">
+      <c r="G55" s="4">
         <v>9092</v>
       </c>
-      <c r="H55">
+      <c r="H55" s="4">
         <v>11934</v>
+      </c>
+      <c r="I55" s="4">
+        <v>22678</v>
       </c>
       <c r="L55">
         <v>397246</v>
@@ -59339,17 +60851,20 @@
       <c r="D56">
         <v>629557</v>
       </c>
-      <c r="E56">
+      <c r="E56" s="4">
         <v>19039</v>
       </c>
-      <c r="F56">
+      <c r="F56" s="4">
         <v>16006</v>
       </c>
-      <c r="G56">
+      <c r="G56" s="4">
         <v>13935</v>
       </c>
-      <c r="H56">
+      <c r="H56" s="4">
         <v>19549</v>
+      </c>
+      <c r="I56" s="4">
+        <v>34896</v>
       </c>
       <c r="L56">
         <v>629557</v>
@@ -59509,17 +61024,20 @@
       <c r="D57">
         <v>997775</v>
       </c>
-      <c r="E57">
+      <c r="E57" s="4">
         <v>30396</v>
       </c>
-      <c r="F57">
+      <c r="F57" s="4">
         <v>25396</v>
       </c>
-      <c r="G57">
+      <c r="G57" s="4">
         <v>22020</v>
       </c>
-      <c r="H57">
+      <c r="H57" s="4">
         <v>32308</v>
+      </c>
+      <c r="I57" s="4">
+        <v>57377</v>
       </c>
       <c r="L57">
         <v>997775</v>
@@ -60030,16 +61548,16 @@
       <c r="D62">
         <v>10000</v>
       </c>
-      <c r="E62">
+      <c r="E62" s="4">
         <v>2362</v>
       </c>
-      <c r="F62">
+      <c r="F62" s="4">
         <v>2193</v>
       </c>
-      <c r="G62">
+      <c r="G62" s="4">
         <v>1405</v>
       </c>
-      <c r="H62">
+      <c r="H62" s="4">
         <v>2102</v>
       </c>
       <c r="I62">
@@ -60203,16 +61721,16 @@
       <c r="D63">
         <v>15820</v>
       </c>
-      <c r="E63">
+      <c r="E63" s="4">
         <v>2841</v>
       </c>
-      <c r="F63">
+      <c r="F63" s="4">
         <v>2585</v>
       </c>
-      <c r="G63">
+      <c r="G63" s="4">
         <v>1579</v>
       </c>
-      <c r="H63">
+      <c r="H63" s="4">
         <v>2571</v>
       </c>
       <c r="I63">
@@ -60376,16 +61894,16 @@
       <c r="D64">
         <v>25064</v>
       </c>
-      <c r="E64">
+      <c r="E64" s="4">
         <v>3493</v>
       </c>
-      <c r="F64">
+      <c r="F64" s="4">
         <v>2840</v>
       </c>
-      <c r="G64">
+      <c r="G64" s="4">
         <v>2132</v>
       </c>
-      <c r="H64">
+      <c r="H64" s="4">
         <v>2846</v>
       </c>
       <c r="I64">
@@ -60549,16 +62067,16 @@
       <c r="D65">
         <v>39712</v>
       </c>
-      <c r="E65">
+      <c r="E65" s="4">
         <v>3867</v>
       </c>
-      <c r="F65">
+      <c r="F65" s="4">
         <v>3743</v>
       </c>
-      <c r="G65">
+      <c r="G65" s="4">
         <v>2381</v>
       </c>
-      <c r="H65">
+      <c r="H65" s="4">
         <v>3500</v>
       </c>
       <c r="I65">
@@ -60722,17 +62240,20 @@
       <c r="D66">
         <v>62978</v>
       </c>
-      <c r="E66">
+      <c r="E66" s="4">
         <v>4959</v>
       </c>
-      <c r="F66">
+      <c r="F66" s="4">
         <v>5091</v>
       </c>
-      <c r="G66">
+      <c r="G66" s="4">
         <v>2871</v>
       </c>
-      <c r="H66">
+      <c r="H66" s="4">
         <v>4345</v>
+      </c>
+      <c r="I66" s="3">
+        <v>28424</v>
       </c>
       <c r="L66">
         <v>62978</v>
@@ -60892,17 +62413,20 @@
       <c r="D67">
         <v>99825</v>
       </c>
-      <c r="E67">
+      <c r="E67" s="4">
         <v>8739</v>
       </c>
-      <c r="F67">
+      <c r="F67" s="4">
         <v>6512</v>
       </c>
-      <c r="G67">
+      <c r="G67" s="4">
         <v>4478</v>
       </c>
-      <c r="H67">
+      <c r="H67" s="4">
         <v>5705</v>
+      </c>
+      <c r="I67" s="3">
+        <v>951414</v>
       </c>
       <c r="L67">
         <v>99825</v>
@@ -61062,16 +62586,16 @@
       <c r="D68">
         <v>158208</v>
       </c>
-      <c r="E68">
+      <c r="E68" s="4">
         <v>9024</v>
       </c>
-      <c r="F68">
+      <c r="F68" s="4">
         <v>9681</v>
       </c>
-      <c r="G68">
+      <c r="G68" s="4">
         <v>5827</v>
       </c>
-      <c r="H68">
+      <c r="H68" s="4">
         <v>8726</v>
       </c>
       <c r="L68">
@@ -61232,16 +62756,16 @@
       <c r="D69">
         <v>250626</v>
       </c>
-      <c r="E69">
+      <c r="E69" s="4">
         <v>14452</v>
       </c>
-      <c r="F69">
+      <c r="F69" s="4">
         <v>14460</v>
       </c>
-      <c r="G69">
+      <c r="G69" s="4">
         <v>9403</v>
       </c>
-      <c r="H69">
+      <c r="H69" s="4">
         <v>13346</v>
       </c>
       <c r="L69">
@@ -61402,16 +62926,16 @@
       <c r="D70">
         <v>397246</v>
       </c>
-      <c r="E70">
+      <c r="E70" s="4">
         <v>22564</v>
       </c>
-      <c r="F70">
+      <c r="F70" s="4">
         <v>23211</v>
       </c>
-      <c r="G70">
+      <c r="G70" s="4">
         <v>16000</v>
       </c>
-      <c r="H70">
+      <c r="H70" s="4">
         <v>22103</v>
       </c>
       <c r="L70">
@@ -61572,16 +63096,16 @@
       <c r="D71">
         <v>629557</v>
       </c>
-      <c r="E71">
+      <c r="E71" s="4">
         <v>37050</v>
       </c>
-      <c r="F71">
+      <c r="F71" s="4">
         <v>37087</v>
       </c>
-      <c r="G71">
+      <c r="G71" s="4">
         <v>39016</v>
       </c>
-      <c r="H71">
+      <c r="H71" s="4">
         <v>36554</v>
       </c>
       <c r="L71">
@@ -61736,16 +63260,16 @@
       <c r="D72">
         <v>997775</v>
       </c>
-      <c r="E72">
+      <c r="E72" s="4">
         <v>79265</v>
       </c>
-      <c r="F72">
+      <c r="F72" s="4">
         <v>77249</v>
       </c>
-      <c r="G72">
+      <c r="G72" s="4">
         <v>68103</v>
       </c>
-      <c r="H72">
+      <c r="H72" s="4">
         <v>78273</v>
       </c>
       <c r="L72">
@@ -63480,14 +65004,14 @@
       </c>
       <c r="D138">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>4.5430000000000001</v>
       </c>
       <c r="G138">
         <v>63095</v>
       </c>
       <c r="H138">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>28.423999999999999</v>
       </c>
       <c r="AC138" t="s">
         <v>46</v>
@@ -63499,14 +65023,14 @@
       </c>
       <c r="D139">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>6.5439999999999996</v>
       </c>
       <c r="G139">
         <v>100000</v>
       </c>
       <c r="H139">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>951.41399999999999</v>
       </c>
       <c r="AC139">
         <v>10000</v>
@@ -63522,7 +65046,7 @@
       </c>
       <c r="D140">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>10.473000000000001</v>
       </c>
       <c r="G140">
         <v>158489</v>
@@ -63545,7 +65069,7 @@
       </c>
       <c r="D141">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>14.872</v>
       </c>
       <c r="G141">
         <v>251188</v>
@@ -63568,7 +65092,7 @@
       </c>
       <c r="D142">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>22.678000000000001</v>
       </c>
       <c r="G142">
         <v>398107</v>
@@ -63591,7 +65115,7 @@
       </c>
       <c r="D143">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>34.896000000000001</v>
       </c>
       <c r="G143">
         <v>630957</v>
@@ -63614,7 +65138,7 @@
       </c>
       <c r="D144">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>57.377000000000002</v>
       </c>
       <c r="G144">
         <v>1000000</v>
@@ -64104,8 +65628,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A7:AN150"/>
   <sheetViews>
-    <sheetView topLeftCell="L31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AI26" sqref="AI26"/>
+    <sheetView topLeftCell="A43" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="B49" sqref="B49:AP151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -67667,6 +69191,2459 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C6:BJ105"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O27" sqref="O27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="6" spans="3:62" x14ac:dyDescent="0.3">
+      <c r="X6">
+        <v>2</v>
+      </c>
+      <c r="Y6">
+        <v>2</v>
+      </c>
+      <c r="Z6">
+        <v>2</v>
+      </c>
+      <c r="AA6">
+        <v>2</v>
+      </c>
+      <c r="AL6">
+        <v>2</v>
+      </c>
+      <c r="AM6">
+        <v>2</v>
+      </c>
+      <c r="AN6">
+        <v>2</v>
+      </c>
+      <c r="AO6">
+        <v>2</v>
+      </c>
+      <c r="AW6">
+        <v>1</v>
+      </c>
+      <c r="AX6">
+        <v>1</v>
+      </c>
+      <c r="AY6">
+        <v>1</v>
+      </c>
+      <c r="AZ6">
+        <v>2</v>
+      </c>
+      <c r="BA6">
+        <v>2</v>
+      </c>
+      <c r="BB6">
+        <v>2</v>
+      </c>
+      <c r="BC6">
+        <v>3</v>
+      </c>
+      <c r="BD6">
+        <v>3</v>
+      </c>
+      <c r="BE6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="3:62" x14ac:dyDescent="0.3">
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" t="s">
+        <v>0</v>
+      </c>
+      <c r="G7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H7" t="s">
+        <v>2</v>
+      </c>
+      <c r="I7" t="s">
+        <v>3</v>
+      </c>
+      <c r="J7" t="s">
+        <v>4</v>
+      </c>
+      <c r="S7" t="s">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>1E-3</v>
+      </c>
+      <c r="U7">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="V7">
+        <v>0.01</v>
+      </c>
+      <c r="W7">
+        <v>0.03</v>
+      </c>
+      <c r="X7">
+        <v>1E-3</v>
+      </c>
+      <c r="Y7">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="Z7">
+        <v>0.01</v>
+      </c>
+      <c r="AA7">
+        <v>0.03</v>
+      </c>
+      <c r="AB7">
+        <v>1E-3</v>
+      </c>
+      <c r="AC7">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="AD7">
+        <v>0.01</v>
+      </c>
+      <c r="AE7">
+        <v>0.03</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH7">
+        <v>3</v>
+      </c>
+      <c r="AI7">
+        <v>10</v>
+      </c>
+      <c r="AJ7">
+        <v>30</v>
+      </c>
+      <c r="AK7">
+        <v>100</v>
+      </c>
+      <c r="AL7">
+        <v>3</v>
+      </c>
+      <c r="AM7">
+        <v>10</v>
+      </c>
+      <c r="AN7">
+        <v>30</v>
+      </c>
+      <c r="AO7">
+        <v>100</v>
+      </c>
+      <c r="AP7">
+        <v>3</v>
+      </c>
+      <c r="AQ7">
+        <v>10</v>
+      </c>
+      <c r="AR7">
+        <v>30</v>
+      </c>
+      <c r="AS7">
+        <v>100</v>
+      </c>
+      <c r="AV7" t="s">
+        <v>26</v>
+      </c>
+      <c r="AW7">
+        <v>1</v>
+      </c>
+      <c r="AX7">
+        <v>2</v>
+      </c>
+      <c r="AY7">
+        <v>3</v>
+      </c>
+      <c r="AZ7">
+        <v>1</v>
+      </c>
+      <c r="BA7">
+        <v>2</v>
+      </c>
+      <c r="BB7">
+        <v>3</v>
+      </c>
+      <c r="BC7">
+        <v>1</v>
+      </c>
+      <c r="BD7">
+        <v>2</v>
+      </c>
+      <c r="BE7">
+        <v>3</v>
+      </c>
+      <c r="BG7" t="s">
+        <v>41</v>
+      </c>
+      <c r="BH7">
+        <v>1</v>
+      </c>
+      <c r="BI7">
+        <v>2</v>
+      </c>
+      <c r="BJ7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="3:62" x14ac:dyDescent="0.3">
+      <c r="E8">
+        <v>10000</v>
+      </c>
+      <c r="F8">
+        <v>736</v>
+      </c>
+      <c r="G8">
+        <v>497</v>
+      </c>
+      <c r="H8">
+        <v>560</v>
+      </c>
+      <c r="I8">
+        <v>607</v>
+      </c>
+      <c r="J8">
+        <v>415</v>
+      </c>
+      <c r="S8">
+        <v>10000</v>
+      </c>
+      <c r="X8">
+        <v>711</v>
+      </c>
+      <c r="Y8">
+        <v>736</v>
+      </c>
+      <c r="Z8">
+        <v>708</v>
+      </c>
+      <c r="AA8">
+        <v>584</v>
+      </c>
+      <c r="AG8">
+        <v>10000</v>
+      </c>
+      <c r="AL8">
+        <v>659</v>
+      </c>
+      <c r="AM8">
+        <v>615</v>
+      </c>
+      <c r="AN8">
+        <v>613</v>
+      </c>
+      <c r="AO8">
+        <v>497</v>
+      </c>
+      <c r="AV8">
+        <v>10000</v>
+      </c>
+      <c r="AW8">
+        <v>672</v>
+      </c>
+      <c r="AX8">
+        <v>487</v>
+      </c>
+      <c r="AY8">
+        <v>480</v>
+      </c>
+      <c r="AZ8">
+        <v>561</v>
+      </c>
+      <c r="BA8">
+        <v>512</v>
+      </c>
+      <c r="BB8">
+        <v>560</v>
+      </c>
+      <c r="BC8">
+        <v>619</v>
+      </c>
+      <c r="BD8">
+        <v>513</v>
+      </c>
+      <c r="BE8">
+        <v>562</v>
+      </c>
+      <c r="BG8">
+        <v>10000</v>
+      </c>
+      <c r="BH8">
+        <v>626</v>
+      </c>
+      <c r="BI8">
+        <v>607</v>
+      </c>
+      <c r="BJ8">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="9" spans="3:62" x14ac:dyDescent="0.3">
+      <c r="E9">
+        <v>15848</v>
+      </c>
+      <c r="F9">
+        <v>904</v>
+      </c>
+      <c r="G9">
+        <v>613</v>
+      </c>
+      <c r="H9">
+        <v>654</v>
+      </c>
+      <c r="I9">
+        <v>779</v>
+      </c>
+      <c r="J9">
+        <v>516</v>
+      </c>
+      <c r="S9">
+        <v>15848</v>
+      </c>
+      <c r="X9">
+        <v>888</v>
+      </c>
+      <c r="Y9">
+        <v>904</v>
+      </c>
+      <c r="Z9">
+        <v>733</v>
+      </c>
+      <c r="AA9">
+        <v>776</v>
+      </c>
+      <c r="AG9">
+        <v>15848</v>
+      </c>
+      <c r="AL9">
+        <v>783</v>
+      </c>
+      <c r="AM9">
+        <v>784</v>
+      </c>
+      <c r="AN9">
+        <v>781</v>
+      </c>
+      <c r="AO9">
+        <v>613</v>
+      </c>
+      <c r="AV9">
+        <v>15848</v>
+      </c>
+      <c r="AW9">
+        <v>1111</v>
+      </c>
+      <c r="AX9">
+        <v>604</v>
+      </c>
+      <c r="AY9">
+        <v>646</v>
+      </c>
+      <c r="AZ9">
+        <v>759</v>
+      </c>
+      <c r="BA9">
+        <v>658</v>
+      </c>
+      <c r="BB9">
+        <v>654</v>
+      </c>
+      <c r="BC9">
+        <v>865</v>
+      </c>
+      <c r="BD9">
+        <v>700</v>
+      </c>
+      <c r="BE9">
+        <v>735</v>
+      </c>
+      <c r="BG9">
+        <v>15848</v>
+      </c>
+      <c r="BH9">
+        <v>740</v>
+      </c>
+      <c r="BI9">
+        <v>779</v>
+      </c>
+      <c r="BJ9">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="10" spans="3:62" x14ac:dyDescent="0.3">
+      <c r="E10">
+        <v>25118</v>
+      </c>
+      <c r="S10">
+        <v>25118</v>
+      </c>
+      <c r="AG10">
+        <v>25118</v>
+      </c>
+      <c r="AV10">
+        <v>25118</v>
+      </c>
+      <c r="BG10">
+        <v>25118</v>
+      </c>
+    </row>
+    <row r="11" spans="3:62" x14ac:dyDescent="0.3">
+      <c r="E11">
+        <v>39810</v>
+      </c>
+      <c r="F11">
+        <v>1185</v>
+      </c>
+      <c r="G11">
+        <v>1022</v>
+      </c>
+      <c r="H11">
+        <v>1130</v>
+      </c>
+      <c r="I11">
+        <v>1432</v>
+      </c>
+      <c r="J11">
+        <v>862</v>
+      </c>
+      <c r="S11">
+        <v>39810</v>
+      </c>
+      <c r="X11">
+        <v>1617</v>
+      </c>
+      <c r="Y11">
+        <v>1185</v>
+      </c>
+      <c r="Z11">
+        <v>1196</v>
+      </c>
+      <c r="AA11">
+        <v>1228</v>
+      </c>
+      <c r="AG11">
+        <v>39810</v>
+      </c>
+      <c r="AL11">
+        <v>1510</v>
+      </c>
+      <c r="AM11">
+        <v>1392</v>
+      </c>
+      <c r="AN11">
+        <v>1381</v>
+      </c>
+      <c r="AO11">
+        <v>1022</v>
+      </c>
+      <c r="AV11">
+        <v>39810</v>
+      </c>
+      <c r="AW11">
+        <v>3576</v>
+      </c>
+      <c r="AX11">
+        <v>1080</v>
+      </c>
+      <c r="AY11">
+        <v>1063</v>
+      </c>
+      <c r="AZ11">
+        <v>1832</v>
+      </c>
+      <c r="BA11">
+        <v>1119</v>
+      </c>
+      <c r="BB11">
+        <v>1130</v>
+      </c>
+      <c r="BC11">
+        <v>2156</v>
+      </c>
+      <c r="BD11">
+        <v>1157</v>
+      </c>
+      <c r="BE11">
+        <v>1193</v>
+      </c>
+      <c r="BG11">
+        <v>39810</v>
+      </c>
+      <c r="BH11">
+        <v>1259</v>
+      </c>
+      <c r="BI11">
+        <v>1432</v>
+      </c>
+      <c r="BJ11">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="12" spans="3:62" x14ac:dyDescent="0.3">
+      <c r="E12">
+        <v>63095</v>
+      </c>
+      <c r="F12">
+        <v>1643</v>
+      </c>
+      <c r="G12">
+        <v>1393</v>
+      </c>
+      <c r="H12">
+        <v>1487</v>
+      </c>
+      <c r="I12">
+        <v>2152</v>
+      </c>
+      <c r="J12">
+        <v>1133</v>
+      </c>
+      <c r="S12">
+        <v>63095</v>
+      </c>
+      <c r="X12">
+        <v>2329</v>
+      </c>
+      <c r="Y12">
+        <v>1643</v>
+      </c>
+      <c r="Z12">
+        <v>1652</v>
+      </c>
+      <c r="AA12">
+        <v>1743</v>
+      </c>
+      <c r="AG12">
+        <v>63095</v>
+      </c>
+      <c r="AL12">
+        <v>2109</v>
+      </c>
+      <c r="AM12">
+        <v>2074</v>
+      </c>
+      <c r="AN12">
+        <v>2064</v>
+      </c>
+      <c r="AO12">
+        <v>1393</v>
+      </c>
+      <c r="AV12">
+        <v>63095</v>
+      </c>
+      <c r="AW12">
+        <v>7661</v>
+      </c>
+      <c r="AX12">
+        <v>1466</v>
+      </c>
+      <c r="AY12">
+        <v>1419</v>
+      </c>
+      <c r="AZ12">
+        <v>3342</v>
+      </c>
+      <c r="BA12">
+        <v>1508</v>
+      </c>
+      <c r="BB12">
+        <v>1487</v>
+      </c>
+      <c r="BC12">
+        <v>4088</v>
+      </c>
+      <c r="BD12">
+        <v>1757</v>
+      </c>
+      <c r="BE12">
+        <v>1768</v>
+      </c>
+      <c r="BG12">
+        <v>63095</v>
+      </c>
+      <c r="BH12">
+        <v>1885</v>
+      </c>
+      <c r="BI12">
+        <v>2152</v>
+      </c>
+      <c r="BJ12">
+        <v>2127</v>
+      </c>
+    </row>
+    <row r="13" spans="3:62" x14ac:dyDescent="0.3">
+      <c r="E13">
+        <v>100000</v>
+      </c>
+      <c r="F13">
+        <v>2359</v>
+      </c>
+      <c r="G13">
+        <v>2098</v>
+      </c>
+      <c r="H13">
+        <v>2256</v>
+      </c>
+      <c r="I13">
+        <v>2915</v>
+      </c>
+      <c r="J13">
+        <v>1756</v>
+      </c>
+      <c r="S13">
+        <v>100000</v>
+      </c>
+      <c r="X13">
+        <v>3031</v>
+      </c>
+      <c r="Y13">
+        <v>2359</v>
+      </c>
+      <c r="Z13">
+        <v>2354</v>
+      </c>
+      <c r="AA13">
+        <v>2526</v>
+      </c>
+      <c r="AG13">
+        <v>100000</v>
+      </c>
+      <c r="AL13">
+        <v>2889</v>
+      </c>
+      <c r="AM13">
+        <v>2859</v>
+      </c>
+      <c r="AN13">
+        <v>2870</v>
+      </c>
+      <c r="AO13">
+        <v>2098</v>
+      </c>
+      <c r="AV13">
+        <v>100000</v>
+      </c>
+      <c r="AW13">
+        <v>18056</v>
+      </c>
+      <c r="AX13">
+        <v>2183</v>
+      </c>
+      <c r="AY13">
+        <v>2121</v>
+      </c>
+      <c r="AZ13">
+        <v>7463</v>
+      </c>
+      <c r="BA13">
+        <v>2258</v>
+      </c>
+      <c r="BB13">
+        <v>2256</v>
+      </c>
+      <c r="BC13">
+        <v>9523</v>
+      </c>
+      <c r="BD13">
+        <v>2403</v>
+      </c>
+      <c r="BE13">
+        <v>2413</v>
+      </c>
+      <c r="BG13">
+        <v>100000</v>
+      </c>
+      <c r="BH13">
+        <v>2575</v>
+      </c>
+      <c r="BI13">
+        <v>2915</v>
+      </c>
+      <c r="BJ13">
+        <v>2865</v>
+      </c>
+    </row>
+    <row r="14" spans="3:62" x14ac:dyDescent="0.3">
+      <c r="E14">
+        <v>158489</v>
+      </c>
+      <c r="F14">
+        <v>3412</v>
+      </c>
+      <c r="G14">
+        <v>2847</v>
+      </c>
+      <c r="H14">
+        <v>3309</v>
+      </c>
+      <c r="I14">
+        <v>4131</v>
+      </c>
+      <c r="J14">
+        <v>2270</v>
+      </c>
+      <c r="S14">
+        <v>158489</v>
+      </c>
+      <c r="X14">
+        <v>3389</v>
+      </c>
+      <c r="Y14">
+        <v>3412</v>
+      </c>
+      <c r="Z14">
+        <v>3434</v>
+      </c>
+      <c r="AA14">
+        <v>3581</v>
+      </c>
+      <c r="AG14">
+        <v>158489</v>
+      </c>
+      <c r="AL14">
+        <v>4134</v>
+      </c>
+      <c r="AM14">
+        <v>4619</v>
+      </c>
+      <c r="AN14">
+        <v>4034</v>
+      </c>
+      <c r="AO14">
+        <v>2847</v>
+      </c>
+      <c r="AV14">
+        <v>158489</v>
+      </c>
+      <c r="AW14">
+        <v>43284</v>
+      </c>
+      <c r="AX14">
+        <v>3264</v>
+      </c>
+      <c r="AY14">
+        <v>3070</v>
+      </c>
+      <c r="AZ14">
+        <v>16203</v>
+      </c>
+      <c r="BA14">
+        <v>3357</v>
+      </c>
+      <c r="BB14">
+        <v>3309</v>
+      </c>
+      <c r="BC14">
+        <v>20119</v>
+      </c>
+      <c r="BD14">
+        <v>3671</v>
+      </c>
+      <c r="BE14">
+        <v>3589</v>
+      </c>
+      <c r="BG14">
+        <v>158489</v>
+      </c>
+      <c r="BH14">
+        <v>3867</v>
+      </c>
+      <c r="BI14">
+        <v>4131</v>
+      </c>
+      <c r="BJ14">
+        <v>4124</v>
+      </c>
+    </row>
+    <row r="15" spans="3:62" x14ac:dyDescent="0.3">
+      <c r="E15">
+        <v>251188</v>
+      </c>
+      <c r="F15">
+        <v>4708</v>
+      </c>
+      <c r="G15">
+        <v>4204</v>
+      </c>
+      <c r="H15">
+        <v>4498</v>
+      </c>
+      <c r="I15">
+        <v>6108</v>
+      </c>
+      <c r="J15">
+        <v>3386</v>
+      </c>
+      <c r="S15">
+        <v>251188</v>
+      </c>
+      <c r="X15">
+        <v>4726</v>
+      </c>
+      <c r="Y15">
+        <v>4708</v>
+      </c>
+      <c r="Z15">
+        <v>4768</v>
+      </c>
+      <c r="AA15">
+        <v>5000</v>
+      </c>
+      <c r="AG15">
+        <v>251188</v>
+      </c>
+      <c r="AL15">
+        <v>6283</v>
+      </c>
+      <c r="AM15">
+        <v>5875</v>
+      </c>
+      <c r="AN15">
+        <v>5782</v>
+      </c>
+      <c r="AO15">
+        <v>4204</v>
+      </c>
+      <c r="AV15">
+        <v>251188</v>
+      </c>
+      <c r="AW15">
+        <v>104180</v>
+      </c>
+      <c r="AX15">
+        <v>4882</v>
+      </c>
+      <c r="AY15">
+        <v>4235</v>
+      </c>
+      <c r="AZ15">
+        <v>41596</v>
+      </c>
+      <c r="BA15">
+        <v>4717</v>
+      </c>
+      <c r="BB15">
+        <v>4498</v>
+      </c>
+      <c r="BC15">
+        <v>52900</v>
+      </c>
+      <c r="BD15">
+        <v>5226</v>
+      </c>
+      <c r="BE15">
+        <v>5004</v>
+      </c>
+      <c r="BG15">
+        <v>251188</v>
+      </c>
+      <c r="BH15">
+        <v>6087</v>
+      </c>
+      <c r="BI15">
+        <v>6108</v>
+      </c>
+      <c r="BJ15">
+        <v>6273</v>
+      </c>
+    </row>
+    <row r="16" spans="3:62" x14ac:dyDescent="0.3">
+      <c r="E16">
+        <v>398107</v>
+      </c>
+      <c r="F16">
+        <v>7310</v>
+      </c>
+      <c r="G16">
+        <v>6786</v>
+      </c>
+      <c r="H16">
+        <v>7316</v>
+      </c>
+      <c r="I16">
+        <v>9392</v>
+      </c>
+      <c r="J16">
+        <v>4928</v>
+      </c>
+      <c r="S16">
+        <v>398107</v>
+      </c>
+      <c r="X16">
+        <v>7261</v>
+      </c>
+      <c r="Y16">
+        <v>7310</v>
+      </c>
+      <c r="Z16">
+        <v>7390</v>
+      </c>
+      <c r="AA16">
+        <v>7530</v>
+      </c>
+      <c r="AG16">
+        <v>398107</v>
+      </c>
+      <c r="AL16">
+        <v>9504</v>
+      </c>
+      <c r="AM16">
+        <v>9407</v>
+      </c>
+      <c r="AN16">
+        <v>9330</v>
+      </c>
+      <c r="AO16">
+        <v>6786</v>
+      </c>
+      <c r="AV16">
+        <v>398107</v>
+      </c>
+      <c r="AW16">
+        <v>267470</v>
+      </c>
+      <c r="AX16">
+        <v>8135</v>
+      </c>
+      <c r="AY16">
+        <v>6827</v>
+      </c>
+      <c r="AZ16">
+        <v>100551</v>
+      </c>
+      <c r="BA16">
+        <v>7847</v>
+      </c>
+      <c r="BB16">
+        <v>7316</v>
+      </c>
+      <c r="BC16">
+        <v>132267</v>
+      </c>
+      <c r="BD16">
+        <v>8835</v>
+      </c>
+      <c r="BE16">
+        <v>8171</v>
+      </c>
+      <c r="BG16">
+        <v>398107</v>
+      </c>
+      <c r="BH16">
+        <v>9774</v>
+      </c>
+      <c r="BI16">
+        <v>9392</v>
+      </c>
+      <c r="BJ16">
+        <v>9544</v>
+      </c>
+    </row>
+    <row r="17" spans="3:62" x14ac:dyDescent="0.3">
+      <c r="E17">
+        <v>630957</v>
+      </c>
+      <c r="F17">
+        <v>10936</v>
+      </c>
+      <c r="G17">
+        <v>10166</v>
+      </c>
+      <c r="H17">
+        <v>11709</v>
+      </c>
+      <c r="I17">
+        <v>14573</v>
+      </c>
+      <c r="J17">
+        <v>7550</v>
+      </c>
+      <c r="S17">
+        <v>630957</v>
+      </c>
+      <c r="X17">
+        <v>11162</v>
+      </c>
+      <c r="Y17">
+        <v>10936</v>
+      </c>
+      <c r="Z17">
+        <v>11357</v>
+      </c>
+      <c r="AA17">
+        <v>11674</v>
+      </c>
+      <c r="AG17">
+        <v>630957</v>
+      </c>
+      <c r="AL17">
+        <v>14188</v>
+      </c>
+      <c r="AM17">
+        <v>13787</v>
+      </c>
+      <c r="AN17">
+        <v>13781</v>
+      </c>
+      <c r="AO17">
+        <v>10166</v>
+      </c>
+      <c r="AV17">
+        <v>630957</v>
+      </c>
+      <c r="AW17">
+        <v>703267</v>
+      </c>
+      <c r="AX17">
+        <v>14132</v>
+      </c>
+      <c r="AY17">
+        <v>10133</v>
+      </c>
+      <c r="AZ17">
+        <v>226740</v>
+      </c>
+      <c r="BA17">
+        <v>12821</v>
+      </c>
+      <c r="BB17">
+        <v>11709</v>
+      </c>
+      <c r="BC17">
+        <v>290527</v>
+      </c>
+      <c r="BD17">
+        <v>14837</v>
+      </c>
+      <c r="BE17">
+        <v>13450</v>
+      </c>
+      <c r="BG17">
+        <v>630957</v>
+      </c>
+      <c r="BH17">
+        <v>15950</v>
+      </c>
+      <c r="BI17">
+        <v>14573</v>
+      </c>
+      <c r="BJ17">
+        <v>14820</v>
+      </c>
+    </row>
+    <row r="18" spans="3:62" x14ac:dyDescent="0.3">
+      <c r="E18">
+        <v>1000000</v>
+      </c>
+      <c r="F18">
+        <v>17575</v>
+      </c>
+      <c r="G18">
+        <v>15946</v>
+      </c>
+      <c r="H18">
+        <v>18694</v>
+      </c>
+      <c r="I18">
+        <v>22784</v>
+      </c>
+      <c r="J18">
+        <v>11636</v>
+      </c>
+      <c r="S18">
+        <v>1000000</v>
+      </c>
+      <c r="X18">
+        <v>17602</v>
+      </c>
+      <c r="Y18">
+        <v>17575</v>
+      </c>
+      <c r="Z18">
+        <v>17900</v>
+      </c>
+      <c r="AA18">
+        <v>18700</v>
+      </c>
+      <c r="AG18">
+        <v>1000000</v>
+      </c>
+      <c r="AL18">
+        <v>22940</v>
+      </c>
+      <c r="AM18">
+        <v>22415</v>
+      </c>
+      <c r="AN18">
+        <v>22245</v>
+      </c>
+      <c r="AO18">
+        <v>15946</v>
+      </c>
+      <c r="AV18">
+        <v>1000000</v>
+      </c>
+      <c r="AW18">
+        <v>1807281</v>
+      </c>
+      <c r="AX18">
+        <v>25535</v>
+      </c>
+      <c r="AY18">
+        <v>16820</v>
+      </c>
+      <c r="AZ18">
+        <v>629243</v>
+      </c>
+      <c r="BA18">
+        <v>21251</v>
+      </c>
+      <c r="BB18">
+        <v>18694</v>
+      </c>
+      <c r="BC18">
+        <v>761065</v>
+      </c>
+      <c r="BD18">
+        <v>32178</v>
+      </c>
+      <c r="BE18">
+        <v>29222</v>
+      </c>
+      <c r="BG18">
+        <v>1000000</v>
+      </c>
+      <c r="BH18">
+        <v>27841</v>
+      </c>
+      <c r="BI18">
+        <v>22784</v>
+      </c>
+      <c r="BJ18">
+        <v>26190</v>
+      </c>
+    </row>
+    <row r="20" spans="3:62" x14ac:dyDescent="0.3">
+      <c r="AW20">
+        <v>1</v>
+      </c>
+      <c r="AX20">
+        <v>1</v>
+      </c>
+      <c r="AY20">
+        <v>1</v>
+      </c>
+      <c r="AZ20">
+        <v>2</v>
+      </c>
+      <c r="BA20">
+        <v>2</v>
+      </c>
+      <c r="BB20">
+        <v>2</v>
+      </c>
+      <c r="BC20">
+        <v>3</v>
+      </c>
+      <c r="BD20">
+        <v>3</v>
+      </c>
+      <c r="BE20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:62" x14ac:dyDescent="0.3">
+      <c r="C21" t="s">
+        <v>19</v>
+      </c>
+      <c r="F21" t="s">
+        <v>0</v>
+      </c>
+      <c r="G21" t="s">
+        <v>1</v>
+      </c>
+      <c r="H21" t="s">
+        <v>2</v>
+      </c>
+      <c r="I21" t="s">
+        <v>3</v>
+      </c>
+      <c r="J21" t="s">
+        <v>4</v>
+      </c>
+      <c r="S21" t="s">
+        <v>0</v>
+      </c>
+      <c r="T21">
+        <v>1E-3</v>
+      </c>
+      <c r="U21">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="V21">
+        <v>0.01</v>
+      </c>
+      <c r="W21">
+        <v>0.03</v>
+      </c>
+      <c r="X21">
+        <v>1E-3</v>
+      </c>
+      <c r="Y21">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="Z21">
+        <v>0.01</v>
+      </c>
+      <c r="AA21">
+        <v>0.03</v>
+      </c>
+      <c r="AB21">
+        <v>1E-3</v>
+      </c>
+      <c r="AC21">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="AD21">
+        <v>0.01</v>
+      </c>
+      <c r="AE21">
+        <v>0.03</v>
+      </c>
+      <c r="AG21" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH21">
+        <v>3</v>
+      </c>
+      <c r="AI21">
+        <v>10</v>
+      </c>
+      <c r="AJ21">
+        <v>30</v>
+      </c>
+      <c r="AK21">
+        <v>100</v>
+      </c>
+      <c r="AL21">
+        <v>3</v>
+      </c>
+      <c r="AM21">
+        <v>10</v>
+      </c>
+      <c r="AN21">
+        <v>30</v>
+      </c>
+      <c r="AO21">
+        <v>100</v>
+      </c>
+      <c r="AP21">
+        <v>3</v>
+      </c>
+      <c r="AQ21">
+        <v>10</v>
+      </c>
+      <c r="AR21">
+        <v>30</v>
+      </c>
+      <c r="AS21">
+        <v>100</v>
+      </c>
+      <c r="AV21" t="s">
+        <v>26</v>
+      </c>
+      <c r="AW21">
+        <v>1</v>
+      </c>
+      <c r="AX21">
+        <v>2</v>
+      </c>
+      <c r="AY21">
+        <v>3</v>
+      </c>
+      <c r="AZ21">
+        <v>1</v>
+      </c>
+      <c r="BA21">
+        <v>2</v>
+      </c>
+      <c r="BB21">
+        <v>3</v>
+      </c>
+      <c r="BC21">
+        <v>1</v>
+      </c>
+      <c r="BD21">
+        <v>2</v>
+      </c>
+      <c r="BE21">
+        <v>3</v>
+      </c>
+      <c r="BG21" t="s">
+        <v>41</v>
+      </c>
+      <c r="BH21">
+        <v>1</v>
+      </c>
+      <c r="BI21">
+        <v>2</v>
+      </c>
+      <c r="BJ21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:62" x14ac:dyDescent="0.3">
+      <c r="E22">
+        <v>10000</v>
+      </c>
+      <c r="S22">
+        <v>10000</v>
+      </c>
+      <c r="AG22">
+        <v>10000</v>
+      </c>
+      <c r="AV22">
+        <v>10000</v>
+      </c>
+      <c r="BG22">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="23" spans="3:62" x14ac:dyDescent="0.3">
+      <c r="E23">
+        <v>15848</v>
+      </c>
+      <c r="S23">
+        <v>15848</v>
+      </c>
+      <c r="AG23">
+        <v>15848</v>
+      </c>
+      <c r="AV23">
+        <v>15848</v>
+      </c>
+      <c r="BG23">
+        <v>15848</v>
+      </c>
+    </row>
+    <row r="24" spans="3:62" x14ac:dyDescent="0.3">
+      <c r="E24">
+        <v>25118</v>
+      </c>
+      <c r="S24">
+        <v>25118</v>
+      </c>
+      <c r="AG24">
+        <v>25118</v>
+      </c>
+      <c r="AV24">
+        <v>25118</v>
+      </c>
+      <c r="BG24">
+        <v>25118</v>
+      </c>
+    </row>
+    <row r="25" spans="3:62" x14ac:dyDescent="0.3">
+      <c r="E25">
+        <v>39810</v>
+      </c>
+      <c r="S25">
+        <v>39810</v>
+      </c>
+      <c r="AG25">
+        <v>39810</v>
+      </c>
+      <c r="AV25">
+        <v>39810</v>
+      </c>
+      <c r="BG25">
+        <v>39810</v>
+      </c>
+    </row>
+    <row r="26" spans="3:62" x14ac:dyDescent="0.3">
+      <c r="E26">
+        <v>63095</v>
+      </c>
+      <c r="S26">
+        <v>63095</v>
+      </c>
+      <c r="AG26">
+        <v>63095</v>
+      </c>
+      <c r="AV26">
+        <v>63095</v>
+      </c>
+      <c r="BG26">
+        <v>63095</v>
+      </c>
+    </row>
+    <row r="27" spans="3:62" x14ac:dyDescent="0.3">
+      <c r="E27">
+        <v>100000</v>
+      </c>
+      <c r="S27">
+        <v>100000</v>
+      </c>
+      <c r="AG27">
+        <v>100000</v>
+      </c>
+      <c r="AV27">
+        <v>100000</v>
+      </c>
+      <c r="BG27">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="28" spans="3:62" x14ac:dyDescent="0.3">
+      <c r="E28">
+        <v>158489</v>
+      </c>
+      <c r="S28">
+        <v>158489</v>
+      </c>
+      <c r="AG28">
+        <v>158489</v>
+      </c>
+      <c r="AV28">
+        <v>158489</v>
+      </c>
+      <c r="BG28">
+        <v>158489</v>
+      </c>
+    </row>
+    <row r="29" spans="3:62" x14ac:dyDescent="0.3">
+      <c r="E29">
+        <v>251188</v>
+      </c>
+      <c r="S29">
+        <v>251188</v>
+      </c>
+      <c r="AG29">
+        <v>251188</v>
+      </c>
+      <c r="AV29">
+        <v>251188</v>
+      </c>
+      <c r="BG29">
+        <v>251188</v>
+      </c>
+    </row>
+    <row r="30" spans="3:62" x14ac:dyDescent="0.3">
+      <c r="E30">
+        <v>398107</v>
+      </c>
+      <c r="S30">
+        <v>398107</v>
+      </c>
+      <c r="AG30">
+        <v>398107</v>
+      </c>
+      <c r="AV30">
+        <v>398107</v>
+      </c>
+      <c r="BG30">
+        <v>398107</v>
+      </c>
+    </row>
+    <row r="31" spans="3:62" x14ac:dyDescent="0.3">
+      <c r="E31">
+        <v>630957</v>
+      </c>
+      <c r="S31">
+        <v>630957</v>
+      </c>
+      <c r="AG31">
+        <v>630957</v>
+      </c>
+      <c r="AV31">
+        <v>630957</v>
+      </c>
+      <c r="BG31">
+        <v>630957</v>
+      </c>
+    </row>
+    <row r="32" spans="3:62" x14ac:dyDescent="0.3">
+      <c r="E32">
+        <v>1000000</v>
+      </c>
+      <c r="S32">
+        <v>1000000</v>
+      </c>
+      <c r="AG32">
+        <v>1000000</v>
+      </c>
+      <c r="AV32">
+        <v>1000000</v>
+      </c>
+      <c r="BG32">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="38" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D38" t="s">
+        <v>35</v>
+      </c>
+      <c r="E38" t="s">
+        <v>0</v>
+      </c>
+      <c r="H38" t="s">
+        <v>34</v>
+      </c>
+      <c r="I38" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D39">
+        <v>10000</v>
+      </c>
+      <c r="E39">
+        <f>F8/1000</f>
+        <v>0.73599999999999999</v>
+      </c>
+      <c r="H39">
+        <v>10000</v>
+      </c>
+      <c r="I39">
+        <f>F23/1000</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D40">
+        <v>15848</v>
+      </c>
+      <c r="E40">
+        <f t="shared" ref="E40:E49" si="0">F9/1000</f>
+        <v>0.90400000000000003</v>
+      </c>
+      <c r="H40">
+        <v>15848</v>
+      </c>
+      <c r="I40">
+        <f t="shared" ref="I40:I49" si="1">F24/1000</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D41">
+        <v>25118</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>25118</v>
+      </c>
+      <c r="I41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D42">
+        <v>39810</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="0"/>
+        <v>1.1850000000000001</v>
+      </c>
+      <c r="H42">
+        <v>39810</v>
+      </c>
+      <c r="I42">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D43">
+        <v>63095</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="0"/>
+        <v>1.643</v>
+      </c>
+      <c r="H43">
+        <v>63095</v>
+      </c>
+      <c r="I43">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D44">
+        <v>100000</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="0"/>
+        <v>2.359</v>
+      </c>
+      <c r="H44">
+        <v>100000</v>
+      </c>
+      <c r="I44">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D45">
+        <v>158489</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="0"/>
+        <v>3.4119999999999999</v>
+      </c>
+      <c r="H45">
+        <v>158489</v>
+      </c>
+      <c r="I45">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D46">
+        <v>251188</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="0"/>
+        <v>4.7080000000000002</v>
+      </c>
+      <c r="H46">
+        <v>251188</v>
+      </c>
+      <c r="I46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D47">
+        <v>398107</v>
+      </c>
+      <c r="E47">
+        <f t="shared" si="0"/>
+        <v>7.31</v>
+      </c>
+      <c r="H47">
+        <v>398107</v>
+      </c>
+      <c r="I47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D48">
+        <v>630957</v>
+      </c>
+      <c r="E48">
+        <f t="shared" si="0"/>
+        <v>10.936</v>
+      </c>
+      <c r="H48">
+        <v>630957</v>
+      </c>
+      <c r="I48">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D49">
+        <v>1000000</v>
+      </c>
+      <c r="E49">
+        <f t="shared" si="0"/>
+        <v>17.574999999999999</v>
+      </c>
+      <c r="H49">
+        <v>1000000</v>
+      </c>
+      <c r="I49">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D52" t="s">
+        <v>35</v>
+      </c>
+      <c r="E52" t="s">
+        <v>1</v>
+      </c>
+      <c r="H52" t="s">
+        <v>34</v>
+      </c>
+      <c r="I52" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D53">
+        <v>10000</v>
+      </c>
+      <c r="E53">
+        <f>G8/1000</f>
+        <v>0.497</v>
+      </c>
+      <c r="H53">
+        <v>10000</v>
+      </c>
+      <c r="I53">
+        <f>G23/1000</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D54">
+        <v>15848</v>
+      </c>
+      <c r="E54">
+        <f t="shared" ref="E54:E63" si="2">G9/1000</f>
+        <v>0.61299999999999999</v>
+      </c>
+      <c r="H54">
+        <v>15848</v>
+      </c>
+      <c r="I54">
+        <f t="shared" ref="I54:I63" si="3">G24/1000</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D55">
+        <v>25118</v>
+      </c>
+      <c r="E55">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <v>25118</v>
+      </c>
+      <c r="I55">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D56">
+        <v>39810</v>
+      </c>
+      <c r="E56">
+        <f t="shared" si="2"/>
+        <v>1.022</v>
+      </c>
+      <c r="H56">
+        <v>39810</v>
+      </c>
+      <c r="I56">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D57">
+        <v>63095</v>
+      </c>
+      <c r="E57">
+        <f t="shared" si="2"/>
+        <v>1.393</v>
+      </c>
+      <c r="H57">
+        <v>63095</v>
+      </c>
+      <c r="I57">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D58">
+        <v>100000</v>
+      </c>
+      <c r="E58">
+        <f t="shared" si="2"/>
+        <v>2.0979999999999999</v>
+      </c>
+      <c r="H58">
+        <v>100000</v>
+      </c>
+      <c r="I58">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D59">
+        <v>158489</v>
+      </c>
+      <c r="E59">
+        <f t="shared" si="2"/>
+        <v>2.847</v>
+      </c>
+      <c r="H59">
+        <v>158489</v>
+      </c>
+      <c r="I59">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D60">
+        <v>251188</v>
+      </c>
+      <c r="E60">
+        <f t="shared" si="2"/>
+        <v>4.2039999999999997</v>
+      </c>
+      <c r="H60">
+        <v>251188</v>
+      </c>
+      <c r="I60">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D61">
+        <v>398107</v>
+      </c>
+      <c r="E61">
+        <f t="shared" si="2"/>
+        <v>6.7859999999999996</v>
+      </c>
+      <c r="H61">
+        <v>398107</v>
+      </c>
+      <c r="I61">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D62">
+        <v>630957</v>
+      </c>
+      <c r="E62">
+        <f t="shared" si="2"/>
+        <v>10.166</v>
+      </c>
+      <c r="H62">
+        <v>630957</v>
+      </c>
+      <c r="I62">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D63">
+        <v>1000000</v>
+      </c>
+      <c r="E63">
+        <f t="shared" si="2"/>
+        <v>15.946</v>
+      </c>
+      <c r="H63">
+        <v>1000000</v>
+      </c>
+      <c r="I63">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D66" t="s">
+        <v>35</v>
+      </c>
+      <c r="E66" t="s">
+        <v>2</v>
+      </c>
+      <c r="H66" t="s">
+        <v>34</v>
+      </c>
+      <c r="I66" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D67">
+        <v>10000</v>
+      </c>
+      <c r="E67">
+        <f>H8/1000</f>
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="H67">
+        <v>10000</v>
+      </c>
+      <c r="I67">
+        <f>H23/1000</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D68">
+        <v>15848</v>
+      </c>
+      <c r="E68">
+        <f t="shared" ref="E68:E77" si="4">H9/1000</f>
+        <v>0.65400000000000003</v>
+      </c>
+      <c r="H68">
+        <v>15848</v>
+      </c>
+      <c r="I68">
+        <f t="shared" ref="I68:I77" si="5">H24/1000</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D69">
+        <v>25118</v>
+      </c>
+      <c r="E69">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H69">
+        <v>25118</v>
+      </c>
+      <c r="I69">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D70">
+        <v>39810</v>
+      </c>
+      <c r="E70">
+        <f t="shared" si="4"/>
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="H70">
+        <v>39810</v>
+      </c>
+      <c r="I70">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D71">
+        <v>63095</v>
+      </c>
+      <c r="E71">
+        <f t="shared" si="4"/>
+        <v>1.4870000000000001</v>
+      </c>
+      <c r="H71">
+        <v>63095</v>
+      </c>
+      <c r="I71">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D72">
+        <v>100000</v>
+      </c>
+      <c r="E72">
+        <f t="shared" si="4"/>
+        <v>2.2559999999999998</v>
+      </c>
+      <c r="H72">
+        <v>100000</v>
+      </c>
+      <c r="I72">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D73">
+        <v>158489</v>
+      </c>
+      <c r="E73">
+        <f t="shared" si="4"/>
+        <v>3.3090000000000002</v>
+      </c>
+      <c r="H73">
+        <v>158489</v>
+      </c>
+      <c r="I73">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D74">
+        <v>251188</v>
+      </c>
+      <c r="E74">
+        <f t="shared" si="4"/>
+        <v>4.4980000000000002</v>
+      </c>
+      <c r="H74">
+        <v>251188</v>
+      </c>
+      <c r="I74">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D75">
+        <v>398107</v>
+      </c>
+      <c r="E75">
+        <f t="shared" si="4"/>
+        <v>7.3159999999999998</v>
+      </c>
+      <c r="H75">
+        <v>398107</v>
+      </c>
+      <c r="I75">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D76">
+        <v>630957</v>
+      </c>
+      <c r="E76">
+        <f t="shared" si="4"/>
+        <v>11.709</v>
+      </c>
+      <c r="H76">
+        <v>630957</v>
+      </c>
+      <c r="I76">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D77">
+        <v>1000000</v>
+      </c>
+      <c r="E77">
+        <f t="shared" si="4"/>
+        <v>18.693999999999999</v>
+      </c>
+      <c r="H77">
+        <v>1000000</v>
+      </c>
+      <c r="I77">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D80" t="s">
+        <v>35</v>
+      </c>
+      <c r="E80" t="s">
+        <v>3</v>
+      </c>
+      <c r="H80" t="s">
+        <v>34</v>
+      </c>
+      <c r="I80" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D81">
+        <v>10000</v>
+      </c>
+      <c r="E81">
+        <f>I8/1000</f>
+        <v>0.60699999999999998</v>
+      </c>
+      <c r="H81">
+        <v>10000</v>
+      </c>
+      <c r="I81">
+        <f>I23/1000</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D82">
+        <v>15848</v>
+      </c>
+      <c r="E82">
+        <f t="shared" ref="E82:E91" si="6">I9/1000</f>
+        <v>0.77900000000000003</v>
+      </c>
+      <c r="H82">
+        <v>15848</v>
+      </c>
+      <c r="I82">
+        <f t="shared" ref="I82:I91" si="7">I24/1000</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D83">
+        <v>25118</v>
+      </c>
+      <c r="E83">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H83">
+        <v>25118</v>
+      </c>
+      <c r="I83">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D84">
+        <v>39810</v>
+      </c>
+      <c r="E84">
+        <f t="shared" si="6"/>
+        <v>1.4319999999999999</v>
+      </c>
+      <c r="H84">
+        <v>39810</v>
+      </c>
+      <c r="I84">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D85">
+        <v>63095</v>
+      </c>
+      <c r="E85">
+        <f t="shared" si="6"/>
+        <v>2.1520000000000001</v>
+      </c>
+      <c r="H85">
+        <v>63095</v>
+      </c>
+      <c r="I85">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D86">
+        <v>100000</v>
+      </c>
+      <c r="E86">
+        <f t="shared" si="6"/>
+        <v>2.915</v>
+      </c>
+      <c r="H86">
+        <v>100000</v>
+      </c>
+      <c r="I86">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D87">
+        <v>158489</v>
+      </c>
+      <c r="E87">
+        <f t="shared" si="6"/>
+        <v>4.1310000000000002</v>
+      </c>
+      <c r="H87">
+        <v>158489</v>
+      </c>
+      <c r="I87">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D88">
+        <v>251188</v>
+      </c>
+      <c r="E88">
+        <f t="shared" si="6"/>
+        <v>6.1079999999999997</v>
+      </c>
+      <c r="H88">
+        <v>251188</v>
+      </c>
+      <c r="I88">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D89">
+        <v>398107</v>
+      </c>
+      <c r="E89">
+        <f t="shared" si="6"/>
+        <v>9.3919999999999995</v>
+      </c>
+      <c r="H89">
+        <v>398107</v>
+      </c>
+      <c r="I89">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D90">
+        <v>630957</v>
+      </c>
+      <c r="E90">
+        <f t="shared" si="6"/>
+        <v>14.573</v>
+      </c>
+      <c r="H90">
+        <v>630957</v>
+      </c>
+      <c r="I90">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D91">
+        <v>1000000</v>
+      </c>
+      <c r="E91">
+        <f t="shared" si="6"/>
+        <v>22.783999999999999</v>
+      </c>
+      <c r="H91">
+        <v>1000000</v>
+      </c>
+      <c r="I91">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D94" t="s">
+        <v>35</v>
+      </c>
+      <c r="E94" t="s">
+        <v>4</v>
+      </c>
+      <c r="H94" t="s">
+        <v>34</v>
+      </c>
+      <c r="I94" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D95">
+        <v>10000</v>
+      </c>
+      <c r="E95">
+        <f>J8/1000</f>
+        <v>0.41499999999999998</v>
+      </c>
+      <c r="H95">
+        <v>10000</v>
+      </c>
+      <c r="I95">
+        <f>J23/1000</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D96">
+        <v>15848</v>
+      </c>
+      <c r="E96">
+        <f t="shared" ref="E96:E105" si="8">J9/1000</f>
+        <v>0.51600000000000001</v>
+      </c>
+      <c r="H96">
+        <v>15848</v>
+      </c>
+      <c r="I96">
+        <f t="shared" ref="I96:I105" si="9">J24/1000</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D97">
+        <v>25118</v>
+      </c>
+      <c r="E97">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>25118</v>
+      </c>
+      <c r="I97">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D98">
+        <v>39810</v>
+      </c>
+      <c r="E98">
+        <f t="shared" si="8"/>
+        <v>0.86199999999999999</v>
+      </c>
+      <c r="H98">
+        <v>39810</v>
+      </c>
+      <c r="I98">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D99">
+        <v>63095</v>
+      </c>
+      <c r="E99">
+        <f t="shared" si="8"/>
+        <v>1.133</v>
+      </c>
+      <c r="H99">
+        <v>63095</v>
+      </c>
+      <c r="I99">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D100">
+        <v>100000</v>
+      </c>
+      <c r="E100">
+        <f t="shared" si="8"/>
+        <v>1.756</v>
+      </c>
+      <c r="H100">
+        <v>100000</v>
+      </c>
+      <c r="I100">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D101">
+        <v>158489</v>
+      </c>
+      <c r="E101">
+        <f t="shared" si="8"/>
+        <v>2.27</v>
+      </c>
+      <c r="H101">
+        <v>158489</v>
+      </c>
+      <c r="I101">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D102">
+        <v>251188</v>
+      </c>
+      <c r="E102">
+        <f t="shared" si="8"/>
+        <v>3.3860000000000001</v>
+      </c>
+      <c r="H102">
+        <v>251188</v>
+      </c>
+      <c r="I102">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D103">
+        <v>398107</v>
+      </c>
+      <c r="E103">
+        <f t="shared" si="8"/>
+        <v>4.9279999999999999</v>
+      </c>
+      <c r="H103">
+        <v>398107</v>
+      </c>
+      <c r="I103">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D104">
+        <v>630957</v>
+      </c>
+      <c r="E104">
+        <f t="shared" si="8"/>
+        <v>7.55</v>
+      </c>
+      <c r="H104">
+        <v>630957</v>
+      </c>
+      <c r="I104">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D105">
+        <v>1000000</v>
+      </c>
+      <c r="E105">
+        <f t="shared" si="8"/>
+        <v>11.635999999999999</v>
+      </c>
+      <c r="H105">
+        <v>1000000</v>
+      </c>
+      <c r="I105">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="E28:I49"/>
   <sheetViews>
@@ -67948,7 +71925,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C5:AH45"/>
   <sheetViews>

--- a/exp/exp2.xlsx
+++ b/exp/exp2.xlsx
@@ -277,7 +277,7 @@
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -311,14 +311,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
@@ -334,7 +326,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -344,11 +336,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
     <fill>
@@ -366,24 +353,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -393,30 +377,26 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="3">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="6" fillId="4" borderId="0" xfId="4" applyNumberFormat="1">
+    <xf numFmtId="41" fontId="5" fillId="3" borderId="0" xfId="3" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="4">
     <cellStyle name="나쁨" xfId="1" builtinId="27"/>
-    <cellStyle name="보통" xfId="2" builtinId="28"/>
-    <cellStyle name="쉼표 [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="좋음" xfId="4" builtinId="26"/>
+    <cellStyle name="쉼표 [0]" xfId="2" builtinId="6"/>
+    <cellStyle name="좋음" xfId="3" builtinId="26"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -46921,19 +46901,19 @@
       <c r="D52">
         <v>10000</v>
       </c>
-      <c r="E52" s="4">
+      <c r="E52" s="3">
         <v>3234</v>
       </c>
-      <c r="F52" s="4">
+      <c r="F52" s="3">
         <v>2820</v>
       </c>
-      <c r="G52" s="4">
+      <c r="G52" s="3">
         <v>2651</v>
       </c>
-      <c r="H52" s="4">
+      <c r="H52" s="3">
         <v>3031</v>
       </c>
-      <c r="I52" s="4">
+      <c r="I52" s="3">
         <v>2578</v>
       </c>
       <c r="O52">
@@ -46942,7 +46922,7 @@
       <c r="P52">
         <v>3218</v>
       </c>
-      <c r="Q52" s="4">
+      <c r="Q52" s="3">
         <v>3196</v>
       </c>
       <c r="R52">
@@ -46960,7 +46940,7 @@
       <c r="W52">
         <v>2827</v>
       </c>
-      <c r="X52" s="4">
+      <c r="X52" s="3">
         <v>2820</v>
       </c>
       <c r="Y52">
@@ -46993,13 +46973,13 @@
       <c r="AJ52">
         <v>2695</v>
       </c>
-      <c r="AK52" s="4">
+      <c r="AK52" s="3">
         <v>2651</v>
       </c>
       <c r="AM52">
         <v>10000</v>
       </c>
-      <c r="AN52" s="4">
+      <c r="AN52" s="3">
         <v>3031</v>
       </c>
       <c r="AO52">
@@ -47011,7 +46991,7 @@
       <c r="AS52">
         <v>10000</v>
       </c>
-      <c r="AT52" s="4">
+      <c r="AT52" s="3">
         <v>2845</v>
       </c>
       <c r="AU52">
@@ -47029,7 +47009,7 @@
       <c r="AY52">
         <v>2827</v>
       </c>
-      <c r="AZ52" s="4">
+      <c r="AZ52" s="3">
         <v>2820</v>
       </c>
       <c r="BA52">
@@ -47044,7 +47024,7 @@
       <c r="BD52">
         <v>2950</v>
       </c>
-      <c r="BE52" s="4">
+      <c r="BE52" s="3">
         <v>2875</v>
       </c>
       <c r="BH52">
@@ -47091,19 +47071,19 @@
       <c r="D53">
         <v>15848</v>
       </c>
-      <c r="E53" s="4">
+      <c r="E53" s="3">
         <v>3687</v>
       </c>
-      <c r="F53" s="4">
+      <c r="F53" s="3">
         <v>3141</v>
       </c>
-      <c r="G53" s="4">
+      <c r="G53" s="3">
         <v>2898</v>
       </c>
-      <c r="H53" s="4">
+      <c r="H53" s="3">
         <v>3214</v>
       </c>
-      <c r="I53" s="4">
+      <c r="I53" s="3">
         <v>2676</v>
       </c>
       <c r="O53">
@@ -47112,7 +47092,7 @@
       <c r="P53">
         <v>3858</v>
       </c>
-      <c r="Q53" s="4">
+      <c r="Q53" s="3">
         <v>3605</v>
       </c>
       <c r="R53">
@@ -47130,7 +47110,7 @@
       <c r="W53">
         <v>3121</v>
       </c>
-      <c r="X53" s="4">
+      <c r="X53" s="3">
         <v>3141</v>
       </c>
       <c r="Y53">
@@ -47163,13 +47143,13 @@
       <c r="AJ53">
         <v>3107</v>
       </c>
-      <c r="AK53" s="4">
+      <c r="AK53" s="3">
         <v>2898</v>
       </c>
       <c r="AM53">
         <v>15848</v>
       </c>
-      <c r="AN53" s="4">
+      <c r="AN53" s="3">
         <v>3214</v>
       </c>
       <c r="AO53">
@@ -47181,7 +47161,7 @@
       <c r="AS53">
         <v>15848</v>
       </c>
-      <c r="AT53" s="4">
+      <c r="AT53" s="3">
         <v>3210</v>
       </c>
       <c r="AU53">
@@ -47199,7 +47179,7 @@
       <c r="AY53">
         <v>3121</v>
       </c>
-      <c r="AZ53" s="4">
+      <c r="AZ53" s="3">
         <v>3141</v>
       </c>
       <c r="BA53">
@@ -47214,7 +47194,7 @@
       <c r="BD53">
         <v>3249</v>
       </c>
-      <c r="BE53" s="4">
+      <c r="BE53" s="3">
         <v>3225</v>
       </c>
       <c r="BH53">
@@ -47261,19 +47241,19 @@
       <c r="D54">
         <v>25118</v>
       </c>
-      <c r="E54" s="4">
+      <c r="E54" s="3">
         <v>3952</v>
       </c>
-      <c r="F54" s="4">
+      <c r="F54" s="3">
         <v>3802</v>
       </c>
-      <c r="G54" s="4">
+      <c r="G54" s="3">
         <v>3447</v>
       </c>
-      <c r="H54" s="4">
+      <c r="H54" s="3">
         <v>3876</v>
       </c>
-      <c r="I54" s="4">
+      <c r="I54" s="3">
         <v>2945</v>
       </c>
       <c r="O54">
@@ -47282,7 +47262,7 @@
       <c r="P54">
         <v>4308</v>
       </c>
-      <c r="Q54" s="4">
+      <c r="Q54" s="3">
         <v>4369</v>
       </c>
       <c r="R54">
@@ -47300,7 +47280,7 @@
       <c r="W54">
         <v>4054</v>
       </c>
-      <c r="X54" s="4">
+      <c r="X54" s="3">
         <v>3802</v>
       </c>
       <c r="Y54">
@@ -47333,13 +47313,13 @@
       <c r="AJ54">
         <v>3557</v>
       </c>
-      <c r="AK54" s="4">
+      <c r="AK54" s="3">
         <v>3447</v>
       </c>
       <c r="AM54">
         <v>25118</v>
       </c>
-      <c r="AN54" s="4">
+      <c r="AN54" s="3">
         <v>3876</v>
       </c>
       <c r="AO54">
@@ -47351,7 +47331,7 @@
       <c r="AS54">
         <v>25118</v>
       </c>
-      <c r="AT54" s="4">
+      <c r="AT54" s="3">
         <v>3594</v>
       </c>
       <c r="AU54">
@@ -47369,7 +47349,7 @@
       <c r="AY54">
         <v>4054</v>
       </c>
-      <c r="AZ54" s="4">
+      <c r="AZ54" s="3">
         <v>3802</v>
       </c>
       <c r="BA54">
@@ -47384,7 +47364,7 @@
       <c r="BD54">
         <v>3927</v>
       </c>
-      <c r="BE54" s="4">
+      <c r="BE54" s="3">
         <v>3964</v>
       </c>
       <c r="BH54">
@@ -47431,19 +47411,19 @@
       <c r="D55">
         <v>39810</v>
       </c>
-      <c r="E55" s="4">
+      <c r="E55" s="3">
         <v>4756</v>
       </c>
-      <c r="F55" s="4">
+      <c r="F55" s="3">
         <v>4746</v>
       </c>
-      <c r="G55" s="4">
+      <c r="G55" s="3">
         <v>4430</v>
       </c>
-      <c r="H55" s="4">
+      <c r="H55" s="3">
         <v>4404</v>
       </c>
-      <c r="I55" s="4">
+      <c r="I55" s="3">
         <v>3750</v>
       </c>
       <c r="O55">
@@ -47452,7 +47432,7 @@
       <c r="P55">
         <v>4851</v>
       </c>
-      <c r="Q55" s="4">
+      <c r="Q55" s="3">
         <v>4960</v>
       </c>
       <c r="R55">
@@ -47470,7 +47450,7 @@
       <c r="W55">
         <v>4401</v>
       </c>
-      <c r="X55" s="4">
+      <c r="X55" s="3">
         <v>4746</v>
       </c>
       <c r="Y55">
@@ -47503,13 +47483,13 @@
       <c r="AJ55">
         <v>4711</v>
       </c>
-      <c r="AK55" s="4">
+      <c r="AK55" s="3">
         <v>4430</v>
       </c>
       <c r="AM55">
         <v>39810</v>
       </c>
-      <c r="AN55" s="4">
+      <c r="AN55" s="3">
         <v>4404</v>
       </c>
       <c r="AO55">
@@ -47521,7 +47501,7 @@
       <c r="AS55">
         <v>39810</v>
       </c>
-      <c r="AT55" s="4">
+      <c r="AT55" s="3">
         <v>4437</v>
       </c>
       <c r="AU55">
@@ -47539,7 +47519,7 @@
       <c r="AY55">
         <v>4401</v>
       </c>
-      <c r="AZ55" s="4">
+      <c r="AZ55" s="3">
         <v>4746</v>
       </c>
       <c r="BA55">
@@ -47554,7 +47534,7 @@
       <c r="BD55">
         <v>4607</v>
       </c>
-      <c r="BE55" s="4">
+      <c r="BE55" s="3">
         <v>4476</v>
       </c>
       <c r="BH55">
@@ -47601,19 +47581,19 @@
       <c r="D56">
         <v>63095</v>
       </c>
-      <c r="E56" s="4">
+      <c r="E56" s="3">
         <v>5547</v>
       </c>
-      <c r="F56" s="4">
+      <c r="F56" s="3">
         <v>5605</v>
       </c>
-      <c r="G56" s="4">
+      <c r="G56" s="3">
         <v>5501</v>
       </c>
-      <c r="H56" s="4">
+      <c r="H56" s="3">
         <v>5389</v>
       </c>
-      <c r="I56" s="4">
+      <c r="I56" s="3">
         <v>4209</v>
       </c>
       <c r="O56">
@@ -47622,7 +47602,7 @@
       <c r="P56">
         <v>6216</v>
       </c>
-      <c r="Q56" s="4">
+      <c r="Q56" s="3">
         <v>5824</v>
       </c>
       <c r="R56">
@@ -47640,7 +47620,7 @@
       <c r="W56">
         <v>5735</v>
       </c>
-      <c r="X56" s="4">
+      <c r="X56" s="3">
         <v>5605</v>
       </c>
       <c r="Y56">
@@ -47673,13 +47653,13 @@
       <c r="AJ56">
         <v>6396</v>
       </c>
-      <c r="AK56" s="4">
+      <c r="AK56" s="3">
         <v>5501</v>
       </c>
       <c r="AM56">
         <v>63095</v>
       </c>
-      <c r="AN56" s="4">
+      <c r="AN56" s="3">
         <v>5389</v>
       </c>
       <c r="AO56">
@@ -47691,7 +47671,7 @@
       <c r="AS56">
         <v>63095</v>
       </c>
-      <c r="AT56" s="4">
+      <c r="AT56" s="3">
         <v>5150</v>
       </c>
       <c r="AU56">
@@ -47709,7 +47689,7 @@
       <c r="AY56">
         <v>5735</v>
       </c>
-      <c r="AZ56" s="4">
+      <c r="AZ56" s="3">
         <v>5605</v>
       </c>
       <c r="BA56">
@@ -47724,7 +47704,7 @@
       <c r="BD56">
         <v>5788</v>
       </c>
-      <c r="BE56" s="4">
+      <c r="BE56" s="3">
         <v>5912</v>
       </c>
       <c r="BH56">
@@ -47771,19 +47751,19 @@
       <c r="D57">
         <v>100000</v>
       </c>
-      <c r="E57" s="4">
+      <c r="E57" s="3">
         <v>7627</v>
       </c>
-      <c r="F57" s="4">
+      <c r="F57" s="3">
         <v>7729</v>
       </c>
-      <c r="G57" s="4">
+      <c r="G57" s="3">
         <v>8331</v>
       </c>
-      <c r="H57" s="4">
+      <c r="H57" s="3">
         <v>7000</v>
       </c>
-      <c r="I57" s="4">
+      <c r="I57" s="3">
         <v>5348</v>
       </c>
       <c r="O57">
@@ -47792,7 +47772,7 @@
       <c r="P57">
         <v>7990</v>
       </c>
-      <c r="Q57" s="4">
+      <c r="Q57" s="3">
         <v>7846</v>
       </c>
       <c r="R57">
@@ -47810,7 +47790,7 @@
       <c r="W57">
         <v>7362</v>
       </c>
-      <c r="X57" s="4">
+      <c r="X57" s="3">
         <v>7729</v>
       </c>
       <c r="Y57">
@@ -47843,13 +47823,13 @@
       <c r="AJ57">
         <v>10839</v>
       </c>
-      <c r="AK57" s="4">
+      <c r="AK57" s="3">
         <v>8331</v>
       </c>
       <c r="AM57">
         <v>100000</v>
       </c>
-      <c r="AN57" s="4">
+      <c r="AN57" s="3">
         <v>7000</v>
       </c>
       <c r="AO57">
@@ -47861,7 +47841,7 @@
       <c r="AS57">
         <v>100000</v>
       </c>
-      <c r="AT57" s="4">
+      <c r="AT57" s="3">
         <v>7282</v>
       </c>
       <c r="AU57">
@@ -47879,7 +47859,7 @@
       <c r="AY57">
         <v>7362</v>
       </c>
-      <c r="AZ57" s="4">
+      <c r="AZ57" s="3">
         <v>7729</v>
       </c>
       <c r="BA57">
@@ -47894,7 +47874,7 @@
       <c r="BD57">
         <v>7698</v>
       </c>
-      <c r="BE57" s="4">
+      <c r="BE57" s="3">
         <v>7895</v>
       </c>
       <c r="BH57">
@@ -47941,19 +47921,19 @@
       <c r="D58">
         <v>158489</v>
       </c>
-      <c r="E58" s="4">
+      <c r="E58" s="3">
         <v>8711</v>
       </c>
-      <c r="F58" s="4">
+      <c r="F58" s="3">
         <v>10083</v>
       </c>
-      <c r="G58" s="4">
+      <c r="G58" s="3">
         <v>14047</v>
       </c>
-      <c r="H58" s="4">
+      <c r="H58" s="3">
         <v>10120</v>
       </c>
-      <c r="I58" s="4">
+      <c r="I58" s="3">
         <v>7397</v>
       </c>
       <c r="O58">
@@ -47962,7 +47942,7 @@
       <c r="P58">
         <v>10717</v>
       </c>
-      <c r="Q58" s="4">
+      <c r="Q58" s="3">
         <v>10829</v>
       </c>
       <c r="R58">
@@ -47980,7 +47960,7 @@
       <c r="W58">
         <v>10246</v>
       </c>
-      <c r="X58" s="4">
+      <c r="X58" s="3">
         <v>10083</v>
       </c>
       <c r="Y58">
@@ -48013,13 +47993,13 @@
       <c r="AJ58">
         <v>19851</v>
       </c>
-      <c r="AK58" s="4">
+      <c r="AK58" s="3">
         <v>14047</v>
       </c>
       <c r="AM58">
         <v>158489</v>
       </c>
-      <c r="AN58" s="4">
+      <c r="AN58" s="3">
         <v>10120</v>
       </c>
       <c r="AO58">
@@ -48031,7 +48011,7 @@
       <c r="AS58">
         <v>158489</v>
       </c>
-      <c r="AT58" s="4">
+      <c r="AT58" s="3">
         <v>9831</v>
       </c>
       <c r="AU58">
@@ -48049,7 +48029,7 @@
       <c r="AY58">
         <v>10246</v>
       </c>
-      <c r="AZ58" s="4">
+      <c r="AZ58" s="3">
         <v>10083</v>
       </c>
       <c r="BA58">
@@ -48064,7 +48044,7 @@
       <c r="BD58">
         <v>10740</v>
       </c>
-      <c r="BE58" s="4">
+      <c r="BE58" s="3">
         <v>10668</v>
       </c>
       <c r="BH58">
@@ -48111,19 +48091,19 @@
       <c r="D59">
         <v>251188</v>
       </c>
-      <c r="E59" s="4">
+      <c r="E59" s="3">
         <v>11731</v>
       </c>
-      <c r="F59" s="4">
+      <c r="F59" s="3">
         <v>14330</v>
       </c>
-      <c r="G59" s="4">
+      <c r="G59" s="3">
         <v>25290</v>
       </c>
-      <c r="H59" s="4">
+      <c r="H59" s="3">
         <v>13917</v>
       </c>
-      <c r="I59" s="4">
+      <c r="I59" s="3">
         <v>9096</v>
       </c>
       <c r="O59">
@@ -48132,7 +48112,7 @@
       <c r="P59">
         <v>14794</v>
       </c>
-      <c r="Q59" s="4">
+      <c r="Q59" s="3">
         <v>14936</v>
       </c>
       <c r="R59">
@@ -48150,7 +48130,7 @@
       <c r="W59">
         <v>14213</v>
       </c>
-      <c r="X59" s="4">
+      <c r="X59" s="3">
         <v>14330</v>
       </c>
       <c r="Y59">
@@ -48183,13 +48163,13 @@
       <c r="AJ59">
         <v>38595</v>
       </c>
-      <c r="AK59" s="4">
+      <c r="AK59" s="3">
         <v>25290</v>
       </c>
       <c r="AM59">
         <v>251188</v>
       </c>
-      <c r="AN59" s="4">
+      <c r="AN59" s="3">
         <v>13917</v>
       </c>
       <c r="AO59">
@@ -48201,7 +48181,7 @@
       <c r="AS59">
         <v>251188</v>
       </c>
-      <c r="AT59" s="4">
+      <c r="AT59" s="3">
         <v>13461</v>
       </c>
       <c r="AU59">
@@ -48219,7 +48199,7 @@
       <c r="AY59">
         <v>14213</v>
       </c>
-      <c r="AZ59" s="4">
+      <c r="AZ59" s="3">
         <v>14330</v>
       </c>
       <c r="BA59">
@@ -48234,7 +48214,7 @@
       <c r="BD59">
         <v>14630</v>
       </c>
-      <c r="BE59" s="4">
+      <c r="BE59" s="3">
         <v>14538</v>
       </c>
       <c r="BH59">
@@ -48281,19 +48261,19 @@
       <c r="D60">
         <v>466158</v>
       </c>
-      <c r="E60" s="4">
+      <c r="E60" s="3">
         <v>20299</v>
       </c>
-      <c r="F60" s="4">
+      <c r="F60" s="3">
         <v>24043</v>
       </c>
-      <c r="G60" s="4">
+      <c r="G60" s="3">
         <v>63715</v>
       </c>
-      <c r="H60" s="4">
+      <c r="H60" s="3">
         <v>24630</v>
       </c>
-      <c r="I60" s="4">
+      <c r="I60" s="3">
         <v>15434</v>
       </c>
       <c r="O60">
@@ -48302,7 +48282,7 @@
       <c r="P60">
         <v>25344</v>
       </c>
-      <c r="Q60" s="4">
+      <c r="Q60" s="3">
         <v>24977</v>
       </c>
       <c r="R60">
@@ -48320,7 +48300,7 @@
       <c r="W60">
         <v>24414</v>
       </c>
-      <c r="X60" s="4">
+      <c r="X60" s="3">
         <v>24043</v>
       </c>
       <c r="Y60">
@@ -48353,13 +48333,13 @@
       <c r="AJ60">
         <v>113754</v>
       </c>
-      <c r="AK60" s="4">
+      <c r="AK60" s="3">
         <v>63715</v>
       </c>
       <c r="AM60">
         <v>466158</v>
       </c>
-      <c r="AN60" s="4">
+      <c r="AN60" s="3">
         <v>24630</v>
       </c>
       <c r="AO60">
@@ -48371,7 +48351,7 @@
       <c r="AS60">
         <v>466158</v>
       </c>
-      <c r="AT60" s="4">
+      <c r="AT60" s="3">
         <v>22510</v>
       </c>
       <c r="AU60">
@@ -48389,7 +48369,7 @@
       <c r="AY60">
         <v>24414</v>
       </c>
-      <c r="AZ60" s="4">
+      <c r="AZ60" s="3">
         <v>24043</v>
       </c>
       <c r="BA60">
@@ -48404,7 +48384,7 @@
       <c r="BD60">
         <v>25058</v>
       </c>
-      <c r="BE60" s="4">
+      <c r="BE60" s="3">
         <v>24747</v>
       </c>
       <c r="BH60">
@@ -48677,19 +48657,19 @@
       <c r="D64">
         <v>10000</v>
       </c>
-      <c r="E64" s="4">
+      <c r="E64" s="3">
         <v>3475</v>
       </c>
-      <c r="F64" s="4">
+      <c r="F64" s="3">
         <v>3244</v>
       </c>
-      <c r="G64" s="4">
+      <c r="G64" s="3">
         <v>2727</v>
       </c>
-      <c r="H64" s="4">
+      <c r="H64" s="3">
         <v>3254</v>
       </c>
-      <c r="I64" s="4">
+      <c r="I64" s="3">
         <v>2596</v>
       </c>
       <c r="O64">
@@ -48698,7 +48678,7 @@
       <c r="P64">
         <v>3713</v>
       </c>
-      <c r="Q64" s="4">
+      <c r="Q64" s="3">
         <v>3644</v>
       </c>
       <c r="R64">
@@ -48713,7 +48693,7 @@
       <c r="V64">
         <v>3104</v>
       </c>
-      <c r="W64" s="4">
+      <c r="W64" s="3">
         <v>3244</v>
       </c>
       <c r="X64">
@@ -48749,13 +48729,13 @@
       <c r="AJ64">
         <v>2838</v>
       </c>
-      <c r="AK64" s="4">
+      <c r="AK64" s="3">
         <v>2727</v>
       </c>
       <c r="AM64">
         <v>10000</v>
       </c>
-      <c r="AN64" s="4">
+      <c r="AN64" s="3">
         <v>2892</v>
       </c>
       <c r="AO64">
@@ -48773,7 +48753,7 @@
       <c r="AU64">
         <v>3163</v>
       </c>
-      <c r="AV64" s="4">
+      <c r="AV64" s="3">
         <v>3200</v>
       </c>
       <c r="AW64">
@@ -48782,7 +48762,7 @@
       <c r="AX64">
         <v>3104</v>
       </c>
-      <c r="AY64" s="4">
+      <c r="AY64" s="3">
         <v>3244</v>
       </c>
       <c r="AZ64">
@@ -48800,7 +48780,7 @@
       <c r="BD64">
         <v>3323</v>
       </c>
-      <c r="BE64" s="4">
+      <c r="BE64" s="3">
         <v>3370</v>
       </c>
       <c r="BH64">
@@ -48847,19 +48827,19 @@
       <c r="D65">
         <v>15848</v>
       </c>
-      <c r="E65" s="4">
+      <c r="E65" s="3">
         <v>3908</v>
       </c>
-      <c r="F65" s="4">
+      <c r="F65" s="3">
         <v>3743</v>
       </c>
-      <c r="G65" s="4">
+      <c r="G65" s="3">
         <v>3005</v>
       </c>
-      <c r="H65" s="4">
+      <c r="H65" s="3">
         <v>3551</v>
       </c>
-      <c r="I65" s="4">
+      <c r="I65" s="3">
         <v>2771</v>
       </c>
       <c r="O65">
@@ -48868,7 +48848,7 @@
       <c r="P65">
         <v>4191</v>
       </c>
-      <c r="Q65" s="4">
+      <c r="Q65" s="3">
         <v>4077</v>
       </c>
       <c r="R65">
@@ -48883,7 +48863,7 @@
       <c r="V65">
         <v>3657</v>
       </c>
-      <c r="W65" s="4">
+      <c r="W65" s="3">
         <v>3743</v>
       </c>
       <c r="X65">
@@ -48919,13 +48899,13 @@
       <c r="AJ65">
         <v>3041</v>
       </c>
-      <c r="AK65" s="4">
+      <c r="AK65" s="3">
         <v>3005</v>
       </c>
       <c r="AM65">
         <v>15848</v>
       </c>
-      <c r="AN65" s="4">
+      <c r="AN65" s="3">
         <v>3484</v>
       </c>
       <c r="AO65">
@@ -48943,7 +48923,7 @@
       <c r="AU65">
         <v>3529</v>
       </c>
-      <c r="AV65" s="4">
+      <c r="AV65" s="3">
         <v>3747</v>
       </c>
       <c r="AW65">
@@ -48952,7 +48932,7 @@
       <c r="AX65">
         <v>3657</v>
       </c>
-      <c r="AY65" s="4">
+      <c r="AY65" s="3">
         <v>3743</v>
       </c>
       <c r="AZ65">
@@ -48970,7 +48950,7 @@
       <c r="BD65">
         <v>3833</v>
       </c>
-      <c r="BE65" s="4">
+      <c r="BE65" s="3">
         <v>3949</v>
       </c>
       <c r="BH65">
@@ -49017,19 +48997,19 @@
       <c r="D66">
         <v>25118</v>
       </c>
-      <c r="E66" s="4">
+      <c r="E66" s="3">
         <v>4544</v>
       </c>
-      <c r="F66" s="4">
+      <c r="F66" s="3">
         <v>4252</v>
       </c>
-      <c r="G66" s="4">
+      <c r="G66" s="3">
         <v>3625</v>
       </c>
-      <c r="H66" s="4">
+      <c r="H66" s="3">
         <v>4156</v>
       </c>
-      <c r="I66" s="4">
+      <c r="I66" s="3">
         <v>3013</v>
       </c>
       <c r="O66">
@@ -49038,7 +49018,7 @@
       <c r="P66">
         <v>4659</v>
       </c>
-      <c r="Q66" s="4">
+      <c r="Q66" s="3">
         <v>4707</v>
       </c>
       <c r="R66">
@@ -49053,7 +49033,7 @@
       <c r="V66">
         <v>4416</v>
       </c>
-      <c r="W66" s="4">
+      <c r="W66" s="3">
         <v>4252</v>
       </c>
       <c r="X66">
@@ -49089,13 +49069,13 @@
       <c r="AJ66">
         <v>3809</v>
       </c>
-      <c r="AK66" s="4">
+      <c r="AK66" s="3">
         <v>3625</v>
       </c>
       <c r="AM66">
         <v>25118</v>
       </c>
-      <c r="AN66" s="4">
+      <c r="AN66" s="3">
         <v>4003</v>
       </c>
       <c r="AO66">
@@ -49113,7 +49093,7 @@
       <c r="AU66">
         <v>4228</v>
       </c>
-      <c r="AV66" s="4">
+      <c r="AV66" s="3">
         <v>4150</v>
       </c>
       <c r="AW66">
@@ -49122,7 +49102,7 @@
       <c r="AX66">
         <v>4416</v>
       </c>
-      <c r="AY66" s="4">
+      <c r="AY66" s="3">
         <v>4252</v>
       </c>
       <c r="AZ66">
@@ -49140,7 +49120,7 @@
       <c r="BD66">
         <v>4244</v>
       </c>
-      <c r="BE66" s="4">
+      <c r="BE66" s="3">
         <v>4388</v>
       </c>
       <c r="BH66">
@@ -49187,19 +49167,19 @@
       <c r="D67">
         <v>39810</v>
       </c>
-      <c r="E67" s="4">
+      <c r="E67" s="3">
         <v>5434</v>
       </c>
-      <c r="F67" s="4">
+      <c r="F67" s="3">
         <v>5108</v>
       </c>
-      <c r="G67" s="4">
+      <c r="G67" s="3">
         <v>4494</v>
       </c>
-      <c r="H67" s="4">
+      <c r="H67" s="3">
         <v>5031</v>
       </c>
-      <c r="I67" s="4">
+      <c r="I67" s="3">
         <v>4523</v>
       </c>
       <c r="O67">
@@ -49208,7 +49188,7 @@
       <c r="P67">
         <v>5850</v>
       </c>
-      <c r="Q67" s="4">
+      <c r="Q67" s="3">
         <v>5651</v>
       </c>
       <c r="R67">
@@ -49223,7 +49203,7 @@
       <c r="V67">
         <v>5457</v>
       </c>
-      <c r="W67" s="4">
+      <c r="W67" s="3">
         <v>5108</v>
       </c>
       <c r="X67">
@@ -49259,13 +49239,13 @@
       <c r="AJ67">
         <v>4763</v>
       </c>
-      <c r="AK67" s="4">
+      <c r="AK67" s="3">
         <v>4494</v>
       </c>
       <c r="AM67">
         <v>39810</v>
       </c>
-      <c r="AN67" s="4">
+      <c r="AN67" s="3">
         <v>4681</v>
       </c>
       <c r="AO67">
@@ -49283,7 +49263,7 @@
       <c r="AU67">
         <v>5105</v>
       </c>
-      <c r="AV67" s="4">
+      <c r="AV67" s="3">
         <v>5126</v>
       </c>
       <c r="AW67">
@@ -49292,7 +49272,7 @@
       <c r="AX67">
         <v>5457</v>
       </c>
-      <c r="AY67" s="4">
+      <c r="AY67" s="3">
         <v>5108</v>
       </c>
       <c r="AZ67">
@@ -49310,7 +49290,7 @@
       <c r="BD67">
         <v>5053</v>
       </c>
-      <c r="BE67" s="4">
+      <c r="BE67" s="3">
         <v>5452</v>
       </c>
       <c r="BH67">
@@ -49357,19 +49337,19 @@
       <c r="D68">
         <v>63095</v>
       </c>
-      <c r="E68" s="4">
+      <c r="E68" s="3">
         <v>6567</v>
       </c>
-      <c r="F68" s="4">
+      <c r="F68" s="3">
         <v>6699</v>
       </c>
-      <c r="G68" s="4">
+      <c r="G68" s="3">
         <v>5852</v>
       </c>
-      <c r="H68" s="4">
+      <c r="H68" s="3">
         <v>6495</v>
       </c>
-      <c r="I68" s="4">
+      <c r="I68" s="3">
         <v>5245</v>
       </c>
       <c r="O68">
@@ -49378,7 +49358,7 @@
       <c r="P68">
         <v>7218</v>
       </c>
-      <c r="Q68" s="4">
+      <c r="Q68" s="3">
         <v>6830</v>
       </c>
       <c r="R68">
@@ -49393,7 +49373,7 @@
       <c r="V68">
         <v>6456</v>
       </c>
-      <c r="W68" s="4">
+      <c r="W68" s="3">
         <v>6699</v>
       </c>
       <c r="X68">
@@ -49429,13 +49409,13 @@
       <c r="AJ68">
         <v>6645</v>
       </c>
-      <c r="AK68" s="4">
+      <c r="AK68" s="3">
         <v>5852</v>
       </c>
       <c r="AM68">
         <v>63095</v>
       </c>
-      <c r="AN68" s="4">
+      <c r="AN68" s="3">
         <v>5858</v>
       </c>
       <c r="AO68">
@@ -49453,7 +49433,7 @@
       <c r="AU68">
         <v>6119</v>
       </c>
-      <c r="AV68" s="4">
+      <c r="AV68" s="3">
         <v>6133</v>
       </c>
       <c r="AW68">
@@ -49462,7 +49442,7 @@
       <c r="AX68">
         <v>6456</v>
       </c>
-      <c r="AY68" s="4">
+      <c r="AY68" s="3">
         <v>6699</v>
       </c>
       <c r="AZ68">
@@ -49480,7 +49460,7 @@
       <c r="BD68">
         <v>6742</v>
       </c>
-      <c r="BE68" s="4">
+      <c r="BE68" s="3">
         <v>7080</v>
       </c>
       <c r="BH68">
@@ -49527,19 +49507,19 @@
       <c r="D69">
         <v>100000</v>
       </c>
-      <c r="E69" s="4">
+      <c r="E69" s="3">
         <v>8568</v>
       </c>
-      <c r="F69" s="4">
+      <c r="F69" s="3">
         <v>8375</v>
       </c>
-      <c r="G69" s="4">
+      <c r="G69" s="3">
         <v>8917</v>
       </c>
-      <c r="H69" s="4">
+      <c r="H69" s="3">
         <v>8212</v>
       </c>
-      <c r="I69" s="4">
+      <c r="I69" s="3">
         <v>5442</v>
       </c>
       <c r="O69">
@@ -49548,7 +49528,7 @@
       <c r="P69">
         <v>9293</v>
       </c>
-      <c r="Q69" s="4">
+      <c r="Q69" s="3">
         <v>8701</v>
       </c>
       <c r="R69">
@@ -49563,7 +49543,7 @@
       <c r="V69">
         <v>7975</v>
       </c>
-      <c r="W69" s="4">
+      <c r="W69" s="3">
         <v>8375</v>
       </c>
       <c r="X69">
@@ -49599,13 +49579,13 @@
       <c r="AJ69">
         <v>10844</v>
       </c>
-      <c r="AK69" s="4">
+      <c r="AK69" s="3">
         <v>8917</v>
       </c>
       <c r="AM69">
         <v>100000</v>
       </c>
-      <c r="AN69" s="4">
+      <c r="AN69" s="3">
         <v>7663</v>
       </c>
       <c r="AO69">
@@ -49623,7 +49603,7 @@
       <c r="AU69">
         <v>7788</v>
       </c>
-      <c r="AV69" s="4">
+      <c r="AV69" s="3">
         <v>8072</v>
       </c>
       <c r="AW69">
@@ -49632,7 +49612,7 @@
       <c r="AX69">
         <v>7975</v>
       </c>
-      <c r="AY69" s="4">
+      <c r="AY69" s="3">
         <v>8375</v>
       </c>
       <c r="AZ69">
@@ -49650,7 +49630,7 @@
       <c r="BD69">
         <v>8775</v>
       </c>
-      <c r="BE69" s="4">
+      <c r="BE69" s="3">
         <v>8569</v>
       </c>
       <c r="BH69">
@@ -49697,19 +49677,19 @@
       <c r="D70">
         <v>158489</v>
       </c>
-      <c r="E70" s="4">
+      <c r="E70" s="3">
         <v>11722</v>
       </c>
-      <c r="F70" s="4">
+      <c r="F70" s="3">
         <v>11859</v>
       </c>
-      <c r="G70" s="4">
+      <c r="G70" s="3">
         <v>14766</v>
       </c>
-      <c r="H70" s="4">
+      <c r="H70" s="3">
         <v>11073</v>
       </c>
-      <c r="I70" s="4">
+      <c r="I70" s="3">
         <v>8366</v>
       </c>
       <c r="O70">
@@ -49718,7 +49698,7 @@
       <c r="P70">
         <v>12287</v>
       </c>
-      <c r="Q70" s="4">
+      <c r="Q70" s="3">
         <v>12637</v>
       </c>
       <c r="R70">
@@ -49733,7 +49713,7 @@
       <c r="V70">
         <v>11613</v>
       </c>
-      <c r="W70" s="4">
+      <c r="W70" s="3">
         <v>11859</v>
       </c>
       <c r="X70">
@@ -49769,13 +49749,13 @@
       <c r="AJ70">
         <v>20509</v>
       </c>
-      <c r="AK70" s="4">
+      <c r="AK70" s="3">
         <v>14766</v>
       </c>
       <c r="AM70">
         <v>158489</v>
       </c>
-      <c r="AN70" s="4">
+      <c r="AN70" s="3">
         <v>10878</v>
       </c>
       <c r="AO70">
@@ -49793,7 +49773,7 @@
       <c r="AU70">
         <v>10779</v>
       </c>
-      <c r="AV70" s="4">
+      <c r="AV70" s="3">
         <v>10892</v>
       </c>
       <c r="AW70">
@@ -49802,7 +49782,7 @@
       <c r="AX70">
         <v>11613</v>
       </c>
-      <c r="AY70" s="4">
+      <c r="AY70" s="3">
         <v>11859</v>
       </c>
       <c r="AZ70">
@@ -49820,7 +49800,7 @@
       <c r="BD70">
         <v>12166</v>
       </c>
-      <c r="BE70" s="4">
+      <c r="BE70" s="3">
         <v>12247</v>
       </c>
       <c r="BH70">
@@ -49867,19 +49847,19 @@
       <c r="D71">
         <v>251188</v>
       </c>
-      <c r="E71" s="4">
+      <c r="E71" s="3">
         <v>16462</v>
       </c>
-      <c r="F71" s="4">
+      <c r="F71" s="3">
         <v>16670</v>
       </c>
-      <c r="G71" s="4">
+      <c r="G71" s="3">
         <v>26911</v>
       </c>
-      <c r="H71" s="4">
+      <c r="H71" s="3">
         <v>15928</v>
       </c>
-      <c r="I71" s="4">
+      <c r="I71" s="3">
         <v>10407</v>
       </c>
       <c r="O71">
@@ -49888,7 +49868,7 @@
       <c r="P71">
         <v>17403</v>
       </c>
-      <c r="Q71" s="4">
+      <c r="Q71" s="3">
         <v>17256</v>
       </c>
       <c r="R71">
@@ -49903,7 +49883,7 @@
       <c r="V71">
         <v>16891</v>
       </c>
-      <c r="W71" s="4">
+      <c r="W71" s="3">
         <v>16670</v>
       </c>
       <c r="X71">
@@ -49939,13 +49919,13 @@
       <c r="AJ71">
         <v>40055</v>
       </c>
-      <c r="AK71" s="4">
+      <c r="AK71" s="3">
         <v>26911</v>
       </c>
       <c r="AM71">
         <v>251188</v>
       </c>
-      <c r="AN71" s="4">
+      <c r="AN71" s="3">
         <v>15500</v>
       </c>
       <c r="AO71">
@@ -49963,7 +49943,7 @@
       <c r="AU71">
         <v>16115</v>
       </c>
-      <c r="AV71" s="4">
+      <c r="AV71" s="3">
         <v>15479</v>
       </c>
       <c r="AW71">
@@ -49972,7 +49952,7 @@
       <c r="AX71">
         <v>16891</v>
       </c>
-      <c r="AY71" s="4">
+      <c r="AY71" s="3">
         <v>16670</v>
       </c>
       <c r="AZ71">
@@ -49990,7 +49970,7 @@
       <c r="BD71">
         <v>17504</v>
       </c>
-      <c r="BE71" s="4">
+      <c r="BE71" s="3">
         <v>17948</v>
       </c>
       <c r="BH71">
@@ -50037,19 +50017,19 @@
       <c r="D72">
         <v>466158</v>
       </c>
-      <c r="E72" s="4">
+      <c r="E72" s="3">
         <v>27117</v>
       </c>
-      <c r="F72" s="4">
+      <c r="F72" s="3">
         <v>27949</v>
       </c>
-      <c r="G72" s="4">
+      <c r="G72" s="3">
         <v>72287</v>
       </c>
-      <c r="H72" s="4">
+      <c r="H72" s="3">
         <v>27295</v>
       </c>
-      <c r="I72" s="4">
+      <c r="I72" s="3">
         <v>18853</v>
       </c>
       <c r="O72">
@@ -50058,7 +50038,7 @@
       <c r="P72">
         <v>29828</v>
       </c>
-      <c r="Q72" s="4">
+      <c r="Q72" s="3">
         <v>29432</v>
       </c>
       <c r="R72">
@@ -50073,7 +50053,7 @@
       <c r="V72">
         <v>27786</v>
       </c>
-      <c r="W72" s="4">
+      <c r="W72" s="3">
         <v>27949</v>
       </c>
       <c r="X72">
@@ -50109,13 +50089,13 @@
       <c r="AJ72">
         <v>121833</v>
       </c>
-      <c r="AK72" s="4">
+      <c r="AK72" s="3">
         <v>72287</v>
       </c>
       <c r="AM72">
         <v>466158</v>
       </c>
-      <c r="AN72" s="4">
+      <c r="AN72" s="3">
         <v>27423</v>
       </c>
       <c r="AO72">
@@ -50133,7 +50113,7 @@
       <c r="AU72">
         <v>27466</v>
       </c>
-      <c r="AV72" s="4">
+      <c r="AV72" s="3">
         <v>26310</v>
       </c>
       <c r="AW72">
@@ -50142,7 +50122,7 @@
       <c r="AX72">
         <v>27786</v>
       </c>
-      <c r="AY72" s="4">
+      <c r="AY72" s="3">
         <v>27949</v>
       </c>
       <c r="AZ72">
@@ -50160,7 +50140,7 @@
       <c r="BD72">
         <v>30439</v>
       </c>
-      <c r="BE72" s="4">
+      <c r="BE72" s="3">
         <v>29629</v>
       </c>
       <c r="BH72">
@@ -52677,19 +52657,19 @@
       <c r="D45">
         <v>10000</v>
       </c>
-      <c r="E45" s="4">
+      <c r="E45" s="3">
         <v>874</v>
       </c>
-      <c r="F45" s="4">
+      <c r="F45" s="3">
         <v>545</v>
       </c>
-      <c r="G45" s="4">
+      <c r="G45" s="3">
         <v>784</v>
       </c>
-      <c r="H45" s="4">
+      <c r="H45" s="3">
         <v>884</v>
       </c>
-      <c r="I45" s="4">
+      <c r="I45" s="3">
         <v>523</v>
       </c>
       <c r="O45">
@@ -52701,7 +52681,7 @@
       <c r="Q45">
         <v>1145</v>
       </c>
-      <c r="R45" s="4">
+      <c r="R45" s="3">
         <v>884</v>
       </c>
       <c r="T45">
@@ -52731,37 +52711,37 @@
       <c r="AC45">
         <v>511</v>
       </c>
-      <c r="AD45" s="4">
+      <c r="AD45" s="3">
         <v>545</v>
       </c>
       <c r="AF45">
         <v>10000</v>
       </c>
-      <c r="AG45" s="5">
+      <c r="AG45" s="4">
         <v>2206</v>
       </c>
-      <c r="AH45" s="5">
+      <c r="AH45" s="4">
         <v>1358</v>
       </c>
-      <c r="AI45" s="5">
+      <c r="AI45" s="4">
         <v>683</v>
       </c>
-      <c r="AJ45" s="5">
+      <c r="AJ45" s="4">
         <v>1613</v>
       </c>
-      <c r="AK45" s="5">
+      <c r="AK45" s="4">
         <v>911</v>
       </c>
-      <c r="AL45" s="5">
+      <c r="AL45" s="4">
         <v>779</v>
       </c>
-      <c r="AM45" s="5">
+      <c r="AM45" s="4">
         <v>1402</v>
       </c>
-      <c r="AN45" s="5">
+      <c r="AN45" s="4">
         <v>852</v>
       </c>
-      <c r="AO45" s="7">
+      <c r="AO45" s="6">
         <v>784</v>
       </c>
       <c r="AQ45">
@@ -52776,7 +52756,7 @@
       <c r="AT45">
         <v>524</v>
       </c>
-      <c r="AU45" s="4">
+      <c r="AU45" s="3">
         <v>568</v>
       </c>
       <c r="AV45">
@@ -52788,7 +52768,7 @@
       <c r="AX45">
         <v>511</v>
       </c>
-      <c r="AY45" s="4">
+      <c r="AY45" s="3">
         <v>545</v>
       </c>
       <c r="AZ45">
@@ -52800,7 +52780,7 @@
       <c r="BB45">
         <v>582</v>
       </c>
-      <c r="BC45" s="4">
+      <c r="BC45" s="3">
         <v>562</v>
       </c>
       <c r="BE45">
@@ -52850,19 +52830,19 @@
       <c r="D46">
         <v>15848</v>
       </c>
-      <c r="E46" s="4">
+      <c r="E46" s="3">
         <v>1101</v>
       </c>
-      <c r="F46" s="4">
+      <c r="F46" s="3">
         <v>671</v>
       </c>
-      <c r="G46" s="4">
+      <c r="G46" s="3">
         <v>1122</v>
       </c>
-      <c r="H46" s="4">
+      <c r="H46" s="3">
         <v>1503</v>
       </c>
-      <c r="I46" s="4">
+      <c r="I46" s="3">
         <v>570</v>
       </c>
       <c r="O46">
@@ -52874,7 +52854,7 @@
       <c r="Q46">
         <v>1227</v>
       </c>
-      <c r="R46" s="4">
+      <c r="R46" s="3">
         <v>1503</v>
       </c>
       <c r="T46">
@@ -52904,37 +52884,37 @@
       <c r="AC46">
         <v>691</v>
       </c>
-      <c r="AD46" s="4">
+      <c r="AD46" s="3">
         <v>671</v>
       </c>
       <c r="AF46">
         <v>15848</v>
       </c>
-      <c r="AG46" s="5">
+      <c r="AG46" s="4">
         <v>4552</v>
       </c>
-      <c r="AH46" s="5">
+      <c r="AH46" s="4">
         <v>2498</v>
       </c>
-      <c r="AI46" s="5">
+      <c r="AI46" s="4">
         <v>1091</v>
       </c>
-      <c r="AJ46" s="5">
+      <c r="AJ46" s="4">
         <v>2935</v>
       </c>
-      <c r="AK46" s="5">
+      <c r="AK46" s="4">
         <v>1382</v>
       </c>
-      <c r="AL46" s="5">
+      <c r="AL46" s="4">
         <v>1056</v>
       </c>
-      <c r="AM46" s="5">
+      <c r="AM46" s="4">
         <v>2794</v>
       </c>
-      <c r="AN46" s="5">
+      <c r="AN46" s="4">
         <v>1346</v>
       </c>
-      <c r="AO46" s="7">
+      <c r="AO46" s="6">
         <v>1122</v>
       </c>
       <c r="AQ46">
@@ -52949,7 +52929,7 @@
       <c r="AT46">
         <v>651</v>
       </c>
-      <c r="AU46" s="4">
+      <c r="AU46" s="3">
         <v>727</v>
       </c>
       <c r="AV46">
@@ -52961,7 +52941,7 @@
       <c r="AX46">
         <v>691</v>
       </c>
-      <c r="AY46" s="4">
+      <c r="AY46" s="3">
         <v>671</v>
       </c>
       <c r="AZ46">
@@ -52973,7 +52953,7 @@
       <c r="BB46">
         <v>743</v>
       </c>
-      <c r="BC46" s="4">
+      <c r="BC46" s="3">
         <v>700</v>
       </c>
       <c r="BE46">
@@ -53023,19 +53003,19 @@
       <c r="D47">
         <v>25118</v>
       </c>
-      <c r="E47" s="4">
+      <c r="E47" s="3">
         <v>1627</v>
       </c>
-      <c r="F47" s="4">
+      <c r="F47" s="3">
         <v>889</v>
       </c>
-      <c r="G47" s="4">
+      <c r="G47" s="3">
         <v>1661</v>
       </c>
-      <c r="H47" s="4">
+      <c r="H47" s="3">
         <v>2016</v>
       </c>
-      <c r="I47" s="4">
+      <c r="I47" s="3">
         <v>786</v>
       </c>
       <c r="O47">
@@ -53047,7 +53027,7 @@
       <c r="Q47">
         <v>1509</v>
       </c>
-      <c r="R47" s="4">
+      <c r="R47" s="3">
         <v>2016</v>
       </c>
       <c r="T47">
@@ -53077,37 +53057,37 @@
       <c r="AC47">
         <v>1371</v>
       </c>
-      <c r="AD47" s="4">
+      <c r="AD47" s="3">
         <v>889</v>
       </c>
       <c r="AF47">
         <v>25118</v>
       </c>
-      <c r="AG47" s="5">
+      <c r="AG47" s="4">
         <v>10082</v>
       </c>
-      <c r="AH47" s="5">
+      <c r="AH47" s="4">
         <v>5021</v>
       </c>
-      <c r="AI47" s="5">
+      <c r="AI47" s="4">
         <v>1951</v>
       </c>
-      <c r="AJ47" s="5">
+      <c r="AJ47" s="4">
         <v>6427</v>
       </c>
-      <c r="AK47" s="5">
+      <c r="AK47" s="4">
         <v>2618</v>
       </c>
-      <c r="AL47" s="5">
+      <c r="AL47" s="4">
         <v>1766</v>
       </c>
-      <c r="AM47" s="5">
+      <c r="AM47" s="4">
         <v>5035</v>
       </c>
-      <c r="AN47" s="5">
+      <c r="AN47" s="4">
         <v>2295</v>
       </c>
-      <c r="AO47" s="7">
+      <c r="AO47" s="6">
         <v>1661</v>
       </c>
       <c r="AQ47">
@@ -53122,7 +53102,7 @@
       <c r="AT47">
         <v>1311</v>
       </c>
-      <c r="AU47" s="4">
+      <c r="AU47" s="3">
         <v>897</v>
       </c>
       <c r="AV47">
@@ -53134,7 +53114,7 @@
       <c r="AX47">
         <v>1371</v>
       </c>
-      <c r="AY47" s="4">
+      <c r="AY47" s="3">
         <v>889</v>
       </c>
       <c r="AZ47">
@@ -53146,7 +53126,7 @@
       <c r="BB47">
         <v>1681</v>
       </c>
-      <c r="BC47" s="4">
+      <c r="BC47" s="3">
         <v>967</v>
       </c>
       <c r="BE47">
@@ -53196,19 +53176,19 @@
       <c r="D48">
         <v>39810</v>
       </c>
-      <c r="E48" s="4">
+      <c r="E48" s="3">
         <v>2312</v>
       </c>
-      <c r="F48" s="4">
+      <c r="F48" s="3">
         <v>1313</v>
       </c>
-      <c r="G48" s="4">
+      <c r="G48" s="3">
         <v>3046</v>
       </c>
-      <c r="H48" s="4">
+      <c r="H48" s="3">
         <v>2643</v>
       </c>
-      <c r="I48" s="4">
+      <c r="I48" s="3">
         <v>1060</v>
       </c>
       <c r="O48">
@@ -53220,7 +53200,7 @@
       <c r="Q48">
         <v>2676</v>
       </c>
-      <c r="R48" s="4">
+      <c r="R48" s="3">
         <v>2643</v>
       </c>
       <c r="T48">
@@ -53250,37 +53230,37 @@
       <c r="AC48">
         <v>1332</v>
       </c>
-      <c r="AD48" s="4">
+      <c r="AD48" s="3">
         <v>1313</v>
       </c>
       <c r="AF48">
         <v>39810</v>
       </c>
-      <c r="AG48" s="5">
+      <c r="AG48" s="4">
         <v>25059</v>
       </c>
-      <c r="AH48" s="5">
+      <c r="AH48" s="4">
         <v>12311</v>
       </c>
-      <c r="AI48" s="5">
+      <c r="AI48" s="4">
         <v>3560</v>
       </c>
-      <c r="AJ48" s="5">
+      <c r="AJ48" s="4">
         <v>15895</v>
       </c>
-      <c r="AK48" s="5">
+      <c r="AK48" s="4">
         <v>4733</v>
       </c>
-      <c r="AL48" s="5">
+      <c r="AL48" s="4">
         <v>3382</v>
       </c>
-      <c r="AM48" s="5">
+      <c r="AM48" s="4">
         <v>11949</v>
       </c>
-      <c r="AN48" s="5">
+      <c r="AN48" s="4">
         <v>4515</v>
       </c>
-      <c r="AO48" s="7">
+      <c r="AO48" s="6">
         <v>3046</v>
       </c>
       <c r="AQ48">
@@ -53295,7 +53275,7 @@
       <c r="AT48">
         <v>1255</v>
       </c>
-      <c r="AU48" s="4">
+      <c r="AU48" s="3">
         <v>1342</v>
       </c>
       <c r="AV48">
@@ -53307,7 +53287,7 @@
       <c r="AX48">
         <v>1332</v>
       </c>
-      <c r="AY48" s="4">
+      <c r="AY48" s="3">
         <v>1313</v>
       </c>
       <c r="AZ48">
@@ -53319,7 +53299,7 @@
       <c r="BB48">
         <v>1262</v>
       </c>
-      <c r="BC48" s="4">
+      <c r="BC48" s="3">
         <v>1342</v>
       </c>
       <c r="BE48">
@@ -53369,19 +53349,19 @@
       <c r="D49">
         <v>63095</v>
       </c>
-      <c r="E49" s="4">
+      <c r="E49" s="3">
         <v>3273</v>
       </c>
-      <c r="F49" s="4">
+      <c r="F49" s="3">
         <v>2057</v>
       </c>
-      <c r="G49" s="4">
+      <c r="G49" s="3">
         <v>6016</v>
       </c>
-      <c r="H49" s="4">
+      <c r="H49" s="3">
         <v>3229</v>
       </c>
-      <c r="I49" s="4">
+      <c r="I49" s="3">
         <v>1428</v>
       </c>
       <c r="O49">
@@ -53393,7 +53373,7 @@
       <c r="Q49">
         <v>3838</v>
       </c>
-      <c r="R49" s="4">
+      <c r="R49" s="3">
         <v>3229</v>
       </c>
       <c r="T49">
@@ -53423,37 +53403,37 @@
       <c r="AC49">
         <v>3092</v>
       </c>
-      <c r="AD49" s="4">
+      <c r="AD49" s="3">
         <v>2057</v>
       </c>
       <c r="AF49">
         <v>63095</v>
       </c>
-      <c r="AG49" s="5">
+      <c r="AG49" s="4">
         <v>60119</v>
       </c>
-      <c r="AH49" s="5">
+      <c r="AH49" s="4">
         <v>29969</v>
       </c>
-      <c r="AI49" s="5">
+      <c r="AI49" s="4">
         <v>7495</v>
       </c>
-      <c r="AJ49" s="5">
+      <c r="AJ49" s="4">
         <v>37470</v>
       </c>
-      <c r="AK49" s="5">
+      <c r="AK49" s="4">
         <v>10481</v>
       </c>
-      <c r="AL49" s="5">
+      <c r="AL49" s="4">
         <v>6487</v>
       </c>
-      <c r="AM49" s="5">
+      <c r="AM49" s="4">
         <v>28415</v>
       </c>
-      <c r="AN49" s="5">
+      <c r="AN49" s="4">
         <v>9558</v>
       </c>
-      <c r="AO49" s="7">
+      <c r="AO49" s="6">
         <v>6016</v>
       </c>
       <c r="AQ49">
@@ -53468,7 +53448,7 @@
       <c r="AT49">
         <v>2526</v>
       </c>
-      <c r="AU49" s="4">
+      <c r="AU49" s="3">
         <v>2053</v>
       </c>
       <c r="AV49">
@@ -53480,7 +53460,7 @@
       <c r="AX49">
         <v>3092</v>
       </c>
-      <c r="AY49" s="4">
+      <c r="AY49" s="3">
         <v>2057</v>
       </c>
       <c r="AZ49">
@@ -53492,7 +53472,7 @@
       <c r="BB49">
         <v>3294</v>
       </c>
-      <c r="BC49" s="4">
+      <c r="BC49" s="3">
         <v>1952</v>
       </c>
       <c r="BE49">
@@ -53542,19 +53522,19 @@
       <c r="D50">
         <v>100000</v>
       </c>
-      <c r="E50" s="4">
+      <c r="E50" s="3">
         <v>4960</v>
       </c>
-      <c r="F50" s="4">
+      <c r="F50" s="3">
         <v>2629</v>
       </c>
-      <c r="G50" s="4">
+      <c r="G50" s="3">
         <v>11749</v>
       </c>
-      <c r="H50" s="4">
+      <c r="H50" s="3">
         <v>4546</v>
       </c>
-      <c r="I50" s="4">
+      <c r="I50" s="3">
         <v>2181</v>
       </c>
       <c r="O50">
@@ -53566,7 +53546,7 @@
       <c r="Q50">
         <v>5761</v>
       </c>
-      <c r="R50" s="4">
+      <c r="R50" s="3">
         <v>4546</v>
       </c>
       <c r="T50">
@@ -53596,37 +53576,37 @@
       <c r="AC50">
         <v>4335</v>
       </c>
-      <c r="AD50" s="4">
+      <c r="AD50" s="3">
         <v>2629</v>
       </c>
       <c r="AF50">
         <v>100000</v>
       </c>
-      <c r="AG50" s="5">
+      <c r="AG50" s="4">
         <v>159714</v>
       </c>
-      <c r="AH50" s="5">
+      <c r="AH50" s="4">
         <v>74521</v>
       </c>
-      <c r="AI50" s="5">
+      <c r="AI50" s="4">
         <v>16011</v>
       </c>
-      <c r="AJ50" s="5">
+      <c r="AJ50" s="4">
         <v>92052</v>
       </c>
-      <c r="AK50" s="5">
+      <c r="AK50" s="4">
         <v>24174</v>
       </c>
-      <c r="AL50" s="5">
+      <c r="AL50" s="4">
         <v>13592</v>
       </c>
-      <c r="AM50" s="5">
+      <c r="AM50" s="4">
         <v>73260</v>
       </c>
-      <c r="AN50" s="5">
+      <c r="AN50" s="4">
         <v>22705</v>
       </c>
-      <c r="AO50" s="7">
+      <c r="AO50" s="6">
         <v>11749</v>
       </c>
       <c r="AQ50">
@@ -53641,7 +53621,7 @@
       <c r="AT50">
         <v>3560</v>
       </c>
-      <c r="AU50" s="4">
+      <c r="AU50" s="3">
         <v>2629</v>
       </c>
       <c r="AV50">
@@ -53653,7 +53633,7 @@
       <c r="AX50">
         <v>4335</v>
       </c>
-      <c r="AY50" s="4">
+      <c r="AY50" s="3">
         <v>2629</v>
       </c>
       <c r="AZ50">
@@ -53665,7 +53645,7 @@
       <c r="BB50">
         <v>4468</v>
       </c>
-      <c r="BC50" s="4">
+      <c r="BC50" s="3">
         <v>2645</v>
       </c>
       <c r="BE50">
@@ -53715,19 +53695,19 @@
       <c r="D51">
         <v>158489</v>
       </c>
-      <c r="E51" s="4">
+      <c r="E51" s="3">
         <v>4115</v>
       </c>
-      <c r="F51" s="4">
+      <c r="F51" s="3">
         <v>4039</v>
       </c>
-      <c r="G51" s="4">
+      <c r="G51" s="3">
         <v>26294</v>
       </c>
-      <c r="H51" s="4">
+      <c r="H51" s="3">
         <v>6683</v>
       </c>
-      <c r="I51" s="4">
+      <c r="I51" s="3">
         <v>2991</v>
       </c>
       <c r="O51">
@@ -53739,7 +53719,7 @@
       <c r="Q51">
         <v>9608</v>
       </c>
-      <c r="R51" s="4">
+      <c r="R51" s="3">
         <v>6683</v>
       </c>
       <c r="T51">
@@ -53769,37 +53749,37 @@
       <c r="AC51">
         <v>6221</v>
       </c>
-      <c r="AD51" s="4">
+      <c r="AD51" s="3">
         <v>4039</v>
       </c>
       <c r="AF51">
         <v>158489</v>
       </c>
-      <c r="AG51" s="5">
+      <c r="AG51" s="4">
         <v>389845</v>
       </c>
-      <c r="AH51" s="5">
+      <c r="AH51" s="4">
         <v>184535</v>
       </c>
-      <c r="AI51" s="5">
+      <c r="AI51" s="4">
         <v>37467</v>
       </c>
-      <c r="AJ51" s="5">
+      <c r="AJ51" s="4">
         <v>244020</v>
       </c>
-      <c r="AK51" s="5">
+      <c r="AK51" s="4">
         <v>58524</v>
       </c>
-      <c r="AL51" s="5">
+      <c r="AL51" s="4">
         <v>30838</v>
       </c>
-      <c r="AM51" s="5">
+      <c r="AM51" s="4">
         <v>181285</v>
       </c>
-      <c r="AN51" s="5">
+      <c r="AN51" s="4">
         <v>53669</v>
       </c>
-      <c r="AO51" s="7">
+      <c r="AO51" s="6">
         <v>26294</v>
       </c>
       <c r="AQ51">
@@ -53814,7 +53794,7 @@
       <c r="AT51">
         <v>5147</v>
       </c>
-      <c r="AU51" s="4">
+      <c r="AU51" s="3">
         <v>3955</v>
       </c>
       <c r="AV51">
@@ -53826,7 +53806,7 @@
       <c r="AX51">
         <v>6221</v>
       </c>
-      <c r="AY51" s="4">
+      <c r="AY51" s="3">
         <v>4039</v>
       </c>
       <c r="AZ51">
@@ -53838,7 +53818,7 @@
       <c r="BB51">
         <v>6436</v>
       </c>
-      <c r="BC51" s="4">
+      <c r="BC51" s="3">
         <v>3976</v>
       </c>
       <c r="BE51">
@@ -53888,19 +53868,19 @@
       <c r="D52">
         <v>251188</v>
       </c>
-      <c r="E52" s="4">
+      <c r="E52" s="3">
         <v>5844</v>
       </c>
-      <c r="F52" s="4">
+      <c r="F52" s="3">
         <v>5650</v>
       </c>
-      <c r="G52" s="4">
+      <c r="G52" s="3">
         <v>55528</v>
       </c>
-      <c r="H52" s="4">
+      <c r="H52" s="3">
         <v>10128</v>
       </c>
-      <c r="I52" s="4">
+      <c r="I52" s="3">
         <v>4668</v>
       </c>
       <c r="O52">
@@ -53912,7 +53892,7 @@
       <c r="Q52">
         <v>18442</v>
       </c>
-      <c r="R52" s="4">
+      <c r="R52" s="3">
         <v>10128</v>
       </c>
       <c r="T52">
@@ -53942,37 +53922,37 @@
       <c r="AC52">
         <v>8892</v>
       </c>
-      <c r="AD52" s="4">
+      <c r="AD52" s="3">
         <v>5650</v>
       </c>
       <c r="AF52">
         <v>251188</v>
       </c>
-      <c r="AG52" s="5">
+      <c r="AG52" s="4">
         <v>981370</v>
       </c>
-      <c r="AH52" s="5">
+      <c r="AH52" s="4">
         <v>488934</v>
       </c>
-      <c r="AI52" s="5">
+      <c r="AI52" s="4">
         <v>84810</v>
       </c>
-      <c r="AJ52" s="5">
+      <c r="AJ52" s="4">
         <v>645429</v>
       </c>
-      <c r="AK52" s="5">
+      <c r="AK52" s="4">
         <v>145979</v>
       </c>
-      <c r="AL52" s="5">
+      <c r="AL52" s="4">
         <v>69418</v>
       </c>
-      <c r="AM52" s="5">
+      <c r="AM52" s="4">
         <v>474988</v>
       </c>
-      <c r="AN52" s="5">
+      <c r="AN52" s="4">
         <v>131713</v>
       </c>
-      <c r="AO52" s="7">
+      <c r="AO52" s="6">
         <v>55528</v>
       </c>
       <c r="AQ52">
@@ -53987,7 +53967,7 @@
       <c r="AT52">
         <v>7696</v>
       </c>
-      <c r="AU52" s="4">
+      <c r="AU52" s="3">
         <v>5675</v>
       </c>
       <c r="AV52">
@@ -53999,7 +53979,7 @@
       <c r="AX52">
         <v>8892</v>
       </c>
-      <c r="AY52" s="4">
+      <c r="AY52" s="3">
         <v>5650</v>
       </c>
       <c r="AZ52">
@@ -54011,7 +53991,7 @@
       <c r="BB52">
         <v>9355</v>
       </c>
-      <c r="BC52" s="4">
+      <c r="BC52" s="3">
         <v>5742</v>
       </c>
       <c r="BE52">
@@ -54061,19 +54041,19 @@
       <c r="D53">
         <v>398107</v>
       </c>
-      <c r="E53" s="4">
+      <c r="E53" s="3">
         <v>9800</v>
       </c>
-      <c r="F53" s="4">
+      <c r="F53" s="3">
         <v>9504</v>
       </c>
-      <c r="G53" s="4">
+      <c r="G53" s="3">
         <v>140116</v>
       </c>
-      <c r="H53" s="4">
+      <c r="H53" s="3">
         <v>16999</v>
       </c>
-      <c r="I53" s="4">
+      <c r="I53" s="3">
         <v>7246</v>
       </c>
       <c r="O53">
@@ -54085,7 +54065,7 @@
       <c r="Q53">
         <v>37258</v>
       </c>
-      <c r="R53" s="4">
+      <c r="R53" s="3">
         <v>16999</v>
       </c>
       <c r="T53">
@@ -54115,37 +54095,37 @@
       <c r="AC53">
         <v>14271</v>
       </c>
-      <c r="AD53" s="4">
+      <c r="AD53" s="3">
         <v>9504</v>
       </c>
       <c r="AF53">
         <v>398107</v>
       </c>
-      <c r="AG53" s="5">
+      <c r="AG53" s="4">
         <v>2600967</v>
       </c>
-      <c r="AH53" s="5">
+      <c r="AH53" s="4">
         <v>1180401</v>
       </c>
-      <c r="AI53" s="5">
+      <c r="AI53" s="4">
         <v>216457</v>
       </c>
-      <c r="AJ53" s="5">
+      <c r="AJ53" s="4">
         <v>1654747</v>
       </c>
-      <c r="AK53" s="5">
+      <c r="AK53" s="4">
         <v>340761</v>
       </c>
-      <c r="AL53" s="5">
+      <c r="AL53" s="4">
         <v>167649</v>
       </c>
-      <c r="AM53" s="5">
+      <c r="AM53" s="4">
         <v>1227761</v>
       </c>
-      <c r="AN53" s="5">
+      <c r="AN53" s="4">
         <v>319263</v>
       </c>
-      <c r="AO53" s="7">
+      <c r="AO53" s="6">
         <v>140116</v>
       </c>
       <c r="AQ53">
@@ -54160,7 +54140,7 @@
       <c r="AT53">
         <v>11786</v>
       </c>
-      <c r="AU53" s="4">
+      <c r="AU53" s="3">
         <v>9490</v>
       </c>
       <c r="AV53">
@@ -54172,7 +54152,7 @@
       <c r="AX53">
         <v>14271</v>
       </c>
-      <c r="AY53" s="4">
+      <c r="AY53" s="3">
         <v>9504</v>
       </c>
       <c r="AZ53">
@@ -54184,7 +54164,7 @@
       <c r="BB53">
         <v>14859</v>
       </c>
-      <c r="BC53" s="4">
+      <c r="BC53" s="3">
         <v>9578</v>
       </c>
       <c r="BE53">
@@ -54234,19 +54214,19 @@
       <c r="D54">
         <v>630957</v>
       </c>
-      <c r="E54" s="4">
+      <c r="E54" s="3">
         <v>15440</v>
       </c>
-      <c r="F54" s="4">
+      <c r="F54" s="3">
         <v>15136</v>
       </c>
-      <c r="G54" s="4">
+      <c r="G54" s="3">
         <v>332428</v>
       </c>
-      <c r="H54" s="4">
+      <c r="H54" s="3">
         <v>25841</v>
       </c>
-      <c r="I54" s="4">
+      <c r="I54" s="3">
         <v>11123</v>
       </c>
       <c r="O54">
@@ -54258,7 +54238,7 @@
       <c r="Q54">
         <v>78071</v>
       </c>
-      <c r="R54" s="4">
+      <c r="R54" s="3">
         <v>25841</v>
       </c>
       <c r="T54">
@@ -54288,37 +54268,37 @@
       <c r="AC54">
         <v>23111</v>
       </c>
-      <c r="AD54" s="4">
+      <c r="AD54" s="3">
         <v>15136</v>
       </c>
       <c r="AF54">
         <v>630957</v>
       </c>
-      <c r="AG54" s="5">
+      <c r="AG54" s="4">
         <v>6650983</v>
       </c>
-      <c r="AH54" s="5">
+      <c r="AH54" s="4">
         <v>3064629</v>
       </c>
-      <c r="AI54" s="5">
+      <c r="AI54" s="4">
         <v>539826</v>
       </c>
-      <c r="AJ54" s="5">
+      <c r="AJ54" s="4">
         <v>4274445</v>
       </c>
-      <c r="AK54" s="5">
+      <c r="AK54" s="4">
         <v>929374</v>
       </c>
-      <c r="AL54" s="5">
+      <c r="AL54" s="4">
         <v>414546</v>
       </c>
-      <c r="AM54" s="5">
+      <c r="AM54" s="4">
         <v>3052646</v>
       </c>
-      <c r="AN54" s="5">
+      <c r="AN54" s="4">
         <v>811228</v>
       </c>
-      <c r="AO54" s="7">
+      <c r="AO54" s="6">
         <v>332428</v>
       </c>
       <c r="AQ54">
@@ -54333,7 +54313,7 @@
       <c r="AT54">
         <v>19149</v>
       </c>
-      <c r="AU54" s="4">
+      <c r="AU54" s="3">
         <v>14981</v>
       </c>
       <c r="AV54">
@@ -54345,7 +54325,7 @@
       <c r="AX54">
         <v>23111</v>
       </c>
-      <c r="AY54" s="4">
+      <c r="AY54" s="3">
         <v>15136</v>
       </c>
       <c r="AZ54">
@@ -54357,7 +54337,7 @@
       <c r="BB54">
         <v>24606</v>
       </c>
-      <c r="BC54" s="4">
+      <c r="BC54" s="3">
         <v>14985</v>
       </c>
       <c r="BE54">
@@ -54407,19 +54387,19 @@
       <c r="D55">
         <v>1000000</v>
       </c>
-      <c r="E55" s="4">
+      <c r="E55" s="3">
         <v>23823</v>
       </c>
-      <c r="F55" s="4">
+      <c r="F55" s="3">
         <v>23751</v>
       </c>
-      <c r="G55" s="4">
+      <c r="G55" s="3">
         <v>914773</v>
       </c>
-      <c r="H55" s="4">
+      <c r="H55" s="3">
         <v>51381</v>
       </c>
-      <c r="I55" s="4">
+      <c r="I55" s="3">
         <v>17909</v>
       </c>
       <c r="O55">
@@ -54431,7 +54411,7 @@
       <c r="Q55">
         <v>181772</v>
       </c>
-      <c r="R55" s="4">
+      <c r="R55" s="3">
         <v>51381</v>
       </c>
       <c r="T55">
@@ -54461,31 +54441,31 @@
       <c r="AC55">
         <v>36937</v>
       </c>
-      <c r="AD55" s="4">
+      <c r="AD55" s="3">
         <v>23751</v>
       </c>
       <c r="AF55">
         <v>1000000</v>
       </c>
-      <c r="AG55" s="5">
+      <c r="AG55" s="4">
         <v>17560542</v>
       </c>
-      <c r="AH55" s="5">
+      <c r="AH55" s="4">
         <v>7957984</v>
       </c>
-      <c r="AI55" s="5">
+      <c r="AI55" s="4">
         <v>1413313</v>
       </c>
-      <c r="AJ55" s="8"/>
-      <c r="AK55" s="8"/>
-      <c r="AL55" s="5">
+      <c r="AJ55" s="7"/>
+      <c r="AK55" s="7"/>
+      <c r="AL55" s="4">
         <v>1174266</v>
       </c>
-      <c r="AM55" s="8"/>
-      <c r="AN55" s="5">
+      <c r="AM55" s="7"/>
+      <c r="AN55" s="4">
         <v>2259841</v>
       </c>
-      <c r="AO55" s="7">
+      <c r="AO55" s="6">
         <v>914773</v>
       </c>
       <c r="AQ55">
@@ -54500,7 +54480,7 @@
       <c r="AT55">
         <v>28308</v>
       </c>
-      <c r="AU55" s="4">
+      <c r="AU55" s="3">
         <v>23757</v>
       </c>
       <c r="AV55">
@@ -54512,7 +54492,7 @@
       <c r="AX55">
         <v>36937</v>
       </c>
-      <c r="AY55" s="4">
+      <c r="AY55" s="3">
         <v>23751</v>
       </c>
       <c r="AZ55">
@@ -54524,7 +54504,7 @@
       <c r="BB55">
         <v>44894</v>
       </c>
-      <c r="BC55" s="4">
+      <c r="BC55" s="3">
         <v>24103</v>
       </c>
       <c r="BE55">
@@ -54568,7 +54548,7 @@
       </c>
     </row>
     <row r="57" spans="2:69" x14ac:dyDescent="0.3">
-      <c r="AI57" s="6"/>
+      <c r="AI57" s="5"/>
     </row>
     <row r="58" spans="2:69" x14ac:dyDescent="0.3">
       <c r="P58" t="s">
@@ -54797,19 +54777,19 @@
       <c r="D60">
         <v>10000</v>
       </c>
-      <c r="E60" s="4">
+      <c r="E60" s="3">
         <v>1247</v>
       </c>
-      <c r="F60" s="4">
+      <c r="F60" s="3">
         <v>581</v>
       </c>
-      <c r="G60" s="4">
+      <c r="G60" s="3">
         <v>1003</v>
       </c>
-      <c r="H60" s="4">
+      <c r="H60" s="3">
         <v>1313</v>
       </c>
-      <c r="I60" s="4">
+      <c r="I60" s="3">
         <v>538</v>
       </c>
       <c r="O60">
@@ -54896,7 +54876,7 @@
       <c r="AT60">
         <v>561</v>
       </c>
-      <c r="AU60" s="4">
+      <c r="AU60" s="3">
         <v>598</v>
       </c>
       <c r="AV60">
@@ -54908,7 +54888,7 @@
       <c r="AX60">
         <v>568</v>
       </c>
-      <c r="AY60" s="4">
+      <c r="AY60" s="3">
         <v>581</v>
       </c>
       <c r="AZ60">
@@ -54920,13 +54900,13 @@
       <c r="BB60">
         <v>627</v>
       </c>
-      <c r="BC60" s="4">
+      <c r="BC60" s="3">
         <v>567</v>
       </c>
       <c r="BE60">
         <v>10000</v>
       </c>
-      <c r="BF60" s="4">
+      <c r="BF60" s="3">
         <v>1247</v>
       </c>
       <c r="BG60">
@@ -54941,7 +54921,7 @@
       <c r="BJ60">
         <v>1299</v>
       </c>
-      <c r="BK60" s="4">
+      <c r="BK60" s="3">
         <v>1570</v>
       </c>
       <c r="BL60">
@@ -54953,7 +54933,7 @@
       <c r="BN60">
         <v>1249</v>
       </c>
-      <c r="BO60" s="4">
+      <c r="BO60" s="3">
         <v>1290</v>
       </c>
       <c r="BP60">
@@ -54970,19 +54950,19 @@
       <c r="D61">
         <v>15848</v>
       </c>
-      <c r="E61" s="4">
+      <c r="E61" s="3">
         <v>1673</v>
       </c>
-      <c r="F61" s="4">
+      <c r="F61" s="3">
         <v>739</v>
       </c>
-      <c r="G61" s="4">
+      <c r="G61" s="3">
         <v>1682</v>
       </c>
-      <c r="H61" s="4">
+      <c r="H61" s="3">
         <v>1714</v>
       </c>
-      <c r="I61" s="4">
+      <c r="I61" s="3">
         <v>705</v>
       </c>
       <c r="O61">
@@ -55069,7 +55049,7 @@
       <c r="AT61">
         <v>751</v>
       </c>
-      <c r="AU61" s="4">
+      <c r="AU61" s="3">
         <v>788</v>
       </c>
       <c r="AV61">
@@ -55081,7 +55061,7 @@
       <c r="AX61">
         <v>771</v>
       </c>
-      <c r="AY61" s="4">
+      <c r="AY61" s="3">
         <v>739</v>
       </c>
       <c r="AZ61">
@@ -55093,13 +55073,13 @@
       <c r="BB61">
         <v>728</v>
       </c>
-      <c r="BC61" s="4">
+      <c r="BC61" s="3">
         <v>742</v>
       </c>
       <c r="BE61">
         <v>15848</v>
       </c>
-      <c r="BF61" s="4">
+      <c r="BF61" s="3">
         <v>1673</v>
       </c>
       <c r="BG61">
@@ -55114,7 +55094,7 @@
       <c r="BJ61">
         <v>1771</v>
       </c>
-      <c r="BK61" s="4">
+      <c r="BK61" s="3">
         <v>1430</v>
       </c>
       <c r="BL61">
@@ -55126,7 +55106,7 @@
       <c r="BN61">
         <v>1806</v>
       </c>
-      <c r="BO61" s="4">
+      <c r="BO61" s="3">
         <v>1539</v>
       </c>
       <c r="BP61">
@@ -55143,19 +55123,19 @@
       <c r="D62">
         <v>25118</v>
       </c>
-      <c r="E62" s="4">
+      <c r="E62" s="3">
         <v>4115</v>
       </c>
-      <c r="F62" s="4">
+      <c r="F62" s="3">
         <v>985</v>
       </c>
-      <c r="G62" s="4">
+      <c r="G62" s="3">
         <v>2780</v>
       </c>
-      <c r="H62" s="4">
+      <c r="H62" s="3">
         <v>1796</v>
       </c>
-      <c r="I62" s="4">
+      <c r="I62" s="3">
         <v>880</v>
       </c>
       <c r="O62">
@@ -55242,7 +55222,7 @@
       <c r="AT62">
         <v>1522</v>
       </c>
-      <c r="AU62" s="4">
+      <c r="AU62" s="3">
         <v>1021</v>
       </c>
       <c r="AV62">
@@ -55254,7 +55234,7 @@
       <c r="AX62">
         <v>1887</v>
       </c>
-      <c r="AY62" s="4">
+      <c r="AY62" s="3">
         <v>985</v>
       </c>
       <c r="AZ62">
@@ -55266,13 +55246,13 @@
       <c r="BB62">
         <v>2022</v>
       </c>
-      <c r="BC62" s="4">
+      <c r="BC62" s="3">
         <v>1046</v>
       </c>
       <c r="BE62">
         <v>25118</v>
       </c>
-      <c r="BF62" s="4">
+      <c r="BF62" s="3">
         <v>4115</v>
       </c>
       <c r="BG62">
@@ -55287,7 +55267,7 @@
       <c r="BJ62">
         <v>2794</v>
       </c>
-      <c r="BK62" s="4">
+      <c r="BK62" s="3">
         <v>2091</v>
       </c>
       <c r="BL62">
@@ -55299,7 +55279,7 @@
       <c r="BN62">
         <v>2423</v>
       </c>
-      <c r="BO62" s="4">
+      <c r="BO62" s="3">
         <v>2172</v>
       </c>
       <c r="BP62">
@@ -55316,19 +55296,19 @@
       <c r="D63">
         <v>39810</v>
       </c>
-      <c r="E63" s="4">
+      <c r="E63" s="3">
         <v>3740</v>
       </c>
-      <c r="F63" s="4">
+      <c r="F63" s="3">
         <v>1444</v>
       </c>
-      <c r="G63" s="4">
+      <c r="G63" s="3">
         <v>5274</v>
       </c>
-      <c r="H63" s="4">
+      <c r="H63" s="3">
         <v>3197</v>
       </c>
-      <c r="I63" s="4">
+      <c r="I63" s="3">
         <v>1260</v>
       </c>
       <c r="O63">
@@ -55415,7 +55395,7 @@
       <c r="AT63">
         <v>1417</v>
       </c>
-      <c r="AU63" s="4">
+      <c r="AU63" s="3">
         <v>1441</v>
       </c>
       <c r="AV63">
@@ -55427,7 +55407,7 @@
       <c r="AX63">
         <v>1379</v>
       </c>
-      <c r="AY63" s="4">
+      <c r="AY63" s="3">
         <v>1444</v>
       </c>
       <c r="AZ63">
@@ -55439,13 +55419,13 @@
       <c r="BB63">
         <v>1494</v>
       </c>
-      <c r="BC63" s="4">
+      <c r="BC63" s="3">
         <v>1400</v>
       </c>
       <c r="BE63">
         <v>39810</v>
       </c>
-      <c r="BF63" s="4">
+      <c r="BF63" s="3">
         <v>3740</v>
       </c>
       <c r="BG63">
@@ -55460,7 +55440,7 @@
       <c r="BJ63">
         <v>3411</v>
       </c>
-      <c r="BK63" s="4">
+      <c r="BK63" s="3">
         <v>3042</v>
       </c>
       <c r="BL63">
@@ -55472,7 +55452,7 @@
       <c r="BN63">
         <v>3456</v>
       </c>
-      <c r="BO63" s="4">
+      <c r="BO63" s="3">
         <v>3261</v>
       </c>
       <c r="BP63">
@@ -55489,19 +55469,19 @@
       <c r="D64">
         <v>63095</v>
       </c>
-      <c r="E64" s="4">
+      <c r="E64" s="3">
         <v>3930</v>
       </c>
-      <c r="F64" s="4">
+      <c r="F64" s="3">
         <v>2176</v>
       </c>
-      <c r="G64" s="4">
+      <c r="G64" s="3">
         <v>11576</v>
       </c>
-      <c r="H64" s="4">
+      <c r="H64" s="3">
         <v>4639</v>
       </c>
-      <c r="I64" s="4">
+      <c r="I64" s="3">
         <v>1906</v>
       </c>
       <c r="O64">
@@ -55588,7 +55568,7 @@
       <c r="AT64">
         <v>3052</v>
       </c>
-      <c r="AU64" s="4">
+      <c r="AU64" s="3">
         <v>2214</v>
       </c>
       <c r="AV64">
@@ -55600,7 +55580,7 @@
       <c r="AX64">
         <v>4012</v>
       </c>
-      <c r="AY64" s="4">
+      <c r="AY64" s="3">
         <v>2176</v>
       </c>
       <c r="AZ64">
@@ -55612,13 +55592,13 @@
       <c r="BB64">
         <v>4218</v>
       </c>
-      <c r="BC64" s="4">
+      <c r="BC64" s="3">
         <v>2230</v>
       </c>
       <c r="BE64">
         <v>63095</v>
       </c>
-      <c r="BF64" s="4">
+      <c r="BF64" s="3">
         <v>3930</v>
       </c>
       <c r="BG64">
@@ -55633,7 +55613,7 @@
       <c r="BJ64">
         <v>3908</v>
       </c>
-      <c r="BK64" s="4">
+      <c r="BK64" s="3">
         <v>4089</v>
       </c>
       <c r="BL64">
@@ -55645,7 +55625,7 @@
       <c r="BN64">
         <v>4250</v>
       </c>
-      <c r="BO64" s="4">
+      <c r="BO64" s="3">
         <v>4352</v>
       </c>
       <c r="BP64">
@@ -55662,19 +55642,19 @@
       <c r="D65">
         <v>100000</v>
       </c>
-      <c r="E65" s="4">
+      <c r="E65" s="3">
         <v>11795</v>
       </c>
-      <c r="F65" s="4">
+      <c r="F65" s="3">
         <v>2932</v>
       </c>
-      <c r="G65" s="4">
+      <c r="G65" s="3">
         <v>26128</v>
       </c>
-      <c r="H65" s="4">
+      <c r="H65" s="3">
         <v>6982</v>
       </c>
-      <c r="I65" s="4">
+      <c r="I65" s="3">
         <v>2614</v>
       </c>
       <c r="O65">
@@ -55761,7 +55741,7 @@
       <c r="AT65">
         <v>4513</v>
       </c>
-      <c r="AU65" s="4">
+      <c r="AU65" s="3">
         <v>2992</v>
       </c>
       <c r="AV65">
@@ -55773,7 +55753,7 @@
       <c r="AX65">
         <v>5458</v>
       </c>
-      <c r="AY65" s="4">
+      <c r="AY65" s="3">
         <v>2932</v>
       </c>
       <c r="AZ65">
@@ -55785,13 +55765,13 @@
       <c r="BB65">
         <v>5835</v>
       </c>
-      <c r="BC65" s="4">
+      <c r="BC65" s="3">
         <v>2976</v>
       </c>
       <c r="BE65">
         <v>100000</v>
       </c>
-      <c r="BF65" s="4">
+      <c r="BF65" s="3">
         <v>11795</v>
       </c>
       <c r="BG65">
@@ -55806,7 +55786,7 @@
       <c r="BJ65">
         <v>8340</v>
       </c>
-      <c r="BK65" s="4">
+      <c r="BK65" s="3">
         <v>5966</v>
       </c>
       <c r="BL65">
@@ -55818,7 +55798,7 @@
       <c r="BN65">
         <v>7483</v>
       </c>
-      <c r="BO65" s="4">
+      <c r="BO65" s="3">
         <v>6281</v>
       </c>
       <c r="BP65">
@@ -55835,19 +55815,19 @@
       <c r="D66">
         <v>158489</v>
       </c>
-      <c r="E66" s="4">
+      <c r="E66" s="3">
         <v>9581</v>
       </c>
-      <c r="F66" s="4">
+      <c r="F66" s="3">
         <v>4404</v>
       </c>
-      <c r="G66" s="4">
+      <c r="G66" s="3">
         <v>61139</v>
       </c>
-      <c r="H66" s="4">
+      <c r="H66" s="3">
         <v>13860</v>
       </c>
-      <c r="I66" s="4">
+      <c r="I66" s="3">
         <v>3832</v>
       </c>
       <c r="O66">
@@ -55934,7 +55914,7 @@
       <c r="AT66">
         <v>6791</v>
       </c>
-      <c r="AU66" s="4">
+      <c r="AU66" s="3">
         <v>4496</v>
       </c>
       <c r="AV66">
@@ -55946,7 +55926,7 @@
       <c r="AX66">
         <v>8137</v>
       </c>
-      <c r="AY66" s="4">
+      <c r="AY66" s="3">
         <v>4404</v>
       </c>
       <c r="AZ66">
@@ -55958,13 +55938,13 @@
       <c r="BB66">
         <v>8559</v>
       </c>
-      <c r="BC66" s="4">
+      <c r="BC66" s="3">
         <v>4367</v>
       </c>
       <c r="BE66">
         <v>158489</v>
       </c>
-      <c r="BF66" s="4">
+      <c r="BF66" s="3">
         <v>9581</v>
       </c>
       <c r="BG66">
@@ -55979,7 +55959,7 @@
       <c r="BJ66">
         <v>8779</v>
       </c>
-      <c r="BK66" s="4">
+      <c r="BK66" s="3">
         <v>8872</v>
       </c>
       <c r="BL66">
@@ -55991,7 +55971,7 @@
       <c r="BN66">
         <v>9024</v>
       </c>
-      <c r="BO66" s="4">
+      <c r="BO66" s="3">
         <v>9149</v>
       </c>
       <c r="BP66">
@@ -56008,19 +55988,19 @@
       <c r="D67">
         <v>251188</v>
       </c>
-      <c r="E67" s="4">
+      <c r="E67" s="3">
         <v>17206</v>
       </c>
-      <c r="F67" s="4">
+      <c r="F67" s="3">
         <v>7241</v>
       </c>
-      <c r="G67" s="4">
+      <c r="G67" s="3">
         <v>148976</v>
       </c>
-      <c r="H67" s="4">
+      <c r="H67" s="3">
         <v>28512</v>
       </c>
-      <c r="I67" s="4">
+      <c r="I67" s="3">
         <v>5636</v>
       </c>
       <c r="O67">
@@ -56107,7 +56087,7 @@
       <c r="AT67">
         <v>10325</v>
       </c>
-      <c r="AU67" s="4">
+      <c r="AU67" s="3">
         <v>7259</v>
       </c>
       <c r="AV67">
@@ -56119,7 +56099,7 @@
       <c r="AX67">
         <v>11738</v>
       </c>
-      <c r="AY67" s="4">
+      <c r="AY67" s="3">
         <v>7241</v>
       </c>
       <c r="AZ67">
@@ -56131,13 +56111,13 @@
       <c r="BB67">
         <v>13407</v>
       </c>
-      <c r="BC67" s="4">
+      <c r="BC67" s="3">
         <v>7286</v>
       </c>
       <c r="BE67">
         <v>251188</v>
       </c>
-      <c r="BF67" s="4">
+      <c r="BF67" s="3">
         <v>17206</v>
       </c>
       <c r="BG67">
@@ -56152,7 +56132,7 @@
       <c r="BJ67">
         <v>15516</v>
       </c>
-      <c r="BK67" s="4">
+      <c r="BK67" s="3">
         <v>12082</v>
       </c>
       <c r="BL67">
@@ -56164,7 +56144,7 @@
       <c r="BN67">
         <v>14935</v>
       </c>
-      <c r="BO67" s="4">
+      <c r="BO67" s="3">
         <v>13447</v>
       </c>
       <c r="BP67">
@@ -56181,19 +56161,19 @@
       <c r="D68">
         <v>398107</v>
       </c>
-      <c r="E68" s="4">
+      <c r="E68" s="3">
         <v>16875</v>
       </c>
-      <c r="F68" s="4">
+      <c r="F68" s="3">
         <v>11277</v>
       </c>
-      <c r="G68" s="4">
+      <c r="G68" s="3">
         <v>366907</v>
       </c>
-      <c r="H68" s="4">
+      <c r="H68" s="3">
         <v>60591</v>
       </c>
-      <c r="I68" s="4">
+      <c r="I68" s="3">
         <v>9504</v>
       </c>
       <c r="O68">
@@ -56280,7 +56260,7 @@
       <c r="AT68">
         <v>16559</v>
       </c>
-      <c r="AU68" s="4">
+      <c r="AU68" s="3">
         <v>11122</v>
       </c>
       <c r="AV68">
@@ -56292,7 +56272,7 @@
       <c r="AX68">
         <v>19581</v>
       </c>
-      <c r="AY68" s="4">
+      <c r="AY68" s="3">
         <v>11277</v>
       </c>
       <c r="AZ68">
@@ -56304,13 +56284,13 @@
       <c r="BB68">
         <v>21901</v>
       </c>
-      <c r="BC68" s="4">
+      <c r="BC68" s="3">
         <v>11203</v>
       </c>
       <c r="BE68">
         <v>398107</v>
       </c>
-      <c r="BF68" s="4">
+      <c r="BF68" s="3">
         <v>16875</v>
       </c>
       <c r="BG68">
@@ -56325,7 +56305,7 @@
       <c r="BJ68">
         <v>20453</v>
       </c>
-      <c r="BK68" s="4">
+      <c r="BK68" s="3">
         <v>19597</v>
       </c>
       <c r="BL68">
@@ -56337,7 +56317,7 @@
       <c r="BN68">
         <v>21989</v>
       </c>
-      <c r="BO68" s="4">
+      <c r="BO68" s="3">
         <v>22087</v>
       </c>
       <c r="BP68">
@@ -56354,19 +56334,19 @@
       <c r="D69">
         <v>630957</v>
       </c>
-      <c r="E69" s="4">
+      <c r="E69" s="3">
         <v>27039</v>
       </c>
-      <c r="F69" s="4">
+      <c r="F69" s="3">
         <v>18293</v>
       </c>
-      <c r="G69" s="4">
+      <c r="G69" s="3">
         <v>975708</v>
       </c>
-      <c r="H69" s="4">
+      <c r="H69" s="3">
         <v>141080</v>
       </c>
-      <c r="I69" s="4">
+      <c r="I69" s="3">
         <v>15050</v>
       </c>
       <c r="O69">
@@ -56423,14 +56403,14 @@
       <c r="AI69">
         <v>1713120</v>
       </c>
-      <c r="AJ69" s="8"/>
+      <c r="AJ69" s="7"/>
       <c r="AK69">
         <v>2931831</v>
       </c>
       <c r="AL69">
         <v>1316200</v>
       </c>
-      <c r="AM69" s="8"/>
+      <c r="AM69" s="7"/>
       <c r="AN69">
         <v>2551159</v>
       </c>
@@ -56449,7 +56429,7 @@
       <c r="AT69">
         <v>26618</v>
       </c>
-      <c r="AU69" s="4">
+      <c r="AU69" s="3">
         <v>18407</v>
       </c>
       <c r="AV69">
@@ -56461,7 +56441,7 @@
       <c r="AX69">
         <v>31516</v>
       </c>
-      <c r="AY69" s="4">
+      <c r="AY69" s="3">
         <v>18293</v>
       </c>
       <c r="AZ69">
@@ -56473,13 +56453,13 @@
       <c r="BB69">
         <v>38271</v>
       </c>
-      <c r="BC69" s="4">
+      <c r="BC69" s="3">
         <v>18333</v>
       </c>
       <c r="BE69">
         <v>630957</v>
       </c>
-      <c r="BF69" s="4">
+      <c r="BF69" s="3">
         <v>27039</v>
       </c>
       <c r="BG69">
@@ -56494,7 +56474,7 @@
       <c r="BJ69">
         <v>36830</v>
       </c>
-      <c r="BK69" s="4">
+      <c r="BK69" s="3">
         <v>31859</v>
       </c>
       <c r="BL69">
@@ -56506,7 +56486,7 @@
       <c r="BN69">
         <v>40523</v>
       </c>
-      <c r="BO69" s="4">
+      <c r="BO69" s="3">
         <v>39532</v>
       </c>
       <c r="BP69">
@@ -56523,25 +56503,25 @@
       <c r="D70">
         <v>1000000</v>
       </c>
-      <c r="E70" s="4">
+      <c r="E70" s="3">
         <v>52544</v>
       </c>
-      <c r="F70" s="4">
+      <c r="F70" s="3">
         <v>40484</v>
       </c>
-      <c r="G70" s="4">
+      <c r="G70" s="3">
         <v>2669452</v>
       </c>
-      <c r="H70" s="4">
+      <c r="H70" s="3">
         <v>297581</v>
       </c>
-      <c r="I70" s="4">
+      <c r="I70" s="3">
         <v>24209</v>
       </c>
       <c r="O70">
         <v>1000000</v>
       </c>
-      <c r="P70" s="8" t="s">
+      <c r="P70" s="7" t="s">
         <v>33</v>
       </c>
       <c r="Q70">
@@ -56583,14 +56563,14 @@
       <c r="AF70">
         <v>1000000</v>
       </c>
-      <c r="AG70" s="8"/>
-      <c r="AH70" s="8"/>
-      <c r="AI70" s="8"/>
-      <c r="AJ70" s="8"/>
-      <c r="AK70" s="8"/>
-      <c r="AL70" s="8"/>
-      <c r="AM70" s="8"/>
-      <c r="AN70" s="8"/>
+      <c r="AG70" s="7"/>
+      <c r="AH70" s="7"/>
+      <c r="AI70" s="7"/>
+      <c r="AJ70" s="7"/>
+      <c r="AK70" s="7"/>
+      <c r="AL70" s="7"/>
+      <c r="AM70" s="7"/>
+      <c r="AN70" s="7"/>
       <c r="AO70">
         <v>2669452</v>
       </c>
@@ -56606,7 +56586,7 @@
       <c r="AT70">
         <v>51030</v>
       </c>
-      <c r="AU70" s="4">
+      <c r="AU70" s="3">
         <v>40869</v>
       </c>
       <c r="AV70">
@@ -56618,7 +56598,7 @@
       <c r="AX70">
         <v>55254</v>
       </c>
-      <c r="AY70" s="4">
+      <c r="AY70" s="3">
         <v>40484</v>
       </c>
       <c r="AZ70">
@@ -56630,13 +56610,13 @@
       <c r="BB70">
         <v>64949</v>
       </c>
-      <c r="BC70" s="4">
+      <c r="BC70" s="3">
         <v>40139</v>
       </c>
       <c r="BE70">
         <v>1000000</v>
       </c>
-      <c r="BF70" s="4">
+      <c r="BF70" s="3">
         <v>52544</v>
       </c>
       <c r="BG70">
@@ -56651,7 +56631,7 @@
       <c r="BJ70">
         <v>60081</v>
       </c>
-      <c r="BK70" s="4">
+      <c r="BK70" s="3">
         <v>58989</v>
       </c>
       <c r="BL70" s="2">
@@ -56663,7 +56643,7 @@
       <c r="BN70">
         <v>65729</v>
       </c>
-      <c r="BO70" s="4">
+      <c r="BO70" s="3">
         <v>65231</v>
       </c>
       <c r="BP70">
@@ -58145,8 +58125,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C7:BO205"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M81" sqref="M81"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I62" sqref="I62:I65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -59294,19 +59274,19 @@
       <c r="D47">
         <v>10000</v>
       </c>
-      <c r="E47" s="4">
+      <c r="E47" s="3">
         <v>1764</v>
       </c>
-      <c r="F47" s="4">
+      <c r="F47" s="3">
         <v>1474</v>
       </c>
-      <c r="G47" s="4">
+      <c r="G47" s="3">
         <v>1376</v>
       </c>
-      <c r="H47" s="4">
+      <c r="H47" s="3">
         <v>1558</v>
       </c>
-      <c r="I47" s="4">
+      <c r="I47" s="3">
         <v>1860</v>
       </c>
       <c r="L47">
@@ -59467,19 +59447,19 @@
       <c r="D48">
         <v>15820</v>
       </c>
-      <c r="E48" s="4">
+      <c r="E48" s="3">
         <v>2113</v>
       </c>
-      <c r="F48" s="4">
+      <c r="F48" s="3">
         <v>1762</v>
       </c>
-      <c r="G48" s="4">
+      <c r="G48" s="3">
         <v>1474</v>
       </c>
-      <c r="H48" s="4">
+      <c r="H48" s="3">
         <v>1689</v>
       </c>
-      <c r="I48" s="4">
+      <c r="I48" s="3">
         <v>1941</v>
       </c>
       <c r="L48">
@@ -59640,19 +59620,19 @@
       <c r="D49">
         <v>25064</v>
       </c>
-      <c r="E49" s="4">
+      <c r="E49" s="3">
         <v>2238</v>
       </c>
-      <c r="F49" s="4">
+      <c r="F49" s="3">
         <v>2211</v>
       </c>
-      <c r="G49" s="4">
+      <c r="G49" s="3">
         <v>1783</v>
       </c>
-      <c r="H49" s="4">
+      <c r="H49" s="3">
         <v>2067</v>
       </c>
-      <c r="I49" s="4">
+      <c r="I49" s="3">
         <v>2306</v>
       </c>
       <c r="L49">
@@ -59813,19 +59793,19 @@
       <c r="D50">
         <v>39712</v>
       </c>
-      <c r="E50" s="4">
+      <c r="E50" s="3">
         <v>2694</v>
       </c>
-      <c r="F50" s="4">
+      <c r="F50" s="3">
         <v>2681</v>
       </c>
-      <c r="G50" s="4">
+      <c r="G50" s="3">
         <v>2123</v>
       </c>
-      <c r="H50" s="4">
+      <c r="H50" s="3">
         <v>2362</v>
       </c>
-      <c r="I50" s="4">
+      <c r="I50" s="3">
         <v>3320</v>
       </c>
       <c r="L50">
@@ -59986,19 +59966,19 @@
       <c r="D51">
         <v>62978</v>
       </c>
-      <c r="E51" s="4">
+      <c r="E51" s="3">
         <v>3443</v>
       </c>
-      <c r="F51" s="4">
+      <c r="F51" s="3">
         <v>3061</v>
       </c>
-      <c r="G51" s="4">
+      <c r="G51" s="3">
         <v>2435</v>
       </c>
-      <c r="H51" s="4">
+      <c r="H51" s="3">
         <v>3000</v>
       </c>
-      <c r="I51" s="4">
+      <c r="I51" s="3">
         <v>4543</v>
       </c>
       <c r="L51">
@@ -60159,19 +60139,19 @@
       <c r="D52">
         <v>99825</v>
       </c>
-      <c r="E52" s="4">
+      <c r="E52" s="3">
         <v>4046</v>
       </c>
-      <c r="F52" s="4">
+      <c r="F52" s="3">
         <v>4126</v>
       </c>
-      <c r="G52" s="4">
+      <c r="G52" s="3">
         <v>3097</v>
       </c>
-      <c r="H52" s="4">
+      <c r="H52" s="3">
         <v>3710</v>
       </c>
-      <c r="I52" s="4">
+      <c r="I52" s="3">
         <v>6544</v>
       </c>
       <c r="L52">
@@ -60332,19 +60312,19 @@
       <c r="D53">
         <v>158208</v>
       </c>
-      <c r="E53" s="4">
+      <c r="E53" s="3">
         <v>5546</v>
       </c>
-      <c r="F53" s="4">
+      <c r="F53" s="3">
         <v>5553</v>
       </c>
-      <c r="G53" s="4">
+      <c r="G53" s="3">
         <v>4448</v>
       </c>
-      <c r="H53" s="4">
+      <c r="H53" s="3">
         <v>5547</v>
       </c>
-      <c r="I53" s="4">
+      <c r="I53" s="3">
         <v>10473</v>
       </c>
       <c r="L53">
@@ -60505,19 +60485,19 @@
       <c r="D54">
         <v>250626</v>
       </c>
-      <c r="E54" s="4">
+      <c r="E54" s="3">
         <v>8000</v>
       </c>
-      <c r="F54" s="4">
+      <c r="F54" s="3">
         <v>7689</v>
       </c>
-      <c r="G54" s="4">
+      <c r="G54" s="3">
         <v>6338</v>
       </c>
-      <c r="H54" s="4">
+      <c r="H54" s="3">
         <v>7544</v>
       </c>
-      <c r="I54" s="4">
+      <c r="I54" s="3">
         <v>14872</v>
       </c>
       <c r="L54">
@@ -60678,19 +60658,19 @@
       <c r="D55">
         <v>397246</v>
       </c>
-      <c r="E55" s="4">
+      <c r="E55" s="3">
         <v>12251</v>
       </c>
-      <c r="F55" s="4">
+      <c r="F55" s="3">
         <v>11264</v>
       </c>
-      <c r="G55" s="4">
+      <c r="G55" s="3">
         <v>9092</v>
       </c>
-      <c r="H55" s="4">
+      <c r="H55" s="3">
         <v>11934</v>
       </c>
-      <c r="I55" s="4">
+      <c r="I55" s="3">
         <v>22678</v>
       </c>
       <c r="L55">
@@ -60851,19 +60831,19 @@
       <c r="D56">
         <v>629557</v>
       </c>
-      <c r="E56" s="4">
+      <c r="E56" s="3">
         <v>19039</v>
       </c>
-      <c r="F56" s="4">
+      <c r="F56" s="3">
         <v>16006</v>
       </c>
-      <c r="G56" s="4">
+      <c r="G56" s="3">
         <v>13935</v>
       </c>
-      <c r="H56" s="4">
+      <c r="H56" s="3">
         <v>19549</v>
       </c>
-      <c r="I56" s="4">
+      <c r="I56" s="3">
         <v>34896</v>
       </c>
       <c r="L56">
@@ -61024,19 +61004,19 @@
       <c r="D57">
         <v>997775</v>
       </c>
-      <c r="E57" s="4">
+      <c r="E57" s="3">
         <v>30396</v>
       </c>
-      <c r="F57" s="4">
+      <c r="F57" s="3">
         <v>25396</v>
       </c>
-      <c r="G57" s="4">
+      <c r="G57" s="3">
         <v>22020</v>
       </c>
-      <c r="H57" s="4">
+      <c r="H57" s="3">
         <v>32308</v>
       </c>
-      <c r="I57" s="4">
+      <c r="I57" s="3">
         <v>57377</v>
       </c>
       <c r="L57">
@@ -61548,19 +61528,19 @@
       <c r="D62">
         <v>10000</v>
       </c>
-      <c r="E62" s="4">
+      <c r="E62" s="3">
         <v>2362</v>
       </c>
-      <c r="F62" s="4">
+      <c r="F62" s="3">
         <v>2193</v>
       </c>
-      <c r="G62" s="4">
+      <c r="G62" s="3">
         <v>1405</v>
       </c>
-      <c r="H62" s="4">
+      <c r="H62" s="3">
         <v>2102</v>
       </c>
-      <c r="I62">
+      <c r="I62" s="3">
         <v>3097</v>
       </c>
       <c r="L62">
@@ -61721,19 +61701,19 @@
       <c r="D63">
         <v>15820</v>
       </c>
-      <c r="E63" s="4">
+      <c r="E63" s="3">
         <v>2841</v>
       </c>
-      <c r="F63" s="4">
+      <c r="F63" s="3">
         <v>2585</v>
       </c>
-      <c r="G63" s="4">
+      <c r="G63" s="3">
         <v>1579</v>
       </c>
-      <c r="H63" s="4">
+      <c r="H63" s="3">
         <v>2571</v>
       </c>
-      <c r="I63">
+      <c r="I63" s="3">
         <v>4810</v>
       </c>
       <c r="L63">
@@ -61894,19 +61874,19 @@
       <c r="D64">
         <v>25064</v>
       </c>
-      <c r="E64" s="4">
+      <c r="E64" s="3">
         <v>3493</v>
       </c>
-      <c r="F64" s="4">
+      <c r="F64" s="3">
         <v>2840</v>
       </c>
-      <c r="G64" s="4">
+      <c r="G64" s="3">
         <v>2132</v>
       </c>
-      <c r="H64" s="4">
+      <c r="H64" s="3">
         <v>2846</v>
       </c>
-      <c r="I64">
+      <c r="I64" s="3">
         <v>6388</v>
       </c>
       <c r="L64">
@@ -62067,19 +62047,19 @@
       <c r="D65">
         <v>39712</v>
       </c>
-      <c r="E65" s="4">
+      <c r="E65" s="3">
         <v>3867</v>
       </c>
-      <c r="F65" s="4">
+      <c r="F65" s="3">
         <v>3743</v>
       </c>
-      <c r="G65" s="4">
+      <c r="G65" s="3">
         <v>2381</v>
       </c>
-      <c r="H65" s="4">
+      <c r="H65" s="3">
         <v>3500</v>
       </c>
-      <c r="I65">
+      <c r="I65" s="3">
         <v>20816</v>
       </c>
       <c r="L65">
@@ -62240,16 +62220,16 @@
       <c r="D66">
         <v>62978</v>
       </c>
-      <c r="E66" s="4">
+      <c r="E66" s="3">
         <v>4959</v>
       </c>
-      <c r="F66" s="4">
+      <c r="F66" s="3">
         <v>5091</v>
       </c>
-      <c r="G66" s="4">
+      <c r="G66" s="3">
         <v>2871</v>
       </c>
-      <c r="H66" s="4">
+      <c r="H66" s="3">
         <v>4345</v>
       </c>
       <c r="I66" s="3">
@@ -62413,16 +62393,16 @@
       <c r="D67">
         <v>99825</v>
       </c>
-      <c r="E67" s="4">
+      <c r="E67" s="3">
         <v>8739</v>
       </c>
-      <c r="F67" s="4">
+      <c r="F67" s="3">
         <v>6512</v>
       </c>
-      <c r="G67" s="4">
+      <c r="G67" s="3">
         <v>4478</v>
       </c>
-      <c r="H67" s="4">
+      <c r="H67" s="3">
         <v>5705</v>
       </c>
       <c r="I67" s="3">
@@ -62586,16 +62566,16 @@
       <c r="D68">
         <v>158208</v>
       </c>
-      <c r="E68" s="4">
+      <c r="E68" s="3">
         <v>9024</v>
       </c>
-      <c r="F68" s="4">
+      <c r="F68" s="3">
         <v>9681</v>
       </c>
-      <c r="G68" s="4">
+      <c r="G68" s="3">
         <v>5827</v>
       </c>
-      <c r="H68" s="4">
+      <c r="H68" s="3">
         <v>8726</v>
       </c>
       <c r="L68">
@@ -62756,16 +62736,16 @@
       <c r="D69">
         <v>250626</v>
       </c>
-      <c r="E69" s="4">
+      <c r="E69" s="3">
         <v>14452</v>
       </c>
-      <c r="F69" s="4">
+      <c r="F69" s="3">
         <v>14460</v>
       </c>
-      <c r="G69" s="4">
+      <c r="G69" s="3">
         <v>9403</v>
       </c>
-      <c r="H69" s="4">
+      <c r="H69" s="3">
         <v>13346</v>
       </c>
       <c r="L69">
@@ -62926,16 +62906,16 @@
       <c r="D70">
         <v>397246</v>
       </c>
-      <c r="E70" s="4">
+      <c r="E70" s="3">
         <v>22564</v>
       </c>
-      <c r="F70" s="4">
+      <c r="F70" s="3">
         <v>23211</v>
       </c>
-      <c r="G70" s="4">
+      <c r="G70" s="3">
         <v>16000</v>
       </c>
-      <c r="H70" s="4">
+      <c r="H70" s="3">
         <v>22103</v>
       </c>
       <c r="L70">
@@ -63096,16 +63076,16 @@
       <c r="D71">
         <v>629557</v>
       </c>
-      <c r="E71" s="4">
+      <c r="E71" s="3">
         <v>37050</v>
       </c>
-      <c r="F71" s="4">
+      <c r="F71" s="3">
         <v>37087</v>
       </c>
-      <c r="G71" s="4">
+      <c r="G71" s="3">
         <v>39016</v>
       </c>
-      <c r="H71" s="4">
+      <c r="H71" s="3">
         <v>36554</v>
       </c>
       <c r="L71">
@@ -63260,16 +63240,16 @@
       <c r="D72">
         <v>997775</v>
       </c>
-      <c r="E72" s="4">
+      <c r="E72" s="3">
         <v>79265</v>
       </c>
-      <c r="F72" s="4">
+      <c r="F72" s="3">
         <v>77249</v>
       </c>
-      <c r="G72" s="4">
+      <c r="G72" s="3">
         <v>68103</v>
       </c>
-      <c r="H72" s="4">
+      <c r="H72" s="3">
         <v>78273</v>
       </c>
       <c r="L72">

--- a/exp/exp2.xlsx
+++ b/exp/exp2.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="65">
   <si>
     <t>JoinHybridOpt</t>
   </si>
@@ -274,6 +274,10 @@
   </si>
   <si>
     <t>l</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>min</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1955,6 +1959,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2525,6 +2530,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2632,6 +2638,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3073,6 +3080,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3154,6 +3162,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4508,6 +4517,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -24122,31 +24132,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>2706</c:v>
+                  <c:v>2713</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2977</c:v>
+                  <c:v>2779</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3595</c:v>
+                  <c:v>3156</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4278</c:v>
+                  <c:v>3773</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5229</c:v>
+                  <c:v>4465</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7765</c:v>
+                  <c:v>5837</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>11973</c:v>
+                  <c:v>7739</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>20378</c:v>
+                  <c:v>10657</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>46123</c:v>
+                  <c:v>18842</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -24940,31 +24950,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>2662</c:v>
+                  <c:v>2789</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3117</c:v>
+                  <c:v>2935</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3602</c:v>
+                  <c:v>3277</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4412</c:v>
+                  <c:v>4069</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5958</c:v>
+                  <c:v>4370</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7690</c:v>
+                  <c:v>5999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>11727</c:v>
+                  <c:v>8326</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>19861</c:v>
+                  <c:v>11390</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43297</c:v>
+                  <c:v>19463</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -45539,10 +45549,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B7:CJ148"/>
+  <dimension ref="B7:CT148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AR43" sqref="AR43"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L65" sqref="L65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -46634,7 +46644,7 @@
         <v>29830</v>
       </c>
     </row>
-    <row r="50" spans="2:88" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:98" x14ac:dyDescent="0.3">
       <c r="AA50" t="s">
         <v>27</v>
       </c>
@@ -46657,10 +46667,10 @@
         <v>1</v>
       </c>
       <c r="AH50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AI50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ50">
         <v>2</v>
@@ -46672,106 +46682,136 @@
         <v>2</v>
       </c>
       <c r="AM50">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AN50">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO50">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AP50">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AQ50">
         <v>3</v>
       </c>
       <c r="AR50">
+        <v>3</v>
+      </c>
+      <c r="AS50">
+        <v>3</v>
+      </c>
+      <c r="AT50">
+        <v>3</v>
+      </c>
+      <c r="AU50">
+        <v>3</v>
+      </c>
+      <c r="AV50">
+        <v>3</v>
+      </c>
+      <c r="AW50">
+        <v>3</v>
+      </c>
+      <c r="AX50">
         <v>4</v>
       </c>
-      <c r="AS50">
+      <c r="AY50">
         <v>4</v>
       </c>
-      <c r="AT50">
+      <c r="AZ50">
         <v>4</v>
       </c>
-      <c r="AU50">
+      <c r="BA50">
         <v>4</v>
       </c>
-      <c r="AV50">
+      <c r="BB50">
         <v>4</v>
       </c>
-      <c r="AW50">
+      <c r="BC50">
+        <v>4</v>
+      </c>
+      <c r="BD50">
+        <v>4</v>
+      </c>
+      <c r="BE50">
         <v>5</v>
       </c>
-      <c r="AX50">
+      <c r="BF50">
         <v>5</v>
       </c>
-      <c r="AY50">
+      <c r="BG50">
         <v>5</v>
       </c>
-      <c r="AZ50">
+      <c r="BH50">
         <v>5</v>
       </c>
-      <c r="BA50">
+      <c r="BI50">
         <v>5</v>
       </c>
-      <c r="BC50" t="s">
+      <c r="BJ50">
+        <v>5</v>
+      </c>
+      <c r="BK50">
+        <v>5</v>
+      </c>
+      <c r="BM50" t="s">
         <v>29</v>
       </c>
-      <c r="BI50" t="s">
+      <c r="BS50" t="s">
         <v>1</v>
       </c>
-      <c r="BJ50" t="s">
+      <c r="BT50" t="s">
         <v>53</v>
       </c>
-      <c r="BN50" t="s">
+      <c r="BX50" t="s">
         <v>56</v>
       </c>
-      <c r="BR50" t="s">
+      <c r="CB50" t="s">
         <v>57</v>
       </c>
-      <c r="BX50" t="s">
+      <c r="CH50" t="s">
         <v>58</v>
       </c>
-      <c r="BY50">
+      <c r="CI50">
         <v>1</v>
       </c>
-      <c r="BZ50">
+      <c r="CJ50">
         <v>1</v>
       </c>
-      <c r="CA50">
+      <c r="CK50">
         <v>1</v>
       </c>
-      <c r="CB50">
+      <c r="CL50">
         <v>1</v>
       </c>
-      <c r="CC50">
+      <c r="CM50">
         <v>2</v>
       </c>
-      <c r="CD50">
+      <c r="CN50">
         <v>2</v>
       </c>
-      <c r="CE50">
+      <c r="CO50">
         <v>2</v>
       </c>
-      <c r="CF50">
+      <c r="CP50">
         <v>2</v>
       </c>
-      <c r="CG50">
+      <c r="CQ50">
         <v>3</v>
       </c>
-      <c r="CH50">
+      <c r="CR50">
         <v>3</v>
       </c>
-      <c r="CI50">
+      <c r="CS50">
         <v>3</v>
       </c>
-      <c r="CJ50">
+      <c r="CT50">
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="2:88" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:98" x14ac:dyDescent="0.3">
       <c r="B51" t="s">
         <v>20</v>
       </c>
@@ -46839,151 +46879,181 @@
         <v>5</v>
       </c>
       <c r="AH51">
+        <v>6</v>
+      </c>
+      <c r="AI51">
+        <v>7</v>
+      </c>
+      <c r="AJ51">
         <v>1</v>
       </c>
-      <c r="AI51">
+      <c r="AK51">
         <v>2</v>
       </c>
-      <c r="AJ51">
+      <c r="AL51">
         <v>3</v>
       </c>
-      <c r="AK51">
+      <c r="AM51">
         <v>4</v>
       </c>
-      <c r="AL51">
+      <c r="AN51">
         <v>5</v>
       </c>
-      <c r="AM51">
+      <c r="AO51">
+        <v>6</v>
+      </c>
+      <c r="AP51">
+        <v>7</v>
+      </c>
+      <c r="AQ51">
         <v>1</v>
       </c>
-      <c r="AN51">
+      <c r="AR51">
         <v>2</v>
       </c>
-      <c r="AO51">
+      <c r="AS51">
         <v>3</v>
       </c>
-      <c r="AP51">
+      <c r="AT51">
         <v>4</v>
       </c>
-      <c r="AQ51">
+      <c r="AU51">
         <v>5</v>
       </c>
-      <c r="AR51">
+      <c r="AV51">
+        <v>6</v>
+      </c>
+      <c r="AW51">
+        <v>7</v>
+      </c>
+      <c r="AX51">
         <v>1</v>
       </c>
-      <c r="AS51">
+      <c r="AY51">
         <v>2</v>
       </c>
-      <c r="AT51">
+      <c r="AZ51">
         <v>3</v>
       </c>
-      <c r="AU51">
+      <c r="BA51">
         <v>4</v>
       </c>
-      <c r="AV51">
+      <c r="BB51">
         <v>5</v>
       </c>
-      <c r="AW51">
+      <c r="BC51">
+        <v>6</v>
+      </c>
+      <c r="BD51">
+        <v>7</v>
+      </c>
+      <c r="BE51">
         <v>1</v>
       </c>
-      <c r="AX51">
+      <c r="BF51">
         <v>2</v>
       </c>
-      <c r="AY51">
+      <c r="BG51">
         <v>3</v>
       </c>
-      <c r="AZ51">
+      <c r="BH51">
         <v>4</v>
       </c>
-      <c r="BA51">
+      <c r="BI51">
         <v>5</v>
       </c>
-      <c r="BC51" t="s">
+      <c r="BJ51">
+        <v>6</v>
+      </c>
+      <c r="BK51">
+        <v>7</v>
+      </c>
+      <c r="BM51" t="s">
         <v>28</v>
       </c>
-      <c r="BD51">
+      <c r="BN51">
         <v>1</v>
       </c>
-      <c r="BE51">
+      <c r="BO51">
         <v>2</v>
       </c>
-      <c r="BF51">
+      <c r="BP51">
         <v>3</v>
       </c>
-      <c r="BJ51">
+      <c r="BT51">
         <v>3</v>
       </c>
-      <c r="BK51">
+      <c r="BU51">
         <v>10</v>
       </c>
-      <c r="BL51">
+      <c r="BV51">
         <v>30</v>
       </c>
-      <c r="BM51">
+      <c r="BW51">
         <v>100</v>
       </c>
-      <c r="BN51">
+      <c r="BX51">
         <v>3</v>
       </c>
-      <c r="BO51">
+      <c r="BY51">
         <v>10</v>
       </c>
-      <c r="BP51">
+      <c r="BZ51">
         <v>30</v>
       </c>
-      <c r="BQ51">
+      <c r="CA51">
         <v>100</v>
       </c>
-      <c r="BR51">
+      <c r="CB51">
         <v>3</v>
       </c>
-      <c r="BS51">
+      <c r="CC51">
         <v>10</v>
       </c>
-      <c r="BT51">
+      <c r="CD51">
         <v>30</v>
       </c>
-      <c r="BU51">
+      <c r="CE51">
         <v>100</v>
       </c>
-      <c r="BY51">
+      <c r="CI51">
         <v>1E-3</v>
       </c>
-      <c r="BZ51">
+      <c r="CJ51">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="CA51">
+      <c r="CK51">
         <v>0.01</v>
       </c>
-      <c r="CB51">
+      <c r="CL51">
         <v>0.03</v>
       </c>
-      <c r="CC51">
+      <c r="CM51">
         <v>1E-3</v>
       </c>
-      <c r="CD51">
+      <c r="CN51">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="CE51">
+      <c r="CO51">
         <v>0.01</v>
       </c>
-      <c r="CF51">
+      <c r="CP51">
         <v>0.03</v>
       </c>
-      <c r="CG51">
+      <c r="CQ51">
         <v>1E-3</v>
       </c>
-      <c r="CH51">
+      <c r="CR51">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="CI51">
+      <c r="CS51">
         <v>0.01</v>
       </c>
-      <c r="CJ51">
+      <c r="CT51">
         <v>0.03</v>
       </c>
     </row>
-    <row r="52" spans="2:88" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:98" x14ac:dyDescent="0.3">
       <c r="D52">
         <v>10000</v>
       </c>
@@ -46994,7 +47064,7 @@
         <v>2820</v>
       </c>
       <c r="G52" s="3">
-        <v>2706</v>
+        <v>2713</v>
       </c>
       <c r="H52" s="3">
         <v>3031</v>
@@ -47044,134 +47114,194 @@
       <c r="AE52">
         <v>2579</v>
       </c>
+      <c r="AF52">
+        <v>2646</v>
+      </c>
+      <c r="AG52">
+        <v>2646</v>
+      </c>
       <c r="AH52">
+        <v>2652</v>
+      </c>
+      <c r="AI52" s="3">
+        <v>2713</v>
+      </c>
+      <c r="AJ52">
         <v>2850</v>
       </c>
-      <c r="AI52">
+      <c r="AK52">
         <v>2776</v>
       </c>
-      <c r="AJ52">
+      <c r="AL52">
         <v>2620</v>
       </c>
       <c r="AM52">
+        <v>2715</v>
+      </c>
+      <c r="AN52">
+        <v>2574</v>
+      </c>
+      <c r="AO52">
+        <v>2616</v>
+      </c>
+      <c r="AP52">
+        <v>2671</v>
+      </c>
+      <c r="AQ52">
         <v>2813</v>
       </c>
-      <c r="AN52">
+      <c r="AR52">
         <v>2695</v>
       </c>
-      <c r="AO52">
+      <c r="AS52">
         <v>2651</v>
       </c>
-      <c r="AR52">
+      <c r="AT52">
+        <v>2652</v>
+      </c>
+      <c r="AU52">
+        <v>2713</v>
+      </c>
+      <c r="AV52">
+        <v>2655</v>
+      </c>
+      <c r="AW52">
+        <v>2650</v>
+      </c>
+      <c r="AX52">
         <v>3008</v>
       </c>
-      <c r="AS52">
+      <c r="AY52">
         <v>2807</v>
       </c>
-      <c r="AT52" s="3">
+      <c r="AZ52">
         <v>2706</v>
       </c>
-      <c r="AW52">
+      <c r="BA52">
+        <v>2695</v>
+      </c>
+      <c r="BB52">
+        <v>2807</v>
+      </c>
+      <c r="BC52">
+        <v>2685</v>
+      </c>
+      <c r="BD52">
+        <v>2753</v>
+      </c>
+      <c r="BE52">
         <v>3089</v>
       </c>
-      <c r="AX52">
+      <c r="BF52">
         <v>2972</v>
       </c>
-      <c r="AY52">
+      <c r="BG52">
         <v>2818</v>
       </c>
-      <c r="BC52">
+      <c r="BH52">
+        <v>2744</v>
+      </c>
+      <c r="BI52">
+        <v>2675</v>
+      </c>
+      <c r="BJ52">
+        <v>2787</v>
+      </c>
+      <c r="BK52">
+        <v>2713</v>
+      </c>
+      <c r="BM52">
         <v>10000</v>
       </c>
-      <c r="BD52" s="3">
+      <c r="BN52" s="3">
         <v>3031</v>
       </c>
-      <c r="BE52">
+      <c r="BO52">
         <v>3020</v>
       </c>
-      <c r="BF52">
+      <c r="BP52">
         <v>3261</v>
       </c>
-      <c r="BI52">
+      <c r="BS52">
         <v>10000</v>
       </c>
-      <c r="BJ52" s="3">
+      <c r="BT52" s="3">
         <v>2845</v>
       </c>
-      <c r="BK52">
+      <c r="BU52">
         <v>2828</v>
       </c>
-      <c r="BL52">
+      <c r="BV52">
         <v>2868</v>
       </c>
-      <c r="BM52">
+      <c r="BW52">
         <v>2793</v>
       </c>
-      <c r="BN52">
+      <c r="BX52">
         <v>2938</v>
       </c>
-      <c r="BO52">
+      <c r="BY52">
         <v>2827</v>
       </c>
-      <c r="BP52" s="3">
+      <c r="BZ52" s="3">
         <v>2820</v>
       </c>
-      <c r="BQ52">
+      <c r="CA52">
         <v>2924</v>
       </c>
-      <c r="BR52">
+      <c r="CB52">
         <v>3008</v>
       </c>
-      <c r="BS52">
+      <c r="CC52">
         <v>2841</v>
       </c>
-      <c r="BT52">
+      <c r="CD52">
         <v>2950</v>
       </c>
-      <c r="BU52" s="3">
+      <c r="CE52" s="3">
         <v>2875</v>
       </c>
-      <c r="BX52">
+      <c r="CH52">
         <v>10000</v>
       </c>
-      <c r="BY52">
+      <c r="CI52">
         <v>3234</v>
       </c>
-      <c r="BZ52">
+      <c r="CJ52">
         <v>3153</v>
       </c>
-      <c r="CA52">
+      <c r="CK52">
         <v>2972</v>
       </c>
-      <c r="CB52">
+      <c r="CL52">
         <v>2958</v>
       </c>
-      <c r="CC52">
+      <c r="CM52">
         <v>3174</v>
       </c>
-      <c r="CD52">
+      <c r="CN52">
         <v>3443</v>
       </c>
-      <c r="CE52">
+      <c r="CO52">
         <v>2955</v>
       </c>
-      <c r="CF52">
+      <c r="CP52">
         <v>3017</v>
       </c>
-      <c r="CG52">
+      <c r="CQ52">
         <v>3352</v>
       </c>
-      <c r="CH52">
+      <c r="CR52">
         <v>3219</v>
       </c>
-      <c r="CI52">
+      <c r="CS52">
         <v>2954</v>
       </c>
-      <c r="CJ52">
+      <c r="CT52">
         <v>3043</v>
       </c>
     </row>
-    <row r="53" spans="2:88" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:98" x14ac:dyDescent="0.3">
       <c r="D53">
         <v>15848</v>
       </c>
@@ -47182,7 +47312,7 @@
         <v>3141</v>
       </c>
       <c r="G53" s="3">
-        <v>2977</v>
+        <v>2779</v>
       </c>
       <c r="H53" s="3">
         <v>3214</v>
@@ -47232,134 +47362,194 @@
       <c r="AE53">
         <v>2947</v>
       </c>
+      <c r="AF53">
+        <v>2905</v>
+      </c>
+      <c r="AG53">
+        <v>2799</v>
+      </c>
       <c r="AH53">
+        <v>2855</v>
+      </c>
+      <c r="AI53" s="3">
+        <v>2779</v>
+      </c>
+      <c r="AJ53">
         <v>3137</v>
       </c>
-      <c r="AI53">
+      <c r="AK53">
         <v>2967</v>
       </c>
-      <c r="AJ53">
+      <c r="AL53">
         <v>2806</v>
       </c>
       <c r="AM53">
+        <v>2837</v>
+      </c>
+      <c r="AN53">
+        <v>2965</v>
+      </c>
+      <c r="AO53">
+        <v>2961</v>
+      </c>
+      <c r="AP53">
+        <v>2865</v>
+      </c>
+      <c r="AQ53">
         <v>3217</v>
       </c>
-      <c r="AN53">
+      <c r="AR53">
         <v>3107</v>
       </c>
-      <c r="AO53">
+      <c r="AS53">
         <v>2898</v>
       </c>
-      <c r="AR53">
+      <c r="AT53">
+        <v>2913</v>
+      </c>
+      <c r="AU53">
+        <v>2988</v>
+      </c>
+      <c r="AV53">
+        <v>3045</v>
+      </c>
+      <c r="AW53">
+        <v>2908</v>
+      </c>
+      <c r="AX53">
         <v>3373</v>
       </c>
-      <c r="AS53">
+      <c r="AY53">
         <v>3218</v>
       </c>
-      <c r="AT53" s="3">
+      <c r="AZ53">
         <v>2977</v>
       </c>
-      <c r="AW53">
+      <c r="BA53">
+        <v>3054</v>
+      </c>
+      <c r="BB53">
+        <v>2904</v>
+      </c>
+      <c r="BC53">
+        <v>2872</v>
+      </c>
+      <c r="BD53">
+        <v>2924</v>
+      </c>
+      <c r="BE53">
         <v>3411</v>
       </c>
-      <c r="AX53">
+      <c r="BF53">
         <v>3175</v>
       </c>
-      <c r="AY53">
+      <c r="BG53">
         <v>3024</v>
       </c>
-      <c r="BC53">
+      <c r="BH53">
+        <v>3012</v>
+      </c>
+      <c r="BI53">
+        <v>3117</v>
+      </c>
+      <c r="BJ53">
+        <v>3119</v>
+      </c>
+      <c r="BK53">
+        <v>2982</v>
+      </c>
+      <c r="BM53">
         <v>15848</v>
       </c>
-      <c r="BD53" s="3">
+      <c r="BN53" s="3">
         <v>3214</v>
       </c>
-      <c r="BE53">
+      <c r="BO53">
         <v>3438</v>
       </c>
-      <c r="BF53">
+      <c r="BP53">
         <v>3504</v>
       </c>
-      <c r="BI53">
+      <c r="BS53">
         <v>15848</v>
       </c>
-      <c r="BJ53" s="3">
+      <c r="BT53" s="3">
         <v>3210</v>
       </c>
-      <c r="BK53">
+      <c r="BU53">
         <v>3277</v>
       </c>
-      <c r="BL53">
+      <c r="BV53">
         <v>2997</v>
       </c>
-      <c r="BM53">
+      <c r="BW53">
         <v>3153</v>
       </c>
-      <c r="BN53">
+      <c r="BX53">
         <v>3310</v>
       </c>
-      <c r="BO53">
+      <c r="BY53">
         <v>3121</v>
       </c>
-      <c r="BP53" s="3">
+      <c r="BZ53" s="3">
         <v>3141</v>
       </c>
-      <c r="BQ53">
+      <c r="CA53">
         <v>3339</v>
       </c>
-      <c r="BR53">
+      <c r="CB53">
         <v>3171</v>
       </c>
-      <c r="BS53">
+      <c r="CC53">
         <v>3185</v>
       </c>
-      <c r="BT53">
+      <c r="CD53">
         <v>3249</v>
       </c>
-      <c r="BU53" s="3">
+      <c r="CE53" s="3">
         <v>3225</v>
       </c>
-      <c r="BX53">
+      <c r="CH53">
         <v>15848</v>
       </c>
-      <c r="BY53">
+      <c r="CI53">
         <v>3687</v>
       </c>
-      <c r="BZ53">
+      <c r="CJ53">
         <v>3580</v>
       </c>
-      <c r="CA53">
+      <c r="CK53">
         <v>3362</v>
       </c>
-      <c r="CB53">
+      <c r="CL53">
         <v>3548</v>
       </c>
-      <c r="CC53">
+      <c r="CM53">
         <v>3693</v>
       </c>
-      <c r="CD53">
+      <c r="CN53">
         <v>3718</v>
       </c>
-      <c r="CE53">
+      <c r="CO53">
         <v>3511</v>
       </c>
-      <c r="CF53">
+      <c r="CP53">
         <v>3649</v>
       </c>
-      <c r="CG53">
+      <c r="CQ53">
         <v>3800</v>
       </c>
-      <c r="CH53">
+      <c r="CR53">
         <v>3728</v>
       </c>
-      <c r="CI53">
+      <c r="CS53">
         <v>3370</v>
       </c>
-      <c r="CJ53">
+      <c r="CT53">
         <v>3568</v>
       </c>
     </row>
-    <row r="54" spans="2:88" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:98" x14ac:dyDescent="0.3">
       <c r="D54">
         <v>25118</v>
       </c>
@@ -47370,7 +47560,7 @@
         <v>3802</v>
       </c>
       <c r="G54" s="3">
-        <v>3595</v>
+        <v>3156</v>
       </c>
       <c r="H54" s="3">
         <v>3876</v>
@@ -47420,134 +47610,194 @@
       <c r="AE54">
         <v>3470</v>
       </c>
+      <c r="AF54">
+        <v>3436</v>
+      </c>
+      <c r="AG54">
+        <v>3277</v>
+      </c>
       <c r="AH54">
+        <v>3196</v>
+      </c>
+      <c r="AI54" s="3">
+        <v>3156</v>
+      </c>
+      <c r="AJ54">
         <v>3955</v>
       </c>
-      <c r="AI54">
+      <c r="AK54">
         <v>3587</v>
       </c>
-      <c r="AJ54">
+      <c r="AL54">
         <v>3481</v>
       </c>
       <c r="AM54">
+        <v>3522</v>
+      </c>
+      <c r="AN54">
+        <v>3332</v>
+      </c>
+      <c r="AO54">
+        <v>3242</v>
+      </c>
+      <c r="AP54">
+        <v>3267</v>
+      </c>
+      <c r="AQ54">
         <v>4247</v>
       </c>
-      <c r="AN54">
+      <c r="AR54">
         <v>3557</v>
       </c>
-      <c r="AO54">
+      <c r="AS54">
         <v>3447</v>
       </c>
-      <c r="AR54">
+      <c r="AT54">
+        <v>3323</v>
+      </c>
+      <c r="AU54">
+        <v>3411</v>
+      </c>
+      <c r="AV54">
+        <v>3230</v>
+      </c>
+      <c r="AW54">
+        <v>3291</v>
+      </c>
+      <c r="AX54">
         <v>4361</v>
       </c>
-      <c r="AS54">
+      <c r="AY54">
         <v>3939</v>
       </c>
-      <c r="AT54" s="3">
+      <c r="AZ54">
         <v>3595</v>
       </c>
-      <c r="AW54">
+      <c r="BA54">
+        <v>3540</v>
+      </c>
+      <c r="BB54">
+        <v>3394</v>
+      </c>
+      <c r="BC54">
+        <v>3576</v>
+      </c>
+      <c r="BD54">
+        <v>3485</v>
+      </c>
+      <c r="BE54">
         <v>4248</v>
       </c>
-      <c r="AX54">
+      <c r="BF54">
         <v>3648</v>
       </c>
-      <c r="AY54">
+      <c r="BG54">
         <v>3565</v>
       </c>
-      <c r="BC54">
+      <c r="BH54">
+        <v>3575</v>
+      </c>
+      <c r="BI54">
+        <v>3777</v>
+      </c>
+      <c r="BJ54">
+        <v>3612</v>
+      </c>
+      <c r="BK54">
+        <v>3508</v>
+      </c>
+      <c r="BM54">
         <v>25118</v>
       </c>
-      <c r="BD54" s="3">
+      <c r="BN54" s="3">
         <v>3876</v>
       </c>
-      <c r="BE54">
+      <c r="BO54">
         <v>4147</v>
       </c>
-      <c r="BF54">
+      <c r="BP54">
         <v>3964</v>
       </c>
-      <c r="BI54">
+      <c r="BS54">
         <v>25118</v>
       </c>
-      <c r="BJ54" s="3">
+      <c r="BT54" s="3">
         <v>3594</v>
       </c>
-      <c r="BK54">
+      <c r="BU54">
         <v>3673</v>
       </c>
-      <c r="BL54">
+      <c r="BV54">
         <v>3612</v>
       </c>
-      <c r="BM54">
+      <c r="BW54">
         <v>3627</v>
       </c>
-      <c r="BN54">
+      <c r="BX54">
         <v>3907</v>
       </c>
-      <c r="BO54">
+      <c r="BY54">
         <v>4054</v>
       </c>
-      <c r="BP54" s="3">
+      <c r="BZ54" s="3">
         <v>3802</v>
       </c>
-      <c r="BQ54">
+      <c r="CA54">
         <v>3690</v>
       </c>
-      <c r="BR54">
+      <c r="CB54">
         <v>3799</v>
       </c>
-      <c r="BS54">
+      <c r="CC54">
         <v>3855</v>
       </c>
-      <c r="BT54">
+      <c r="CD54">
         <v>3927</v>
       </c>
-      <c r="BU54" s="3">
+      <c r="CE54" s="3">
         <v>3964</v>
       </c>
-      <c r="BX54">
+      <c r="CH54">
         <v>25118</v>
       </c>
-      <c r="BY54">
+      <c r="CI54">
         <v>3952</v>
       </c>
-      <c r="BZ54">
+      <c r="CJ54">
         <v>4163</v>
       </c>
-      <c r="CA54">
+      <c r="CK54">
         <v>3746</v>
       </c>
-      <c r="CB54">
+      <c r="CL54">
         <v>3694</v>
       </c>
-      <c r="CC54">
+      <c r="CM54">
         <v>4105</v>
       </c>
-      <c r="CD54">
+      <c r="CN54">
         <v>4475</v>
       </c>
-      <c r="CE54">
+      <c r="CO54">
         <v>3789</v>
       </c>
-      <c r="CF54">
+      <c r="CP54">
         <v>3761</v>
       </c>
-      <c r="CG54">
+      <c r="CQ54">
         <v>4359</v>
       </c>
-      <c r="CH54">
+      <c r="CR54">
         <v>4357</v>
       </c>
-      <c r="CI54">
+      <c r="CS54">
         <v>3858</v>
       </c>
-      <c r="CJ54">
+      <c r="CT54">
         <v>3804</v>
       </c>
     </row>
-    <row r="55" spans="2:88" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:98" x14ac:dyDescent="0.3">
       <c r="D55">
         <v>39810</v>
       </c>
@@ -47558,7 +47808,7 @@
         <v>4746</v>
       </c>
       <c r="G55" s="3">
-        <v>4278</v>
+        <v>3773</v>
       </c>
       <c r="H55" s="3">
         <v>4404</v>
@@ -47608,134 +47858,194 @@
       <c r="AE55">
         <v>4372</v>
       </c>
+      <c r="AF55">
+        <v>4259</v>
+      </c>
+      <c r="AG55">
+        <v>4134</v>
+      </c>
       <c r="AH55">
+        <v>3817</v>
+      </c>
+      <c r="AI55" s="3">
+        <v>3773</v>
+      </c>
+      <c r="AJ55">
         <v>6030</v>
       </c>
-      <c r="AI55">
+      <c r="AK55">
         <v>4870</v>
       </c>
-      <c r="AJ55">
+      <c r="AL55">
         <v>4078</v>
       </c>
       <c r="AM55">
+        <v>4224</v>
+      </c>
+      <c r="AN55">
+        <v>3954</v>
+      </c>
+      <c r="AO55">
+        <v>3888</v>
+      </c>
+      <c r="AP55">
+        <v>4021</v>
+      </c>
+      <c r="AQ55">
         <v>6012</v>
       </c>
-      <c r="AN55">
+      <c r="AR55">
         <v>4711</v>
       </c>
-      <c r="AO55">
+      <c r="AS55">
         <v>4430</v>
       </c>
-      <c r="AR55">
+      <c r="AT55">
+        <v>4120</v>
+      </c>
+      <c r="AU55">
+        <v>4016</v>
+      </c>
+      <c r="AV55">
+        <v>4043</v>
+      </c>
+      <c r="AW55">
+        <v>4036</v>
+      </c>
+      <c r="AX55">
         <v>6385</v>
       </c>
-      <c r="AS55">
+      <c r="AY55">
         <v>4786</v>
       </c>
-      <c r="AT55" s="3">
+      <c r="AZ55">
         <v>4278</v>
       </c>
-      <c r="AW55">
+      <c r="BA55">
+        <v>4101</v>
+      </c>
+      <c r="BB55">
+        <v>4114</v>
+      </c>
+      <c r="BC55">
+        <v>4363</v>
+      </c>
+      <c r="BD55">
+        <v>4198</v>
+      </c>
+      <c r="BE55">
         <v>6826</v>
       </c>
-      <c r="AX55">
+      <c r="BF55">
         <v>4518</v>
       </c>
-      <c r="AY55">
+      <c r="BG55">
         <v>4273</v>
       </c>
-      <c r="BC55">
+      <c r="BH55">
+        <v>4138</v>
+      </c>
+      <c r="BI55">
+        <v>4293</v>
+      </c>
+      <c r="BJ55">
+        <v>4203</v>
+      </c>
+      <c r="BK55">
+        <v>4222</v>
+      </c>
+      <c r="BM55">
         <v>39810</v>
       </c>
-      <c r="BD55" s="3">
+      <c r="BN55" s="3">
         <v>4404</v>
       </c>
-      <c r="BE55">
+      <c r="BO55">
         <v>4792</v>
       </c>
-      <c r="BF55">
+      <c r="BP55">
         <v>4774</v>
       </c>
-      <c r="BI55">
+      <c r="BS55">
         <v>39810</v>
       </c>
-      <c r="BJ55" s="3">
+      <c r="BT55" s="3">
         <v>4437</v>
       </c>
-      <c r="BK55">
+      <c r="BU55">
         <v>4359</v>
       </c>
-      <c r="BL55">
+      <c r="BV55">
         <v>4358</v>
       </c>
-      <c r="BM55">
+      <c r="BW55">
         <v>4309</v>
       </c>
-      <c r="BN55">
+      <c r="BX55">
         <v>4492</v>
       </c>
-      <c r="BO55">
+      <c r="BY55">
         <v>4401</v>
       </c>
-      <c r="BP55" s="3">
+      <c r="BZ55" s="3">
         <v>4746</v>
       </c>
-      <c r="BQ55">
+      <c r="CA55">
         <v>4477</v>
       </c>
-      <c r="BR55">
+      <c r="CB55">
         <v>4811</v>
       </c>
-      <c r="BS55">
+      <c r="CC55">
         <v>4713</v>
       </c>
-      <c r="BT55">
+      <c r="CD55">
         <v>4607</v>
       </c>
-      <c r="BU55" s="3">
+      <c r="CE55" s="3">
         <v>4476</v>
       </c>
-      <c r="BX55">
+      <c r="CH55">
         <v>39810</v>
       </c>
-      <c r="BY55">
+      <c r="CI55">
         <v>4756</v>
       </c>
-      <c r="BZ55">
+      <c r="CJ55">
         <v>4476</v>
       </c>
-      <c r="CA55">
+      <c r="CK55">
         <v>4564</v>
       </c>
-      <c r="CB55">
+      <c r="CL55">
         <v>4716</v>
       </c>
-      <c r="CC55">
+      <c r="CM55">
         <v>5019</v>
       </c>
-      <c r="CD55">
+      <c r="CN55">
         <v>4590</v>
       </c>
-      <c r="CE55">
+      <c r="CO55">
         <v>4656</v>
       </c>
-      <c r="CF55">
+      <c r="CP55">
         <v>4782</v>
       </c>
-      <c r="CG55">
+      <c r="CQ55">
         <v>5011</v>
       </c>
-      <c r="CH55">
+      <c r="CR55">
         <v>4474</v>
       </c>
-      <c r="CI55">
+      <c r="CS55">
         <v>4608</v>
       </c>
-      <c r="CJ55">
+      <c r="CT55">
         <v>4672</v>
       </c>
     </row>
-    <row r="56" spans="2:88" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:98" x14ac:dyDescent="0.3">
       <c r="D56">
         <v>63095</v>
       </c>
@@ -47746,7 +48056,7 @@
         <v>5605</v>
       </c>
       <c r="G56" s="3">
-        <v>5229</v>
+        <v>4465</v>
       </c>
       <c r="H56" s="3">
         <v>5389</v>
@@ -47796,134 +48106,194 @@
       <c r="AE56">
         <v>6057</v>
       </c>
+      <c r="AF56">
+        <v>5053</v>
+      </c>
+      <c r="AG56">
+        <v>4976</v>
+      </c>
       <c r="AH56">
+        <v>4413</v>
+      </c>
+      <c r="AI56" s="3">
+        <v>4465</v>
+      </c>
+      <c r="AJ56">
         <v>9897</v>
       </c>
-      <c r="AI56">
+      <c r="AK56">
         <v>7140</v>
       </c>
-      <c r="AJ56">
+      <c r="AL56">
         <v>5505</v>
       </c>
       <c r="AM56">
+        <v>5028</v>
+      </c>
+      <c r="AN56">
+        <v>4656</v>
+      </c>
+      <c r="AO56">
+        <v>4658</v>
+      </c>
+      <c r="AP56">
+        <v>4548</v>
+      </c>
+      <c r="AQ56">
         <v>10605</v>
       </c>
-      <c r="AN56">
+      <c r="AR56">
         <v>6396</v>
       </c>
-      <c r="AO56">
+      <c r="AS56">
         <v>5501</v>
       </c>
-      <c r="AR56">
+      <c r="AT56">
+        <v>4815</v>
+      </c>
+      <c r="AU56">
+        <v>4627</v>
+      </c>
+      <c r="AV56">
+        <v>4616</v>
+      </c>
+      <c r="AW56">
+        <v>4775</v>
+      </c>
+      <c r="AX56">
         <v>11436</v>
       </c>
-      <c r="AS56">
+      <c r="AY56">
         <v>7051</v>
       </c>
-      <c r="AT56" s="3">
+      <c r="AZ56">
         <v>5229</v>
       </c>
-      <c r="AW56">
+      <c r="BA56">
+        <v>4943</v>
+      </c>
+      <c r="BB56">
+        <v>4881</v>
+      </c>
+      <c r="BC56">
+        <v>4887</v>
+      </c>
+      <c r="BD56">
+        <v>5106</v>
+      </c>
+      <c r="BE56">
         <v>12171</v>
       </c>
-      <c r="AX56">
+      <c r="BF56">
         <v>6368</v>
       </c>
-      <c r="AY56">
+      <c r="BG56">
         <v>5303</v>
       </c>
-      <c r="BC56">
+      <c r="BH56">
+        <v>4860</v>
+      </c>
+      <c r="BI56">
+        <v>4926</v>
+      </c>
+      <c r="BJ56">
+        <v>4968</v>
+      </c>
+      <c r="BK56">
+        <v>5172</v>
+      </c>
+      <c r="BM56">
         <v>63095</v>
       </c>
-      <c r="BD56" s="3">
+      <c r="BN56" s="3">
         <v>5389</v>
       </c>
-      <c r="BE56">
+      <c r="BO56">
         <v>5694</v>
       </c>
-      <c r="BF56">
+      <c r="BP56">
         <v>6330</v>
       </c>
-      <c r="BI56">
+      <c r="BS56">
         <v>63095</v>
       </c>
-      <c r="BJ56" s="3">
+      <c r="BT56" s="3">
         <v>5150</v>
       </c>
-      <c r="BK56">
+      <c r="BU56">
         <v>5111</v>
       </c>
-      <c r="BL56">
+      <c r="BV56">
         <v>5206</v>
       </c>
-      <c r="BM56">
+      <c r="BW56">
         <v>5249</v>
       </c>
-      <c r="BN56">
+      <c r="BX56">
         <v>5422</v>
       </c>
-      <c r="BO56">
+      <c r="BY56">
         <v>5735</v>
       </c>
-      <c r="BP56" s="3">
+      <c r="BZ56" s="3">
         <v>5605</v>
       </c>
-      <c r="BQ56">
+      <c r="CA56">
         <v>5515</v>
       </c>
-      <c r="BR56">
+      <c r="CB56">
         <v>5756</v>
       </c>
-      <c r="BS56">
+      <c r="CC56">
         <v>5995</v>
       </c>
-      <c r="BT56">
+      <c r="CD56">
         <v>5788</v>
       </c>
-      <c r="BU56" s="3">
+      <c r="CE56" s="3">
         <v>5912</v>
       </c>
-      <c r="BX56">
+      <c r="CH56">
         <v>63095</v>
       </c>
-      <c r="BY56">
+      <c r="CI56">
         <v>5547</v>
       </c>
-      <c r="BZ56">
+      <c r="CJ56">
         <v>5059</v>
       </c>
-      <c r="CA56">
+      <c r="CK56">
         <v>5321</v>
       </c>
-      <c r="CB56">
+      <c r="CL56">
         <v>5473</v>
       </c>
-      <c r="CC56">
+      <c r="CM56">
         <v>5778</v>
       </c>
-      <c r="CD56">
+      <c r="CN56">
         <v>5026</v>
       </c>
-      <c r="CE56">
+      <c r="CO56">
         <v>5255</v>
       </c>
-      <c r="CF56">
+      <c r="CP56">
         <v>5328</v>
       </c>
-      <c r="CG56">
+      <c r="CQ56">
         <v>5875</v>
       </c>
-      <c r="CH56">
+      <c r="CR56">
         <v>5321</v>
       </c>
-      <c r="CI56">
+      <c r="CS56">
         <v>5394</v>
       </c>
-      <c r="CJ56">
+      <c r="CT56">
         <v>5413</v>
       </c>
     </row>
-    <row r="57" spans="2:88" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:98" x14ac:dyDescent="0.3">
       <c r="D57">
         <v>100000</v>
       </c>
@@ -47934,7 +48304,7 @@
         <v>7729</v>
       </c>
       <c r="G57" s="3">
-        <v>7765</v>
+        <v>5837</v>
       </c>
       <c r="H57" s="3">
         <v>7000</v>
@@ -47984,134 +48354,194 @@
       <c r="AE57">
         <v>9746</v>
       </c>
+      <c r="AF57">
+        <v>7851</v>
+      </c>
+      <c r="AG57">
+        <v>7039</v>
+      </c>
       <c r="AH57">
+        <v>6001</v>
+      </c>
+      <c r="AI57" s="3">
+        <v>5837</v>
+      </c>
+      <c r="AJ57">
         <v>19055</v>
       </c>
-      <c r="AI57">
+      <c r="AK57">
         <v>11908</v>
       </c>
-      <c r="AJ57">
+      <c r="AL57">
         <v>8312</v>
       </c>
       <c r="AM57">
+        <v>7637</v>
+      </c>
+      <c r="AN57">
+        <v>6220</v>
+      </c>
+      <c r="AO57">
+        <v>6073</v>
+      </c>
+      <c r="AP57">
+        <v>5919</v>
+      </c>
+      <c r="AQ57">
         <v>18461</v>
       </c>
-      <c r="AN57">
+      <c r="AR57">
         <v>10839</v>
       </c>
-      <c r="AO57">
+      <c r="AS57">
         <v>8331</v>
       </c>
-      <c r="AR57">
+      <c r="AT57">
+        <v>6472</v>
+      </c>
+      <c r="AU57">
+        <v>6546</v>
+      </c>
+      <c r="AV57">
+        <v>6215</v>
+      </c>
+      <c r="AW57">
+        <v>6253</v>
+      </c>
+      <c r="AX57">
         <v>18097</v>
       </c>
-      <c r="AS57">
+      <c r="AY57">
         <v>10431</v>
       </c>
-      <c r="AT57" s="3">
+      <c r="AZ57">
         <v>7765</v>
       </c>
-      <c r="AW57">
+      <c r="BA57">
+        <v>7211</v>
+      </c>
+      <c r="BB57">
+        <v>7513</v>
+      </c>
+      <c r="BC57">
+        <v>6780</v>
+      </c>
+      <c r="BD57">
+        <v>6928</v>
+      </c>
+      <c r="BE57">
         <v>18740</v>
       </c>
-      <c r="AX57">
+      <c r="BF57">
         <v>10076</v>
       </c>
-      <c r="AY57">
+      <c r="BG57">
         <v>7545</v>
       </c>
-      <c r="BC57">
+      <c r="BH57">
+        <v>7102</v>
+      </c>
+      <c r="BI57">
+        <v>7410</v>
+      </c>
+      <c r="BJ57">
+        <v>7475</v>
+      </c>
+      <c r="BK57">
+        <v>7178</v>
+      </c>
+      <c r="BM57">
         <v>100000</v>
       </c>
-      <c r="BD57" s="3">
+      <c r="BN57" s="3">
         <v>7000</v>
       </c>
-      <c r="BE57">
+      <c r="BO57">
         <v>7765</v>
       </c>
-      <c r="BF57">
+      <c r="BP57">
         <v>7940</v>
       </c>
-      <c r="BI57">
+      <c r="BS57">
         <v>100000</v>
       </c>
-      <c r="BJ57" s="3">
+      <c r="BT57" s="3">
         <v>7282</v>
       </c>
-      <c r="BK57">
+      <c r="BU57">
         <v>7044</v>
       </c>
-      <c r="BL57">
+      <c r="BV57">
         <v>7033</v>
       </c>
-      <c r="BM57">
+      <c r="BW57">
         <v>7161</v>
       </c>
-      <c r="BN57">
+      <c r="BX57">
         <v>7816</v>
       </c>
-      <c r="BO57">
+      <c r="BY57">
         <v>7362</v>
       </c>
-      <c r="BP57" s="3">
+      <c r="BZ57" s="3">
         <v>7729</v>
       </c>
-      <c r="BQ57">
+      <c r="CA57">
         <v>7734</v>
       </c>
-      <c r="BR57">
+      <c r="CB57">
         <v>8046</v>
       </c>
-      <c r="BS57">
+      <c r="CC57">
         <v>7856</v>
       </c>
-      <c r="BT57">
+      <c r="CD57">
         <v>7698</v>
       </c>
-      <c r="BU57" s="3">
+      <c r="CE57" s="3">
         <v>7895</v>
       </c>
-      <c r="BX57">
+      <c r="CH57">
         <v>100000</v>
       </c>
-      <c r="BY57">
+      <c r="CI57">
         <v>7627</v>
       </c>
-      <c r="BZ57">
+      <c r="CJ57">
         <v>6514</v>
       </c>
-      <c r="CA57">
+      <c r="CK57">
         <v>6657</v>
       </c>
-      <c r="CB57">
+      <c r="CL57">
         <v>6998</v>
       </c>
-      <c r="CC57">
+      <c r="CM57">
         <v>8000</v>
       </c>
-      <c r="CD57">
+      <c r="CN57">
         <v>6721</v>
       </c>
-      <c r="CE57">
+      <c r="CO57">
         <v>6656</v>
       </c>
-      <c r="CF57">
+      <c r="CP57">
         <v>7050</v>
       </c>
-      <c r="CG57">
+      <c r="CQ57">
         <v>8206</v>
       </c>
-      <c r="CH57">
+      <c r="CR57">
         <v>6657</v>
       </c>
-      <c r="CI57">
+      <c r="CS57">
         <v>6840</v>
       </c>
-      <c r="CJ57">
+      <c r="CT57">
         <v>7042</v>
       </c>
     </row>
-    <row r="58" spans="2:88" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:98" x14ac:dyDescent="0.3">
       <c r="D58">
         <v>158489</v>
       </c>
@@ -48122,7 +48552,7 @@
         <v>10083</v>
       </c>
       <c r="G58" s="3">
-        <v>11973</v>
+        <v>7739</v>
       </c>
       <c r="H58" s="3">
         <v>10120</v>
@@ -48172,134 +48602,194 @@
       <c r="AE58">
         <v>17535</v>
       </c>
+      <c r="AF58">
+        <v>12690</v>
+      </c>
+      <c r="AG58">
+        <v>11187</v>
+      </c>
       <c r="AH58">
+        <v>8017</v>
+      </c>
+      <c r="AI58" s="3">
+        <v>7739</v>
+      </c>
+      <c r="AJ58">
         <v>39709</v>
       </c>
-      <c r="AI58">
+      <c r="AK58">
         <v>23366</v>
       </c>
-      <c r="AJ58">
+      <c r="AL58">
         <v>14320</v>
       </c>
       <c r="AM58">
+        <v>12182</v>
+      </c>
+      <c r="AN58">
+        <v>8848</v>
+      </c>
+      <c r="AO58">
+        <v>7915</v>
+      </c>
+      <c r="AP58">
+        <v>8302</v>
+      </c>
+      <c r="AQ58">
         <v>38754</v>
       </c>
-      <c r="AN58">
+      <c r="AR58">
         <v>19851</v>
       </c>
-      <c r="AO58">
+      <c r="AS58">
         <v>14047</v>
       </c>
-      <c r="AR58">
+      <c r="AT58">
+        <v>9177</v>
+      </c>
+      <c r="AU58">
+        <v>9075</v>
+      </c>
+      <c r="AV58">
+        <v>8479</v>
+      </c>
+      <c r="AW58">
+        <v>8228</v>
+      </c>
+      <c r="AX58">
         <v>39283</v>
       </c>
-      <c r="AS58">
+      <c r="AY58">
         <v>19461</v>
       </c>
-      <c r="AT58" s="3">
+      <c r="AZ58">
         <v>11973</v>
       </c>
-      <c r="AW58">
+      <c r="BA58">
+        <v>9966</v>
+      </c>
+      <c r="BB58">
+        <v>9118</v>
+      </c>
+      <c r="BC58">
+        <v>9398</v>
+      </c>
+      <c r="BD58">
+        <v>8979</v>
+      </c>
+      <c r="BE58">
         <v>42114</v>
       </c>
-      <c r="AX58">
+      <c r="BF58">
         <v>18360</v>
       </c>
-      <c r="AY58">
+      <c r="BG58">
         <v>12313</v>
       </c>
-      <c r="BC58">
+      <c r="BH58">
+        <v>10859</v>
+      </c>
+      <c r="BI58">
+        <v>9924</v>
+      </c>
+      <c r="BJ58">
+        <v>9666</v>
+      </c>
+      <c r="BK58">
+        <v>9170</v>
+      </c>
+      <c r="BM58">
         <v>158489</v>
       </c>
-      <c r="BD58" s="3">
+      <c r="BN58" s="3">
         <v>10120</v>
       </c>
-      <c r="BE58">
+      <c r="BO58">
         <v>10606</v>
       </c>
-      <c r="BF58">
+      <c r="BP58">
         <v>10967</v>
       </c>
-      <c r="BI58">
+      <c r="BS58">
         <v>158489</v>
       </c>
-      <c r="BJ58" s="3">
+      <c r="BT58" s="3">
         <v>9831</v>
       </c>
-      <c r="BK58">
+      <c r="BU58">
         <v>9810</v>
       </c>
-      <c r="BL58">
+      <c r="BV58">
         <v>9685</v>
       </c>
-      <c r="BM58">
+      <c r="BW58">
         <v>9429</v>
       </c>
-      <c r="BN58">
+      <c r="BX58">
         <v>10682</v>
       </c>
-      <c r="BO58">
+      <c r="BY58">
         <v>10246</v>
       </c>
-      <c r="BP58" s="3">
+      <c r="BZ58" s="3">
         <v>10083</v>
       </c>
-      <c r="BQ58">
+      <c r="CA58">
         <v>10260</v>
       </c>
-      <c r="BR58">
+      <c r="CB58">
         <v>10495</v>
       </c>
-      <c r="BS58">
+      <c r="CC58">
         <v>10431</v>
       </c>
-      <c r="BT58">
+      <c r="CD58">
         <v>10740</v>
       </c>
-      <c r="BU58" s="3">
+      <c r="CE58" s="3">
         <v>10668</v>
       </c>
-      <c r="BX58">
+      <c r="CH58">
         <v>158489</v>
       </c>
-      <c r="BY58">
+      <c r="CI58">
         <v>8711</v>
       </c>
-      <c r="BZ58">
+      <c r="CJ58">
         <v>8781</v>
       </c>
-      <c r="CA58">
+      <c r="CK58">
         <v>8806</v>
       </c>
-      <c r="CB58">
+      <c r="CL58">
         <v>9217</v>
       </c>
-      <c r="CC58">
+      <c r="CM58">
         <v>8588</v>
       </c>
-      <c r="CD58">
+      <c r="CN58">
         <v>8597</v>
       </c>
-      <c r="CE58">
+      <c r="CO58">
         <v>8961</v>
       </c>
-      <c r="CF58">
+      <c r="CP58">
         <v>9031</v>
       </c>
-      <c r="CG58">
+      <c r="CQ58">
         <v>8676</v>
       </c>
-      <c r="CH58">
+      <c r="CR58">
         <v>8598</v>
       </c>
-      <c r="CI58">
+      <c r="CS58">
         <v>8624</v>
       </c>
-      <c r="CJ58">
+      <c r="CT58">
         <v>9105</v>
       </c>
     </row>
-    <row r="59" spans="2:88" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:98" x14ac:dyDescent="0.3">
       <c r="D59">
         <v>251188</v>
       </c>
@@ -48310,7 +48800,7 @@
         <v>14330</v>
       </c>
       <c r="G59" s="3">
-        <v>20378</v>
+        <v>10657</v>
       </c>
       <c r="H59" s="3">
         <v>13917</v>
@@ -48360,134 +48850,194 @@
       <c r="AE59">
         <v>35903</v>
       </c>
+      <c r="AF59">
+        <v>23071</v>
+      </c>
+      <c r="AG59">
+        <v>19241</v>
+      </c>
       <c r="AH59">
+        <v>11293</v>
+      </c>
+      <c r="AI59" s="3">
+        <v>10657</v>
+      </c>
+      <c r="AJ59">
         <v>84552</v>
       </c>
-      <c r="AI59">
+      <c r="AK59">
         <v>45943</v>
       </c>
-      <c r="AJ59">
+      <c r="AL59">
         <v>26537</v>
       </c>
       <c r="AM59">
+        <v>21148</v>
+      </c>
+      <c r="AN59">
+        <v>12777</v>
+      </c>
+      <c r="AO59">
+        <v>11371</v>
+      </c>
+      <c r="AP59">
+        <v>11489</v>
+      </c>
+      <c r="AQ59">
         <v>80711</v>
       </c>
-      <c r="AN59">
+      <c r="AR59">
         <v>38595</v>
       </c>
-      <c r="AO59">
+      <c r="AS59">
         <v>25290</v>
       </c>
-      <c r="AR59">
+      <c r="AT59">
+        <v>14956</v>
+      </c>
+      <c r="AU59">
+        <v>13121</v>
+      </c>
+      <c r="AV59">
+        <v>11941</v>
+      </c>
+      <c r="AW59">
+        <v>11728</v>
+      </c>
+      <c r="AX59">
         <v>83253</v>
       </c>
-      <c r="AS59">
+      <c r="AY59">
         <v>38329</v>
       </c>
-      <c r="AT59" s="3">
+      <c r="AZ59">
         <v>20378</v>
       </c>
-      <c r="AW59">
+      <c r="BA59">
+        <v>15938</v>
+      </c>
+      <c r="BB59">
+        <v>13950</v>
+      </c>
+      <c r="BC59">
+        <v>12357</v>
+      </c>
+      <c r="BD59">
+        <v>13018</v>
+      </c>
+      <c r="BE59">
         <v>87233</v>
       </c>
-      <c r="AX59">
+      <c r="BF59">
         <v>33589</v>
       </c>
-      <c r="AY59">
+      <c r="BG59">
         <v>20226</v>
       </c>
-      <c r="BC59">
+      <c r="BH59">
+        <v>16506</v>
+      </c>
+      <c r="BI59">
+        <v>15092</v>
+      </c>
+      <c r="BJ59">
+        <v>14034</v>
+      </c>
+      <c r="BK59">
+        <v>14352</v>
+      </c>
+      <c r="BM59">
         <v>251188</v>
       </c>
-      <c r="BD59" s="3">
+      <c r="BN59" s="3">
         <v>13917</v>
       </c>
-      <c r="BE59">
+      <c r="BO59">
         <v>14276</v>
       </c>
-      <c r="BF59">
+      <c r="BP59">
         <v>15403</v>
       </c>
-      <c r="BI59">
+      <c r="BS59">
         <v>251188</v>
       </c>
-      <c r="BJ59" s="3">
+      <c r="BT59" s="3">
         <v>13461</v>
       </c>
-      <c r="BK59">
+      <c r="BU59">
         <v>13195</v>
       </c>
-      <c r="BL59">
+      <c r="BV59">
         <v>13525</v>
       </c>
-      <c r="BM59">
+      <c r="BW59">
         <v>13167</v>
       </c>
-      <c r="BN59">
+      <c r="BX59">
         <v>14952</v>
       </c>
-      <c r="BO59">
+      <c r="BY59">
         <v>14213</v>
       </c>
-      <c r="BP59" s="3">
+      <c r="BZ59" s="3">
         <v>14330</v>
       </c>
-      <c r="BQ59">
+      <c r="CA59">
         <v>14245</v>
       </c>
-      <c r="BR59">
+      <c r="CB59">
         <v>14834</v>
       </c>
-      <c r="BS59">
+      <c r="CC59">
         <v>14916</v>
       </c>
-      <c r="BT59">
+      <c r="CD59">
         <v>14630</v>
       </c>
-      <c r="BU59" s="3">
+      <c r="CE59" s="3">
         <v>14538</v>
       </c>
-      <c r="BX59">
+      <c r="CH59">
         <v>251188</v>
       </c>
-      <c r="BY59">
+      <c r="CI59">
         <v>11731</v>
       </c>
-      <c r="BZ59">
+      <c r="CJ59">
         <v>11370</v>
       </c>
-      <c r="CA59">
+      <c r="CK59">
         <v>11685</v>
       </c>
-      <c r="CB59">
+      <c r="CL59">
         <v>12214</v>
       </c>
-      <c r="CC59">
+      <c r="CM59">
         <v>11420</v>
       </c>
-      <c r="CD59">
+      <c r="CN59">
         <v>11472</v>
       </c>
-      <c r="CE59">
+      <c r="CO59">
         <v>11878</v>
       </c>
-      <c r="CF59">
+      <c r="CP59">
         <v>12425</v>
       </c>
-      <c r="CG59">
+      <c r="CQ59">
         <v>11411</v>
       </c>
-      <c r="CH59">
+      <c r="CR59">
         <v>12098</v>
       </c>
-      <c r="CI59">
+      <c r="CS59">
         <v>11713</v>
       </c>
-      <c r="CJ59">
+      <c r="CT59">
         <v>12620</v>
       </c>
     </row>
-    <row r="60" spans="2:88" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:98" x14ac:dyDescent="0.3">
       <c r="D60">
         <v>466158</v>
       </c>
@@ -48498,7 +49048,7 @@
         <v>24043</v>
       </c>
       <c r="G60" s="3">
-        <v>46123</v>
+        <v>18842</v>
       </c>
       <c r="H60" s="3">
         <v>24630</v>
@@ -48548,134 +49098,203 @@
       <c r="AE60">
         <v>99444</v>
       </c>
+      <c r="AF60">
+        <v>56916</v>
+      </c>
+      <c r="AG60">
+        <v>45288</v>
+      </c>
       <c r="AH60">
+        <v>19120</v>
+      </c>
+      <c r="AI60" s="3">
+        <v>18842</v>
+      </c>
+      <c r="AJ60">
         <v>282673</v>
       </c>
-      <c r="AI60">
+      <c r="AK60">
         <v>137601</v>
       </c>
-      <c r="AJ60">
+      <c r="AL60">
         <v>70619</v>
       </c>
       <c r="AM60">
+        <v>51066</v>
+      </c>
+      <c r="AN60">
+        <v>24050</v>
+      </c>
+      <c r="AO60">
+        <v>20651</v>
+      </c>
+      <c r="AP60">
+        <v>20868</v>
+      </c>
+      <c r="AQ60">
         <v>273860</v>
       </c>
-      <c r="AN60">
+      <c r="AR60">
         <v>113754</v>
       </c>
-      <c r="AO60">
+      <c r="AS60">
         <v>63715</v>
       </c>
-      <c r="AR60">
+      <c r="AT60">
+        <v>29706</v>
+      </c>
+      <c r="AU60">
+        <v>25050</v>
+      </c>
+      <c r="AV60">
+        <v>22137</v>
+      </c>
+      <c r="AW60">
+        <v>21987</v>
+      </c>
+      <c r="AX60">
         <v>249534</v>
       </c>
-      <c r="AS60">
+      <c r="AY60">
         <v>113154</v>
       </c>
-      <c r="AT60" s="3">
+      <c r="AZ60">
         <v>46123</v>
       </c>
-      <c r="AW60">
+      <c r="BA60">
+        <v>38322</v>
+      </c>
+      <c r="BB60">
+        <v>34840</v>
+      </c>
+      <c r="BC60">
+        <v>22990</v>
+      </c>
+      <c r="BD60">
+        <v>23488</v>
+      </c>
+      <c r="BE60">
         <v>277716</v>
       </c>
-      <c r="AX60">
+      <c r="BF60">
         <v>97750</v>
       </c>
-      <c r="AY60">
+      <c r="BG60">
         <v>53068</v>
       </c>
-      <c r="BC60">
+      <c r="BH60">
+        <v>40371</v>
+      </c>
+      <c r="BI60">
+        <v>35715</v>
+      </c>
+      <c r="BJ60">
+        <v>32599</v>
+      </c>
+      <c r="BK60">
+        <v>33634</v>
+      </c>
+      <c r="BM60">
         <v>466158</v>
       </c>
-      <c r="BD60" s="3">
+      <c r="BN60" s="3">
         <v>24630</v>
       </c>
-      <c r="BE60">
+      <c r="BO60">
         <v>25823</v>
       </c>
-      <c r="BF60">
+      <c r="BP60">
         <v>27371</v>
       </c>
-      <c r="BI60">
+      <c r="BS60">
         <v>466158</v>
       </c>
-      <c r="BJ60" s="3">
+      <c r="BT60" s="3">
         <v>22510</v>
       </c>
-      <c r="BK60">
+      <c r="BU60">
         <v>23029</v>
       </c>
-      <c r="BL60">
+      <c r="BV60">
         <v>22849</v>
       </c>
-      <c r="BM60">
+      <c r="BW60">
         <v>22227</v>
       </c>
-      <c r="BN60">
+      <c r="BX60">
         <v>24060</v>
       </c>
-      <c r="BO60">
+      <c r="BY60">
         <v>24414</v>
       </c>
-      <c r="BP60" s="3">
+      <c r="BZ60" s="3">
         <v>24043</v>
       </c>
-      <c r="BQ60">
+      <c r="CA60">
         <v>24615</v>
       </c>
-      <c r="BR60">
+      <c r="CB60">
         <v>25439</v>
       </c>
-      <c r="BS60">
+      <c r="CC60">
         <v>25142</v>
       </c>
-      <c r="BT60">
+      <c r="CD60">
         <v>25058</v>
       </c>
-      <c r="BU60" s="3">
+      <c r="CE60" s="3">
         <v>24747</v>
       </c>
-      <c r="BX60">
+      <c r="CH60">
         <v>466158</v>
       </c>
-      <c r="BY60">
+      <c r="CI60">
         <v>20299</v>
       </c>
-      <c r="BZ60">
+      <c r="CJ60">
         <v>20970</v>
       </c>
-      <c r="CA60">
+      <c r="CK60">
         <v>20602</v>
       </c>
-      <c r="CB60">
+      <c r="CL60">
         <v>21777</v>
       </c>
-      <c r="CC60">
+      <c r="CM60">
         <v>20473</v>
       </c>
-      <c r="CD60">
+      <c r="CN60">
         <v>20569</v>
       </c>
-      <c r="CE60">
+      <c r="CO60">
         <v>20772</v>
       </c>
-      <c r="CF60">
+      <c r="CP60">
         <v>21240</v>
       </c>
-      <c r="CG60">
+      <c r="CQ60">
         <v>19644</v>
       </c>
-      <c r="CH60">
+      <c r="CR60">
         <v>20363</v>
       </c>
-      <c r="CI60">
+      <c r="CS60">
         <v>20597</v>
       </c>
-      <c r="CJ60">
+      <c r="CT60">
         <v>22261</v>
       </c>
     </row>
-    <row r="62" spans="2:88" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:98" x14ac:dyDescent="0.3">
+      <c r="AA61" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB61">
+        <f>MIN(AB60:BK60)</f>
+        <v>18842</v>
+      </c>
+    </row>
+    <row r="62" spans="2:98" x14ac:dyDescent="0.3">
       <c r="AA62" t="s">
         <v>27</v>
       </c>
@@ -48698,10 +49317,10 @@
         <v>1</v>
       </c>
       <c r="AH62">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AI62">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ62">
         <v>2</v>
@@ -48713,79 +49332,109 @@
         <v>2</v>
       </c>
       <c r="AM62">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AN62">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO62">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AP62">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AQ62">
         <v>3</v>
       </c>
       <c r="AR62">
+        <v>3</v>
+      </c>
+      <c r="AS62">
+        <v>3</v>
+      </c>
+      <c r="AT62">
+        <v>3</v>
+      </c>
+      <c r="AU62">
+        <v>3</v>
+      </c>
+      <c r="AV62">
+        <v>3</v>
+      </c>
+      <c r="AW62">
+        <v>3</v>
+      </c>
+      <c r="AX62">
         <v>4</v>
       </c>
-      <c r="AS62">
+      <c r="AY62">
         <v>4</v>
       </c>
-      <c r="AT62">
+      <c r="AZ62">
         <v>4</v>
       </c>
-      <c r="AU62">
+      <c r="BA62">
         <v>4</v>
       </c>
-      <c r="AV62">
+      <c r="BB62">
         <v>4</v>
       </c>
-      <c r="AW62">
+      <c r="BC62">
+        <v>4</v>
+      </c>
+      <c r="BD62">
+        <v>4</v>
+      </c>
+      <c r="BE62">
         <v>5</v>
       </c>
-      <c r="AX62">
+      <c r="BF62">
         <v>5</v>
       </c>
-      <c r="AY62">
+      <c r="BG62">
         <v>5</v>
       </c>
-      <c r="AZ62">
+      <c r="BH62">
         <v>5</v>
       </c>
-      <c r="BA62">
+      <c r="BI62">
         <v>5</v>
       </c>
-      <c r="BC62" t="s">
+      <c r="BJ62">
+        <v>5</v>
+      </c>
+      <c r="BK62">
+        <v>5</v>
+      </c>
+      <c r="BM62" t="s">
         <v>29</v>
       </c>
-      <c r="BI62" t="s">
+      <c r="BS62" t="s">
         <v>1</v>
       </c>
-      <c r="BJ62" t="s">
+      <c r="BT62" t="s">
         <v>53</v>
       </c>
-      <c r="BN62" t="s">
+      <c r="BX62" t="s">
         <v>56</v>
       </c>
-      <c r="BR62" t="s">
+      <c r="CB62" t="s">
         <v>57</v>
       </c>
-      <c r="BX62" t="s">
+      <c r="CH62" t="s">
         <v>58</v>
       </c>
-      <c r="BY62" t="s">
+      <c r="CI62" t="s">
         <v>53</v>
       </c>
-      <c r="CC62" t="s">
+      <c r="CM62" t="s">
         <v>54</v>
       </c>
-      <c r="CG62" t="s">
+      <c r="CQ62" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="63" spans="2:88" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:98" x14ac:dyDescent="0.3">
       <c r="B63" t="s">
         <v>19</v>
       </c>
@@ -48853,151 +49502,181 @@
         <v>5</v>
       </c>
       <c r="AH63">
+        <v>6</v>
+      </c>
+      <c r="AI63">
+        <v>7</v>
+      </c>
+      <c r="AJ63">
         <v>1</v>
       </c>
-      <c r="AI63">
+      <c r="AK63">
         <v>2</v>
       </c>
-      <c r="AJ63">
+      <c r="AL63">
         <v>3</v>
       </c>
-      <c r="AK63">
+      <c r="AM63">
         <v>4</v>
       </c>
-      <c r="AL63">
+      <c r="AN63">
         <v>5</v>
       </c>
-      <c r="AM63">
+      <c r="AO63">
+        <v>6</v>
+      </c>
+      <c r="AP63">
+        <v>7</v>
+      </c>
+      <c r="AQ63">
         <v>1</v>
       </c>
-      <c r="AN63">
+      <c r="AR63">
         <v>2</v>
       </c>
-      <c r="AO63">
+      <c r="AS63">
         <v>3</v>
       </c>
-      <c r="AP63">
+      <c r="AT63">
         <v>4</v>
       </c>
-      <c r="AQ63">
+      <c r="AU63">
         <v>5</v>
       </c>
-      <c r="AR63">
+      <c r="AV63">
+        <v>6</v>
+      </c>
+      <c r="AW63">
+        <v>7</v>
+      </c>
+      <c r="AX63">
         <v>1</v>
       </c>
-      <c r="AS63">
+      <c r="AY63">
         <v>2</v>
       </c>
-      <c r="AT63">
+      <c r="AZ63">
         <v>3</v>
       </c>
-      <c r="AU63">
+      <c r="BA63">
         <v>4</v>
       </c>
-      <c r="AV63">
+      <c r="BB63">
         <v>5</v>
       </c>
-      <c r="AW63">
+      <c r="BC63">
+        <v>6</v>
+      </c>
+      <c r="BD63">
+        <v>7</v>
+      </c>
+      <c r="BE63">
         <v>1</v>
       </c>
-      <c r="AX63">
+      <c r="BF63">
         <v>2</v>
       </c>
-      <c r="AY63">
+      <c r="BG63">
         <v>3</v>
       </c>
-      <c r="AZ63">
+      <c r="BH63">
         <v>4</v>
       </c>
-      <c r="BA63">
+      <c r="BI63">
         <v>5</v>
       </c>
-      <c r="BC63" t="s">
+      <c r="BJ63">
+        <v>6</v>
+      </c>
+      <c r="BK63">
+        <v>7</v>
+      </c>
+      <c r="BM63" t="s">
         <v>28</v>
       </c>
-      <c r="BD63">
+      <c r="BN63">
         <v>1</v>
       </c>
-      <c r="BE63">
+      <c r="BO63">
         <v>2</v>
       </c>
-      <c r="BF63">
+      <c r="BP63">
         <v>3</v>
       </c>
-      <c r="BJ63">
+      <c r="BT63">
         <v>3</v>
       </c>
-      <c r="BK63">
+      <c r="BU63">
         <v>10</v>
       </c>
-      <c r="BL63">
+      <c r="BV63">
         <v>30</v>
       </c>
-      <c r="BM63">
+      <c r="BW63">
         <v>100</v>
       </c>
-      <c r="BN63">
+      <c r="BX63">
         <v>3</v>
       </c>
-      <c r="BO63">
+      <c r="BY63">
         <v>10</v>
       </c>
-      <c r="BP63">
+      <c r="BZ63">
         <v>30</v>
       </c>
-      <c r="BQ63">
+      <c r="CA63">
         <v>100</v>
       </c>
-      <c r="BR63">
+      <c r="CB63">
         <v>3</v>
       </c>
-      <c r="BS63">
+      <c r="CC63">
         <v>10</v>
       </c>
-      <c r="BT63">
+      <c r="CD63">
         <v>30</v>
       </c>
-      <c r="BU63">
+      <c r="CE63">
         <v>100</v>
       </c>
-      <c r="BY63">
+      <c r="CI63">
         <v>1E-3</v>
       </c>
-      <c r="BZ63">
+      <c r="CJ63">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="CA63">
+      <c r="CK63">
         <v>0.01</v>
       </c>
-      <c r="CB63">
+      <c r="CL63">
         <v>0.03</v>
       </c>
-      <c r="CC63">
+      <c r="CM63">
         <v>1E-3</v>
       </c>
-      <c r="CD63">
+      <c r="CN63">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="CE63">
+      <c r="CO63">
         <v>0.01</v>
       </c>
-      <c r="CF63">
+      <c r="CP63">
         <v>0.03</v>
       </c>
-      <c r="CG63">
+      <c r="CQ63">
         <v>1E-3</v>
       </c>
-      <c r="CH63">
+      <c r="CR63">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="CI63">
+      <c r="CS63">
         <v>0.01</v>
       </c>
-      <c r="CJ63">
+      <c r="CT63">
         <v>0.03</v>
       </c>
     </row>
-    <row r="64" spans="2:88" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:98" x14ac:dyDescent="0.3">
       <c r="D64">
         <v>10000</v>
       </c>
@@ -49008,7 +49687,7 @@
         <v>3244</v>
       </c>
       <c r="G64" s="3">
-        <v>2662</v>
+        <v>2789</v>
       </c>
       <c r="H64" s="3">
         <v>3254</v>
@@ -49058,134 +49737,194 @@
       <c r="AE64">
         <v>2789</v>
       </c>
-      <c r="AH64">
+      <c r="AF64">
+        <v>2663</v>
+      </c>
+      <c r="AG64">
+        <v>2752</v>
+      </c>
+      <c r="AH64" s="3">
+        <v>2789</v>
+      </c>
+      <c r="AI64">
+        <v>2753</v>
+      </c>
+      <c r="AJ64">
         <v>2864</v>
       </c>
-      <c r="AI64">
+      <c r="AK64">
         <v>2699</v>
       </c>
-      <c r="AJ64">
+      <c r="AL64">
         <v>2674</v>
       </c>
       <c r="AM64">
+        <v>2796</v>
+      </c>
+      <c r="AN64">
+        <v>2780</v>
+      </c>
+      <c r="AO64">
+        <v>2620</v>
+      </c>
+      <c r="AP64">
+        <v>2683</v>
+      </c>
+      <c r="AQ64">
         <v>3048</v>
       </c>
-      <c r="AN64">
+      <c r="AR64">
         <v>2838</v>
       </c>
-      <c r="AO64">
+      <c r="AS64">
         <v>2727</v>
       </c>
-      <c r="AR64">
+      <c r="AT64">
+        <v>2781</v>
+      </c>
+      <c r="AU64">
+        <v>2732</v>
+      </c>
+      <c r="AV64">
+        <v>2713</v>
+      </c>
+      <c r="AW64">
+        <v>2782</v>
+      </c>
+      <c r="AX64">
         <v>2948</v>
       </c>
-      <c r="AS64">
+      <c r="AY64">
         <v>2881</v>
       </c>
-      <c r="AT64" s="3">
+      <c r="AZ64">
         <v>2662</v>
       </c>
-      <c r="AW64">
+      <c r="BA64">
+        <v>2723</v>
+      </c>
+      <c r="BB64">
+        <v>2918</v>
+      </c>
+      <c r="BC64">
+        <v>2727</v>
+      </c>
+      <c r="BD64">
+        <v>2713</v>
+      </c>
+      <c r="BE64">
         <v>3085</v>
       </c>
-      <c r="AX64">
+      <c r="BF64">
         <v>2776</v>
       </c>
-      <c r="AY64">
+      <c r="BG64">
         <v>2807</v>
       </c>
-      <c r="BC64">
+      <c r="BH64">
+        <v>2779</v>
+      </c>
+      <c r="BI64">
+        <v>2726</v>
+      </c>
+      <c r="BJ64">
+        <v>2923</v>
+      </c>
+      <c r="BK64">
+        <v>2771</v>
+      </c>
+      <c r="BM64">
         <v>10000</v>
       </c>
-      <c r="BD64" s="3">
+      <c r="BN64" s="3">
         <v>2892</v>
       </c>
-      <c r="BE64">
+      <c r="BO64">
         <v>3254</v>
       </c>
-      <c r="BF64">
+      <c r="BP64">
         <v>3301</v>
       </c>
-      <c r="BI64">
+      <c r="BS64">
         <v>10000</v>
       </c>
-      <c r="BJ64">
+      <c r="BT64">
         <v>2953</v>
       </c>
-      <c r="BK64">
+      <c r="BU64">
         <v>3163</v>
       </c>
-      <c r="BL64" s="3">
+      <c r="BV64" s="3">
         <v>3200</v>
       </c>
-      <c r="BM64">
+      <c r="BW64">
         <v>2911</v>
       </c>
-      <c r="BN64">
+      <c r="BX64">
         <v>3104</v>
       </c>
-      <c r="BO64" s="3">
+      <c r="BY64" s="3">
         <v>3244</v>
       </c>
-      <c r="BP64">
+      <c r="BZ64">
         <v>3004</v>
       </c>
-      <c r="BQ64">
+      <c r="CA64">
         <v>3141</v>
       </c>
-      <c r="BR64">
+      <c r="CB64">
         <v>3095</v>
       </c>
-      <c r="BS64">
+      <c r="CC64">
         <v>3112</v>
       </c>
-      <c r="BT64">
+      <c r="CD64">
         <v>3323</v>
       </c>
-      <c r="BU64" s="3">
+      <c r="CE64" s="3">
         <v>3370</v>
       </c>
-      <c r="BX64">
+      <c r="CH64">
         <v>10000</v>
       </c>
-      <c r="BY64">
+      <c r="CI64">
         <v>3475</v>
       </c>
-      <c r="BZ64">
+      <c r="CJ64">
         <v>3663</v>
       </c>
-      <c r="CA64">
+      <c r="CK64">
         <v>3410</v>
       </c>
-      <c r="CB64">
+      <c r="CL64">
         <v>3675</v>
       </c>
-      <c r="CC64">
+      <c r="CM64">
         <v>3664</v>
       </c>
-      <c r="CD64">
+      <c r="CN64">
         <v>3778</v>
       </c>
-      <c r="CE64">
+      <c r="CO64">
         <v>3584</v>
       </c>
-      <c r="CF64">
+      <c r="CP64">
         <v>4027</v>
       </c>
-      <c r="CG64">
+      <c r="CQ64">
         <v>3692</v>
       </c>
-      <c r="CH64">
+      <c r="CR64">
         <v>3919</v>
       </c>
-      <c r="CI64">
+      <c r="CS64">
         <v>3790</v>
       </c>
-      <c r="CJ64">
+      <c r="CT64">
         <v>3764</v>
       </c>
     </row>
-    <row r="65" spans="4:88" x14ac:dyDescent="0.3">
+    <row r="65" spans="4:98" x14ac:dyDescent="0.3">
       <c r="D65">
         <v>15848</v>
       </c>
@@ -49196,7 +49935,7 @@
         <v>3743</v>
       </c>
       <c r="G65" s="3">
-        <v>3117</v>
+        <v>2935</v>
       </c>
       <c r="H65" s="3">
         <v>3551</v>
@@ -49246,134 +49985,194 @@
       <c r="AE65">
         <v>3153</v>
       </c>
-      <c r="AH65">
+      <c r="AF65">
+        <v>2940</v>
+      </c>
+      <c r="AG65">
+        <v>2918</v>
+      </c>
+      <c r="AH65" s="3">
+        <v>2935</v>
+      </c>
+      <c r="AI65">
+        <v>2834</v>
+      </c>
+      <c r="AJ65">
         <v>3322</v>
       </c>
-      <c r="AI65">
+      <c r="AK65">
         <v>2963</v>
       </c>
-      <c r="AJ65">
+      <c r="AL65">
         <v>3005</v>
       </c>
       <c r="AM65">
+        <v>2980</v>
+      </c>
+      <c r="AN65">
+        <v>2911</v>
+      </c>
+      <c r="AO65">
+        <v>2976</v>
+      </c>
+      <c r="AP65">
+        <v>2948</v>
+      </c>
+      <c r="AQ65">
         <v>3248</v>
       </c>
-      <c r="AN65">
+      <c r="AR65">
         <v>3041</v>
       </c>
-      <c r="AO65">
+      <c r="AS65">
         <v>3005</v>
       </c>
-      <c r="AR65">
+      <c r="AT65">
+        <v>3019</v>
+      </c>
+      <c r="AU65">
+        <v>3062</v>
+      </c>
+      <c r="AV65">
+        <v>2939</v>
+      </c>
+      <c r="AW65">
+        <v>2982</v>
+      </c>
+      <c r="AX65">
         <v>3411</v>
       </c>
-      <c r="AS65">
+      <c r="AY65">
         <v>3091</v>
       </c>
-      <c r="AT65" s="3">
+      <c r="AZ65">
         <v>3117</v>
       </c>
-      <c r="AW65">
+      <c r="BA65">
+        <v>3046</v>
+      </c>
+      <c r="BB65">
+        <v>3019</v>
+      </c>
+      <c r="BC65">
+        <v>3078</v>
+      </c>
+      <c r="BD65">
+        <v>3063</v>
+      </c>
+      <c r="BE65">
         <v>3542</v>
       </c>
-      <c r="AX65">
+      <c r="BF65">
         <v>3264</v>
       </c>
-      <c r="AY65">
+      <c r="BG65">
         <v>3030</v>
       </c>
-      <c r="BC65">
+      <c r="BH65">
+        <v>3165</v>
+      </c>
+      <c r="BI65">
+        <v>3045</v>
+      </c>
+      <c r="BJ65">
+        <v>3152</v>
+      </c>
+      <c r="BK65">
+        <v>3132</v>
+      </c>
+      <c r="BM65">
         <v>15848</v>
       </c>
-      <c r="BD65" s="3">
+      <c r="BN65" s="3">
         <v>3484</v>
       </c>
-      <c r="BE65">
+      <c r="BO65">
         <v>3551</v>
       </c>
-      <c r="BF65">
+      <c r="BP65">
         <v>3887</v>
       </c>
-      <c r="BI65">
+      <c r="BS65">
         <v>15848</v>
       </c>
-      <c r="BJ65">
+      <c r="BT65">
         <v>3550</v>
       </c>
-      <c r="BK65">
+      <c r="BU65">
         <v>3529</v>
       </c>
-      <c r="BL65" s="3">
+      <c r="BV65" s="3">
         <v>3747</v>
       </c>
-      <c r="BM65">
+      <c r="BW65">
         <v>3512</v>
       </c>
-      <c r="BN65">
+      <c r="BX65">
         <v>3657</v>
       </c>
-      <c r="BO65" s="3">
+      <c r="BY65" s="3">
         <v>3743</v>
       </c>
-      <c r="BP65">
+      <c r="BZ65">
         <v>3670</v>
       </c>
-      <c r="BQ65">
+      <c r="CA65">
         <v>3642</v>
       </c>
-      <c r="BR65">
+      <c r="CB65">
         <v>3684</v>
       </c>
-      <c r="BS65">
+      <c r="CC65">
         <v>3743</v>
       </c>
-      <c r="BT65">
+      <c r="CD65">
         <v>3833</v>
       </c>
-      <c r="BU65" s="3">
+      <c r="CE65" s="3">
         <v>3949</v>
       </c>
-      <c r="BX65">
+      <c r="CH65">
         <v>15848</v>
       </c>
-      <c r="BY65">
+      <c r="CI65">
         <v>3908</v>
       </c>
-      <c r="BZ65">
+      <c r="CJ65">
         <v>3840</v>
       </c>
-      <c r="CA65">
+      <c r="CK65">
         <v>3921</v>
       </c>
-      <c r="CB65">
+      <c r="CL65">
         <v>3862</v>
       </c>
-      <c r="CC65">
+      <c r="CM65">
         <v>4109</v>
       </c>
-      <c r="CD65">
+      <c r="CN65">
         <v>3958</v>
       </c>
-      <c r="CE65">
+      <c r="CO65">
         <v>3942</v>
       </c>
-      <c r="CF65">
+      <c r="CP65">
         <v>4171</v>
       </c>
-      <c r="CG65">
+      <c r="CQ65">
         <v>4204</v>
       </c>
-      <c r="CH65">
+      <c r="CR65">
         <v>4110</v>
       </c>
-      <c r="CI65">
+      <c r="CS65">
         <v>4269</v>
       </c>
-      <c r="CJ65">
+      <c r="CT65">
         <v>4337</v>
       </c>
     </row>
-    <row r="66" spans="4:88" x14ac:dyDescent="0.3">
+    <row r="66" spans="4:98" x14ac:dyDescent="0.3">
       <c r="D66">
         <v>25118</v>
       </c>
@@ -49384,7 +50183,7 @@
         <v>4252</v>
       </c>
       <c r="G66" s="3">
-        <v>3602</v>
+        <v>3277</v>
       </c>
       <c r="H66" s="3">
         <v>4156</v>
@@ -49434,134 +50233,194 @@
       <c r="AE66">
         <v>3701</v>
       </c>
-      <c r="AH66">
+      <c r="AF66">
+        <v>3258</v>
+      </c>
+      <c r="AG66">
+        <v>3269</v>
+      </c>
+      <c r="AH66" s="3">
+        <v>3277</v>
+      </c>
+      <c r="AI66">
+        <v>3180</v>
+      </c>
+      <c r="AJ66">
         <v>4305</v>
       </c>
-      <c r="AI66">
+      <c r="AK66">
         <v>3894</v>
       </c>
-      <c r="AJ66">
+      <c r="AL66">
         <v>3663</v>
       </c>
       <c r="AM66">
+        <v>3566</v>
+      </c>
+      <c r="AN66">
+        <v>3226</v>
+      </c>
+      <c r="AO66">
+        <v>3277</v>
+      </c>
+      <c r="AP66">
+        <v>3162</v>
+      </c>
+      <c r="AQ66">
         <v>4134</v>
       </c>
-      <c r="AN66">
+      <c r="AR66">
         <v>3809</v>
       </c>
-      <c r="AO66">
+      <c r="AS66">
         <v>3625</v>
       </c>
-      <c r="AR66">
+      <c r="AT66">
+        <v>3551</v>
+      </c>
+      <c r="AU66">
+        <v>3517</v>
+      </c>
+      <c r="AV66">
+        <v>3389</v>
+      </c>
+      <c r="AW66">
+        <v>3606</v>
+      </c>
+      <c r="AX66">
         <v>4070</v>
       </c>
-      <c r="AS66">
+      <c r="AY66">
         <v>3885</v>
       </c>
-      <c r="AT66" s="3">
+      <c r="AZ66">
         <v>3602</v>
       </c>
-      <c r="AW66">
+      <c r="BA66">
+        <v>3660</v>
+      </c>
+      <c r="BB66">
+        <v>3478</v>
+      </c>
+      <c r="BC66">
+        <v>3750</v>
+      </c>
+      <c r="BD66">
+        <v>3827</v>
+      </c>
+      <c r="BE66">
         <v>4380</v>
       </c>
-      <c r="AX66">
+      <c r="BF66">
         <v>3645</v>
       </c>
-      <c r="AY66">
+      <c r="BG66">
         <v>3685</v>
       </c>
-      <c r="BC66">
+      <c r="BH66">
+        <v>3660</v>
+      </c>
+      <c r="BI66">
+        <v>3706</v>
+      </c>
+      <c r="BJ66">
+        <v>3831</v>
+      </c>
+      <c r="BK66">
+        <v>3915</v>
+      </c>
+      <c r="BM66">
         <v>25118</v>
       </c>
-      <c r="BD66" s="3">
+      <c r="BN66" s="3">
         <v>4003</v>
       </c>
-      <c r="BE66">
+      <c r="BO66">
         <v>4156</v>
       </c>
-      <c r="BF66">
+      <c r="BP66">
         <v>4509</v>
       </c>
-      <c r="BI66">
+      <c r="BS66">
         <v>25118</v>
       </c>
-      <c r="BJ66">
+      <c r="BT66">
         <v>3978</v>
       </c>
-      <c r="BK66">
+      <c r="BU66">
         <v>4228</v>
       </c>
-      <c r="BL66" s="3">
+      <c r="BV66" s="3">
         <v>4150</v>
       </c>
-      <c r="BM66">
+      <c r="BW66">
         <v>4065</v>
       </c>
-      <c r="BN66">
+      <c r="BX66">
         <v>4416</v>
       </c>
-      <c r="BO66" s="3">
+      <c r="BY66" s="3">
         <v>4252</v>
       </c>
-      <c r="BP66">
+      <c r="BZ66">
         <v>4255</v>
       </c>
-      <c r="BQ66">
+      <c r="CA66">
         <v>4394</v>
       </c>
-      <c r="BR66">
+      <c r="CB66">
         <v>4352</v>
       </c>
-      <c r="BS66">
+      <c r="CC66">
         <v>4430</v>
       </c>
-      <c r="BT66">
+      <c r="CD66">
         <v>4244</v>
       </c>
-      <c r="BU66" s="3">
+      <c r="CE66" s="3">
         <v>4388</v>
       </c>
-      <c r="BX66">
+      <c r="CH66">
         <v>25118</v>
       </c>
-      <c r="BY66">
+      <c r="CI66">
         <v>4544</v>
       </c>
-      <c r="BZ66">
+      <c r="CJ66">
         <v>4412</v>
       </c>
-      <c r="CA66">
+      <c r="CK66">
         <v>4524</v>
       </c>
-      <c r="CB66">
+      <c r="CL66">
         <v>4304</v>
       </c>
-      <c r="CC66">
+      <c r="CM66">
         <v>4907</v>
       </c>
-      <c r="CD66">
+      <c r="CN66">
         <v>4871</v>
       </c>
-      <c r="CE66">
+      <c r="CO66">
         <v>4567</v>
       </c>
-      <c r="CF66">
+      <c r="CP66">
         <v>4437</v>
       </c>
-      <c r="CG66">
+      <c r="CQ66">
         <v>4674</v>
       </c>
-      <c r="CH66">
+      <c r="CR66">
         <v>4562</v>
       </c>
-      <c r="CI66">
+      <c r="CS66">
         <v>5060</v>
       </c>
-      <c r="CJ66">
+      <c r="CT66">
         <v>5061</v>
       </c>
     </row>
-    <row r="67" spans="4:88" x14ac:dyDescent="0.3">
+    <row r="67" spans="4:98" x14ac:dyDescent="0.3">
       <c r="D67">
         <v>39810</v>
       </c>
@@ -49572,7 +50431,7 @@
         <v>5108</v>
       </c>
       <c r="G67" s="3">
-        <v>4412</v>
+        <v>4069</v>
       </c>
       <c r="H67" s="3">
         <v>5031</v>
@@ -49622,134 +50481,194 @@
       <c r="AE67">
         <v>4541</v>
       </c>
-      <c r="AH67">
+      <c r="AF67">
+        <v>4336</v>
+      </c>
+      <c r="AG67">
+        <v>4369</v>
+      </c>
+      <c r="AH67" s="3">
+        <v>4069</v>
+      </c>
+      <c r="AI67">
+        <v>3836</v>
+      </c>
+      <c r="AJ67">
         <v>6914</v>
       </c>
-      <c r="AI67">
+      <c r="AK67">
         <v>5006</v>
       </c>
-      <c r="AJ67">
+      <c r="AL67">
         <v>4356</v>
       </c>
       <c r="AM67">
+        <v>4346</v>
+      </c>
+      <c r="AN67">
+        <v>4052</v>
+      </c>
+      <c r="AO67">
+        <v>3964</v>
+      </c>
+      <c r="AP67">
+        <v>4042</v>
+      </c>
+      <c r="AQ67">
         <v>6411</v>
       </c>
-      <c r="AN67">
+      <c r="AR67">
         <v>4763</v>
       </c>
-      <c r="AO67">
+      <c r="AS67">
         <v>4494</v>
       </c>
-      <c r="AR67">
+      <c r="AT67">
+        <v>4160</v>
+      </c>
+      <c r="AU67">
+        <v>4051</v>
+      </c>
+      <c r="AV67">
+        <v>3992</v>
+      </c>
+      <c r="AW67">
+        <v>4353</v>
+      </c>
+      <c r="AX67">
         <v>6459</v>
       </c>
-      <c r="AS67">
+      <c r="AY67">
         <v>4881</v>
       </c>
-      <c r="AT67" s="3">
+      <c r="AZ67">
         <v>4412</v>
       </c>
-      <c r="AW67">
+      <c r="BA67">
+        <v>4181</v>
+      </c>
+      <c r="BB67">
+        <v>4282</v>
+      </c>
+      <c r="BC67">
+        <v>4240</v>
+      </c>
+      <c r="BD67">
+        <v>4364</v>
+      </c>
+      <c r="BE67">
         <v>6689</v>
       </c>
-      <c r="AX67">
+      <c r="BF67">
         <v>4869</v>
       </c>
-      <c r="AY67">
+      <c r="BG67">
         <v>4485</v>
       </c>
-      <c r="BC67">
+      <c r="BH67">
+        <v>4597</v>
+      </c>
+      <c r="BI67">
+        <v>4319</v>
+      </c>
+      <c r="BJ67">
+        <v>4312</v>
+      </c>
+      <c r="BK67">
+        <v>4484</v>
+      </c>
+      <c r="BM67">
         <v>39810</v>
       </c>
-      <c r="BD67" s="3">
+      <c r="BN67" s="3">
         <v>4681</v>
       </c>
-      <c r="BE67">
+      <c r="BO67">
         <v>5031</v>
       </c>
-      <c r="BF67">
+      <c r="BP67">
         <v>5362</v>
       </c>
-      <c r="BI67">
+      <c r="BS67">
         <v>39810</v>
       </c>
-      <c r="BJ67">
+      <c r="BT67">
         <v>4771</v>
       </c>
-      <c r="BK67">
+      <c r="BU67">
         <v>5105</v>
       </c>
-      <c r="BL67" s="3">
+      <c r="BV67" s="3">
         <v>5126</v>
       </c>
-      <c r="BM67">
+      <c r="BW67">
         <v>4893</v>
       </c>
-      <c r="BN67">
+      <c r="BX67">
         <v>5457</v>
       </c>
-      <c r="BO67" s="3">
+      <c r="BY67" s="3">
         <v>5108</v>
       </c>
-      <c r="BP67">
+      <c r="BZ67">
         <v>5202</v>
       </c>
-      <c r="BQ67">
+      <c r="CA67">
         <v>4945</v>
       </c>
-      <c r="BR67">
+      <c r="CB67">
         <v>5326</v>
       </c>
-      <c r="BS67">
+      <c r="CC67">
         <v>5258</v>
       </c>
-      <c r="BT67">
+      <c r="CD67">
         <v>5053</v>
       </c>
-      <c r="BU67" s="3">
+      <c r="CE67" s="3">
         <v>5452</v>
       </c>
-      <c r="BX67">
+      <c r="CH67">
         <v>39810</v>
       </c>
-      <c r="BY67">
+      <c r="CI67">
         <v>5434</v>
       </c>
-      <c r="BZ67">
+      <c r="CJ67">
         <v>5140</v>
       </c>
-      <c r="CA67">
+      <c r="CK67">
         <v>5398</v>
       </c>
-      <c r="CB67">
+      <c r="CL67">
         <v>5200</v>
       </c>
-      <c r="CC67">
+      <c r="CM67">
         <v>5577</v>
       </c>
-      <c r="CD67">
+      <c r="CN67">
         <v>5024</v>
       </c>
-      <c r="CE67">
+      <c r="CO67">
         <v>5578</v>
       </c>
-      <c r="CF67">
+      <c r="CP67">
         <v>5664</v>
       </c>
-      <c r="CG67">
+      <c r="CQ67">
         <v>5468</v>
       </c>
-      <c r="CH67">
+      <c r="CR67">
         <v>5729</v>
       </c>
-      <c r="CI67">
+      <c r="CS67">
         <v>5814</v>
       </c>
-      <c r="CJ67">
+      <c r="CT67">
         <v>5863</v>
       </c>
     </row>
-    <row r="68" spans="4:88" x14ac:dyDescent="0.3">
+    <row r="68" spans="4:98" x14ac:dyDescent="0.3">
       <c r="D68">
         <v>63095</v>
       </c>
@@ -49760,7 +50679,7 @@
         <v>6699</v>
       </c>
       <c r="G68" s="3">
-        <v>5958</v>
+        <v>4370</v>
       </c>
       <c r="H68" s="3">
         <v>6495</v>
@@ -49810,134 +50729,194 @@
       <c r="AE68">
         <v>6630</v>
       </c>
-      <c r="AH68">
+      <c r="AF68">
+        <v>5357</v>
+      </c>
+      <c r="AG68">
+        <v>5046</v>
+      </c>
+      <c r="AH68" s="3">
+        <v>4370</v>
+      </c>
+      <c r="AI68">
+        <v>4583</v>
+      </c>
+      <c r="AJ68">
         <v>12386</v>
       </c>
-      <c r="AI68">
+      <c r="AK68">
         <v>7575</v>
       </c>
-      <c r="AJ68">
+      <c r="AL68">
         <v>5907</v>
       </c>
       <c r="AM68">
+        <v>5485</v>
+      </c>
+      <c r="AN68">
+        <v>4804</v>
+      </c>
+      <c r="AO68">
+        <v>4571</v>
+      </c>
+      <c r="AP68">
+        <v>4808</v>
+      </c>
+      <c r="AQ68">
         <v>11611</v>
       </c>
-      <c r="AN68">
+      <c r="AR68">
         <v>6645</v>
       </c>
-      <c r="AO68">
+      <c r="AS68">
         <v>5852</v>
       </c>
-      <c r="AR68">
+      <c r="AT68">
+        <v>5021</v>
+      </c>
+      <c r="AU68">
+        <v>4937</v>
+      </c>
+      <c r="AV68">
+        <v>4916</v>
+      </c>
+      <c r="AW68">
+        <v>4931</v>
+      </c>
+      <c r="AX68">
         <v>11233</v>
       </c>
-      <c r="AS68">
+      <c r="AY68">
         <v>7130</v>
       </c>
-      <c r="AT68" s="3">
+      <c r="AZ68">
         <v>5958</v>
       </c>
-      <c r="AW68">
+      <c r="BA68">
+        <v>5081</v>
+      </c>
+      <c r="BB68">
+        <v>4866</v>
+      </c>
+      <c r="BC68">
+        <v>5018</v>
+      </c>
+      <c r="BD68">
+        <v>4888</v>
+      </c>
+      <c r="BE68">
         <v>12268</v>
       </c>
-      <c r="AX68">
+      <c r="BF68">
         <v>6378</v>
       </c>
-      <c r="AY68">
+      <c r="BG68">
         <v>5529</v>
       </c>
-      <c r="BC68">
+      <c r="BH68">
+        <v>5445</v>
+      </c>
+      <c r="BI68">
+        <v>5456</v>
+      </c>
+      <c r="BJ68">
+        <v>5240</v>
+      </c>
+      <c r="BK68">
+        <v>5180</v>
+      </c>
+      <c r="BM68">
         <v>63095</v>
       </c>
-      <c r="BD68" s="3">
+      <c r="BN68" s="3">
         <v>5858</v>
       </c>
-      <c r="BE68">
+      <c r="BO68">
         <v>6495</v>
       </c>
-      <c r="BF68">
+      <c r="BP68">
         <v>6214</v>
       </c>
-      <c r="BI68">
+      <c r="BS68">
         <v>63095</v>
       </c>
-      <c r="BJ68">
+      <c r="BT68">
         <v>6168</v>
       </c>
-      <c r="BK68">
+      <c r="BU68">
         <v>6119</v>
       </c>
-      <c r="BL68" s="3">
+      <c r="BV68" s="3">
         <v>6133</v>
       </c>
-      <c r="BM68">
+      <c r="BW68">
         <v>6456</v>
       </c>
-      <c r="BN68">
+      <c r="BX68">
         <v>6456</v>
       </c>
-      <c r="BO68" s="3">
+      <c r="BY68" s="3">
         <v>6699</v>
       </c>
-      <c r="BP68">
+      <c r="BZ68">
         <v>6767</v>
       </c>
-      <c r="BQ68">
+      <c r="CA68">
         <v>6585</v>
       </c>
-      <c r="BR68">
+      <c r="CB68">
         <v>6905</v>
       </c>
-      <c r="BS68">
+      <c r="CC68">
         <v>6888</v>
       </c>
-      <c r="BT68">
+      <c r="CD68">
         <v>6742</v>
       </c>
-      <c r="BU68" s="3">
+      <c r="CE68" s="3">
         <v>7080</v>
       </c>
-      <c r="BX68">
+      <c r="CH68">
         <v>63095</v>
       </c>
-      <c r="BY68">
+      <c r="CI68">
         <v>6567</v>
       </c>
-      <c r="BZ68">
+      <c r="CJ68">
         <v>6555</v>
       </c>
-      <c r="CA68">
+      <c r="CK68">
         <v>6756</v>
       </c>
-      <c r="CB68">
+      <c r="CL68">
         <v>6705</v>
       </c>
-      <c r="CC68">
+      <c r="CM68">
         <v>7079</v>
       </c>
-      <c r="CD68">
+      <c r="CN68">
         <v>7026</v>
       </c>
-      <c r="CE68">
+      <c r="CO68">
         <v>7035</v>
       </c>
-      <c r="CF68">
+      <c r="CP68">
         <v>6952</v>
       </c>
-      <c r="CG68">
+      <c r="CQ68">
         <v>7044</v>
       </c>
-      <c r="CH68">
+      <c r="CR68">
         <v>6950</v>
       </c>
-      <c r="CI68">
+      <c r="CS68">
         <v>7198</v>
       </c>
-      <c r="CJ68">
+      <c r="CT68">
         <v>7497</v>
       </c>
     </row>
-    <row r="69" spans="4:88" x14ac:dyDescent="0.3">
+    <row r="69" spans="4:98" x14ac:dyDescent="0.3">
       <c r="D69">
         <v>100000</v>
       </c>
@@ -49948,7 +50927,7 @@
         <v>8375</v>
       </c>
       <c r="G69" s="3">
-        <v>7690</v>
+        <v>5999</v>
       </c>
       <c r="H69" s="3">
         <v>8212</v>
@@ -49998,134 +50977,194 @@
       <c r="AE69">
         <v>10682</v>
       </c>
-      <c r="AH69">
+      <c r="AF69">
+        <v>7929</v>
+      </c>
+      <c r="AG69">
+        <v>7745</v>
+      </c>
+      <c r="AH69" s="3">
+        <v>5999</v>
+      </c>
+      <c r="AI69">
+        <v>5908</v>
+      </c>
+      <c r="AJ69">
         <v>22944</v>
       </c>
-      <c r="AI69">
+      <c r="AK69">
         <v>13074</v>
       </c>
-      <c r="AJ69">
+      <c r="AL69">
         <v>8969</v>
       </c>
       <c r="AM69">
+        <v>8065</v>
+      </c>
+      <c r="AN69">
+        <v>6540</v>
+      </c>
+      <c r="AO69">
+        <v>6037</v>
+      </c>
+      <c r="AP69">
+        <v>6020</v>
+      </c>
+      <c r="AQ69">
         <v>19643</v>
       </c>
-      <c r="AN69">
+      <c r="AR69">
         <v>10844</v>
       </c>
-      <c r="AO69">
+      <c r="AS69">
         <v>8917</v>
       </c>
-      <c r="AR69">
+      <c r="AT69">
+        <v>7360</v>
+      </c>
+      <c r="AU69">
+        <v>7186</v>
+      </c>
+      <c r="AV69">
+        <v>6840</v>
+      </c>
+      <c r="AW69">
+        <v>6942</v>
+      </c>
+      <c r="AX69">
         <v>17855</v>
       </c>
-      <c r="AS69">
+      <c r="AY69">
         <v>10811</v>
       </c>
-      <c r="AT69" s="3">
+      <c r="AZ69">
         <v>7690</v>
       </c>
-      <c r="AW69">
+      <c r="BA69">
+        <v>7616</v>
+      </c>
+      <c r="BB69">
+        <v>7432</v>
+      </c>
+      <c r="BC69">
+        <v>7311</v>
+      </c>
+      <c r="BD69">
+        <v>7472</v>
+      </c>
+      <c r="BE69">
         <v>19820</v>
       </c>
-      <c r="AX69">
+      <c r="BF69">
         <v>9899</v>
       </c>
-      <c r="AY69">
+      <c r="BG69">
         <v>8007</v>
       </c>
-      <c r="BC69">
+      <c r="BH69">
+        <v>7690</v>
+      </c>
+      <c r="BI69">
+        <v>7313</v>
+      </c>
+      <c r="BJ69">
+        <v>7370</v>
+      </c>
+      <c r="BK69">
+        <v>7606</v>
+      </c>
+      <c r="BM69">
         <v>100000</v>
       </c>
-      <c r="BD69" s="3">
+      <c r="BN69" s="3">
         <v>7663</v>
       </c>
-      <c r="BE69">
+      <c r="BO69">
         <v>8212</v>
       </c>
-      <c r="BF69">
+      <c r="BP69">
         <v>8744</v>
       </c>
-      <c r="BI69">
+      <c r="BS69">
         <v>100000</v>
       </c>
-      <c r="BJ69">
+      <c r="BT69">
         <v>7851</v>
       </c>
-      <c r="BK69">
+      <c r="BU69">
         <v>7788</v>
       </c>
-      <c r="BL69" s="3">
+      <c r="BV69" s="3">
         <v>8072</v>
       </c>
-      <c r="BM69">
+      <c r="BW69">
         <v>8082</v>
       </c>
-      <c r="BN69">
+      <c r="BX69">
         <v>7975</v>
       </c>
-      <c r="BO69" s="3">
+      <c r="BY69" s="3">
         <v>8375</v>
       </c>
-      <c r="BP69">
+      <c r="BZ69">
         <v>8487</v>
       </c>
-      <c r="BQ69">
+      <c r="CA69">
         <v>8349</v>
       </c>
-      <c r="BR69">
+      <c r="CB69">
         <v>8845</v>
       </c>
-      <c r="BS69">
+      <c r="CC69">
         <v>8643</v>
       </c>
-      <c r="BT69">
+      <c r="CD69">
         <v>8775</v>
       </c>
-      <c r="BU69" s="3">
+      <c r="CE69" s="3">
         <v>8569</v>
       </c>
-      <c r="BX69">
+      <c r="CH69">
         <v>100000</v>
       </c>
-      <c r="BY69">
+      <c r="CI69">
         <v>8568</v>
       </c>
-      <c r="BZ69">
+      <c r="CJ69">
         <v>8356</v>
       </c>
-      <c r="CA69">
+      <c r="CK69">
         <v>8282</v>
       </c>
-      <c r="CB69">
+      <c r="CL69">
         <v>8362</v>
       </c>
-      <c r="CC69">
+      <c r="CM69">
         <v>9235</v>
       </c>
-      <c r="CD69">
+      <c r="CN69">
         <v>8800</v>
       </c>
-      <c r="CE69">
+      <c r="CO69">
         <v>9015</v>
       </c>
-      <c r="CF69">
+      <c r="CP69">
         <v>9765</v>
       </c>
-      <c r="CG69">
+      <c r="CQ69">
         <v>9508</v>
       </c>
-      <c r="CH69">
+      <c r="CR69">
         <v>9279</v>
       </c>
-      <c r="CI69">
+      <c r="CS69">
         <v>9403</v>
       </c>
-      <c r="CJ69">
+      <c r="CT69">
         <v>9614</v>
       </c>
     </row>
-    <row r="70" spans="4:88" x14ac:dyDescent="0.3">
+    <row r="70" spans="4:98" x14ac:dyDescent="0.3">
       <c r="D70">
         <v>158489</v>
       </c>
@@ -50136,7 +51175,7 @@
         <v>11859</v>
       </c>
       <c r="G70" s="3">
-        <v>11727</v>
+        <v>8326</v>
       </c>
       <c r="H70" s="3">
         <v>11073</v>
@@ -50186,134 +51225,194 @@
       <c r="AE70">
         <v>20571</v>
       </c>
-      <c r="AH70">
+      <c r="AF70">
+        <v>13332</v>
+      </c>
+      <c r="AG70">
+        <v>11775</v>
+      </c>
+      <c r="AH70" s="3">
+        <v>8326</v>
+      </c>
+      <c r="AI70">
+        <v>7903</v>
+      </c>
+      <c r="AJ70">
         <v>52003</v>
       </c>
-      <c r="AI70">
+      <c r="AK70">
         <v>26147</v>
       </c>
-      <c r="AJ70">
+      <c r="AL70">
         <v>15155</v>
       </c>
       <c r="AM70">
+        <v>12831</v>
+      </c>
+      <c r="AN70">
+        <v>8850</v>
+      </c>
+      <c r="AO70">
+        <v>8360</v>
+      </c>
+      <c r="AP70">
+        <v>8395</v>
+      </c>
+      <c r="AQ70">
         <v>43283</v>
       </c>
-      <c r="AN70">
+      <c r="AR70">
         <v>20509</v>
       </c>
-      <c r="AO70">
+      <c r="AS70">
         <v>14766</v>
       </c>
-      <c r="AR70">
+      <c r="AT70">
+        <v>9680</v>
+      </c>
+      <c r="AU70">
+        <v>9138</v>
+      </c>
+      <c r="AV70">
+        <v>8877</v>
+      </c>
+      <c r="AW70">
+        <v>8796</v>
+      </c>
+      <c r="AX70">
         <v>39324</v>
       </c>
-      <c r="AS70">
+      <c r="AY70">
         <v>20093</v>
       </c>
-      <c r="AT70" s="3">
+      <c r="AZ70">
         <v>11727</v>
       </c>
-      <c r="AW70">
+      <c r="BA70">
+        <v>10477</v>
+      </c>
+      <c r="BB70">
+        <v>10193</v>
+      </c>
+      <c r="BC70">
+        <v>9859</v>
+      </c>
+      <c r="BD70">
+        <v>9869</v>
+      </c>
+      <c r="BE70">
         <v>40343</v>
       </c>
-      <c r="AX70">
+      <c r="BF70">
         <v>17534</v>
       </c>
-      <c r="AY70">
+      <c r="BG70">
         <v>12188</v>
       </c>
-      <c r="BC70">
+      <c r="BH70">
+        <v>11039</v>
+      </c>
+      <c r="BI70">
+        <v>10665</v>
+      </c>
+      <c r="BJ70">
+        <v>10142</v>
+      </c>
+      <c r="BK70">
+        <v>10115</v>
+      </c>
+      <c r="BM70">
         <v>158489</v>
       </c>
-      <c r="BD70" s="3">
+      <c r="BN70" s="3">
         <v>10878</v>
       </c>
-      <c r="BE70">
+      <c r="BO70">
         <v>11073</v>
       </c>
-      <c r="BF70">
+      <c r="BP70">
         <v>11383</v>
       </c>
-      <c r="BI70">
+      <c r="BS70">
         <v>158489</v>
       </c>
-      <c r="BJ70">
+      <c r="BT70">
         <v>10875</v>
       </c>
-      <c r="BK70">
+      <c r="BU70">
         <v>10779</v>
       </c>
-      <c r="BL70" s="3">
+      <c r="BV70" s="3">
         <v>10892</v>
       </c>
-      <c r="BM70">
+      <c r="BW70">
         <v>10932</v>
       </c>
-      <c r="BN70">
+      <c r="BX70">
         <v>11613</v>
       </c>
-      <c r="BO70" s="3">
+      <c r="BY70" s="3">
         <v>11859</v>
       </c>
-      <c r="BP70">
+      <c r="BZ70">
         <v>12143</v>
       </c>
-      <c r="BQ70">
+      <c r="CA70">
         <v>11829</v>
       </c>
-      <c r="BR70">
+      <c r="CB70">
         <v>12273</v>
       </c>
-      <c r="BS70">
+      <c r="CC70">
         <v>12591</v>
       </c>
-      <c r="BT70">
+      <c r="CD70">
         <v>12166</v>
       </c>
-      <c r="BU70" s="3">
+      <c r="CE70" s="3">
         <v>12247</v>
       </c>
-      <c r="BX70">
+      <c r="CH70">
         <v>158489</v>
       </c>
-      <c r="BY70">
+      <c r="CI70">
         <v>11722</v>
       </c>
-      <c r="BZ70">
+      <c r="CJ70">
         <v>11474</v>
       </c>
-      <c r="CA70">
+      <c r="CK70">
         <v>11617</v>
       </c>
-      <c r="CB70">
+      <c r="CL70">
         <v>12022</v>
       </c>
-      <c r="CC70">
+      <c r="CM70">
         <v>12307</v>
       </c>
-      <c r="CD70">
+      <c r="CN70">
         <v>12374</v>
       </c>
-      <c r="CE70">
+      <c r="CO70">
         <v>12653</v>
       </c>
-      <c r="CF70">
+      <c r="CP70">
         <v>12544</v>
       </c>
-      <c r="CG70">
+      <c r="CQ70">
         <v>12772</v>
       </c>
-      <c r="CH70">
+      <c r="CR70">
         <v>12664</v>
       </c>
-      <c r="CI70">
+      <c r="CS70">
         <v>12689</v>
       </c>
-      <c r="CJ70">
+      <c r="CT70">
         <v>12938</v>
       </c>
     </row>
-    <row r="71" spans="4:88" x14ac:dyDescent="0.3">
+    <row r="71" spans="4:98" x14ac:dyDescent="0.3">
       <c r="D71">
         <v>251188</v>
       </c>
@@ -50324,7 +51423,7 @@
         <v>16670</v>
       </c>
       <c r="G71" s="3">
-        <v>19861</v>
+        <v>11390</v>
       </c>
       <c r="H71" s="3">
         <v>15928</v>
@@ -50374,134 +51473,194 @@
       <c r="AE71">
         <v>43993</v>
       </c>
-      <c r="AH71">
+      <c r="AF71">
+        <v>24377</v>
+      </c>
+      <c r="AG71">
+        <v>20372</v>
+      </c>
+      <c r="AH71" s="3">
+        <v>11390</v>
+      </c>
+      <c r="AI71">
+        <v>11836</v>
+      </c>
+      <c r="AJ71">
         <v>112306</v>
       </c>
-      <c r="AI71">
+      <c r="AK71">
         <v>54913</v>
       </c>
-      <c r="AJ71">
+      <c r="AL71">
         <v>28332</v>
       </c>
       <c r="AM71">
+        <v>22359</v>
+      </c>
+      <c r="AN71">
+        <v>13159</v>
+      </c>
+      <c r="AO71">
+        <v>11775</v>
+      </c>
+      <c r="AP71">
+        <v>11757</v>
+      </c>
+      <c r="AQ71">
         <v>92596</v>
       </c>
-      <c r="AN71">
+      <c r="AR71">
         <v>40055</v>
       </c>
-      <c r="AO71">
+      <c r="AS71">
         <v>26911</v>
       </c>
-      <c r="AR71">
+      <c r="AT71">
+        <v>15143</v>
+      </c>
+      <c r="AU71">
+        <v>14115</v>
+      </c>
+      <c r="AV71">
+        <v>13103</v>
+      </c>
+      <c r="AW71">
+        <v>12922</v>
+      </c>
+      <c r="AX71">
         <v>85268</v>
       </c>
-      <c r="AS71">
+      <c r="AY71">
         <v>39092</v>
       </c>
-      <c r="AT71" s="3">
+      <c r="AZ71">
         <v>19861</v>
       </c>
-      <c r="AW71">
+      <c r="BA71">
+        <v>15861</v>
+      </c>
+      <c r="BB71">
+        <v>14395</v>
+      </c>
+      <c r="BC71">
+        <v>14020</v>
+      </c>
+      <c r="BD71">
+        <v>13991</v>
+      </c>
+      <c r="BE71">
         <v>87825</v>
       </c>
-      <c r="AX71">
+      <c r="BF71">
         <v>33102</v>
       </c>
-      <c r="AY71">
+      <c r="BG71">
         <v>19846</v>
       </c>
-      <c r="BC71">
+      <c r="BH71">
+        <v>16458</v>
+      </c>
+      <c r="BI71">
+        <v>15576</v>
+      </c>
+      <c r="BJ71">
+        <v>15004</v>
+      </c>
+      <c r="BK71">
+        <v>14663</v>
+      </c>
+      <c r="BM71">
         <v>251188</v>
       </c>
-      <c r="BD71" s="3">
+      <c r="BN71" s="3">
         <v>15500</v>
       </c>
-      <c r="BE71">
+      <c r="BO71">
         <v>15928</v>
       </c>
-      <c r="BF71">
+      <c r="BP71">
         <v>17204</v>
       </c>
-      <c r="BI71">
+      <c r="BS71">
         <v>251188</v>
       </c>
-      <c r="BJ71">
+      <c r="BT71">
         <v>16111</v>
       </c>
-      <c r="BK71">
+      <c r="BU71">
         <v>16115</v>
       </c>
-      <c r="BL71" s="3">
+      <c r="BV71" s="3">
         <v>15479</v>
       </c>
-      <c r="BM71">
+      <c r="BW71">
         <v>15766</v>
       </c>
-      <c r="BN71">
+      <c r="BX71">
         <v>16891</v>
       </c>
-      <c r="BO71" s="3">
+      <c r="BY71" s="3">
         <v>16670</v>
       </c>
-      <c r="BP71">
+      <c r="BZ71">
         <v>16555</v>
       </c>
-      <c r="BQ71">
+      <c r="CA71">
         <v>16596</v>
       </c>
-      <c r="BR71">
+      <c r="CB71">
         <v>17527</v>
       </c>
-      <c r="BS71">
+      <c r="CC71">
         <v>18326</v>
       </c>
-      <c r="BT71">
+      <c r="CD71">
         <v>17504</v>
       </c>
-      <c r="BU71" s="3">
+      <c r="CE71" s="3">
         <v>17948</v>
       </c>
-      <c r="BX71">
+      <c r="CH71">
         <v>251188</v>
       </c>
-      <c r="BY71">
+      <c r="CI71">
         <v>16462</v>
       </c>
-      <c r="BZ71">
+      <c r="CJ71">
         <v>16198</v>
       </c>
-      <c r="CA71">
+      <c r="CK71">
         <v>16475</v>
       </c>
-      <c r="CB71">
+      <c r="CL71">
         <v>17195</v>
       </c>
-      <c r="CC71">
+      <c r="CM71">
         <v>17579</v>
       </c>
-      <c r="CD71">
+      <c r="CN71">
         <v>17960</v>
       </c>
-      <c r="CE71">
+      <c r="CO71">
         <v>17927</v>
       </c>
-      <c r="CF71">
+      <c r="CP71">
         <v>17899</v>
       </c>
-      <c r="CG71">
+      <c r="CQ71">
         <v>18324</v>
       </c>
-      <c r="CH71">
+      <c r="CR71">
         <v>18266</v>
       </c>
-      <c r="CI71">
+      <c r="CS71">
         <v>18121</v>
       </c>
-      <c r="CJ71">
+      <c r="CT71">
         <v>18765</v>
       </c>
     </row>
-    <row r="72" spans="4:88" x14ac:dyDescent="0.3">
+    <row r="72" spans="4:98" x14ac:dyDescent="0.3">
       <c r="D72">
         <v>466158</v>
       </c>
@@ -50512,7 +51671,7 @@
         <v>27949</v>
       </c>
       <c r="G72" s="3">
-        <v>43297</v>
+        <v>19463</v>
       </c>
       <c r="H72" s="3">
         <v>27295</v>
@@ -50562,212 +51721,281 @@
       <c r="AE72">
         <v>130170</v>
       </c>
-      <c r="AH72">
+      <c r="AF72">
+        <v>62136</v>
+      </c>
+      <c r="AG72">
+        <v>49721</v>
+      </c>
+      <c r="AH72" s="3">
+        <v>19463</v>
+      </c>
+      <c r="AI72">
+        <v>20018</v>
+      </c>
+      <c r="AJ72">
         <v>362728</v>
       </c>
-      <c r="AI72">
+      <c r="AK72">
         <v>161908</v>
       </c>
-      <c r="AJ72">
+      <c r="AL72">
         <v>75731</v>
       </c>
       <c r="AM72">
+        <v>56456</v>
+      </c>
+      <c r="AN72">
+        <v>25519</v>
+      </c>
+      <c r="AO72">
+        <v>21481</v>
+      </c>
+      <c r="AP72">
+        <v>21945</v>
+      </c>
+      <c r="AQ72">
         <v>302508</v>
       </c>
-      <c r="AN72">
+      <c r="AR72">
         <v>121833</v>
       </c>
-      <c r="AO72">
+      <c r="AS72">
         <v>72287</v>
       </c>
-      <c r="AR72">
+      <c r="AT72">
+        <v>29837</v>
+      </c>
+      <c r="AU72">
+        <v>25558</v>
+      </c>
+      <c r="AV72">
+        <v>22923</v>
+      </c>
+      <c r="AW72">
+        <v>22824</v>
+      </c>
+      <c r="AX72">
         <v>258471</v>
       </c>
-      <c r="AS72">
+      <c r="AY72">
         <v>108176</v>
       </c>
-      <c r="AT72" s="3">
+      <c r="AZ72">
         <v>43297</v>
       </c>
-      <c r="AW72">
+      <c r="BA72">
+        <v>39880</v>
+      </c>
+      <c r="BB72">
+        <v>35633</v>
+      </c>
+      <c r="BC72">
+        <v>32318</v>
+      </c>
+      <c r="BD72">
+        <v>31453</v>
+      </c>
+      <c r="BE72">
         <v>269968</v>
       </c>
-      <c r="AX72">
+      <c r="BF72">
         <v>91041</v>
       </c>
-      <c r="AY72">
+      <c r="BG72">
         <v>52877</v>
       </c>
-      <c r="BC72">
+      <c r="BH72">
+        <v>41312</v>
+      </c>
+      <c r="BI72">
+        <v>37526</v>
+      </c>
+      <c r="BJ72">
+        <v>33939</v>
+      </c>
+      <c r="BK72">
+        <v>35000</v>
+      </c>
+      <c r="BM72">
         <v>466158</v>
       </c>
-      <c r="BD72" s="3">
+      <c r="BN72" s="3">
         <v>27423</v>
       </c>
-      <c r="BE72">
+      <c r="BO72">
         <v>27295</v>
       </c>
-      <c r="BF72">
+      <c r="BP72">
         <v>28681</v>
       </c>
-      <c r="BI72">
+      <c r="BS72">
         <v>466158</v>
       </c>
-      <c r="BJ72">
+      <c r="BT72">
         <v>27200</v>
       </c>
-      <c r="BK72">
+      <c r="BU72">
         <v>27466</v>
       </c>
-      <c r="BL72" s="3">
+      <c r="BV72" s="3">
         <v>26310</v>
       </c>
-      <c r="BM72">
+      <c r="BW72">
         <v>26899</v>
       </c>
-      <c r="BN72">
+      <c r="BX72">
         <v>27786</v>
       </c>
-      <c r="BO72" s="3">
+      <c r="BY72" s="3">
         <v>27949</v>
       </c>
-      <c r="BP72">
+      <c r="BZ72">
         <v>28620</v>
       </c>
-      <c r="BQ72">
+      <c r="CA72">
         <v>28580</v>
       </c>
-      <c r="BR72">
+      <c r="CB72">
         <v>29689</v>
       </c>
-      <c r="BS72">
+      <c r="CC72">
         <v>29734</v>
       </c>
-      <c r="BT72">
+      <c r="CD72">
         <v>30439</v>
       </c>
-      <c r="BU72" s="3">
+      <c r="CE72" s="3">
         <v>29629</v>
       </c>
-      <c r="BX72">
+      <c r="CH72">
         <v>466158</v>
       </c>
-      <c r="BY72">
+      <c r="CI72">
         <v>27117</v>
       </c>
-      <c r="BZ72">
+      <c r="CJ72">
         <v>27447</v>
       </c>
-      <c r="CA72">
+      <c r="CK72">
         <v>28485</v>
       </c>
-      <c r="CB72">
+      <c r="CL72">
         <v>28729</v>
       </c>
-      <c r="CC72">
+      <c r="CM72">
         <v>29410</v>
       </c>
-      <c r="CD72">
+      <c r="CN72">
         <v>30010</v>
       </c>
-      <c r="CE72">
+      <c r="CO72">
         <v>29497</v>
       </c>
-      <c r="CF72">
+      <c r="CP72">
         <v>30660</v>
       </c>
-      <c r="CG72">
+      <c r="CQ72">
         <v>30943</v>
       </c>
-      <c r="CH72">
+      <c r="CR72">
         <v>31062</v>
       </c>
-      <c r="CI72">
+      <c r="CS72">
         <v>30880</v>
       </c>
-      <c r="CJ72">
+      <c r="CT72">
         <v>31882</v>
       </c>
     </row>
-    <row r="86" spans="4:59" x14ac:dyDescent="0.3">
-      <c r="BC86" t="s">
+    <row r="73" spans="4:98" x14ac:dyDescent="0.3">
+      <c r="AA73" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB73">
+        <f>MIN(AB72:BK72)</f>
+        <v>19463</v>
+      </c>
+    </row>
+    <row r="86" spans="4:69" x14ac:dyDescent="0.3">
+      <c r="BM86" t="s">
         <v>51</v>
       </c>
-      <c r="BD86" t="s">
+      <c r="BN86" t="s">
         <v>53</v>
       </c>
-      <c r="BF86" t="s">
+      <c r="BP86" t="s">
         <v>51</v>
       </c>
-      <c r="BG86" t="s">
+      <c r="BQ86" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="87" spans="4:59" x14ac:dyDescent="0.3">
-      <c r="BC87">
+    <row r="87" spans="4:69" x14ac:dyDescent="0.3">
+      <c r="BM87">
         <v>10000</v>
       </c>
-      <c r="BD87">
-        <f>BD52/1000</f>
+      <c r="BN87">
+        <f>BN52/1000</f>
         <v>3.0310000000000001</v>
       </c>
-      <c r="BF87">
+      <c r="BP87">
         <v>10000</v>
       </c>
-      <c r="BG87">
-        <f>BD64/1000</f>
+      <c r="BQ87">
+        <f>BN64/1000</f>
         <v>2.8919999999999999</v>
       </c>
     </row>
-    <row r="88" spans="4:59" x14ac:dyDescent="0.3">
-      <c r="BC88">
+    <row r="88" spans="4:69" x14ac:dyDescent="0.3">
+      <c r="BM88">
         <v>15848</v>
       </c>
-      <c r="BD88">
-        <f t="shared" ref="BD88:BD95" si="5">BD53/1000</f>
+      <c r="BN88">
+        <f t="shared" ref="BN88:BN95" si="5">BN53/1000</f>
         <v>3.214</v>
       </c>
-      <c r="BF88">
+      <c r="BP88">
         <v>15848</v>
       </c>
-      <c r="BG88">
-        <f t="shared" ref="BG88:BG95" si="6">BD65/1000</f>
+      <c r="BQ88">
+        <f t="shared" ref="BQ88:BQ95" si="6">BN65/1000</f>
         <v>3.484</v>
       </c>
     </row>
-    <row r="89" spans="4:59" x14ac:dyDescent="0.3">
-      <c r="BC89">
+    <row r="89" spans="4:69" x14ac:dyDescent="0.3">
+      <c r="BM89">
         <v>25118</v>
       </c>
-      <c r="BD89">
+      <c r="BN89">
         <f t="shared" si="5"/>
         <v>3.8759999999999999</v>
       </c>
-      <c r="BF89">
+      <c r="BP89">
         <v>25118</v>
       </c>
-      <c r="BG89">
+      <c r="BQ89">
         <f t="shared" si="6"/>
         <v>4.0030000000000001</v>
       </c>
     </row>
-    <row r="90" spans="4:59" x14ac:dyDescent="0.3">
-      <c r="BC90">
+    <row r="90" spans="4:69" x14ac:dyDescent="0.3">
+      <c r="BM90">
         <v>39810</v>
       </c>
-      <c r="BD90">
+      <c r="BN90">
         <f t="shared" si="5"/>
         <v>4.4039999999999999</v>
       </c>
-      <c r="BF90">
+      <c r="BP90">
         <v>39810</v>
       </c>
-      <c r="BG90">
+      <c r="BQ90">
         <f t="shared" si="6"/>
         <v>4.681</v>
       </c>
     </row>
-    <row r="91" spans="4:59" x14ac:dyDescent="0.3">
+    <row r="91" spans="4:69" x14ac:dyDescent="0.3">
       <c r="D91" t="s">
         <v>36</v>
       </c>
@@ -50780,22 +52008,22 @@
       <c r="I91" t="s">
         <v>0</v>
       </c>
-      <c r="BC91">
+      <c r="BM91">
         <v>63095</v>
       </c>
-      <c r="BD91">
+      <c r="BN91">
         <f t="shared" si="5"/>
         <v>5.3890000000000002</v>
       </c>
-      <c r="BF91">
+      <c r="BP91">
         <v>63095</v>
       </c>
-      <c r="BG91">
+      <c r="BQ91">
         <f t="shared" si="6"/>
         <v>5.8579999999999997</v>
       </c>
     </row>
-    <row r="92" spans="4:59" x14ac:dyDescent="0.3">
+    <row r="92" spans="4:69" x14ac:dyDescent="0.3">
       <c r="D92">
         <v>10000</v>
       </c>
@@ -50810,22 +52038,22 @@
         <f>E64/1000</f>
         <v>3.4750000000000001</v>
       </c>
-      <c r="BC92">
+      <c r="BM92">
         <v>100000</v>
       </c>
-      <c r="BD92">
+      <c r="BN92">
         <f t="shared" si="5"/>
         <v>7</v>
       </c>
-      <c r="BF92">
+      <c r="BP92">
         <v>100000</v>
       </c>
-      <c r="BG92">
+      <c r="BQ92">
         <f t="shared" si="6"/>
         <v>7.6630000000000003</v>
       </c>
     </row>
-    <row r="93" spans="4:59" x14ac:dyDescent="0.3">
+    <row r="93" spans="4:69" x14ac:dyDescent="0.3">
       <c r="D93">
         <v>15848</v>
       </c>
@@ -50840,22 +52068,22 @@
         <f t="shared" ref="I93:I100" si="8">E65/1000</f>
         <v>3.9079999999999999</v>
       </c>
-      <c r="BC93">
+      <c r="BM93">
         <v>158489</v>
       </c>
-      <c r="BD93">
+      <c r="BN93">
         <f t="shared" si="5"/>
         <v>10.119999999999999</v>
       </c>
-      <c r="BF93">
+      <c r="BP93">
         <v>158489</v>
       </c>
-      <c r="BG93">
+      <c r="BQ93">
         <f t="shared" si="6"/>
         <v>10.878</v>
       </c>
     </row>
-    <row r="94" spans="4:59" x14ac:dyDescent="0.3">
+    <row r="94" spans="4:69" x14ac:dyDescent="0.3">
       <c r="D94">
         <v>25118</v>
       </c>
@@ -50870,22 +52098,22 @@
         <f t="shared" si="8"/>
         <v>4.5439999999999996</v>
       </c>
-      <c r="BC94">
+      <c r="BM94">
         <v>251188</v>
       </c>
-      <c r="BD94">
+      <c r="BN94">
         <f t="shared" si="5"/>
         <v>13.917</v>
       </c>
-      <c r="BF94">
+      <c r="BP94">
         <v>251188</v>
       </c>
-      <c r="BG94">
+      <c r="BQ94">
         <f t="shared" si="6"/>
         <v>15.5</v>
       </c>
     </row>
-    <row r="95" spans="4:59" x14ac:dyDescent="0.3">
+    <row r="95" spans="4:69" x14ac:dyDescent="0.3">
       <c r="D95">
         <v>39810</v>
       </c>
@@ -50900,22 +52128,22 @@
         <f t="shared" si="8"/>
         <v>5.4340000000000002</v>
       </c>
-      <c r="BC95">
+      <c r="BM95">
         <v>466158</v>
       </c>
-      <c r="BD95">
+      <c r="BN95">
         <f t="shared" si="5"/>
         <v>24.63</v>
       </c>
-      <c r="BF95">
+      <c r="BP95">
         <v>466158</v>
       </c>
-      <c r="BG95">
+      <c r="BQ95">
         <f t="shared" si="6"/>
         <v>27.422999999999998</v>
       </c>
     </row>
-    <row r="96" spans="4:59" x14ac:dyDescent="0.3">
+    <row r="96" spans="4:69" x14ac:dyDescent="0.3">
       <c r="D96">
         <v>63095</v>
       </c>
@@ -50931,7 +52159,7 @@
         <v>6.5670000000000002</v>
       </c>
     </row>
-    <row r="97" spans="4:59" x14ac:dyDescent="0.3">
+    <row r="97" spans="4:69" x14ac:dyDescent="0.3">
       <c r="D97">
         <v>100000</v>
       </c>
@@ -50947,7 +52175,7 @@
         <v>8.5679999999999996</v>
       </c>
     </row>
-    <row r="98" spans="4:59" x14ac:dyDescent="0.3">
+    <row r="98" spans="4:69" x14ac:dyDescent="0.3">
       <c r="D98">
         <v>158489</v>
       </c>
@@ -50962,20 +52190,20 @@
         <f t="shared" si="8"/>
         <v>11.722</v>
       </c>
-      <c r="BC98" t="s">
+      <c r="BM98" t="s">
         <v>51</v>
       </c>
-      <c r="BD98" t="s">
+      <c r="BN98" t="s">
         <v>54</v>
       </c>
-      <c r="BF98" t="s">
+      <c r="BP98" t="s">
         <v>51</v>
       </c>
-      <c r="BG98" t="s">
+      <c r="BQ98" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="99" spans="4:59" x14ac:dyDescent="0.3">
+    <row r="99" spans="4:69" x14ac:dyDescent="0.3">
       <c r="D99">
         <v>251188</v>
       </c>
@@ -50990,22 +52218,22 @@
         <f t="shared" si="8"/>
         <v>16.462</v>
       </c>
-      <c r="BC99">
+      <c r="BM99">
         <v>10000</v>
       </c>
-      <c r="BD99">
-        <f t="shared" ref="BD99:BD107" si="9">BE52/1000</f>
+      <c r="BN99">
+        <f t="shared" ref="BN99:BN107" si="9">BO52/1000</f>
         <v>3.02</v>
       </c>
-      <c r="BF99">
+      <c r="BP99">
         <v>10000</v>
       </c>
-      <c r="BG99">
-        <f>BE64/1000</f>
+      <c r="BQ99">
+        <f>BO64/1000</f>
         <v>3.254</v>
       </c>
     </row>
-    <row r="100" spans="4:59" x14ac:dyDescent="0.3">
+    <row r="100" spans="4:69" x14ac:dyDescent="0.3">
       <c r="D100">
         <v>466158</v>
       </c>
@@ -51020,54 +52248,54 @@
         <f t="shared" si="8"/>
         <v>27.117000000000001</v>
       </c>
-      <c r="BC100">
+      <c r="BM100">
         <v>15848</v>
       </c>
-      <c r="BD100">
+      <c r="BN100">
         <f t="shared" si="9"/>
         <v>3.4380000000000002</v>
       </c>
-      <c r="BF100">
+      <c r="BP100">
         <v>15848</v>
       </c>
-      <c r="BG100">
-        <f t="shared" ref="BG100:BG107" si="10">BE65/1000</f>
+      <c r="BQ100">
+        <f t="shared" ref="BQ100:BQ107" si="10">BO65/1000</f>
         <v>3.5510000000000002</v>
       </c>
     </row>
-    <row r="101" spans="4:59" x14ac:dyDescent="0.3">
-      <c r="BC101">
+    <row r="101" spans="4:69" x14ac:dyDescent="0.3">
+      <c r="BM101">
         <v>25118</v>
       </c>
-      <c r="BD101">
+      <c r="BN101">
         <f t="shared" si="9"/>
         <v>4.1470000000000002</v>
       </c>
-      <c r="BF101">
+      <c r="BP101">
         <v>25118</v>
       </c>
-      <c r="BG101">
+      <c r="BQ101">
         <f t="shared" si="10"/>
         <v>4.1559999999999997</v>
       </c>
     </row>
-    <row r="102" spans="4:59" x14ac:dyDescent="0.3">
-      <c r="BC102">
+    <row r="102" spans="4:69" x14ac:dyDescent="0.3">
+      <c r="BM102">
         <v>39810</v>
       </c>
-      <c r="BD102">
+      <c r="BN102">
         <f t="shared" si="9"/>
         <v>4.7919999999999998</v>
       </c>
-      <c r="BF102">
+      <c r="BP102">
         <v>39810</v>
       </c>
-      <c r="BG102">
+      <c r="BQ102">
         <f t="shared" si="10"/>
         <v>5.0309999999999997</v>
       </c>
     </row>
-    <row r="103" spans="4:59" x14ac:dyDescent="0.3">
+    <row r="103" spans="4:69" x14ac:dyDescent="0.3">
       <c r="D103" t="s">
         <v>36</v>
       </c>
@@ -51080,22 +52308,22 @@
       <c r="I103" t="s">
         <v>1</v>
       </c>
-      <c r="BC103">
+      <c r="BM103">
         <v>63095</v>
       </c>
-      <c r="BD103">
+      <c r="BN103">
         <f t="shared" si="9"/>
         <v>5.694</v>
       </c>
-      <c r="BF103">
+      <c r="BP103">
         <v>63095</v>
       </c>
-      <c r="BG103">
+      <c r="BQ103">
         <f t="shared" si="10"/>
         <v>6.4950000000000001</v>
       </c>
     </row>
-    <row r="104" spans="4:59" x14ac:dyDescent="0.3">
+    <row r="104" spans="4:69" x14ac:dyDescent="0.3">
       <c r="D104">
         <v>10000</v>
       </c>
@@ -51110,22 +52338,22 @@
         <f>F64/1000</f>
         <v>3.2440000000000002</v>
       </c>
-      <c r="BC104">
+      <c r="BM104">
         <v>100000</v>
       </c>
-      <c r="BD104">
+      <c r="BN104">
         <f t="shared" si="9"/>
         <v>7.7649999999999997</v>
       </c>
-      <c r="BF104">
+      <c r="BP104">
         <v>100000</v>
       </c>
-      <c r="BG104">
+      <c r="BQ104">
         <f t="shared" si="10"/>
         <v>8.2119999999999997</v>
       </c>
     </row>
-    <row r="105" spans="4:59" x14ac:dyDescent="0.3">
+    <row r="105" spans="4:69" x14ac:dyDescent="0.3">
       <c r="D105">
         <v>15848</v>
       </c>
@@ -51140,22 +52368,22 @@
         <f t="shared" ref="I105:I112" si="12">F65/1000</f>
         <v>3.7429999999999999</v>
       </c>
-      <c r="BC105">
+      <c r="BM105">
         <v>158489</v>
       </c>
-      <c r="BD105">
+      <c r="BN105">
         <f t="shared" si="9"/>
         <v>10.606</v>
       </c>
-      <c r="BF105">
+      <c r="BP105">
         <v>158489</v>
       </c>
-      <c r="BG105">
+      <c r="BQ105">
         <f t="shared" si="10"/>
         <v>11.073</v>
       </c>
     </row>
-    <row r="106" spans="4:59" x14ac:dyDescent="0.3">
+    <row r="106" spans="4:69" x14ac:dyDescent="0.3">
       <c r="D106">
         <v>25118</v>
       </c>
@@ -51170,22 +52398,22 @@
         <f t="shared" si="12"/>
         <v>4.2519999999999998</v>
       </c>
-      <c r="BC106">
+      <c r="BM106">
         <v>251188</v>
       </c>
-      <c r="BD106">
+      <c r="BN106">
         <f t="shared" si="9"/>
         <v>14.276</v>
       </c>
-      <c r="BF106">
+      <c r="BP106">
         <v>251188</v>
       </c>
-      <c r="BG106">
+      <c r="BQ106">
         <f t="shared" si="10"/>
         <v>15.928000000000001</v>
       </c>
     </row>
-    <row r="107" spans="4:59" x14ac:dyDescent="0.3">
+    <row r="107" spans="4:69" x14ac:dyDescent="0.3">
       <c r="D107">
         <v>39810</v>
       </c>
@@ -51200,22 +52428,22 @@
         <f t="shared" si="12"/>
         <v>5.1079999999999997</v>
       </c>
-      <c r="BC107">
+      <c r="BM107">
         <v>466158</v>
       </c>
-      <c r="BD107">
+      <c r="BN107">
         <f t="shared" si="9"/>
         <v>25.823</v>
       </c>
-      <c r="BF107">
+      <c r="BP107">
         <v>466158</v>
       </c>
-      <c r="BG107">
+      <c r="BQ107">
         <f t="shared" si="10"/>
         <v>27.295000000000002</v>
       </c>
     </row>
-    <row r="108" spans="4:59" x14ac:dyDescent="0.3">
+    <row r="108" spans="4:69" x14ac:dyDescent="0.3">
       <c r="D108">
         <v>63095</v>
       </c>
@@ -51231,7 +52459,7 @@
         <v>6.6989999999999998</v>
       </c>
     </row>
-    <row r="109" spans="4:59" x14ac:dyDescent="0.3">
+    <row r="109" spans="4:69" x14ac:dyDescent="0.3">
       <c r="D109">
         <v>100000</v>
       </c>
@@ -51247,7 +52475,7 @@
         <v>8.375</v>
       </c>
     </row>
-    <row r="110" spans="4:59" x14ac:dyDescent="0.3">
+    <row r="110" spans="4:69" x14ac:dyDescent="0.3">
       <c r="D110">
         <v>158489</v>
       </c>
@@ -51262,20 +52490,20 @@
         <f t="shared" si="12"/>
         <v>11.859</v>
       </c>
-      <c r="BC110" t="s">
+      <c r="BM110" t="s">
         <v>51</v>
       </c>
-      <c r="BD110" t="s">
+      <c r="BN110" t="s">
         <v>55</v>
       </c>
-      <c r="BF110" t="s">
+      <c r="BP110" t="s">
         <v>51</v>
       </c>
-      <c r="BG110" t="s">
+      <c r="BQ110" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="111" spans="4:59" x14ac:dyDescent="0.3">
+    <row r="111" spans="4:69" x14ac:dyDescent="0.3">
       <c r="D111">
         <v>251188</v>
       </c>
@@ -51290,22 +52518,22 @@
         <f t="shared" si="12"/>
         <v>16.670000000000002</v>
       </c>
-      <c r="BC111">
+      <c r="BM111">
         <v>10000</v>
       </c>
-      <c r="BD111">
-        <f t="shared" ref="BD111:BD119" si="13">BF52/1000</f>
+      <c r="BN111">
+        <f t="shared" ref="BN111:BN119" si="13">BP52/1000</f>
         <v>3.2610000000000001</v>
       </c>
-      <c r="BF111">
+      <c r="BP111">
         <v>10000</v>
       </c>
-      <c r="BG111">
-        <f>BF64/1000</f>
+      <c r="BQ111">
+        <f>BP64/1000</f>
         <v>3.3010000000000002</v>
       </c>
     </row>
-    <row r="112" spans="4:59" x14ac:dyDescent="0.3">
+    <row r="112" spans="4:69" x14ac:dyDescent="0.3">
       <c r="D112">
         <v>466158</v>
       </c>
@@ -51320,54 +52548,54 @@
         <f t="shared" si="12"/>
         <v>27.949000000000002</v>
       </c>
-      <c r="BC112">
+      <c r="BM112">
         <v>15848</v>
       </c>
-      <c r="BD112">
+      <c r="BN112">
         <f t="shared" si="13"/>
         <v>3.504</v>
       </c>
-      <c r="BF112">
+      <c r="BP112">
         <v>15848</v>
       </c>
-      <c r="BG112">
-        <f t="shared" ref="BG112:BG119" si="14">BF65/1000</f>
+      <c r="BQ112">
+        <f t="shared" ref="BQ112:BQ119" si="14">BP65/1000</f>
         <v>3.887</v>
       </c>
     </row>
-    <row r="113" spans="4:59" x14ac:dyDescent="0.3">
-      <c r="BC113">
+    <row r="113" spans="4:69" x14ac:dyDescent="0.3">
+      <c r="BM113">
         <v>25118</v>
       </c>
-      <c r="BD113">
+      <c r="BN113">
         <f t="shared" si="13"/>
         <v>3.964</v>
       </c>
-      <c r="BF113">
+      <c r="BP113">
         <v>25118</v>
       </c>
-      <c r="BG113">
+      <c r="BQ113">
         <f t="shared" si="14"/>
         <v>4.5090000000000003</v>
       </c>
     </row>
-    <row r="114" spans="4:59" x14ac:dyDescent="0.3">
-      <c r="BC114">
+    <row r="114" spans="4:69" x14ac:dyDescent="0.3">
+      <c r="BM114">
         <v>39810</v>
       </c>
-      <c r="BD114">
+      <c r="BN114">
         <f t="shared" si="13"/>
         <v>4.774</v>
       </c>
-      <c r="BF114">
+      <c r="BP114">
         <v>39810</v>
       </c>
-      <c r="BG114">
+      <c r="BQ114">
         <f t="shared" si="14"/>
         <v>5.3620000000000001</v>
       </c>
     </row>
-    <row r="115" spans="4:59" x14ac:dyDescent="0.3">
+    <row r="115" spans="4:69" x14ac:dyDescent="0.3">
       <c r="D115" t="s">
         <v>36</v>
       </c>
@@ -51380,222 +52608,222 @@
       <c r="I115" t="s">
         <v>2</v>
       </c>
-      <c r="BC115">
+      <c r="BM115">
         <v>63095</v>
       </c>
-      <c r="BD115">
+      <c r="BN115">
         <f t="shared" si="13"/>
         <v>6.33</v>
       </c>
-      <c r="BF115">
+      <c r="BP115">
         <v>63095</v>
       </c>
-      <c r="BG115">
+      <c r="BQ115">
         <f t="shared" si="14"/>
         <v>6.2140000000000004</v>
       </c>
     </row>
-    <row r="116" spans="4:59" x14ac:dyDescent="0.3">
+    <row r="116" spans="4:69" x14ac:dyDescent="0.3">
       <c r="D116">
         <v>10000</v>
       </c>
       <c r="E116">
         <f>G52/1000</f>
-        <v>2.706</v>
+        <v>2.7130000000000001</v>
       </c>
       <c r="H116">
         <v>10000</v>
       </c>
       <c r="I116">
         <f>G64/1000</f>
-        <v>2.6619999999999999</v>
-      </c>
-      <c r="BC116">
+        <v>2.7890000000000001</v>
+      </c>
+      <c r="BM116">
         <v>100000</v>
       </c>
-      <c r="BD116">
+      <c r="BN116">
         <f t="shared" si="13"/>
         <v>7.94</v>
       </c>
-      <c r="BF116">
+      <c r="BP116">
         <v>100000</v>
       </c>
-      <c r="BG116">
+      <c r="BQ116">
         <f t="shared" si="14"/>
         <v>8.7439999999999998</v>
       </c>
     </row>
-    <row r="117" spans="4:59" x14ac:dyDescent="0.3">
+    <row r="117" spans="4:69" x14ac:dyDescent="0.3">
       <c r="D117">
         <v>15848</v>
       </c>
       <c r="E117">
         <f t="shared" ref="E117:E124" si="15">G53/1000</f>
-        <v>2.9769999999999999</v>
+        <v>2.7789999999999999</v>
       </c>
       <c r="H117">
         <v>15848</v>
       </c>
       <c r="I117">
         <f t="shared" ref="I117:I124" si="16">G65/1000</f>
-        <v>3.117</v>
-      </c>
-      <c r="BC117">
+        <v>2.9350000000000001</v>
+      </c>
+      <c r="BM117">
         <v>158489</v>
       </c>
-      <c r="BD117">
+      <c r="BN117">
         <f t="shared" si="13"/>
         <v>10.967000000000001</v>
       </c>
-      <c r="BF117">
+      <c r="BP117">
         <v>158489</v>
       </c>
-      <c r="BG117">
+      <c r="BQ117">
         <f t="shared" si="14"/>
         <v>11.382999999999999</v>
       </c>
     </row>
-    <row r="118" spans="4:59" x14ac:dyDescent="0.3">
+    <row r="118" spans="4:69" x14ac:dyDescent="0.3">
       <c r="D118">
         <v>25118</v>
       </c>
       <c r="E118">
         <f t="shared" si="15"/>
-        <v>3.5950000000000002</v>
+        <v>3.1560000000000001</v>
       </c>
       <c r="H118">
         <v>25118</v>
       </c>
       <c r="I118">
         <f t="shared" si="16"/>
-        <v>3.6019999999999999</v>
-      </c>
-      <c r="BC118">
+        <v>3.2770000000000001</v>
+      </c>
+      <c r="BM118">
         <v>251188</v>
       </c>
-      <c r="BD118">
+      <c r="BN118">
         <f t="shared" si="13"/>
         <v>15.403</v>
       </c>
-      <c r="BF118">
+      <c r="BP118">
         <v>251188</v>
       </c>
-      <c r="BG118">
+      <c r="BQ118">
         <f t="shared" si="14"/>
         <v>17.204000000000001</v>
       </c>
     </row>
-    <row r="119" spans="4:59" x14ac:dyDescent="0.3">
+    <row r="119" spans="4:69" x14ac:dyDescent="0.3">
       <c r="D119">
         <v>39810</v>
       </c>
       <c r="E119">
         <f t="shared" si="15"/>
-        <v>4.2779999999999996</v>
+        <v>3.7730000000000001</v>
       </c>
       <c r="H119">
         <v>39810</v>
       </c>
       <c r="I119">
         <f t="shared" si="16"/>
-        <v>4.4119999999999999</v>
-      </c>
-      <c r="BC119">
+        <v>4.069</v>
+      </c>
+      <c r="BM119">
         <v>466158</v>
       </c>
-      <c r="BD119">
+      <c r="BN119">
         <f t="shared" si="13"/>
         <v>27.370999999999999</v>
       </c>
-      <c r="BF119">
+      <c r="BP119">
         <v>466158</v>
       </c>
-      <c r="BG119">
+      <c r="BQ119">
         <f t="shared" si="14"/>
         <v>28.681000000000001</v>
       </c>
     </row>
-    <row r="120" spans="4:59" x14ac:dyDescent="0.3">
+    <row r="120" spans="4:69" x14ac:dyDescent="0.3">
       <c r="D120">
         <v>63095</v>
       </c>
       <c r="E120">
         <f t="shared" si="15"/>
-        <v>5.2290000000000001</v>
+        <v>4.4649999999999999</v>
       </c>
       <c r="H120">
         <v>63095</v>
       </c>
       <c r="I120">
         <f t="shared" si="16"/>
-        <v>5.9580000000000002</v>
+        <v>4.37</v>
       </c>
     </row>
-    <row r="121" spans="4:59" x14ac:dyDescent="0.3">
+    <row r="121" spans="4:69" x14ac:dyDescent="0.3">
       <c r="D121">
         <v>100000</v>
       </c>
       <c r="E121">
         <f t="shared" si="15"/>
-        <v>7.7649999999999997</v>
+        <v>5.8369999999999997</v>
       </c>
       <c r="H121">
         <v>100000</v>
       </c>
       <c r="I121">
         <f t="shared" si="16"/>
-        <v>7.69</v>
+        <v>5.9989999999999997</v>
       </c>
     </row>
-    <row r="122" spans="4:59" x14ac:dyDescent="0.3">
+    <row r="122" spans="4:69" x14ac:dyDescent="0.3">
       <c r="D122">
         <v>158489</v>
       </c>
       <c r="E122">
         <f t="shared" si="15"/>
-        <v>11.973000000000001</v>
+        <v>7.7389999999999999</v>
       </c>
       <c r="H122">
         <v>158489</v>
       </c>
       <c r="I122">
         <f t="shared" si="16"/>
-        <v>11.727</v>
+        <v>8.3260000000000005</v>
       </c>
     </row>
-    <row r="123" spans="4:59" x14ac:dyDescent="0.3">
+    <row r="123" spans="4:69" x14ac:dyDescent="0.3">
       <c r="D123">
         <v>251188</v>
       </c>
       <c r="E123">
         <f t="shared" si="15"/>
-        <v>20.378</v>
+        <v>10.657</v>
       </c>
       <c r="H123">
         <v>251188</v>
       </c>
       <c r="I123">
         <f t="shared" si="16"/>
-        <v>19.861000000000001</v>
+        <v>11.39</v>
       </c>
     </row>
-    <row r="124" spans="4:59" x14ac:dyDescent="0.3">
+    <row r="124" spans="4:69" x14ac:dyDescent="0.3">
       <c r="D124">
         <v>466158</v>
       </c>
       <c r="E124">
         <f t="shared" si="15"/>
-        <v>46.122999999999998</v>
+        <v>18.841999999999999</v>
       </c>
       <c r="H124">
         <v>466158</v>
       </c>
       <c r="I124">
         <f t="shared" si="16"/>
-        <v>43.296999999999997</v>
+        <v>19.463000000000001</v>
       </c>
     </row>
-    <row r="127" spans="4:59" x14ac:dyDescent="0.3">
+    <row r="127" spans="4:69" x14ac:dyDescent="0.3">
       <c r="D127" t="s">
         <v>36</v>
       </c>
@@ -51609,7 +52837,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="128" spans="4:59" x14ac:dyDescent="0.3">
+    <row r="128" spans="4:69" x14ac:dyDescent="0.3">
       <c r="D128">
         <v>10000</v>
       </c>
@@ -51922,7 +53150,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B7:BQ143"/>
   <sheetViews>
-    <sheetView topLeftCell="A42" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A24" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="E45" sqref="E45:I55"/>
     </sheetView>
   </sheetViews>
@@ -58631,7 +59859,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C7:BU205"/>
   <sheetViews>
-    <sheetView topLeftCell="V35" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="V41" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="AO62" sqref="AO62"/>
     </sheetView>
   </sheetViews>

--- a/exp/exp2.xlsx
+++ b/exp/exp2.xlsx
@@ -44717,13 +44717,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
+      <xdr:colOff>2802</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>457760</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
@@ -44780,16 +44780,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>460002</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:rowOff>146236</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>231401</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:rowOff>165286</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -45551,8 +45551,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B7:CT148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L65" sqref="L65"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="S84" sqref="S84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -53150,7 +53150,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B7:BQ143"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="B24" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="E45" sqref="E45:I55"/>
     </sheetView>
   </sheetViews>
@@ -59857,10 +59857,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C7:BU205"/>
+  <dimension ref="C7:CO205"/>
   <sheetViews>
-    <sheetView topLeftCell="V41" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AO62" sqref="AO62"/>
+    <sheetView topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AO52" sqref="AO52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -60682,7 +60682,7 @@
         <v>14774</v>
       </c>
     </row>
-    <row r="33" spans="3:73" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:93" x14ac:dyDescent="0.3">
       <c r="C33">
         <v>9</v>
       </c>
@@ -60708,7 +60708,7 @@
         <v>24495</v>
       </c>
     </row>
-    <row r="34" spans="3:73" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:93" x14ac:dyDescent="0.3">
       <c r="C34">
         <v>10</v>
       </c>
@@ -60734,7 +60734,7 @@
         <v>39348</v>
       </c>
     </row>
-    <row r="35" spans="3:73" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:93" x14ac:dyDescent="0.3">
       <c r="C35">
         <v>11</v>
       </c>
@@ -60760,12 +60760,12 @@
         <v>80706</v>
       </c>
     </row>
-    <row r="44" spans="3:73" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:93" x14ac:dyDescent="0.3">
       <c r="AC44" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="45" spans="3:73" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:93" x14ac:dyDescent="0.3">
       <c r="AC45" t="s">
         <v>63</v>
       </c>
@@ -60779,94 +60779,154 @@
         <v>1</v>
       </c>
       <c r="AG45">
+        <v>1</v>
+      </c>
+      <c r="AH45">
+        <v>1</v>
+      </c>
+      <c r="AI45">
+        <v>1</v>
+      </c>
+      <c r="AJ45">
+        <v>1</v>
+      </c>
+      <c r="AK45">
         <v>2</v>
       </c>
-      <c r="AH45">
+      <c r="AL45">
         <v>2</v>
       </c>
-      <c r="AI45">
+      <c r="AM45">
         <v>2</v>
       </c>
-      <c r="AJ45">
+      <c r="AN45">
+        <v>2</v>
+      </c>
+      <c r="AO45">
+        <v>2</v>
+      </c>
+      <c r="AP45">
+        <v>2</v>
+      </c>
+      <c r="AQ45">
+        <v>2</v>
+      </c>
+      <c r="AR45">
         <v>3</v>
       </c>
-      <c r="AK45">
+      <c r="AS45">
         <v>3</v>
       </c>
-      <c r="AL45">
+      <c r="AT45">
         <v>3</v>
       </c>
-      <c r="AM45">
+      <c r="AU45">
+        <v>3</v>
+      </c>
+      <c r="AV45">
+        <v>3</v>
+      </c>
+      <c r="AW45">
+        <v>3</v>
+      </c>
+      <c r="AX45">
+        <v>3</v>
+      </c>
+      <c r="AY45">
         <v>4</v>
       </c>
-      <c r="AN45">
+      <c r="AZ45">
         <v>4</v>
       </c>
-      <c r="AO45">
+      <c r="BA45">
         <v>4</v>
       </c>
-      <c r="AP45">
+      <c r="BB45">
+        <v>4</v>
+      </c>
+      <c r="BC45">
+        <v>4</v>
+      </c>
+      <c r="BD45">
+        <v>4</v>
+      </c>
+      <c r="BE45">
+        <v>4</v>
+      </c>
+      <c r="BF45">
         <v>5</v>
       </c>
-      <c r="AQ45">
+      <c r="BG45">
         <v>5</v>
       </c>
-      <c r="AR45">
+      <c r="BH45">
         <v>5</v>
       </c>
-      <c r="AU45" t="s">
+      <c r="BI45">
+        <v>5</v>
+      </c>
+      <c r="BJ45">
+        <v>5</v>
+      </c>
+      <c r="BK45">
+        <v>5</v>
+      </c>
+      <c r="BL45">
+        <v>5</v>
+      </c>
+      <c r="BO45" t="s">
         <v>1</v>
       </c>
-      <c r="AV45" t="s">
+      <c r="BP45" t="s">
         <v>53</v>
       </c>
-      <c r="AZ45" t="s">
+      <c r="BT45" t="s">
         <v>56</v>
       </c>
-      <c r="BD45" t="s">
+      <c r="BX45" t="s">
         <v>57</v>
       </c>
-      <c r="BI45" t="s">
+      <c r="CC45" t="s">
         <v>59</v>
       </c>
-      <c r="BJ45">
+      <c r="CD45">
         <v>1</v>
       </c>
-      <c r="BK45">
+      <c r="CE45">
         <v>1</v>
       </c>
-      <c r="BL45">
+      <c r="CF45">
         <v>1</v>
       </c>
-      <c r="BM45">
+      <c r="CG45">
         <v>1</v>
       </c>
-      <c r="BN45">
+      <c r="CH45">
         <v>2</v>
       </c>
-      <c r="BO45">
+      <c r="CI45">
         <v>2</v>
       </c>
-      <c r="BP45">
+      <c r="CJ45">
         <v>2</v>
       </c>
-      <c r="BQ45">
+      <c r="CK45">
         <v>2</v>
       </c>
-      <c r="BR45">
+      <c r="CL45">
         <v>3</v>
       </c>
-      <c r="BS45">
+      <c r="CM45">
         <v>3</v>
       </c>
-      <c r="BT45">
+      <c r="CN45">
         <v>3</v>
       </c>
-      <c r="BU45">
+      <c r="CO45">
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="3:73" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:93" x14ac:dyDescent="0.3">
       <c r="E46" t="s">
         <v>0</v>
       </c>
@@ -60937,115 +60997,175 @@
         <v>3</v>
       </c>
       <c r="AG46">
+        <v>4</v>
+      </c>
+      <c r="AH46">
+        <v>5</v>
+      </c>
+      <c r="AI46">
+        <v>6</v>
+      </c>
+      <c r="AJ46">
+        <v>7</v>
+      </c>
+      <c r="AK46">
         <v>1</v>
       </c>
-      <c r="AH46">
+      <c r="AL46">
         <v>2</v>
       </c>
-      <c r="AI46">
+      <c r="AM46">
         <v>3</v>
       </c>
-      <c r="AJ46">
+      <c r="AN46">
+        <v>4</v>
+      </c>
+      <c r="AO46">
+        <v>5</v>
+      </c>
+      <c r="AP46">
+        <v>6</v>
+      </c>
+      <c r="AQ46">
+        <v>7</v>
+      </c>
+      <c r="AR46">
         <v>1</v>
       </c>
-      <c r="AK46">
+      <c r="AS46">
         <v>2</v>
       </c>
-      <c r="AL46">
+      <c r="AT46">
         <v>3</v>
       </c>
-      <c r="AM46">
+      <c r="AU46">
+        <v>4</v>
+      </c>
+      <c r="AV46">
+        <v>5</v>
+      </c>
+      <c r="AW46">
+        <v>6</v>
+      </c>
+      <c r="AX46">
+        <v>7</v>
+      </c>
+      <c r="AY46">
         <v>1</v>
       </c>
-      <c r="AN46">
+      <c r="AZ46">
         <v>2</v>
       </c>
-      <c r="AO46">
+      <c r="BA46">
         <v>3</v>
       </c>
-      <c r="AP46">
+      <c r="BB46">
+        <v>4</v>
+      </c>
+      <c r="BC46">
+        <v>5</v>
+      </c>
+      <c r="BD46">
+        <v>6</v>
+      </c>
+      <c r="BE46">
+        <v>7</v>
+      </c>
+      <c r="BF46">
         <v>1</v>
       </c>
-      <c r="AQ46">
+      <c r="BG46">
         <v>2</v>
       </c>
-      <c r="AR46">
+      <c r="BH46">
         <v>3</v>
       </c>
-      <c r="AV46">
+      <c r="BI46">
+        <v>4</v>
+      </c>
+      <c r="BJ46">
+        <v>5</v>
+      </c>
+      <c r="BK46">
+        <v>6</v>
+      </c>
+      <c r="BL46">
+        <v>7</v>
+      </c>
+      <c r="BP46">
         <v>3</v>
       </c>
-      <c r="AW46">
+      <c r="BQ46">
         <v>10</v>
       </c>
-      <c r="AX46">
+      <c r="BR46">
         <v>30</v>
       </c>
-      <c r="AY46">
+      <c r="BS46">
         <v>100</v>
       </c>
-      <c r="AZ46">
+      <c r="BT46">
         <v>3</v>
       </c>
-      <c r="BA46">
+      <c r="BU46">
         <v>10</v>
       </c>
-      <c r="BB46">
+      <c r="BV46">
         <v>30</v>
       </c>
-      <c r="BC46">
+      <c r="BW46">
         <v>100</v>
       </c>
-      <c r="BD46">
+      <c r="BX46">
         <v>3</v>
       </c>
-      <c r="BE46">
+      <c r="BY46">
         <v>10</v>
       </c>
-      <c r="BF46">
+      <c r="BZ46">
         <v>30</v>
       </c>
-      <c r="BG46">
+      <c r="CA46">
         <v>100</v>
       </c>
-      <c r="BJ46">
+      <c r="CD46">
         <v>1E-3</v>
       </c>
-      <c r="BK46">
+      <c r="CE46">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="BL46">
+      <c r="CF46">
         <v>0.01</v>
       </c>
-      <c r="BM46">
+      <c r="CG46">
         <v>0.03</v>
       </c>
-      <c r="BN46">
+      <c r="CH46">
         <v>1E-3</v>
       </c>
-      <c r="BO46">
+      <c r="CI46">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="BP46">
+      <c r="CJ46">
         <v>0.01</v>
       </c>
-      <c r="BQ46">
+      <c r="CK46">
         <v>0.03</v>
       </c>
-      <c r="BR46">
+      <c r="CL46">
         <v>1E-3</v>
       </c>
-      <c r="BS46">
+      <c r="CM46">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="BT46">
+      <c r="CN46">
         <v>0.01</v>
       </c>
-      <c r="BU46">
+      <c r="CO46">
         <v>0.03</v>
       </c>
     </row>
-    <row r="47" spans="3:73" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:93" x14ac:dyDescent="0.3">
       <c r="C47">
         <v>1</v>
       </c>
@@ -61122,103 +61242,181 @@
         <v>1376</v>
       </c>
       <c r="AG47">
+        <v>1476</v>
+      </c>
+      <c r="AH47">
+        <v>1517</v>
+      </c>
+      <c r="AI47">
+        <v>1717</v>
+      </c>
+      <c r="AJ47">
+        <v>2184</v>
+      </c>
+      <c r="AK47">
         <v>1314</v>
       </c>
-      <c r="AH47">
+      <c r="AL47">
         <v>1355</v>
       </c>
-      <c r="AI47">
+      <c r="AM47">
         <v>1372</v>
       </c>
-      <c r="AJ47">
+      <c r="AN47">
+        <v>1566</v>
+      </c>
+      <c r="AO47">
+        <v>1955</v>
+      </c>
+      <c r="AP47">
+        <v>2084</v>
+      </c>
+      <c r="AQ47">
+        <v>2335</v>
+      </c>
+      <c r="AR47">
         <v>1434</v>
       </c>
-      <c r="AK47">
+      <c r="AS47">
         <v>1320</v>
       </c>
-      <c r="AL47">
+      <c r="AT47">
         <v>1762</v>
       </c>
       <c r="AU47">
+        <v>1788</v>
+      </c>
+      <c r="AV47">
+        <v>1975</v>
+      </c>
+      <c r="AW47">
+        <v>2328</v>
+      </c>
+      <c r="AX47">
+        <v>2350</v>
+      </c>
+      <c r="AY47">
+        <v>1362</v>
+      </c>
+      <c r="AZ47">
+        <v>1418</v>
+      </c>
+      <c r="BA47">
+        <v>1567</v>
+      </c>
+      <c r="BB47">
+        <v>1839</v>
+      </c>
+      <c r="BC47">
+        <v>2017</v>
+      </c>
+      <c r="BD47">
+        <v>2373</v>
+      </c>
+      <c r="BE47">
+        <v>2452</v>
+      </c>
+      <c r="BF47">
+        <v>1413</v>
+      </c>
+      <c r="BG47">
+        <v>1503</v>
+      </c>
+      <c r="BH47">
+        <v>1774</v>
+      </c>
+      <c r="BI47">
+        <v>1851</v>
+      </c>
+      <c r="BJ47">
+        <v>1893</v>
+      </c>
+      <c r="BK47">
+        <v>2404</v>
+      </c>
+      <c r="BL47">
+        <v>2302</v>
+      </c>
+      <c r="BO47">
         <v>10000</v>
       </c>
-      <c r="AV47">
+      <c r="BP47">
         <v>1630</v>
       </c>
-      <c r="AW47">
+      <c r="BQ47">
         <v>1551</v>
       </c>
-      <c r="AX47">
+      <c r="BR47">
         <v>1548</v>
       </c>
-      <c r="AY47">
+      <c r="BS47">
         <v>1474</v>
       </c>
-      <c r="AZ47">
+      <c r="BT47">
         <v>1684</v>
       </c>
-      <c r="BA47">
+      <c r="BU47">
         <v>1694</v>
       </c>
-      <c r="BB47">
+      <c r="BV47">
         <v>1652</v>
       </c>
-      <c r="BC47">
+      <c r="BW47">
         <v>1814</v>
       </c>
-      <c r="BD47">
+      <c r="BX47">
         <v>2207</v>
       </c>
-      <c r="BE47">
+      <c r="BY47">
         <v>2134</v>
       </c>
-      <c r="BF47">
+      <c r="BZ47">
         <v>2046</v>
       </c>
-      <c r="BG47">
+      <c r="CA47">
         <v>1872</v>
       </c>
-      <c r="BI47">
+      <c r="CC47">
         <v>10000</v>
       </c>
-      <c r="BJ47">
+      <c r="CD47">
         <v>1828</v>
       </c>
-      <c r="BK47">
+      <c r="CE47">
         <v>1764</v>
       </c>
-      <c r="BL47">
+      <c r="CF47">
         <v>1827</v>
       </c>
-      <c r="BM47">
+      <c r="CG47">
         <v>1846</v>
       </c>
-      <c r="BN47">
+      <c r="CH47">
         <v>2017</v>
       </c>
-      <c r="BO47">
+      <c r="CI47">
         <v>2099</v>
       </c>
-      <c r="BP47">
+      <c r="CJ47">
         <v>1951</v>
       </c>
-      <c r="BQ47">
+      <c r="CK47">
         <v>2065</v>
       </c>
-      <c r="BR47">
+      <c r="CL47">
         <v>2486</v>
       </c>
-      <c r="BS47">
+      <c r="CM47">
         <v>2683</v>
       </c>
-      <c r="BT47">
+      <c r="CN47">
         <v>2301</v>
       </c>
-      <c r="BU47">
+      <c r="CO47">
         <v>2311</v>
       </c>
     </row>
-    <row r="48" spans="3:73" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:93" x14ac:dyDescent="0.3">
       <c r="C48">
         <v>2</v>
       </c>
@@ -61295,103 +61493,181 @@
         <v>1474</v>
       </c>
       <c r="AG48">
+        <v>1713</v>
+      </c>
+      <c r="AH48">
+        <v>1859</v>
+      </c>
+      <c r="AI48">
+        <v>2106</v>
+      </c>
+      <c r="AJ48">
+        <v>2391</v>
+      </c>
+      <c r="AK48">
         <v>1477</v>
       </c>
-      <c r="AH48">
+      <c r="AL48">
         <v>1488</v>
       </c>
-      <c r="AI48">
+      <c r="AM48">
         <v>1694</v>
       </c>
-      <c r="AJ48">
+      <c r="AN48">
+        <v>2133</v>
+      </c>
+      <c r="AO48">
+        <v>2150</v>
+      </c>
+      <c r="AP48">
+        <v>2437</v>
+      </c>
+      <c r="AQ48">
+        <v>2455</v>
+      </c>
+      <c r="AR48">
         <v>1482</v>
       </c>
-      <c r="AK48">
+      <c r="AS48">
         <v>1647</v>
       </c>
-      <c r="AL48">
+      <c r="AT48">
         <v>1716</v>
       </c>
       <c r="AU48">
+        <v>2232</v>
+      </c>
+      <c r="AV48">
+        <v>2511</v>
+      </c>
+      <c r="AW48">
+        <v>2718</v>
+      </c>
+      <c r="AX48">
+        <v>2650</v>
+      </c>
+      <c r="AY48">
+        <v>1633</v>
+      </c>
+      <c r="AZ48">
+        <v>1772</v>
+      </c>
+      <c r="BA48">
+        <v>1851</v>
+      </c>
+      <c r="BB48">
+        <v>2126</v>
+      </c>
+      <c r="BC48">
+        <v>2456</v>
+      </c>
+      <c r="BD48">
+        <v>2618</v>
+      </c>
+      <c r="BE48">
+        <v>2880</v>
+      </c>
+      <c r="BF48">
+        <v>1660</v>
+      </c>
+      <c r="BG48">
+        <v>1674</v>
+      </c>
+      <c r="BH48">
+        <v>2137</v>
+      </c>
+      <c r="BI48">
+        <v>2383</v>
+      </c>
+      <c r="BJ48">
+        <v>2479</v>
+      </c>
+      <c r="BK48">
+        <v>2844</v>
+      </c>
+      <c r="BL48">
+        <v>2907</v>
+      </c>
+      <c r="BO48">
         <v>15820</v>
       </c>
-      <c r="AV48">
+      <c r="BP48">
         <v>1930</v>
       </c>
-      <c r="AW48">
+      <c r="BQ48">
         <v>1705</v>
       </c>
-      <c r="AX48">
+      <c r="BR48">
         <v>1699</v>
       </c>
-      <c r="AY48">
+      <c r="BS48">
         <v>1762</v>
       </c>
-      <c r="AZ48">
+      <c r="BT48">
         <v>2172</v>
       </c>
-      <c r="BA48">
+      <c r="BU48">
         <v>2221</v>
       </c>
-      <c r="BB48">
+      <c r="BV48">
         <v>2181</v>
       </c>
-      <c r="BC48">
+      <c r="BW48">
         <v>1950</v>
       </c>
-      <c r="BD48">
+      <c r="BX48">
         <v>2547</v>
       </c>
-      <c r="BE48">
+      <c r="BY48">
         <v>2872</v>
       </c>
-      <c r="BF48">
+      <c r="BZ48">
         <v>2693</v>
       </c>
-      <c r="BG48">
+      <c r="CA48">
         <v>2611</v>
       </c>
-      <c r="BI48">
+      <c r="CC48">
         <v>15848</v>
       </c>
-      <c r="BJ48">
+      <c r="CD48">
         <v>2068</v>
       </c>
-      <c r="BK48">
+      <c r="CE48">
         <v>2113</v>
       </c>
-      <c r="BL48">
+      <c r="CF48">
         <v>2092</v>
       </c>
-      <c r="BM48">
+      <c r="CG48">
         <v>2121</v>
       </c>
-      <c r="BN48">
+      <c r="CH48">
         <v>2335</v>
       </c>
-      <c r="BO48">
+      <c r="CI48">
         <v>2423</v>
       </c>
-      <c r="BP48">
+      <c r="CJ48">
         <v>2444</v>
       </c>
-      <c r="BQ48">
+      <c r="CK48">
         <v>2505</v>
       </c>
-      <c r="BR48">
+      <c r="CL48">
         <v>3023</v>
       </c>
-      <c r="BS48">
+      <c r="CM48">
         <v>2920</v>
       </c>
-      <c r="BT48">
+      <c r="CN48">
         <v>2840</v>
       </c>
-      <c r="BU48">
+      <c r="CO48">
         <v>2985</v>
       </c>
     </row>
-    <row r="49" spans="3:73" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:93" x14ac:dyDescent="0.3">
       <c r="C49">
         <v>3</v>
       </c>
@@ -61468,103 +61744,181 @@
         <v>1783</v>
       </c>
       <c r="AG49">
+        <v>2077</v>
+      </c>
+      <c r="AH49">
+        <v>2369</v>
+      </c>
+      <c r="AI49">
+        <v>2677</v>
+      </c>
+      <c r="AJ49">
+        <v>2818</v>
+      </c>
+      <c r="AK49">
         <v>1773</v>
       </c>
-      <c r="AH49">
+      <c r="AL49">
         <v>1824</v>
       </c>
-      <c r="AI49">
+      <c r="AM49">
         <v>2099</v>
       </c>
-      <c r="AJ49">
+      <c r="AN49">
+        <v>2503</v>
+      </c>
+      <c r="AO49">
+        <v>2759</v>
+      </c>
+      <c r="AP49">
+        <v>3195</v>
+      </c>
+      <c r="AQ49">
+        <v>3420</v>
+      </c>
+      <c r="AR49">
         <v>1711</v>
       </c>
-      <c r="AK49">
+      <c r="AS49">
         <v>2027</v>
       </c>
-      <c r="AL49">
+      <c r="AT49">
         <v>2225</v>
       </c>
       <c r="AU49">
+        <v>2853</v>
+      </c>
+      <c r="AV49">
+        <v>2975</v>
+      </c>
+      <c r="AW49">
+        <v>3519</v>
+      </c>
+      <c r="AX49">
+        <v>3658</v>
+      </c>
+      <c r="AY49">
+        <v>1857</v>
+      </c>
+      <c r="AZ49">
+        <v>2037</v>
+      </c>
+      <c r="BA49">
+        <v>2322</v>
+      </c>
+      <c r="BB49">
+        <v>2661</v>
+      </c>
+      <c r="BC49">
+        <v>2817</v>
+      </c>
+      <c r="BD49">
+        <v>3521</v>
+      </c>
+      <c r="BE49">
+        <v>4294</v>
+      </c>
+      <c r="BF49">
+        <v>1991</v>
+      </c>
+      <c r="BG49">
+        <v>2148</v>
+      </c>
+      <c r="BH49">
+        <v>2386</v>
+      </c>
+      <c r="BI49">
+        <v>2718</v>
+      </c>
+      <c r="BJ49">
+        <v>3188</v>
+      </c>
+      <c r="BK49">
+        <v>3865</v>
+      </c>
+      <c r="BL49">
+        <v>3750</v>
+      </c>
+      <c r="BO49">
         <v>25064</v>
       </c>
-      <c r="AV49">
+      <c r="BP49">
         <v>2110</v>
       </c>
-      <c r="AW49">
+      <c r="BQ49">
         <v>2309</v>
       </c>
-      <c r="AX49">
+      <c r="BR49">
         <v>2118</v>
       </c>
-      <c r="AY49">
+      <c r="BS49">
         <v>2211</v>
       </c>
-      <c r="AZ49">
+      <c r="BT49">
         <v>2572</v>
       </c>
-      <c r="BA49">
+      <c r="BU49">
         <v>2433</v>
       </c>
-      <c r="BB49">
+      <c r="BV49">
         <v>2607</v>
       </c>
-      <c r="BC49">
+      <c r="BW49">
         <v>2716</v>
       </c>
-      <c r="BD49">
+      <c r="BX49">
         <v>3169</v>
       </c>
-      <c r="BE49">
+      <c r="BY49">
         <v>3177</v>
       </c>
-      <c r="BF49">
+      <c r="BZ49">
         <v>3053</v>
       </c>
-      <c r="BG49">
+      <c r="CA49">
         <v>3355</v>
       </c>
-      <c r="BI49">
+      <c r="CC49">
         <v>25118</v>
       </c>
-      <c r="BJ49">
+      <c r="CD49">
         <v>2385</v>
       </c>
-      <c r="BK49">
+      <c r="CE49">
         <v>2238</v>
       </c>
-      <c r="BL49">
+      <c r="CF49">
         <v>2305</v>
       </c>
-      <c r="BM49">
+      <c r="CG49">
         <v>2311</v>
       </c>
-      <c r="BN49">
+      <c r="CH49">
         <v>2868</v>
       </c>
-      <c r="BO49">
+      <c r="CI49">
         <v>2607</v>
       </c>
-      <c r="BP49">
+      <c r="CJ49">
         <v>2695</v>
       </c>
-      <c r="BQ49">
+      <c r="CK49">
         <v>2944</v>
       </c>
-      <c r="BR49">
+      <c r="CL49">
         <v>3245</v>
       </c>
-      <c r="BS49">
+      <c r="CM49">
         <v>3154</v>
       </c>
-      <c r="BT49">
+      <c r="CN49">
         <v>3287</v>
       </c>
-      <c r="BU49">
+      <c r="CO49">
         <v>3150</v>
       </c>
     </row>
-    <row r="50" spans="3:73" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:93" x14ac:dyDescent="0.3">
       <c r="C50">
         <v>4</v>
       </c>
@@ -61640,104 +61994,104 @@
       <c r="AF50" s="3">
         <v>2123</v>
       </c>
-      <c r="AG50">
+      <c r="AK50">
         <v>2125</v>
       </c>
-      <c r="AH50">
+      <c r="AL50">
         <v>2178</v>
       </c>
-      <c r="AI50">
+      <c r="AM50">
         <v>2505</v>
       </c>
-      <c r="AJ50">
+      <c r="AR50">
         <v>2333</v>
       </c>
-      <c r="AK50">
+      <c r="AS50">
         <v>2232</v>
       </c>
-      <c r="AL50">
+      <c r="AT50">
         <v>2737</v>
       </c>
-      <c r="AU50">
+      <c r="BO50">
         <v>39712</v>
       </c>
-      <c r="AV50">
+      <c r="BP50">
         <v>2546</v>
       </c>
-      <c r="AW50">
+      <c r="BQ50">
         <v>2513</v>
       </c>
-      <c r="AX50">
+      <c r="BR50">
         <v>2714</v>
       </c>
-      <c r="AY50">
+      <c r="BS50">
         <v>2681</v>
       </c>
-      <c r="AZ50">
+      <c r="BT50">
         <v>3094</v>
       </c>
-      <c r="BA50">
+      <c r="BU50">
         <v>3182</v>
       </c>
-      <c r="BB50">
+      <c r="BV50">
         <v>3172</v>
       </c>
-      <c r="BC50">
+      <c r="BW50">
         <v>3256</v>
       </c>
-      <c r="BD50">
+      <c r="BX50">
         <v>3956</v>
       </c>
-      <c r="BE50">
+      <c r="BY50">
         <v>3864</v>
       </c>
-      <c r="BF50">
+      <c r="BZ50">
         <v>4316</v>
       </c>
-      <c r="BG50">
+      <c r="CA50">
         <v>4036</v>
       </c>
-      <c r="BI50">
+      <c r="CC50">
         <v>39810</v>
       </c>
-      <c r="BJ50">
+      <c r="CD50">
         <v>2722</v>
       </c>
-      <c r="BK50">
+      <c r="CE50">
         <v>2694</v>
       </c>
-      <c r="BL50">
+      <c r="CF50">
         <v>2665</v>
       </c>
-      <c r="BM50">
+      <c r="CG50">
         <v>2821</v>
       </c>
-      <c r="BN50">
+      <c r="CH50">
         <v>3251</v>
       </c>
-      <c r="BO50">
+      <c r="CI50">
         <v>3052</v>
       </c>
-      <c r="BP50">
+      <c r="CJ50">
         <v>3196</v>
       </c>
-      <c r="BQ50">
+      <c r="CK50">
         <v>3217</v>
       </c>
-      <c r="BR50">
+      <c r="CL50">
         <v>3925</v>
       </c>
-      <c r="BS50">
+      <c r="CM50">
         <v>4232</v>
       </c>
-      <c r="BT50">
+      <c r="CN50">
         <v>4311</v>
       </c>
-      <c r="BU50">
+      <c r="CO50">
         <v>5118</v>
       </c>
     </row>
-    <row r="51" spans="3:73" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:93" x14ac:dyDescent="0.3">
       <c r="C51">
         <v>5</v>
       </c>
@@ -61813,122 +62167,122 @@
       <c r="AF51" s="3">
         <v>2435</v>
       </c>
-      <c r="AG51">
+      <c r="AK51">
         <v>2690</v>
       </c>
-      <c r="AH51">
+      <c r="AL51">
         <v>2574</v>
       </c>
-      <c r="AI51">
+      <c r="AM51">
         <v>3033</v>
       </c>
-      <c r="AJ51">
+      <c r="AR51">
         <v>2844</v>
       </c>
-      <c r="AK51">
+      <c r="AS51">
         <v>2684</v>
       </c>
-      <c r="AL51">
+      <c r="AT51">
         <v>3308</v>
       </c>
-      <c r="AM51">
+      <c r="AY51">
         <v>3070</v>
       </c>
-      <c r="AN51">
+      <c r="AZ51">
         <v>2820</v>
       </c>
-      <c r="AO51">
+      <c r="BA51">
         <v>3463</v>
       </c>
-      <c r="AP51">
+      <c r="BF51">
         <v>3189</v>
       </c>
-      <c r="AQ51">
+      <c r="BG51">
         <v>3067</v>
       </c>
-      <c r="AR51">
+      <c r="BH51">
         <v>3458</v>
       </c>
-      <c r="AU51">
+      <c r="BO51">
         <v>62978</v>
       </c>
-      <c r="AV51">
+      <c r="BP51">
         <v>3071</v>
       </c>
-      <c r="AW51">
+      <c r="BQ51">
         <v>3163</v>
       </c>
-      <c r="AX51">
+      <c r="BR51">
         <v>2915</v>
       </c>
-      <c r="AY51">
+      <c r="BS51">
         <v>3061</v>
       </c>
-      <c r="AZ51">
+      <c r="BT51">
         <v>4012</v>
       </c>
-      <c r="BA51">
+      <c r="BU51">
         <v>3885</v>
       </c>
-      <c r="BB51">
+      <c r="BV51">
         <v>4132</v>
       </c>
-      <c r="BC51">
+      <c r="BW51">
         <v>4029</v>
       </c>
-      <c r="BD51">
+      <c r="BX51">
         <v>5164</v>
       </c>
-      <c r="BE51">
+      <c r="BY51">
         <v>5110</v>
       </c>
-      <c r="BF51">
+      <c r="BZ51">
         <v>5719</v>
       </c>
-      <c r="BG51">
+      <c r="CA51">
         <v>5346</v>
       </c>
-      <c r="BI51">
+      <c r="CC51">
         <v>63095</v>
       </c>
-      <c r="BJ51">
+      <c r="CD51">
         <v>3265</v>
       </c>
-      <c r="BK51">
+      <c r="CE51">
         <v>3443</v>
       </c>
-      <c r="BL51">
+      <c r="CF51">
         <v>3249</v>
       </c>
-      <c r="BM51">
+      <c r="CG51">
         <v>3416</v>
       </c>
-      <c r="BN51">
+      <c r="CH51">
         <v>4374</v>
       </c>
-      <c r="BO51">
+      <c r="CI51">
         <v>3974</v>
       </c>
-      <c r="BP51">
+      <c r="CJ51">
         <v>4094</v>
       </c>
-      <c r="BQ51">
+      <c r="CK51">
         <v>4409</v>
       </c>
-      <c r="BR51">
+      <c r="CL51">
         <v>5278</v>
       </c>
-      <c r="BS51">
+      <c r="CM51">
         <v>5205</v>
       </c>
-      <c r="BT51">
+      <c r="CN51">
         <v>5483</v>
       </c>
-      <c r="BU51">
+      <c r="CO51">
         <v>6107</v>
       </c>
     </row>
-    <row r="52" spans="3:73" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:93" x14ac:dyDescent="0.3">
       <c r="C52">
         <v>6</v>
       </c>
@@ -62004,122 +62358,122 @@
       <c r="AF52" s="3">
         <v>3097</v>
       </c>
-      <c r="AG52">
+      <c r="AK52">
         <v>4281</v>
       </c>
-      <c r="AH52">
+      <c r="AL52">
         <v>3245</v>
       </c>
-      <c r="AI52">
+      <c r="AM52">
         <v>3912</v>
       </c>
-      <c r="AJ52">
+      <c r="AR52">
         <v>4258</v>
       </c>
-      <c r="AK52">
+      <c r="AS52">
         <v>3677</v>
       </c>
-      <c r="AL52">
+      <c r="AT52">
         <v>4249</v>
       </c>
-      <c r="AM52">
+      <c r="AY52">
         <v>4675</v>
       </c>
-      <c r="AN52">
+      <c r="AZ52">
         <v>3988</v>
       </c>
-      <c r="AO52">
+      <c r="BA52">
         <v>4587</v>
       </c>
-      <c r="AP52">
+      <c r="BF52">
         <v>4772</v>
       </c>
-      <c r="AQ52">
+      <c r="BG52">
         <v>4088</v>
       </c>
-      <c r="AR52">
+      <c r="BH52">
         <v>4761</v>
       </c>
-      <c r="AU52">
+      <c r="BO52">
         <v>99825</v>
       </c>
-      <c r="AV52">
+      <c r="BP52">
         <v>4040</v>
       </c>
-      <c r="AW52">
+      <c r="BQ52">
         <v>4341</v>
       </c>
-      <c r="AX52">
+      <c r="BR52">
         <v>4188</v>
       </c>
-      <c r="AY52">
+      <c r="BS52">
         <v>4126</v>
       </c>
-      <c r="AZ52">
+      <c r="BT52">
         <v>5566</v>
       </c>
-      <c r="BA52">
+      <c r="BU52">
         <v>5464</v>
       </c>
-      <c r="BB52">
+      <c r="BV52">
         <v>5119</v>
       </c>
-      <c r="BC52">
+      <c r="BW52">
         <v>5111</v>
       </c>
-      <c r="BD52">
+      <c r="BX52">
         <v>7242</v>
       </c>
-      <c r="BE52">
+      <c r="BY52">
         <v>7178</v>
       </c>
-      <c r="BF52">
+      <c r="BZ52">
         <v>7296</v>
       </c>
-      <c r="BG52">
+      <c r="CA52">
         <v>7257</v>
       </c>
-      <c r="BI52">
+      <c r="CC52">
         <v>100000</v>
       </c>
-      <c r="BJ52">
+      <c r="CD52">
         <v>4092</v>
       </c>
-      <c r="BK52">
+      <c r="CE52">
         <v>4046</v>
       </c>
-      <c r="BL52">
+      <c r="CF52">
         <v>4282</v>
       </c>
-      <c r="BM52">
+      <c r="CG52">
         <v>4539</v>
       </c>
-      <c r="BN52">
+      <c r="CH52">
         <v>5390</v>
       </c>
-      <c r="BO52">
+      <c r="CI52">
         <v>4973</v>
       </c>
-      <c r="BP52">
+      <c r="CJ52">
         <v>5189</v>
       </c>
-      <c r="BQ52">
+      <c r="CK52">
         <v>5886</v>
       </c>
-      <c r="BR52">
+      <c r="CL52">
         <v>7181</v>
       </c>
-      <c r="BS52">
+      <c r="CM52">
         <v>7400</v>
       </c>
-      <c r="BT52">
+      <c r="CN52">
         <v>8130</v>
       </c>
-      <c r="BU52">
+      <c r="CO52">
         <v>7389</v>
       </c>
     </row>
-    <row r="53" spans="3:73" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:93" x14ac:dyDescent="0.3">
       <c r="C53">
         <v>7</v>
       </c>
@@ -62195,122 +62549,122 @@
       <c r="AF53" s="3">
         <v>4448</v>
       </c>
-      <c r="AG53">
+      <c r="AK53">
         <v>6792</v>
       </c>
-      <c r="AH53">
+      <c r="AL53">
         <v>4727</v>
       </c>
-      <c r="AI53">
+      <c r="AM53">
         <v>5491</v>
       </c>
-      <c r="AJ53">
+      <c r="AR53">
         <v>7579</v>
       </c>
-      <c r="AK53">
+      <c r="AS53">
         <v>5105</v>
       </c>
-      <c r="AL53">
+      <c r="AT53">
         <v>5866</v>
       </c>
-      <c r="AM53">
+      <c r="AY53">
         <v>8618</v>
       </c>
-      <c r="AN53">
+      <c r="AZ53">
         <v>5561</v>
       </c>
-      <c r="AO53">
+      <c r="BA53">
         <v>6953</v>
       </c>
-      <c r="AP53">
+      <c r="BF53">
         <v>8756</v>
       </c>
-      <c r="AQ53">
+      <c r="BG53">
         <v>5903</v>
       </c>
-      <c r="AR53">
+      <c r="BH53">
         <v>6967</v>
       </c>
-      <c r="AU53">
+      <c r="BO53">
         <v>158208</v>
       </c>
-      <c r="AV53">
+      <c r="BP53">
         <v>5387</v>
       </c>
-      <c r="AW53">
+      <c r="BQ53">
         <v>5607</v>
       </c>
-      <c r="AX53">
+      <c r="BR53">
         <v>6055</v>
       </c>
-      <c r="AY53">
+      <c r="BS53">
         <v>5553</v>
       </c>
-      <c r="AZ53">
+      <c r="BT53">
         <v>7089</v>
       </c>
-      <c r="BA53">
+      <c r="BU53">
         <v>6923</v>
       </c>
-      <c r="BB53">
+      <c r="BV53">
         <v>6876</v>
       </c>
-      <c r="BC53">
+      <c r="BW53">
         <v>7353</v>
       </c>
-      <c r="BD53">
+      <c r="BX53">
         <v>10749</v>
       </c>
-      <c r="BE53">
+      <c r="BY53">
         <v>10909</v>
       </c>
-      <c r="BF53">
+      <c r="BZ53">
         <v>10697</v>
       </c>
-      <c r="BG53">
+      <c r="CA53">
         <v>10576</v>
       </c>
-      <c r="BI53">
+      <c r="CC53">
         <v>158489</v>
       </c>
-      <c r="BJ53">
+      <c r="CD53">
         <v>5722</v>
       </c>
-      <c r="BK53">
+      <c r="CE53">
         <v>5546</v>
       </c>
-      <c r="BL53">
+      <c r="CF53">
         <v>5789</v>
       </c>
-      <c r="BM53">
+      <c r="CG53">
         <v>6341</v>
       </c>
-      <c r="BN53">
+      <c r="CH53">
         <v>7575</v>
       </c>
-      <c r="BO53">
+      <c r="CI53">
         <v>7274</v>
       </c>
-      <c r="BP53">
+      <c r="CJ53">
         <v>7626</v>
       </c>
-      <c r="BQ53">
+      <c r="CK53">
         <v>7845</v>
       </c>
-      <c r="BR53">
+      <c r="CL53">
         <v>11141</v>
       </c>
-      <c r="BS53">
+      <c r="CM53">
         <v>10681</v>
       </c>
-      <c r="BT53">
+      <c r="CN53">
         <v>11543</v>
       </c>
-      <c r="BU53">
+      <c r="CO53">
         <v>12024</v>
       </c>
     </row>
-    <row r="54" spans="3:73" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:93" x14ac:dyDescent="0.3">
       <c r="C54">
         <v>8</v>
       </c>
@@ -62386,122 +62740,122 @@
       <c r="AF54" s="3">
         <v>6338</v>
       </c>
-      <c r="AG54">
+      <c r="AK54">
         <v>11550</v>
       </c>
-      <c r="AH54">
+      <c r="AL54">
         <v>6635</v>
       </c>
-      <c r="AI54">
+      <c r="AM54">
         <v>7402</v>
       </c>
-      <c r="AJ54">
+      <c r="AR54">
         <v>13428</v>
       </c>
-      <c r="AK54">
+      <c r="AS54">
         <v>7345</v>
       </c>
-      <c r="AL54">
+      <c r="AT54">
         <v>8063</v>
       </c>
-      <c r="AM54">
+      <c r="AY54">
         <v>14496</v>
       </c>
-      <c r="AN54">
+      <c r="AZ54">
         <v>7999</v>
       </c>
-      <c r="AO54">
+      <c r="BA54">
         <v>9480</v>
       </c>
-      <c r="AP54">
+      <c r="BF54">
         <v>14625</v>
       </c>
-      <c r="AQ54">
+      <c r="BG54">
         <v>8457</v>
       </c>
-      <c r="AR54">
+      <c r="BH54">
         <v>9220</v>
       </c>
-      <c r="AU54">
+      <c r="BO54">
         <v>250626</v>
       </c>
-      <c r="AV54">
+      <c r="BP54">
         <v>7802</v>
       </c>
-      <c r="AW54">
+      <c r="BQ54">
         <v>7788</v>
       </c>
-      <c r="AX54">
+      <c r="BR54">
         <v>7668</v>
       </c>
-      <c r="AY54">
+      <c r="BS54">
         <v>7689</v>
       </c>
-      <c r="AZ54">
+      <c r="BT54">
         <v>10460</v>
       </c>
-      <c r="BA54">
+      <c r="BU54">
         <v>10646</v>
       </c>
-      <c r="BB54">
+      <c r="BV54">
         <v>10226</v>
       </c>
-      <c r="BC54">
+      <c r="BW54">
         <v>9787</v>
       </c>
-      <c r="BD54">
+      <c r="BX54">
         <v>15869</v>
       </c>
-      <c r="BE54">
+      <c r="BY54">
         <v>15893</v>
       </c>
-      <c r="BF54">
+      <c r="BZ54">
         <v>15921</v>
       </c>
-      <c r="BG54">
+      <c r="CA54">
         <v>15479</v>
       </c>
-      <c r="BI54">
+      <c r="CC54">
         <v>251188</v>
       </c>
-      <c r="BJ54">
+      <c r="CD54">
         <v>8198</v>
       </c>
-      <c r="BK54">
+      <c r="CE54">
         <v>8000</v>
       </c>
-      <c r="BL54">
+      <c r="CF54">
         <v>8209</v>
       </c>
-      <c r="BM54">
+      <c r="CG54">
         <v>8571</v>
       </c>
-      <c r="BN54">
+      <c r="CH54">
         <v>10428</v>
       </c>
-      <c r="BO54">
+      <c r="CI54">
         <v>10956</v>
       </c>
-      <c r="BP54">
+      <c r="CJ54">
         <v>11003</v>
       </c>
-      <c r="BQ54">
+      <c r="CK54">
         <v>11752</v>
       </c>
-      <c r="BR54">
+      <c r="CL54">
         <v>16086</v>
       </c>
-      <c r="BS54">
+      <c r="CM54">
         <v>16387</v>
       </c>
-      <c r="BT54">
+      <c r="CN54">
         <v>16624</v>
       </c>
-      <c r="BU54">
+      <c r="CO54">
         <v>17147</v>
       </c>
     </row>
-    <row r="55" spans="3:73" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:93" x14ac:dyDescent="0.3">
       <c r="C55">
         <v>9</v>
       </c>
@@ -62577,122 +62931,122 @@
       <c r="AF55" s="3">
         <v>9092</v>
       </c>
-      <c r="AG55">
+      <c r="AK55">
         <v>22654</v>
       </c>
-      <c r="AH55">
+      <c r="AL55">
         <v>10760</v>
       </c>
-      <c r="AI55">
+      <c r="AM55">
         <v>11370</v>
       </c>
-      <c r="AJ55">
+      <c r="AR55">
         <v>27396</v>
       </c>
-      <c r="AK55">
+      <c r="AS55">
         <v>11505</v>
       </c>
-      <c r="AL55">
+      <c r="AT55">
         <v>12836</v>
       </c>
-      <c r="AM55">
+      <c r="AY55">
         <v>30361</v>
       </c>
-      <c r="AN55">
+      <c r="AZ55">
         <v>12689</v>
       </c>
-      <c r="AO55">
+      <c r="BA55">
         <v>14237</v>
       </c>
-      <c r="AP55">
+      <c r="BF55">
         <v>31238</v>
       </c>
-      <c r="AQ55">
+      <c r="BG55">
         <v>13376</v>
       </c>
-      <c r="AR55">
+      <c r="BH55">
         <v>14726</v>
       </c>
-      <c r="AU55">
+      <c r="BO55">
         <v>397246</v>
       </c>
-      <c r="AV55">
+      <c r="BP55">
         <v>11960</v>
       </c>
-      <c r="AW55">
+      <c r="BQ55">
         <v>11538</v>
       </c>
-      <c r="AX55">
+      <c r="BR55">
         <v>11113</v>
       </c>
-      <c r="AY55">
+      <c r="BS55">
         <v>11264</v>
       </c>
-      <c r="AZ55">
+      <c r="BT55">
         <v>15350</v>
       </c>
-      <c r="BA55">
+      <c r="BU55">
         <v>15053</v>
       </c>
-      <c r="BB55">
+      <c r="BV55">
         <v>15318</v>
       </c>
-      <c r="BC55">
+      <c r="BW55">
         <v>15622</v>
       </c>
-      <c r="BD55">
+      <c r="BX55">
         <v>25450</v>
       </c>
-      <c r="BE55">
+      <c r="BY55">
         <v>25723</v>
       </c>
-      <c r="BF55">
+      <c r="BZ55">
         <v>25331</v>
       </c>
-      <c r="BG55">
+      <c r="CA55">
         <v>24954</v>
       </c>
-      <c r="BI55">
+      <c r="CC55">
         <v>398107</v>
       </c>
-      <c r="BJ55">
+      <c r="CD55">
         <v>11962</v>
       </c>
-      <c r="BK55">
+      <c r="CE55">
         <v>12251</v>
       </c>
-      <c r="BL55">
+      <c r="CF55">
         <v>12636</v>
       </c>
-      <c r="BM55">
+      <c r="CG55">
         <v>13435</v>
       </c>
-      <c r="BN55">
+      <c r="CH55">
         <v>15514</v>
       </c>
-      <c r="BO55">
+      <c r="CI55">
         <v>15271</v>
       </c>
-      <c r="BP55">
+      <c r="CJ55">
         <v>16331</v>
       </c>
-      <c r="BQ55">
+      <c r="CK55">
         <v>17048</v>
       </c>
-      <c r="BR55">
+      <c r="CL55">
         <v>26258</v>
       </c>
-      <c r="BS55">
+      <c r="CM55">
         <v>27208</v>
       </c>
-      <c r="BT55">
+      <c r="CN55">
         <v>35789</v>
       </c>
-      <c r="BU55">
+      <c r="CO55">
         <v>36428</v>
       </c>
     </row>
-    <row r="56" spans="3:73" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:93" x14ac:dyDescent="0.3">
       <c r="C56">
         <v>10</v>
       </c>
@@ -62768,122 +63122,122 @@
       <c r="AF56" s="3">
         <v>13935</v>
       </c>
-      <c r="AG56">
+      <c r="AK56">
         <v>46481</v>
       </c>
-      <c r="AH56">
+      <c r="AL56">
         <v>15801</v>
       </c>
-      <c r="AI56">
+      <c r="AM56">
         <v>16879</v>
       </c>
-      <c r="AJ56">
+      <c r="AR56">
         <v>56242</v>
       </c>
-      <c r="AK56">
+      <c r="AS56">
         <v>17609</v>
       </c>
-      <c r="AL56">
+      <c r="AT56">
         <v>19916</v>
       </c>
-      <c r="AM56">
+      <c r="AY56">
         <v>61700</v>
       </c>
-      <c r="AN56">
+      <c r="AZ56">
         <v>19032</v>
       </c>
-      <c r="AO56">
+      <c r="BA56">
         <v>21694</v>
       </c>
-      <c r="AP56">
+      <c r="BF56">
         <v>62036</v>
       </c>
-      <c r="AQ56">
+      <c r="BG56">
         <v>20264</v>
       </c>
-      <c r="AR56">
+      <c r="BH56">
         <v>23148</v>
       </c>
-      <c r="AU56">
+      <c r="BO56">
         <v>629557</v>
       </c>
-      <c r="AV56">
+      <c r="BP56">
         <v>17761</v>
       </c>
-      <c r="AW56">
+      <c r="BQ56">
         <v>17862</v>
       </c>
-      <c r="AX56">
+      <c r="BR56">
         <v>17163</v>
       </c>
-      <c r="AY56">
+      <c r="BS56">
         <v>16006</v>
       </c>
-      <c r="AZ56">
+      <c r="BT56">
         <v>23986</v>
       </c>
-      <c r="BA56">
+      <c r="BU56">
         <v>22938</v>
       </c>
-      <c r="BB56">
+      <c r="BV56">
         <v>22718</v>
       </c>
-      <c r="BC56">
+      <c r="BW56">
         <v>23431</v>
       </c>
-      <c r="BD56">
+      <c r="BX56">
         <v>49611</v>
       </c>
-      <c r="BE56">
+      <c r="BY56">
         <v>51064</v>
       </c>
-      <c r="BF56">
+      <c r="BZ56">
         <v>48499</v>
       </c>
-      <c r="BG56">
+      <c r="CA56">
         <v>49124</v>
       </c>
-      <c r="BI56">
+      <c r="CC56">
         <v>630957</v>
       </c>
-      <c r="BJ56">
+      <c r="CD56">
         <v>18794</v>
       </c>
-      <c r="BK56">
+      <c r="CE56">
         <v>19039</v>
       </c>
-      <c r="BL56">
+      <c r="CF56">
         <v>19154</v>
       </c>
-      <c r="BM56">
+      <c r="CG56">
         <v>21341</v>
       </c>
-      <c r="BN56">
+      <c r="CH56">
         <v>24774</v>
       </c>
-      <c r="BO56">
+      <c r="CI56">
         <v>23903</v>
       </c>
-      <c r="BP56">
+      <c r="CJ56">
         <v>25768</v>
       </c>
-      <c r="BQ56">
+      <c r="CK56">
         <v>26613</v>
       </c>
-      <c r="BR56">
+      <c r="CL56">
         <v>53803</v>
       </c>
-      <c r="BS56">
+      <c r="CM56">
         <v>54157</v>
       </c>
-      <c r="BT56">
+      <c r="CN56">
         <v>54635</v>
       </c>
-      <c r="BU56">
+      <c r="CO56">
         <v>54761</v>
       </c>
     </row>
-    <row r="57" spans="3:73" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:93" x14ac:dyDescent="0.3">
       <c r="C57">
         <v>11</v>
       </c>
@@ -62959,127 +63313,127 @@
       <c r="AF57" s="3">
         <v>22020</v>
       </c>
-      <c r="AG57">
+      <c r="AK57">
         <v>96220</v>
       </c>
-      <c r="AH57">
+      <c r="AL57">
         <v>33800</v>
       </c>
-      <c r="AI57">
+      <c r="AM57">
         <v>34168</v>
       </c>
-      <c r="AJ57">
+      <c r="AR57">
         <v>129023</v>
       </c>
-      <c r="AK57">
+      <c r="AS57">
         <v>36681</v>
       </c>
-      <c r="AL57">
+      <c r="AT57">
         <v>39352</v>
       </c>
-      <c r="AM57">
+      <c r="AY57">
         <v>143346</v>
       </c>
-      <c r="AN57">
+      <c r="AZ57">
         <v>42945</v>
       </c>
-      <c r="AO57">
+      <c r="BA57">
         <v>43828</v>
       </c>
-      <c r="AP57">
+      <c r="BF57">
         <v>147154</v>
       </c>
-      <c r="AQ57">
+      <c r="BG57">
         <v>43471</v>
       </c>
-      <c r="AR57">
+      <c r="BH57">
         <v>45638</v>
       </c>
-      <c r="AU57">
+      <c r="BO57">
         <v>997775</v>
       </c>
-      <c r="AV57">
+      <c r="BP57">
         <v>29802</v>
       </c>
-      <c r="AW57">
+      <c r="BQ57">
         <v>28021</v>
       </c>
-      <c r="AX57">
+      <c r="BR57">
         <v>26698</v>
       </c>
-      <c r="AY57">
+      <c r="BS57">
         <v>25396</v>
       </c>
-      <c r="AZ57">
+      <c r="BT57">
         <v>40016</v>
       </c>
-      <c r="BA57">
+      <c r="BU57">
         <v>46038</v>
       </c>
-      <c r="BB57">
+      <c r="BV57">
         <v>46299</v>
       </c>
-      <c r="BC57">
+      <c r="BW57">
         <v>39666</v>
       </c>
-      <c r="BD57">
+      <c r="BX57">
         <v>125857</v>
       </c>
-      <c r="BE57">
+      <c r="BY57">
         <v>247098</v>
       </c>
-      <c r="BF57">
+      <c r="BZ57">
         <v>299448</v>
       </c>
-      <c r="BG57">
+      <c r="CA57">
         <v>189048</v>
       </c>
-      <c r="BI57">
+      <c r="CC57">
         <v>1000000</v>
       </c>
-      <c r="BJ57">
+      <c r="CD57">
         <v>30398</v>
       </c>
-      <c r="BK57">
+      <c r="CE57">
         <v>30396</v>
       </c>
-      <c r="BL57">
+      <c r="CF57">
         <v>31221</v>
       </c>
-      <c r="BM57">
+      <c r="CG57">
         <v>33845</v>
       </c>
-      <c r="BN57">
+      <c r="CH57">
         <v>40669</v>
       </c>
-      <c r="BO57">
+      <c r="CI57">
         <v>47520</v>
       </c>
-      <c r="BP57">
+      <c r="CJ57">
         <v>49126</v>
       </c>
-      <c r="BQ57">
+      <c r="CK57">
         <v>50583</v>
       </c>
-      <c r="BR57">
+      <c r="CL57">
         <v>230523</v>
       </c>
-      <c r="BS57">
+      <c r="CM57">
         <v>154748</v>
       </c>
-      <c r="BT57">
+      <c r="CN57">
         <v>305702</v>
       </c>
-      <c r="BU57">
+      <c r="CO57">
         <v>121804</v>
       </c>
     </row>
-    <row r="58" spans="3:73" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:93" x14ac:dyDescent="0.3">
       <c r="AC58" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="59" spans="3:73" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:93" x14ac:dyDescent="0.3">
       <c r="AC59" t="s">
         <v>63</v>
       </c>
@@ -63093,67 +63447,127 @@
         <v>1</v>
       </c>
       <c r="AG59">
+        <v>1</v>
+      </c>
+      <c r="AH59">
+        <v>1</v>
+      </c>
+      <c r="AI59">
+        <v>1</v>
+      </c>
+      <c r="AJ59">
+        <v>1</v>
+      </c>
+      <c r="AK59">
         <v>2</v>
       </c>
-      <c r="AH59">
+      <c r="AL59">
         <v>2</v>
       </c>
-      <c r="AI59">
+      <c r="AM59">
         <v>2</v>
       </c>
-      <c r="AJ59">
+      <c r="AN59">
+        <v>2</v>
+      </c>
+      <c r="AO59">
+        <v>2</v>
+      </c>
+      <c r="AP59">
+        <v>2</v>
+      </c>
+      <c r="AQ59">
+        <v>2</v>
+      </c>
+      <c r="AR59">
         <v>3</v>
       </c>
-      <c r="AK59">
+      <c r="AS59">
         <v>3</v>
       </c>
-      <c r="AL59">
+      <c r="AT59">
         <v>3</v>
       </c>
-      <c r="AM59">
+      <c r="AU59">
+        <v>3</v>
+      </c>
+      <c r="AV59">
+        <v>3</v>
+      </c>
+      <c r="AW59">
+        <v>3</v>
+      </c>
+      <c r="AX59">
+        <v>3</v>
+      </c>
+      <c r="AY59">
         <v>4</v>
       </c>
-      <c r="AN59">
+      <c r="AZ59">
         <v>4</v>
       </c>
-      <c r="AO59">
+      <c r="BA59">
         <v>4</v>
       </c>
-      <c r="AP59">
+      <c r="BB59">
+        <v>4</v>
+      </c>
+      <c r="BC59">
+        <v>4</v>
+      </c>
+      <c r="BD59">
+        <v>4</v>
+      </c>
+      <c r="BE59">
+        <v>4</v>
+      </c>
+      <c r="BF59">
         <v>5</v>
       </c>
-      <c r="AQ59">
+      <c r="BG59">
         <v>5</v>
       </c>
-      <c r="AR59">
+      <c r="BH59">
         <v>5</v>
       </c>
-      <c r="AU59" t="s">
+      <c r="BI59">
+        <v>5</v>
+      </c>
+      <c r="BJ59">
+        <v>5</v>
+      </c>
+      <c r="BK59">
+        <v>5</v>
+      </c>
+      <c r="BL59">
+        <v>5</v>
+      </c>
+      <c r="BO59" t="s">
         <v>1</v>
       </c>
-      <c r="AV59" t="s">
+      <c r="BP59" t="s">
         <v>53</v>
       </c>
-      <c r="AZ59" t="s">
+      <c r="BT59" t="s">
         <v>56</v>
       </c>
-      <c r="BD59" t="s">
+      <c r="BX59" t="s">
         <v>57</v>
       </c>
-      <c r="BI59" t="s">
+      <c r="CC59" t="s">
         <v>59</v>
       </c>
-      <c r="BJ59" t="s">
+      <c r="CD59" t="s">
         <v>53</v>
       </c>
-      <c r="BN59" t="s">
+      <c r="CH59" t="s">
         <v>54</v>
       </c>
-      <c r="BR59" t="s">
+      <c r="CL59" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="60" spans="3:73" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:93" x14ac:dyDescent="0.3">
       <c r="R60" t="s">
         <v>52</v>
       </c>
@@ -63194,115 +63608,175 @@
         <v>3</v>
       </c>
       <c r="AG60">
+        <v>4</v>
+      </c>
+      <c r="AH60">
+        <v>5</v>
+      </c>
+      <c r="AI60">
+        <v>6</v>
+      </c>
+      <c r="AJ60">
+        <v>7</v>
+      </c>
+      <c r="AK60">
         <v>1</v>
       </c>
-      <c r="AH60">
+      <c r="AL60">
         <v>2</v>
       </c>
-      <c r="AI60">
+      <c r="AM60">
         <v>3</v>
       </c>
-      <c r="AJ60">
+      <c r="AN60">
+        <v>4</v>
+      </c>
+      <c r="AO60">
+        <v>5</v>
+      </c>
+      <c r="AP60">
+        <v>6</v>
+      </c>
+      <c r="AQ60">
+        <v>7</v>
+      </c>
+      <c r="AR60">
         <v>1</v>
       </c>
-      <c r="AK60">
+      <c r="AS60">
         <v>2</v>
       </c>
-      <c r="AL60">
+      <c r="AT60">
         <v>3</v>
       </c>
-      <c r="AM60">
+      <c r="AU60">
+        <v>4</v>
+      </c>
+      <c r="AV60">
+        <v>5</v>
+      </c>
+      <c r="AW60">
+        <v>6</v>
+      </c>
+      <c r="AX60">
+        <v>7</v>
+      </c>
+      <c r="AY60">
         <v>1</v>
       </c>
-      <c r="AN60">
+      <c r="AZ60">
         <v>2</v>
       </c>
-      <c r="AO60">
+      <c r="BA60">
         <v>3</v>
       </c>
-      <c r="AP60">
+      <c r="BB60">
+        <v>4</v>
+      </c>
+      <c r="BC60">
+        <v>5</v>
+      </c>
+      <c r="BD60">
+        <v>6</v>
+      </c>
+      <c r="BE60">
+        <v>7</v>
+      </c>
+      <c r="BF60">
         <v>1</v>
       </c>
-      <c r="AQ60">
+      <c r="BG60">
         <v>2</v>
       </c>
-      <c r="AR60">
+      <c r="BH60">
         <v>3</v>
       </c>
-      <c r="AV60">
+      <c r="BI60">
+        <v>4</v>
+      </c>
+      <c r="BJ60">
+        <v>5</v>
+      </c>
+      <c r="BK60">
+        <v>6</v>
+      </c>
+      <c r="BL60">
+        <v>7</v>
+      </c>
+      <c r="BP60">
         <v>3</v>
       </c>
-      <c r="AW60">
+      <c r="BQ60">
         <v>10</v>
       </c>
-      <c r="AX60">
+      <c r="BR60">
         <v>30</v>
       </c>
-      <c r="AY60">
+      <c r="BS60">
         <v>100</v>
       </c>
-      <c r="AZ60">
+      <c r="BT60">
         <v>3</v>
       </c>
-      <c r="BA60">
+      <c r="BU60">
         <v>10</v>
       </c>
-      <c r="BB60">
+      <c r="BV60">
         <v>30</v>
       </c>
-      <c r="BC60">
+      <c r="BW60">
         <v>100</v>
       </c>
-      <c r="BD60">
+      <c r="BX60">
         <v>3</v>
       </c>
-      <c r="BE60">
+      <c r="BY60">
         <v>10</v>
       </c>
-      <c r="BF60">
+      <c r="BZ60">
         <v>30</v>
       </c>
-      <c r="BG60">
+      <c r="CA60">
         <v>100</v>
       </c>
-      <c r="BJ60">
+      <c r="CD60">
         <v>1E-3</v>
       </c>
-      <c r="BK60">
+      <c r="CE60">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="BL60">
+      <c r="CF60">
         <v>0.01</v>
       </c>
-      <c r="BM60">
+      <c r="CG60">
         <v>0.03</v>
       </c>
-      <c r="BN60">
+      <c r="CH60">
         <v>1E-3</v>
       </c>
-      <c r="BO60">
+      <c r="CI60">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="BP60">
+      <c r="CJ60">
         <v>0.01</v>
       </c>
-      <c r="BQ60">
+      <c r="CK60">
         <v>0.03</v>
       </c>
-      <c r="BR60">
+      <c r="CL60">
         <v>1E-3</v>
       </c>
-      <c r="BS60">
+      <c r="CM60">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="BT60">
+      <c r="CN60">
         <v>0.01</v>
       </c>
-      <c r="BU60">
+      <c r="CO60">
         <v>0.03</v>
       </c>
     </row>
-    <row r="61" spans="3:73" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:93" x14ac:dyDescent="0.3">
       <c r="E61" t="s">
         <v>0</v>
       </c>
@@ -63372,104 +63846,104 @@
       <c r="AF61" s="3">
         <v>1405</v>
       </c>
-      <c r="AG61">
+      <c r="AK61">
         <v>1402</v>
       </c>
-      <c r="AH61">
+      <c r="AL61">
         <v>1537</v>
       </c>
-      <c r="AI61">
+      <c r="AM61">
         <v>1650</v>
       </c>
-      <c r="AJ61">
+      <c r="AR61">
         <v>1511</v>
       </c>
-      <c r="AK61">
+      <c r="AS61">
         <v>1609</v>
       </c>
-      <c r="AL61">
+      <c r="AT61">
         <v>1886</v>
       </c>
-      <c r="AU61">
+      <c r="BO61">
         <v>10000</v>
       </c>
-      <c r="AV61">
+      <c r="BP61">
         <v>1728</v>
       </c>
-      <c r="AW61">
+      <c r="BQ61">
         <v>1725</v>
       </c>
-      <c r="AX61">
+      <c r="BR61">
         <v>1937</v>
       </c>
-      <c r="AY61">
+      <c r="BS61">
         <v>1699</v>
       </c>
-      <c r="AZ61">
+      <c r="BT61">
         <v>1952</v>
       </c>
-      <c r="BA61">
+      <c r="BU61">
         <v>1892</v>
       </c>
-      <c r="BB61">
+      <c r="BV61">
         <v>2193</v>
       </c>
-      <c r="BC61">
+      <c r="BW61">
         <v>2075</v>
       </c>
-      <c r="BD61">
+      <c r="BX61">
         <v>2548</v>
       </c>
-      <c r="BE61">
+      <c r="BY61">
         <v>2621</v>
       </c>
-      <c r="BF61">
+      <c r="BZ61">
         <v>2544</v>
       </c>
-      <c r="BG61">
+      <c r="CA61">
         <v>2782</v>
       </c>
-      <c r="BI61">
+      <c r="CC61">
         <v>10000</v>
       </c>
-      <c r="BJ61">
+      <c r="CD61">
         <v>2011</v>
       </c>
-      <c r="BK61">
+      <c r="CE61">
         <v>2106</v>
       </c>
-      <c r="BL61">
+      <c r="CF61">
         <v>2156</v>
       </c>
-      <c r="BM61">
+      <c r="CG61">
         <v>1926</v>
       </c>
-      <c r="BN61">
+      <c r="CH61">
         <v>2362</v>
       </c>
-      <c r="BO61">
+      <c r="CI61">
         <v>2359</v>
       </c>
-      <c r="BP61">
+      <c r="CJ61">
         <v>2219</v>
       </c>
-      <c r="BQ61">
+      <c r="CK61">
         <v>2202</v>
       </c>
-      <c r="BR61">
+      <c r="CL61">
         <v>2976</v>
       </c>
-      <c r="BS61">
+      <c r="CM61">
         <v>2833</v>
       </c>
-      <c r="BT61">
+      <c r="CN61">
         <v>2621</v>
       </c>
-      <c r="BU61">
+      <c r="CO61">
         <v>2645</v>
       </c>
     </row>
-    <row r="62" spans="3:73" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:93" x14ac:dyDescent="0.3">
       <c r="C62">
         <v>1</v>
       </c>
@@ -63545,104 +64019,104 @@
       <c r="AF62" s="3">
         <v>1579</v>
       </c>
-      <c r="AG62">
+      <c r="AK62">
         <v>1595</v>
       </c>
-      <c r="AH62">
+      <c r="AL62">
         <v>1648</v>
       </c>
-      <c r="AI62">
+      <c r="AM62">
         <v>2207</v>
       </c>
-      <c r="AJ62">
+      <c r="AR62">
         <v>1653</v>
       </c>
-      <c r="AK62">
+      <c r="AS62">
         <v>1784</v>
       </c>
-      <c r="AL62">
+      <c r="AT62">
         <v>2383</v>
       </c>
-      <c r="AU62">
+      <c r="BO62">
         <v>15820</v>
       </c>
-      <c r="AV62">
+      <c r="BP62">
         <v>2353</v>
       </c>
-      <c r="AW62">
+      <c r="BQ62">
         <v>2080</v>
       </c>
-      <c r="AX62">
+      <c r="BR62">
         <v>2074</v>
       </c>
-      <c r="AY62">
+      <c r="BS62">
         <v>2214</v>
       </c>
-      <c r="AZ62">
+      <c r="BT62">
         <v>2530</v>
       </c>
-      <c r="BA62">
+      <c r="BU62">
         <v>2493</v>
       </c>
-      <c r="BB62">
+      <c r="BV62">
         <v>2585</v>
       </c>
-      <c r="BC62">
+      <c r="BW62">
         <v>2656</v>
       </c>
-      <c r="BD62">
+      <c r="BX62">
         <v>3162</v>
       </c>
-      <c r="BE62">
+      <c r="BY62">
         <v>2988</v>
       </c>
-      <c r="BF62">
+      <c r="BZ62">
         <v>3104</v>
       </c>
-      <c r="BG62">
+      <c r="CA62">
         <v>3004</v>
       </c>
-      <c r="BI62">
+      <c r="CC62">
         <v>15820</v>
       </c>
-      <c r="BJ62">
+      <c r="CD62">
         <v>2320</v>
       </c>
-      <c r="BK62">
+      <c r="CE62">
         <v>2161</v>
       </c>
-      <c r="BL62">
+      <c r="CF62">
         <v>2445</v>
       </c>
-      <c r="BM62">
+      <c r="CG62">
         <v>2463</v>
       </c>
-      <c r="BN62">
+      <c r="CH62">
         <v>2841</v>
       </c>
-      <c r="BO62">
+      <c r="CI62">
         <v>2619</v>
       </c>
-      <c r="BP62">
+      <c r="CJ62">
         <v>2843</v>
       </c>
-      <c r="BQ62">
+      <c r="CK62">
         <v>2659</v>
       </c>
-      <c r="BR62">
+      <c r="CL62">
         <v>3323</v>
       </c>
-      <c r="BS62">
+      <c r="CM62">
         <v>2993</v>
       </c>
-      <c r="BT62">
+      <c r="CN62">
         <v>2945</v>
       </c>
-      <c r="BU62">
+      <c r="CO62">
         <v>3133</v>
       </c>
     </row>
-    <row r="63" spans="3:73" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:93" x14ac:dyDescent="0.3">
       <c r="C63">
         <v>2</v>
       </c>
@@ -63718,104 +64192,104 @@
       <c r="AF63" s="3">
         <v>2132</v>
       </c>
-      <c r="AG63">
+      <c r="AK63">
         <v>2062</v>
       </c>
-      <c r="AH63">
+      <c r="AL63">
         <v>2116</v>
       </c>
-      <c r="AI63">
+      <c r="AM63">
         <v>2595</v>
       </c>
-      <c r="AJ63">
+      <c r="AR63">
         <v>2232</v>
       </c>
-      <c r="AK63">
+      <c r="AS63">
         <v>2271</v>
       </c>
-      <c r="AL63">
+      <c r="AT63">
         <v>2692</v>
       </c>
-      <c r="AU63">
+      <c r="BO63">
         <v>25064</v>
       </c>
-      <c r="AV63">
+      <c r="BP63">
         <v>2642</v>
       </c>
-      <c r="AW63">
+      <c r="BQ63">
         <v>2593</v>
       </c>
-      <c r="AX63">
+      <c r="BR63">
         <v>2743</v>
       </c>
-      <c r="AY63">
+      <c r="BS63">
         <v>2808</v>
       </c>
-      <c r="AZ63">
+      <c r="BT63">
         <v>2960</v>
       </c>
-      <c r="BA63">
+      <c r="BU63">
         <v>3133</v>
       </c>
-      <c r="BB63">
+      <c r="BV63">
         <v>2840</v>
       </c>
-      <c r="BC63">
+      <c r="BW63">
         <v>3184</v>
       </c>
-      <c r="BD63">
+      <c r="BX63">
         <v>3593</v>
       </c>
-      <c r="BE63">
+      <c r="BY63">
         <v>3787</v>
       </c>
-      <c r="BF63">
+      <c r="BZ63">
         <v>3816</v>
       </c>
-      <c r="BG63">
+      <c r="CA63">
         <v>4041</v>
       </c>
-      <c r="BI63">
+      <c r="CC63">
         <v>25064</v>
       </c>
-      <c r="BJ63">
+      <c r="CD63">
         <v>2910</v>
       </c>
-      <c r="BK63">
+      <c r="CE63">
         <v>2749</v>
       </c>
-      <c r="BL63">
+      <c r="CF63">
         <v>2682</v>
       </c>
-      <c r="BM63">
+      <c r="CG63">
         <v>2622</v>
       </c>
-      <c r="BN63">
+      <c r="CH63">
         <v>3493</v>
       </c>
-      <c r="BO63">
+      <c r="CI63">
         <v>3659</v>
       </c>
-      <c r="BP63">
+      <c r="CJ63">
         <v>2997</v>
       </c>
-      <c r="BQ63">
+      <c r="CK63">
         <v>3209</v>
       </c>
-      <c r="BR63">
+      <c r="CL63">
         <v>4088</v>
       </c>
-      <c r="BS63">
+      <c r="CM63">
         <v>4281</v>
       </c>
-      <c r="BT63">
+      <c r="CN63">
         <v>3834</v>
       </c>
-      <c r="BU63">
+      <c r="CO63">
         <v>5935</v>
       </c>
     </row>
-    <row r="64" spans="3:73" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:93" x14ac:dyDescent="0.3">
       <c r="C64">
         <v>3</v>
       </c>
@@ -63891,104 +64365,104 @@
       <c r="AF64" s="3">
         <v>2381</v>
       </c>
-      <c r="AG64">
+      <c r="AK64">
         <v>2644</v>
       </c>
-      <c r="AH64">
+      <c r="AL64">
         <v>2455</v>
       </c>
-      <c r="AI64">
+      <c r="AM64">
         <v>3065</v>
       </c>
-      <c r="AJ64">
+      <c r="AR64">
         <v>3009</v>
       </c>
-      <c r="AK64">
+      <c r="AS64">
         <v>2611</v>
       </c>
-      <c r="AL64">
+      <c r="AT64">
         <v>3665</v>
       </c>
-      <c r="AU64">
+      <c r="BO64">
         <v>39712</v>
       </c>
-      <c r="AV64">
+      <c r="BP64">
         <v>3379</v>
       </c>
-      <c r="AW64">
+      <c r="BQ64">
         <v>3405</v>
       </c>
-      <c r="AX64">
+      <c r="BR64">
         <v>3233</v>
       </c>
-      <c r="AY64">
+      <c r="BS64">
         <v>3216</v>
       </c>
-      <c r="AZ64">
+      <c r="BT64">
         <v>3493</v>
       </c>
-      <c r="BA64">
+      <c r="BU64">
         <v>3734</v>
       </c>
-      <c r="BB64">
+      <c r="BV64">
         <v>3743</v>
       </c>
-      <c r="BC64">
+      <c r="BW64">
         <v>4051</v>
       </c>
-      <c r="BD64">
+      <c r="BX64">
         <v>5160</v>
       </c>
-      <c r="BE64">
+      <c r="BY64">
         <v>5238</v>
       </c>
-      <c r="BF64">
+      <c r="BZ64">
         <v>5016</v>
       </c>
-      <c r="BG64">
+      <c r="CA64">
         <v>5119</v>
       </c>
-      <c r="BI64">
+      <c r="CC64">
         <v>39712</v>
       </c>
-      <c r="BJ64">
+      <c r="CD64">
         <v>3139</v>
       </c>
-      <c r="BK64">
+      <c r="CE64">
         <v>3121</v>
       </c>
-      <c r="BL64">
+      <c r="CF64">
         <v>3303</v>
       </c>
-      <c r="BM64">
+      <c r="CG64">
         <v>3371</v>
       </c>
-      <c r="BN64">
+      <c r="CH64">
         <v>3867</v>
       </c>
-      <c r="BO64">
+      <c r="CI64">
         <v>3473</v>
       </c>
-      <c r="BP64">
+      <c r="CJ64">
         <v>3549</v>
       </c>
-      <c r="BQ64">
+      <c r="CK64">
         <v>3832</v>
       </c>
-      <c r="BR64">
+      <c r="CL64">
         <v>5556</v>
       </c>
-      <c r="BS64">
+      <c r="CM64">
         <v>4961</v>
       </c>
-      <c r="BT64">
+      <c r="CN64">
         <v>5105</v>
       </c>
-      <c r="BU64">
+      <c r="CO64">
         <v>5221</v>
       </c>
     </row>
-    <row r="65" spans="3:73" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:93" x14ac:dyDescent="0.3">
       <c r="C65">
         <v>4</v>
       </c>
@@ -64064,122 +64538,122 @@
       <c r="AF65" s="3">
         <v>2871</v>
       </c>
-      <c r="AG65">
+      <c r="AK65">
         <v>3696</v>
       </c>
-      <c r="AH65">
+      <c r="AL65">
         <v>3103</v>
       </c>
-      <c r="AI65">
+      <c r="AM65">
         <v>4303</v>
       </c>
-      <c r="AJ65">
+      <c r="AR65">
         <v>3969</v>
       </c>
-      <c r="AK65">
+      <c r="AS65">
         <v>3881</v>
       </c>
-      <c r="AL65">
+      <c r="AT65">
         <v>4940</v>
       </c>
-      <c r="AM65">
+      <c r="AY65">
         <v>4707</v>
       </c>
-      <c r="AN65">
+      <c r="AZ65">
         <v>4182</v>
       </c>
-      <c r="AO65">
+      <c r="BA65">
         <v>5493</v>
       </c>
-      <c r="AP65">
+      <c r="BF65">
         <v>4647</v>
       </c>
-      <c r="AQ65">
+      <c r="BG65">
         <v>4590</v>
       </c>
-      <c r="AR65">
+      <c r="BH65">
         <v>5658</v>
       </c>
-      <c r="AU65">
+      <c r="BO65">
         <v>62978</v>
       </c>
-      <c r="AV65">
+      <c r="BP65">
         <v>4469</v>
       </c>
-      <c r="AW65">
+      <c r="BQ65">
         <v>4439</v>
       </c>
-      <c r="AX65">
+      <c r="BR65">
         <v>4199</v>
       </c>
-      <c r="AY65">
+      <c r="BS65">
         <v>4231</v>
       </c>
-      <c r="AZ65">
+      <c r="BT65">
         <v>4695</v>
       </c>
-      <c r="BA65">
+      <c r="BU65">
         <v>5057</v>
       </c>
-      <c r="BB65">
+      <c r="BV65">
         <v>5091</v>
       </c>
-      <c r="BC65">
+      <c r="BW65">
         <v>5061</v>
       </c>
-      <c r="BD65">
+      <c r="BX65">
         <v>6268</v>
       </c>
-      <c r="BE65">
+      <c r="BY65">
         <v>6239</v>
       </c>
-      <c r="BF65">
+      <c r="BZ65">
         <v>6422</v>
       </c>
-      <c r="BG65">
+      <c r="CA65">
         <v>6799</v>
       </c>
-      <c r="BI65">
+      <c r="CC65">
         <v>62978</v>
       </c>
-      <c r="BJ65">
+      <c r="CD65">
         <v>4396</v>
       </c>
-      <c r="BK65">
+      <c r="CE65">
         <v>4422</v>
       </c>
-      <c r="BL65">
+      <c r="CF65">
         <v>4448</v>
       </c>
-      <c r="BM65">
+      <c r="CG65">
         <v>4593</v>
       </c>
-      <c r="BN65">
+      <c r="CH65">
         <v>4959</v>
       </c>
-      <c r="BO65">
+      <c r="CI65">
         <v>4740</v>
       </c>
-      <c r="BP65">
+      <c r="CJ65">
         <v>4644</v>
       </c>
-      <c r="BQ65">
+      <c r="CK65">
         <v>4866</v>
       </c>
-      <c r="BR65">
+      <c r="CL65">
         <v>6107</v>
       </c>
-      <c r="BS65">
+      <c r="CM65">
         <v>6465</v>
       </c>
-      <c r="BT65">
+      <c r="CN65">
         <v>6365</v>
       </c>
-      <c r="BU65">
+      <c r="CO65">
         <v>7742</v>
       </c>
     </row>
-    <row r="66" spans="3:73" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:93" x14ac:dyDescent="0.3">
       <c r="C66">
         <v>5</v>
       </c>
@@ -64255,122 +64729,122 @@
       <c r="AF66" s="3">
         <v>4478</v>
       </c>
-      <c r="AG66">
+      <c r="AK66">
         <v>6085</v>
       </c>
-      <c r="AH66">
+      <c r="AL66">
         <v>4607</v>
       </c>
-      <c r="AI66">
+      <c r="AM66">
         <v>5540</v>
       </c>
-      <c r="AJ66">
+      <c r="AR66">
         <v>6067</v>
       </c>
-      <c r="AK66">
+      <c r="AS66">
         <v>4986</v>
       </c>
-      <c r="AL66">
+      <c r="AT66">
         <v>7262</v>
       </c>
-      <c r="AM66">
+      <c r="AY66">
         <v>7348</v>
       </c>
-      <c r="AN66">
+      <c r="AZ66">
         <v>5686</v>
       </c>
-      <c r="AO66">
+      <c r="BA66">
         <v>8428</v>
       </c>
-      <c r="AP66">
+      <c r="BF66">
         <v>7031</v>
       </c>
-      <c r="AQ66">
+      <c r="BG66">
         <v>5890</v>
       </c>
-      <c r="AR66">
+      <c r="BH66">
         <v>8925</v>
       </c>
-      <c r="AU66">
+      <c r="BO66">
         <v>99825</v>
       </c>
-      <c r="AV66">
+      <c r="BP66">
         <v>6207</v>
       </c>
-      <c r="AW66">
+      <c r="BQ66">
         <v>6577</v>
       </c>
-      <c r="AX66">
+      <c r="BR66">
         <v>6433</v>
       </c>
-      <c r="AY66">
+      <c r="BS66">
         <v>6113</v>
       </c>
-      <c r="AZ66">
+      <c r="BT66">
         <v>6236</v>
       </c>
-      <c r="BA66">
+      <c r="BU66">
         <v>6544</v>
       </c>
-      <c r="BB66">
+      <c r="BV66">
         <v>6512</v>
       </c>
-      <c r="BC66">
+      <c r="BW66">
         <v>6658</v>
       </c>
-      <c r="BD66">
+      <c r="BX66">
         <v>9326</v>
       </c>
-      <c r="BE66">
+      <c r="BY66">
         <v>9226</v>
       </c>
-      <c r="BF66">
+      <c r="BZ66">
         <v>9725</v>
       </c>
-      <c r="BG66">
+      <c r="CA66">
         <v>9586</v>
       </c>
-      <c r="BI66">
+      <c r="CC66">
         <v>99825</v>
       </c>
-      <c r="BJ66">
+      <c r="CD66">
         <v>6703</v>
       </c>
-      <c r="BK66">
+      <c r="CE66">
         <v>6547</v>
       </c>
-      <c r="BL66">
+      <c r="CF66">
         <v>6631</v>
       </c>
-      <c r="BM66">
+      <c r="CG66">
         <v>6638</v>
       </c>
-      <c r="BN66">
+      <c r="CH66">
         <v>8739</v>
       </c>
-      <c r="BO66">
+      <c r="CI66">
         <v>6010</v>
       </c>
-      <c r="BP66">
+      <c r="CJ66">
         <v>6187</v>
       </c>
-      <c r="BQ66">
+      <c r="CK66">
         <v>6707</v>
       </c>
-      <c r="BR66">
+      <c r="CL66">
         <v>11217</v>
       </c>
-      <c r="BS66">
+      <c r="CM66">
         <v>9382</v>
       </c>
-      <c r="BT66">
+      <c r="CN66">
         <v>9595</v>
       </c>
-      <c r="BU66">
+      <c r="CO66">
         <v>9985</v>
       </c>
     </row>
-    <row r="67" spans="3:73" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:93" x14ac:dyDescent="0.3">
       <c r="C67">
         <v>6</v>
       </c>
@@ -64446,104 +64920,104 @@
       <c r="AF67" s="3">
         <v>5827</v>
       </c>
-      <c r="AG67">
+      <c r="AK67">
         <v>12667</v>
       </c>
-      <c r="AH67">
+      <c r="AL67">
         <v>6592</v>
       </c>
-      <c r="AI67">
+      <c r="AM67">
         <v>9059</v>
       </c>
-      <c r="AJ67">
+      <c r="AR67">
         <v>14832</v>
       </c>
-      <c r="AK67">
+      <c r="AS67">
         <v>8136</v>
       </c>
-      <c r="AL67">
+      <c r="AT67">
         <v>11298</v>
       </c>
-      <c r="AU67">
+      <c r="BO67">
         <v>158208</v>
       </c>
-      <c r="AV67">
+      <c r="BP67">
         <v>11405</v>
       </c>
-      <c r="AW67">
+      <c r="BQ67">
         <v>11300</v>
       </c>
-      <c r="AX67">
+      <c r="BR67">
         <v>10666</v>
       </c>
-      <c r="AY67">
+      <c r="BS67">
         <v>10011</v>
       </c>
-      <c r="AZ67">
+      <c r="BT67">
         <v>9124</v>
       </c>
-      <c r="BA67">
+      <c r="BU67">
         <v>9234</v>
       </c>
-      <c r="BB67">
+      <c r="BV67">
         <v>9681</v>
       </c>
-      <c r="BC67">
+      <c r="BW67">
         <v>9777</v>
       </c>
-      <c r="BD67">
+      <c r="BX67">
         <v>14118</v>
       </c>
-      <c r="BE67">
+      <c r="BY67">
         <v>14078</v>
       </c>
-      <c r="BF67">
+      <c r="BZ67">
         <v>14420</v>
       </c>
-      <c r="BG67">
+      <c r="CA67">
         <v>15118</v>
       </c>
-      <c r="BI67">
+      <c r="CC67">
         <v>158208</v>
       </c>
-      <c r="BJ67">
+      <c r="CD67">
         <v>11259</v>
       </c>
-      <c r="BK67">
+      <c r="CE67">
         <v>11336</v>
       </c>
-      <c r="BL67">
+      <c r="CF67">
         <v>11718</v>
       </c>
-      <c r="BM67">
+      <c r="CG67">
         <v>11921</v>
       </c>
-      <c r="BN67">
+      <c r="CH67">
         <v>9024</v>
       </c>
-      <c r="BO67">
+      <c r="CI67">
         <v>9229</v>
       </c>
-      <c r="BP67">
+      <c r="CJ67">
         <v>9489</v>
       </c>
-      <c r="BQ67">
+      <c r="CK67">
         <v>10662</v>
       </c>
-      <c r="BR67">
+      <c r="CL67">
         <v>14384</v>
       </c>
-      <c r="BS67">
+      <c r="CM67">
         <v>14453</v>
       </c>
-      <c r="BT67">
+      <c r="CN67">
         <v>14584</v>
       </c>
-      <c r="BU67">
+      <c r="CO67">
         <v>15077</v>
       </c>
     </row>
-    <row r="68" spans="3:73" x14ac:dyDescent="0.3">
+    <row r="68" spans="3:93" x14ac:dyDescent="0.3">
       <c r="C68">
         <v>7</v>
       </c>
@@ -64616,104 +65090,104 @@
       <c r="AF68" s="3">
         <v>9403</v>
       </c>
-      <c r="AG68">
+      <c r="AK68">
         <v>22143</v>
       </c>
-      <c r="AH68">
+      <c r="AL68">
         <v>10361</v>
       </c>
-      <c r="AI68">
+      <c r="AM68">
         <v>13415</v>
       </c>
-      <c r="AJ68">
+      <c r="AR68">
         <v>24181</v>
       </c>
-      <c r="AK68">
+      <c r="AS68">
         <v>12706</v>
       </c>
-      <c r="AL68">
+      <c r="AT68">
         <v>24909</v>
       </c>
-      <c r="AU68">
+      <c r="BO68">
         <v>250626</v>
       </c>
-      <c r="AV68">
+      <c r="BP68">
         <v>22197</v>
       </c>
-      <c r="AW68">
+      <c r="BQ68">
         <v>21241</v>
       </c>
-      <c r="AX68">
+      <c r="BR68">
         <v>19715</v>
       </c>
-      <c r="AY68">
+      <c r="BS68">
         <v>17922</v>
       </c>
-      <c r="AZ68">
+      <c r="BT68">
         <v>13726</v>
       </c>
-      <c r="BA68">
+      <c r="BU68">
         <v>13732</v>
       </c>
-      <c r="BB68">
+      <c r="BV68">
         <v>14460</v>
       </c>
-      <c r="BC68">
+      <c r="BW68">
         <v>15242</v>
       </c>
-      <c r="BD68">
+      <c r="BX68">
         <v>21647</v>
       </c>
-      <c r="BE68">
+      <c r="BY68">
         <v>21868</v>
       </c>
-      <c r="BF68">
+      <c r="BZ68">
         <v>22650</v>
       </c>
-      <c r="BG68">
+      <c r="CA68">
         <v>23094</v>
       </c>
-      <c r="BI68">
+      <c r="CC68">
         <v>250626</v>
       </c>
-      <c r="BJ68">
+      <c r="CD68">
         <v>21982</v>
       </c>
-      <c r="BK68">
+      <c r="CE68">
         <v>21989</v>
       </c>
-      <c r="BL68">
+      <c r="CF68">
         <v>22173</v>
       </c>
-      <c r="BM68">
+      <c r="CG68">
         <v>22767</v>
       </c>
-      <c r="BN68">
+      <c r="CH68">
         <v>14452</v>
       </c>
-      <c r="BO68">
+      <c r="CI68">
         <v>13876</v>
       </c>
-      <c r="BP68">
+      <c r="CJ68">
         <v>15036</v>
       </c>
-      <c r="BQ68">
+      <c r="CK68">
         <v>15026</v>
       </c>
-      <c r="BR68">
+      <c r="CL68">
         <v>22186</v>
       </c>
-      <c r="BS68">
+      <c r="CM68">
         <v>22969</v>
       </c>
-      <c r="BT68">
+      <c r="CN68">
         <v>22647</v>
       </c>
-      <c r="BU68">
+      <c r="CO68">
         <v>23892</v>
       </c>
     </row>
-    <row r="69" spans="3:73" x14ac:dyDescent="0.3">
+    <row r="69" spans="3:93" x14ac:dyDescent="0.3">
       <c r="C69">
         <v>8</v>
       </c>
@@ -64786,104 +65260,104 @@
       <c r="AF69" s="3">
         <v>16000</v>
       </c>
-      <c r="AG69">
+      <c r="AK69">
         <v>49623</v>
       </c>
-      <c r="AH69">
+      <c r="AL69">
         <v>18399</v>
       </c>
-      <c r="AI69">
+      <c r="AM69">
         <v>32261</v>
       </c>
-      <c r="AJ69">
+      <c r="AR69">
         <v>54796</v>
       </c>
-      <c r="AK69">
+      <c r="AS69">
         <v>21473</v>
       </c>
-      <c r="AL69">
+      <c r="AT69">
         <v>38047</v>
       </c>
-      <c r="AU69">
+      <c r="BO69">
         <v>397246</v>
       </c>
-      <c r="AV69">
+      <c r="BP69">
         <v>46131</v>
       </c>
-      <c r="AW69">
+      <c r="BQ69">
         <v>44578</v>
       </c>
-      <c r="AX69">
+      <c r="BR69">
         <v>40285</v>
       </c>
-      <c r="AY69">
+      <c r="BS69">
         <v>34036</v>
       </c>
-      <c r="AZ69">
+      <c r="BT69">
         <v>22108</v>
       </c>
-      <c r="BA69">
+      <c r="BU69">
         <v>22705</v>
       </c>
-      <c r="BB69">
+      <c r="BV69">
         <v>23211</v>
       </c>
-      <c r="BC69">
+      <c r="BW69">
         <v>24534</v>
       </c>
-      <c r="BD69">
+      <c r="BX69">
         <v>42445</v>
       </c>
-      <c r="BE69">
+      <c r="BY69">
         <v>43085</v>
       </c>
-      <c r="BF69">
+      <c r="BZ69">
         <v>44270</v>
       </c>
-      <c r="BG69">
+      <c r="CA69">
         <v>46249</v>
       </c>
-      <c r="BI69">
+      <c r="CC69">
         <v>397246</v>
       </c>
-      <c r="BJ69">
+      <c r="CD69">
         <v>46186</v>
       </c>
-      <c r="BK69">
+      <c r="CE69">
         <v>46337</v>
       </c>
-      <c r="BL69">
+      <c r="CF69">
         <v>46707</v>
       </c>
-      <c r="BM69">
+      <c r="CG69">
         <v>47538</v>
       </c>
-      <c r="BN69">
+      <c r="CH69">
         <v>22564</v>
       </c>
-      <c r="BO69">
+      <c r="CI69">
         <v>23666</v>
       </c>
-      <c r="BP69">
+      <c r="CJ69">
         <v>24045</v>
       </c>
-      <c r="BQ69">
+      <c r="CK69">
         <v>24489</v>
       </c>
-      <c r="BR69">
+      <c r="CL69">
         <v>43265</v>
       </c>
-      <c r="BS69">
+      <c r="CM69">
         <v>45263</v>
       </c>
-      <c r="BT69">
+      <c r="CN69">
         <v>44558</v>
       </c>
-      <c r="BU69">
+      <c r="CO69">
         <v>45517</v>
       </c>
     </row>
-    <row r="70" spans="3:73" x14ac:dyDescent="0.3">
+    <row r="70" spans="3:93" x14ac:dyDescent="0.3">
       <c r="C70">
         <v>9</v>
       </c>
@@ -64956,104 +65430,104 @@
       <c r="AF70" s="3">
         <v>39016</v>
       </c>
-      <c r="AG70">
+      <c r="AK70">
         <v>110715</v>
       </c>
-      <c r="AH70">
+      <c r="AL70">
         <v>40164</v>
       </c>
-      <c r="AI70">
+      <c r="AM70">
         <v>56801</v>
       </c>
-      <c r="AJ70">
+      <c r="AR70">
         <v>120152</v>
       </c>
-      <c r="AK70">
+      <c r="AS70">
         <v>47304</v>
       </c>
-      <c r="AL70">
+      <c r="AT70">
         <v>180255</v>
       </c>
-      <c r="AU70">
+      <c r="BO70">
         <v>629557</v>
       </c>
-      <c r="AV70">
+      <c r="BP70">
         <v>102554</v>
       </c>
-      <c r="AW70">
+      <c r="BQ70">
         <v>97943</v>
       </c>
-      <c r="AX70">
+      <c r="BR70">
         <v>87025</v>
       </c>
-      <c r="AY70">
+      <c r="BS70">
         <v>72670</v>
       </c>
-      <c r="AZ70">
+      <c r="BT70">
         <v>36854</v>
       </c>
-      <c r="BA70">
+      <c r="BU70">
         <v>37151</v>
       </c>
-      <c r="BB70">
+      <c r="BV70">
         <v>37087</v>
       </c>
-      <c r="BC70">
+      <c r="BW70">
         <v>44667</v>
       </c>
-      <c r="BD70">
+      <c r="BX70">
         <v>67064</v>
       </c>
-      <c r="BE70">
+      <c r="BY70">
         <v>76742</v>
       </c>
-      <c r="BF70">
+      <c r="BZ70">
         <v>67765</v>
       </c>
-      <c r="BG70">
+      <c r="CA70">
         <v>73733</v>
       </c>
-      <c r="BI70">
+      <c r="CC70">
         <v>629557</v>
       </c>
-      <c r="BJ70">
+      <c r="CD70">
         <v>103497</v>
       </c>
-      <c r="BK70">
+      <c r="CE70">
         <v>103306</v>
       </c>
-      <c r="BL70">
+      <c r="CF70">
         <v>103741</v>
       </c>
-      <c r="BM70">
+      <c r="CG70">
         <v>105863</v>
       </c>
-      <c r="BN70">
+      <c r="CH70">
         <v>37050</v>
       </c>
-      <c r="BO70">
+      <c r="CI70">
         <v>38606</v>
       </c>
-      <c r="BP70">
+      <c r="CJ70">
         <v>38564</v>
       </c>
-      <c r="BQ70">
+      <c r="CK70">
         <v>39860</v>
       </c>
-      <c r="BR70">
+      <c r="CL70">
         <v>68813</v>
       </c>
-      <c r="BS70">
+      <c r="CM70">
         <v>71375</v>
       </c>
-      <c r="BT70">
+      <c r="CN70">
         <v>69978</v>
       </c>
-      <c r="BU70">
+      <c r="CO70">
         <v>72542</v>
       </c>
     </row>
-    <row r="71" spans="3:73" x14ac:dyDescent="0.3">
+    <row r="71" spans="3:93" x14ac:dyDescent="0.3">
       <c r="C71">
         <v>10</v>
       </c>
@@ -65126,99 +65600,99 @@
       <c r="AF71" s="3">
         <v>68103</v>
       </c>
-      <c r="AG71">
+      <c r="AK71">
         <v>285107</v>
       </c>
-      <c r="AH71">
+      <c r="AL71">
         <v>71073</v>
       </c>
-      <c r="AI71">
+      <c r="AM71">
         <v>699793</v>
       </c>
-      <c r="AJ71">
+      <c r="AR71">
         <v>322256</v>
       </c>
-      <c r="AK71">
+      <c r="AS71">
         <v>98729</v>
       </c>
-      <c r="AL71" s="2"/>
-      <c r="AU71">
+      <c r="AT71" s="2"/>
+      <c r="BO71">
         <v>997775</v>
       </c>
-      <c r="AV71">
+      <c r="BP71">
         <v>238166</v>
       </c>
-      <c r="AW71">
+      <c r="BQ71">
         <v>227574</v>
       </c>
-      <c r="AX71">
+      <c r="BR71">
         <v>196663</v>
       </c>
-      <c r="AY71">
+      <c r="BS71">
         <v>171373</v>
       </c>
-      <c r="AZ71">
+      <c r="BT71">
         <v>78248</v>
       </c>
-      <c r="BA71">
+      <c r="BU71">
         <v>78507</v>
       </c>
-      <c r="BB71">
+      <c r="BV71">
         <v>77249</v>
       </c>
-      <c r="BC71">
+      <c r="BW71">
         <v>79138</v>
       </c>
-      <c r="BD71">
+      <c r="BX71">
         <v>1026247</v>
       </c>
-      <c r="BE71">
+      <c r="BY71">
         <v>464697</v>
       </c>
-      <c r="BF71">
+      <c r="BZ71">
         <v>877515</v>
       </c>
-      <c r="BG71">
+      <c r="CA71">
         <v>712077</v>
       </c>
-      <c r="BI71">
+      <c r="CC71">
         <v>997775</v>
       </c>
-      <c r="BJ71">
+      <c r="CD71">
         <v>239871</v>
       </c>
-      <c r="BK71">
+      <c r="CE71">
         <v>238142</v>
       </c>
-      <c r="BL71">
+      <c r="CF71">
         <v>240192</v>
       </c>
-      <c r="BM71">
+      <c r="CG71">
         <v>243746</v>
       </c>
-      <c r="BN71">
+      <c r="CH71">
         <v>79265</v>
       </c>
-      <c r="BO71">
+      <c r="CI71">
         <v>79438</v>
       </c>
-      <c r="BP71">
+      <c r="CJ71">
         <v>80125</v>
       </c>
-      <c r="BQ71">
+      <c r="CK71">
         <v>83248</v>
       </c>
-      <c r="BS71">
+      <c r="CM71">
         <v>658865</v>
       </c>
-      <c r="BT71">
+      <c r="CN71">
         <v>980347</v>
       </c>
-      <c r="BU71">
+      <c r="CO71">
         <v>552833</v>
       </c>
     </row>
-    <row r="72" spans="3:73" x14ac:dyDescent="0.3">
+    <row r="72" spans="3:93" x14ac:dyDescent="0.3">
       <c r="C72">
         <v>11</v>
       </c>
@@ -65253,7 +65727,7 @@
         <v>82837</v>
       </c>
     </row>
-    <row r="76" spans="3:73" x14ac:dyDescent="0.3">
+    <row r="76" spans="3:93" x14ac:dyDescent="0.3">
       <c r="AC76" t="str">
         <f>CONCATENATE("#",$AC$58," l=",AD59, " q=",AD60)</f>
         <v>#JoinMH l=1 q=1</v>
@@ -65267,31 +65741,31 @@
         <v>#JoinMH l=1 q=3</v>
       </c>
       <c r="AF76" t="str">
-        <f>CONCATENATE("#",$AC$58," l=",AG59, " q=",AG60)</f>
+        <f>CONCATENATE("#",$AC$58," l=",AK59, " q=",AK60)</f>
         <v>#JoinMH l=2 q=1</v>
-      </c>
-      <c r="AG76" t="str">
-        <f>CONCATENATE("#",$AC$58," l=",AH59, " q=",AH60)</f>
-        <v>#JoinMH l=2 q=2</v>
-      </c>
-      <c r="AH76" t="str">
-        <f>CONCATENATE("#",$AC$58," l=",AI59, " q=",AI60)</f>
-        <v>#JoinMH l=2 q=3</v>
-      </c>
-      <c r="AI76" t="str">
-        <f>CONCATENATE("#",$AC$58," l=",AJ59, " q=",AJ60)</f>
-        <v>#JoinMH l=3 q=1</v>
-      </c>
-      <c r="AJ76" t="str">
-        <f>CONCATENATE("#",$AC$58," l=",AK59, " q=",AK60)</f>
-        <v>#JoinMH l=3 q=2</v>
       </c>
       <c r="AK76" t="str">
         <f>CONCATENATE("#",$AC$58," l=",AL59, " q=",AL60)</f>
+        <v>#JoinMH l=2 q=2</v>
+      </c>
+      <c r="AL76" t="str">
+        <f>CONCATENATE("#",$AC$58," l=",AM59, " q=",AM60)</f>
+        <v>#JoinMH l=2 q=3</v>
+      </c>
+      <c r="AM76" t="str">
+        <f>CONCATENATE("#",$AC$58," l=",AR59, " q=",AR60)</f>
+        <v>#JoinMH l=3 q=1</v>
+      </c>
+      <c r="AR76" t="str">
+        <f>CONCATENATE("#",$AC$58," l=",AS59, " q=",AS60)</f>
+        <v>#JoinMH l=3 q=2</v>
+      </c>
+      <c r="AS76" t="str">
+        <f>CONCATENATE("#",$AC$58," l=",AT59, " q=",AT60)</f>
         <v>#JoinMH l=3 q=3</v>
       </c>
     </row>
-    <row r="77" spans="3:73" x14ac:dyDescent="0.3">
+    <row r="77" spans="3:93" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
         <v>60</v>
       </c>
@@ -65305,7 +65779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="3:73" x14ac:dyDescent="0.3">
+    <row r="78" spans="3:93" x14ac:dyDescent="0.3">
       <c r="C78">
         <v>10000</v>
       </c>
@@ -65321,7 +65795,7 @@
         <v>2.3620000000000001</v>
       </c>
     </row>
-    <row r="79" spans="3:73" x14ac:dyDescent="0.3">
+    <row r="79" spans="3:93" x14ac:dyDescent="0.3">
       <c r="C79">
         <v>15848</v>
       </c>
@@ -65337,7 +65811,7 @@
         <v>2.8410000000000002</v>
       </c>
     </row>
-    <row r="80" spans="3:73" x14ac:dyDescent="0.3">
+    <row r="80" spans="3:93" x14ac:dyDescent="0.3">
       <c r="C80">
         <v>25118</v>
       </c>
@@ -66727,7 +67201,7 @@
         <v>10000</v>
       </c>
       <c r="AD125">
-        <f>AG47/1000</f>
+        <f>AK47/1000</f>
         <v>1.3140000000000001</v>
       </c>
     </row>
@@ -66750,7 +67224,7 @@
         <v>15820</v>
       </c>
       <c r="AD126">
-        <f t="shared" ref="AD126:AD135" si="19">AG48/1000</f>
+        <f t="shared" ref="AD126:AD135" si="19">AK48/1000</f>
         <v>1.4770000000000001</v>
       </c>
     </row>
@@ -67001,7 +67475,7 @@
         <v>10000</v>
       </c>
       <c r="AD139">
-        <f>AH47/1000</f>
+        <f>AL47/1000</f>
         <v>1.355</v>
       </c>
     </row>
@@ -67024,7 +67498,7 @@
         <v>15820</v>
       </c>
       <c r="AD140">
-        <f t="shared" ref="AD140:AD149" si="22">AH48/1000</f>
+        <f t="shared" ref="AD140:AD149" si="22">AL48/1000</f>
         <v>1.488</v>
       </c>
     </row>
@@ -67175,7 +67649,7 @@
         <v>10000</v>
       </c>
       <c r="AD153">
-        <f>AI47/1000</f>
+        <f>AM47/1000</f>
         <v>1.3720000000000001</v>
       </c>
     </row>
@@ -67184,7 +67658,7 @@
         <v>15820</v>
       </c>
       <c r="AD154">
-        <f t="shared" ref="AD154:AD163" si="23">AI48/1000</f>
+        <f t="shared" ref="AD154:AD163" si="23">AM48/1000</f>
         <v>1.694</v>
       </c>
     </row>
@@ -67279,7 +67753,7 @@
         <v>10000</v>
       </c>
       <c r="AD167">
-        <f>AJ47/1000</f>
+        <f>AR47/1000</f>
         <v>1.4339999999999999</v>
       </c>
     </row>
@@ -67288,7 +67762,7 @@
         <v>15820</v>
       </c>
       <c r="AD168">
-        <f t="shared" ref="AD168:AD177" si="24">AJ48/1000</f>
+        <f t="shared" ref="AD168:AD177" si="24">AR48/1000</f>
         <v>1.482</v>
       </c>
     </row>
@@ -67383,7 +67857,7 @@
         <v>10000</v>
       </c>
       <c r="AD181">
-        <f>AK47/1000</f>
+        <f>AS47/1000</f>
         <v>1.32</v>
       </c>
     </row>
@@ -67392,7 +67866,7 @@
         <v>15820</v>
       </c>
       <c r="AD182">
-        <f t="shared" ref="AD182:AD191" si="25">AK48/1000</f>
+        <f t="shared" ref="AD182:AD191" si="25">AS48/1000</f>
         <v>1.647</v>
       </c>
     </row>
@@ -67487,7 +67961,7 @@
         <v>10000</v>
       </c>
       <c r="AD195">
-        <f>AL47/1000</f>
+        <f>AT47/1000</f>
         <v>1.762</v>
       </c>
     </row>
@@ -67496,7 +67970,7 @@
         <v>15820</v>
       </c>
       <c r="AD196">
-        <f t="shared" ref="AD196:AD205" si="26">AL48/1000</f>
+        <f t="shared" ref="AD196:AD205" si="26">AT48/1000</f>
         <v>1.716</v>
       </c>
     </row>
